--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20036A6-2EE8-40D7-BA8F-5D1A5F0BAAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D4E133-590D-4D09-AAFE-1CA8B0B6A6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="414">
   <si>
     <t>id</t>
   </si>
@@ -1488,6 +1488,44 @@
   <si>
     <t>비전 전수 1급 달성 시 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SealSwordSkill0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>도술 31단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 32단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 33단계</t>
+  </si>
+  <si>
+    <t>도술 34단계</t>
+  </si>
+  <si>
+    <t>도술 35단계</t>
+  </si>
+  <si>
+    <t>도술 36단계</t>
+  </si>
+  <si>
+    <t>도술 37단계</t>
+  </si>
+  <si>
+    <t>도술 38단계</t>
+  </si>
+  <si>
+    <t>도술 39단계</t>
+  </si>
+  <si>
+    <t>도술 40단계</t>
   </si>
 </sst>
 </file>
@@ -2148,12 +2186,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW144"/>
+  <dimension ref="A1:AW158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AV144" sqref="AV144"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2167,7 +2205,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" customWidth="1"/>
@@ -23189,6 +23227,2050 @@
       </c>
       <c r="AW144" t="s">
         <v>400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:48">
+      <c r="A145" s="16">
+        <v>143</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C145" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E145" s="28">
+        <v>36</v>
+      </c>
+      <c r="F145" s="24">
+        <v>1</v>
+      </c>
+      <c r="G145" s="24">
+        <v>0</v>
+      </c>
+      <c r="H145" s="24">
+        <v>0</v>
+      </c>
+      <c r="I145" s="24">
+        <v>0</v>
+      </c>
+      <c r="J145" s="24">
+        <v>150000000000</v>
+      </c>
+      <c r="K145" s="24">
+        <v>0</v>
+      </c>
+      <c r="L145" s="24">
+        <v>100</v>
+      </c>
+      <c r="M145" s="24">
+        <v>1</v>
+      </c>
+      <c r="N145" s="24">
+        <v>2</v>
+      </c>
+      <c r="O145" s="25">
+        <v>100</v>
+      </c>
+      <c r="P145" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>4</v>
+      </c>
+      <c r="R145" s="6">
+        <v>10</v>
+      </c>
+      <c r="S145" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T145" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="U145" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V145" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W145" s="6">
+        <v>0</v>
+      </c>
+      <c r="X145" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y145" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI145" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ145" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK145" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL145" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM145" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN145" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO145" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP145" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ145" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR145" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS145" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT145" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU145" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV145" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:48">
+      <c r="A146" s="16">
+        <v>144</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C146" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E146" s="28">
+        <v>36</v>
+      </c>
+      <c r="F146" s="24">
+        <v>1</v>
+      </c>
+      <c r="G146" s="24">
+        <v>0</v>
+      </c>
+      <c r="H146" s="24">
+        <v>0</v>
+      </c>
+      <c r="I146" s="24">
+        <v>0</v>
+      </c>
+      <c r="J146" s="24">
+        <v>250000000000</v>
+      </c>
+      <c r="K146" s="24">
+        <v>0</v>
+      </c>
+      <c r="L146" s="24">
+        <v>100</v>
+      </c>
+      <c r="M146" s="24">
+        <v>1</v>
+      </c>
+      <c r="N146" s="24">
+        <v>2</v>
+      </c>
+      <c r="O146" s="25">
+        <v>100</v>
+      </c>
+      <c r="P146" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>4</v>
+      </c>
+      <c r="R146" s="6">
+        <v>10</v>
+      </c>
+      <c r="S146" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T146" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="U146" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V146" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W146" s="6">
+        <v>0</v>
+      </c>
+      <c r="X146" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y146" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ146" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK146" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL146" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM146" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN146" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO146" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP146" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ146" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR146" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS146" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT146" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU146" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV146" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:48">
+      <c r="A147" s="16">
+        <v>145</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E147" s="28">
+        <v>36</v>
+      </c>
+      <c r="F147" s="24">
+        <v>1</v>
+      </c>
+      <c r="G147" s="24">
+        <v>0</v>
+      </c>
+      <c r="H147" s="24">
+        <v>0</v>
+      </c>
+      <c r="I147" s="24">
+        <v>0</v>
+      </c>
+      <c r="J147" s="24">
+        <v>350000000000</v>
+      </c>
+      <c r="K147" s="24">
+        <v>0</v>
+      </c>
+      <c r="L147" s="24">
+        <v>100</v>
+      </c>
+      <c r="M147" s="24">
+        <v>1</v>
+      </c>
+      <c r="N147" s="24">
+        <v>2</v>
+      </c>
+      <c r="O147" s="25">
+        <v>100</v>
+      </c>
+      <c r="P147" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>4</v>
+      </c>
+      <c r="R147" s="6">
+        <v>10</v>
+      </c>
+      <c r="S147" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T147" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="U147" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V147" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="W147" s="6">
+        <v>0</v>
+      </c>
+      <c r="X147" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y147" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ147" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK147" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL147" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM147" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN147" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO147" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP147" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ147" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR147" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS147" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT147" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU147" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV147" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:48">
+      <c r="A148" s="16">
+        <v>146</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C148" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E148" s="28">
+        <v>36</v>
+      </c>
+      <c r="F148" s="24">
+        <v>1</v>
+      </c>
+      <c r="G148" s="24">
+        <v>0</v>
+      </c>
+      <c r="H148" s="24">
+        <v>0</v>
+      </c>
+      <c r="I148" s="24">
+        <v>0</v>
+      </c>
+      <c r="J148" s="24">
+        <v>450000000000</v>
+      </c>
+      <c r="K148" s="24">
+        <v>0</v>
+      </c>
+      <c r="L148" s="24">
+        <v>100</v>
+      </c>
+      <c r="M148" s="24">
+        <v>1</v>
+      </c>
+      <c r="N148" s="24">
+        <v>2</v>
+      </c>
+      <c r="O148" s="25">
+        <v>100</v>
+      </c>
+      <c r="P148" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q148" s="6">
+        <v>4</v>
+      </c>
+      <c r="R148" s="6">
+        <v>10</v>
+      </c>
+      <c r="S148" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T148" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="U148" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V148" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="W148" s="6">
+        <v>0</v>
+      </c>
+      <c r="X148" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y148" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI148" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ148" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK148" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL148" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM148" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN148" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO148" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP148" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ148" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR148" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS148" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT148" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU148" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV148" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:48" s="2" customFormat="1">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E149" s="36">
+        <v>36</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3">
+        <v>5</v>
+      </c>
+      <c r="I149" s="3">
+        <v>0</v>
+      </c>
+      <c r="J149" s="37">
+        <v>75000000000</v>
+      </c>
+      <c r="K149" s="3">
+        <v>0</v>
+      </c>
+      <c r="L149" s="3">
+        <v>500</v>
+      </c>
+      <c r="M149" s="3">
+        <v>1</v>
+      </c>
+      <c r="N149" s="3">
+        <v>2</v>
+      </c>
+      <c r="O149" s="4">
+        <v>100</v>
+      </c>
+      <c r="P149" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q149" s="2">
+        <v>4</v>
+      </c>
+      <c r="R149" s="2">
+        <v>10</v>
+      </c>
+      <c r="S149" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U149" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V149" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W149" s="2">
+        <v>0</v>
+      </c>
+      <c r="X149" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y149" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI149" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK149" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL149" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN149" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO149" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP149" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ149" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR149" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS149" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT149" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU149" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:48" s="2" customFormat="1">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E150" s="36">
+        <v>36</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3">
+        <v>5</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0</v>
+      </c>
+      <c r="J150" s="37">
+        <v>80000000000</v>
+      </c>
+      <c r="K150" s="3">
+        <v>0</v>
+      </c>
+      <c r="L150" s="3">
+        <v>500</v>
+      </c>
+      <c r="M150" s="3">
+        <v>1</v>
+      </c>
+      <c r="N150" s="3">
+        <v>2</v>
+      </c>
+      <c r="O150" s="4">
+        <v>100</v>
+      </c>
+      <c r="P150" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q150" s="2">
+        <v>4</v>
+      </c>
+      <c r="R150" s="2">
+        <v>10</v>
+      </c>
+      <c r="S150" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U150" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V150" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W150" s="2">
+        <v>0</v>
+      </c>
+      <c r="X150" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y150" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI150" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK150" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL150" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN150" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO150" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP150" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ150" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR150" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS150" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT150" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU150" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:48">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C151" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E151" s="36">
+        <v>36</v>
+      </c>
+      <c r="F151" s="3">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="3">
+        <v>5</v>
+      </c>
+      <c r="I151" s="3">
+        <v>0</v>
+      </c>
+      <c r="J151" s="37">
+        <v>85000000000</v>
+      </c>
+      <c r="K151" s="3">
+        <v>0</v>
+      </c>
+      <c r="L151" s="3">
+        <v>500</v>
+      </c>
+      <c r="M151" s="3">
+        <v>1</v>
+      </c>
+      <c r="N151" s="3">
+        <v>2</v>
+      </c>
+      <c r="O151" s="4">
+        <v>100</v>
+      </c>
+      <c r="P151" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>4</v>
+      </c>
+      <c r="R151" s="2">
+        <v>10</v>
+      </c>
+      <c r="S151" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U151" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V151" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W151" s="2">
+        <v>0</v>
+      </c>
+      <c r="X151" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y151" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI151" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK151" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL151" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN151" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO151" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP151" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ151" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR151" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS151" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT151" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU151" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:48">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E152" s="36">
+        <v>36</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="3">
+        <v>5</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0</v>
+      </c>
+      <c r="J152" s="37">
+        <v>90000000000</v>
+      </c>
+      <c r="K152" s="3">
+        <v>0</v>
+      </c>
+      <c r="L152" s="3">
+        <v>500</v>
+      </c>
+      <c r="M152" s="3">
+        <v>1</v>
+      </c>
+      <c r="N152" s="3">
+        <v>2</v>
+      </c>
+      <c r="O152" s="4">
+        <v>100</v>
+      </c>
+      <c r="P152" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>4</v>
+      </c>
+      <c r="R152" s="2">
+        <v>10</v>
+      </c>
+      <c r="S152" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U152" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V152" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W152" s="2">
+        <v>0</v>
+      </c>
+      <c r="X152" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y152" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI152" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK152" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL152" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN152" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO152" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP152" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ152" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR152" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS152" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT152" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU152" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:48">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C153" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E153" s="36">
+        <v>36</v>
+      </c>
+      <c r="F153" s="3">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="3">
+        <v>5</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0</v>
+      </c>
+      <c r="J153" s="37">
+        <v>95000000000</v>
+      </c>
+      <c r="K153" s="3">
+        <v>0</v>
+      </c>
+      <c r="L153" s="3">
+        <v>500</v>
+      </c>
+      <c r="M153" s="3">
+        <v>1</v>
+      </c>
+      <c r="N153" s="3">
+        <v>2</v>
+      </c>
+      <c r="O153" s="4">
+        <v>100</v>
+      </c>
+      <c r="P153" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q153" s="2">
+        <v>4</v>
+      </c>
+      <c r="R153" s="2">
+        <v>10</v>
+      </c>
+      <c r="S153" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U153" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V153" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W153" s="2">
+        <v>0</v>
+      </c>
+      <c r="X153" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y153" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI153" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK153" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL153" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN153" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO153" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP153" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ153" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR153" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS153" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT153" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU153" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:48">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C154" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E154" s="36">
+        <v>36</v>
+      </c>
+      <c r="F154" s="3">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0</v>
+      </c>
+      <c r="H154" s="3">
+        <v>5</v>
+      </c>
+      <c r="I154" s="3">
+        <v>0</v>
+      </c>
+      <c r="J154" s="37">
+        <v>100000000000</v>
+      </c>
+      <c r="K154" s="3">
+        <v>0</v>
+      </c>
+      <c r="L154" s="3">
+        <v>500</v>
+      </c>
+      <c r="M154" s="3">
+        <v>1</v>
+      </c>
+      <c r="N154" s="3">
+        <v>2</v>
+      </c>
+      <c r="O154" s="4">
+        <v>100</v>
+      </c>
+      <c r="P154" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q154" s="2">
+        <v>4</v>
+      </c>
+      <c r="R154" s="2">
+        <v>10</v>
+      </c>
+      <c r="S154" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U154" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V154" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W154" s="2">
+        <v>0</v>
+      </c>
+      <c r="X154" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y154" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI154" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK154" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL154" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN154" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO154" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP154" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ154" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR154" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS154" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT154" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU154" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:48">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E155" s="36">
+        <v>36</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3">
+        <v>5</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0</v>
+      </c>
+      <c r="J155" s="37">
+        <v>105000000000</v>
+      </c>
+      <c r="K155" s="3">
+        <v>0</v>
+      </c>
+      <c r="L155" s="3">
+        <v>500</v>
+      </c>
+      <c r="M155" s="3">
+        <v>1</v>
+      </c>
+      <c r="N155" s="3">
+        <v>2</v>
+      </c>
+      <c r="O155" s="4">
+        <v>100</v>
+      </c>
+      <c r="P155" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q155" s="2">
+        <v>4</v>
+      </c>
+      <c r="R155" s="2">
+        <v>10</v>
+      </c>
+      <c r="S155" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U155" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V155" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W155" s="2">
+        <v>0</v>
+      </c>
+      <c r="X155" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y155" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI155" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK155" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL155" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN155" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO155" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP155" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ155" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR155" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS155" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT155" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU155" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:48">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E156" s="36">
+        <v>36</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="3">
+        <v>5</v>
+      </c>
+      <c r="I156" s="3">
+        <v>0</v>
+      </c>
+      <c r="J156" s="37">
+        <v>110000000000</v>
+      </c>
+      <c r="K156" s="3">
+        <v>0</v>
+      </c>
+      <c r="L156" s="3">
+        <v>500</v>
+      </c>
+      <c r="M156" s="3">
+        <v>1</v>
+      </c>
+      <c r="N156" s="3">
+        <v>2</v>
+      </c>
+      <c r="O156" s="4">
+        <v>100</v>
+      </c>
+      <c r="P156" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q156" s="2">
+        <v>4</v>
+      </c>
+      <c r="R156" s="2">
+        <v>10</v>
+      </c>
+      <c r="S156" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U156" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V156" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W156" s="2">
+        <v>0</v>
+      </c>
+      <c r="X156" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y156" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI156" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ156" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK156" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL156" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN156" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO156" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP156" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ156" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR156" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS156" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT156" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU156" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:48">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E157" s="36">
+        <v>36</v>
+      </c>
+      <c r="F157" s="3">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="3">
+        <v>5</v>
+      </c>
+      <c r="I157" s="3">
+        <v>0</v>
+      </c>
+      <c r="J157" s="37">
+        <v>115000000000</v>
+      </c>
+      <c r="K157" s="3">
+        <v>0</v>
+      </c>
+      <c r="L157" s="3">
+        <v>500</v>
+      </c>
+      <c r="M157" s="3">
+        <v>1</v>
+      </c>
+      <c r="N157" s="3">
+        <v>2</v>
+      </c>
+      <c r="O157" s="4">
+        <v>100</v>
+      </c>
+      <c r="P157" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>4</v>
+      </c>
+      <c r="R157" s="2">
+        <v>10</v>
+      </c>
+      <c r="S157" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U157" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V157" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W157" s="2">
+        <v>0</v>
+      </c>
+      <c r="X157" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y157" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI157" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK157" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL157" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN157" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO157" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP157" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ157" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR157" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS157" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT157" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU157" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:48">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E158" s="36">
+        <v>36</v>
+      </c>
+      <c r="F158" s="3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="3">
+        <v>5</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0</v>
+      </c>
+      <c r="J158" s="37">
+        <v>120000000000</v>
+      </c>
+      <c r="K158" s="3">
+        <v>0</v>
+      </c>
+      <c r="L158" s="3">
+        <v>500</v>
+      </c>
+      <c r="M158" s="3">
+        <v>1</v>
+      </c>
+      <c r="N158" s="3">
+        <v>2</v>
+      </c>
+      <c r="O158" s="4">
+        <v>100</v>
+      </c>
+      <c r="P158" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q158" s="2">
+        <v>4</v>
+      </c>
+      <c r="R158" s="2">
+        <v>10</v>
+      </c>
+      <c r="S158" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U158" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V158" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W158" s="2">
+        <v>0</v>
+      </c>
+      <c r="X158" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y158" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI158" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK158" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL158" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN158" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO158" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP158" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ158" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR158" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS158" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT158" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU158" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV158" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D4E133-590D-4D09-AAFE-1CA8B0B6A6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96639F14-5C93-46DB-BD21-06A96E4D226F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="420">
   <si>
     <t>id</t>
   </si>
@@ -1526,6 +1526,26 @@
   </si>
   <si>
     <t>도술 40단계</t>
+  </si>
+  <si>
+    <t>VisionSkill8</t>
+  </si>
+  <si>
+    <t>비전검 9형</t>
+  </si>
+  <si>
+    <t>VisionSkill9</t>
+  </si>
+  <si>
+    <t>비전검 10형</t>
+  </si>
+  <si>
+    <t>수인전 - 견왕에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인전 - 묘왕에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2186,12 +2206,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW158"/>
+  <dimension ref="A1:AW160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
+      <selection pane="bottomLeft" activeCell="J161" sqref="J161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23229,7 +23249,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:48">
+    <row r="145" spans="1:49">
       <c r="A145" s="16">
         <v>143</v>
       </c>
@@ -23375,7 +23395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:48">
+    <row r="146" spans="1:49">
       <c r="A146" s="16">
         <v>144</v>
       </c>
@@ -23521,7 +23541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:48">
+    <row r="147" spans="1:49">
       <c r="A147" s="16">
         <v>145</v>
       </c>
@@ -23550,7 +23570,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="24">
-        <v>350000000000</v>
+        <v>450000000000</v>
       </c>
       <c r="K147" s="24">
         <v>0</v>
@@ -23667,7 +23687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:48">
+    <row r="148" spans="1:49">
       <c r="A148" s="16">
         <v>146</v>
       </c>
@@ -23696,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="24">
-        <v>450000000000</v>
+        <v>700000000000</v>
       </c>
       <c r="K148" s="24">
         <v>0</v>
@@ -23813,7 +23833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:48" s="2" customFormat="1">
+    <row r="149" spans="1:49" s="2" customFormat="1">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -23959,7 +23979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:48" s="2" customFormat="1">
+    <row r="150" spans="1:49" s="2" customFormat="1">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -24105,7 +24125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:48">
+    <row r="151" spans="1:49">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -24251,7 +24271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:48">
+    <row r="152" spans="1:49">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -24397,7 +24417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:48">
+    <row r="153" spans="1:49">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -24543,7 +24563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:48">
+    <row r="154" spans="1:49">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -24689,7 +24709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:48">
+    <row r="155" spans="1:49">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -24835,7 +24855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:48">
+    <row r="156" spans="1:49">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -24981,7 +25001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:48">
+    <row r="157" spans="1:49">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -25127,7 +25147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:48">
+    <row r="158" spans="1:49">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -25271,6 +25291,304 @@
       </c>
       <c r="AV158" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:49">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E159" s="18">
+        <v>63</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="3">
+        <v>2</v>
+      </c>
+      <c r="I159" s="3">
+        <v>0</v>
+      </c>
+      <c r="J159" s="3">
+        <v>30000000000</v>
+      </c>
+      <c r="K159" s="3">
+        <v>0</v>
+      </c>
+      <c r="L159" s="3">
+        <v>100</v>
+      </c>
+      <c r="M159" s="3">
+        <v>9</v>
+      </c>
+      <c r="N159" s="3">
+        <v>2</v>
+      </c>
+      <c r="O159" s="4">
+        <v>100</v>
+      </c>
+      <c r="P159" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q159" s="17">
+        <v>4</v>
+      </c>
+      <c r="R159" s="17">
+        <v>10</v>
+      </c>
+      <c r="S159" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T159" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="U159" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V159" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W159" s="17">
+        <v>0</v>
+      </c>
+      <c r="X159" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y159" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI159" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK159" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL159" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM159" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN159" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO159" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP159" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ159" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR159" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS159" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT159" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU159" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV159" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW159" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="160" spans="1:49">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E160" s="18">
+        <v>64</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="3">
+        <v>2</v>
+      </c>
+      <c r="I160" s="3">
+        <v>0</v>
+      </c>
+      <c r="J160" s="3">
+        <v>50000000000</v>
+      </c>
+      <c r="K160" s="3">
+        <v>0</v>
+      </c>
+      <c r="L160" s="3">
+        <v>100</v>
+      </c>
+      <c r="M160" s="3">
+        <v>9</v>
+      </c>
+      <c r="N160" s="3">
+        <v>2</v>
+      </c>
+      <c r="O160" s="4">
+        <v>100</v>
+      </c>
+      <c r="P160" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q160" s="17">
+        <v>4</v>
+      </c>
+      <c r="R160" s="17">
+        <v>10</v>
+      </c>
+      <c r="S160" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T160" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="U160" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V160" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W160" s="17">
+        <v>0</v>
+      </c>
+      <c r="X160" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y160" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI160" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK160" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL160" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM160" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN160" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO160" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP160" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ160" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR160" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS160" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT160" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU160" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV160" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW160" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96639F14-5C93-46DB-BD21-06A96E4D226F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DBCE00-3B86-4DFA-A8C4-B082A55629E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="38430" windowHeight="10500" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="436">
   <si>
     <t>id</t>
   </si>
@@ -1545,6 +1545,58 @@
   </si>
   <si>
     <t>수인전 - 묘왕에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisionSkill10</t>
+  </si>
+  <si>
+    <t>비전검 11형</t>
+  </si>
+  <si>
+    <t>VisionSkill11</t>
+  </si>
+  <si>
+    <t>비전검 12형</t>
+  </si>
+  <si>
+    <t>도술 41단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 42단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 43단계</t>
+  </si>
+  <si>
+    <t>도술 44단계</t>
+  </si>
+  <si>
+    <t>도술 45단계</t>
+  </si>
+  <si>
+    <t>도술 46단계</t>
+  </si>
+  <si>
+    <t>도술 47단계</t>
+  </si>
+  <si>
+    <t>도술 48단계</t>
+  </si>
+  <si>
+    <t>도술 49단계</t>
+  </si>
+  <si>
+    <t>도술 50단계</t>
+  </si>
+  <si>
+    <t>수인전 - 호왕에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인전 - 범왕에서 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2206,12 +2258,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW160"/>
+  <dimension ref="A1:AW173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="J161" sqref="J161"/>
+      <selection pane="bottomLeft" activeCell="K177" sqref="K177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23862,7 +23914,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="37">
-        <v>75000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="K149" s="3">
         <v>0</v>
@@ -24008,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="37">
-        <v>80000000000</v>
+        <v>90000000000</v>
       </c>
       <c r="K150" s="3">
         <v>0</v>
@@ -24154,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="37">
-        <v>85000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="K151" s="3">
         <v>0</v>
@@ -24300,7 +24352,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="37">
-        <v>90000000000</v>
+        <v>110000000000</v>
       </c>
       <c r="K152" s="3">
         <v>0</v>
@@ -24446,7 +24498,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="37">
-        <v>95000000000</v>
+        <v>120000000000</v>
       </c>
       <c r="K153" s="3">
         <v>0</v>
@@ -24592,7 +24644,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="37">
-        <v>100000000000</v>
+        <v>130000000000</v>
       </c>
       <c r="K154" s="3">
         <v>0</v>
@@ -24738,7 +24790,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="37">
-        <v>105000000000</v>
+        <v>140000000000</v>
       </c>
       <c r="K155" s="3">
         <v>0</v>
@@ -24884,7 +24936,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="37">
-        <v>110000000000</v>
+        <v>150000000000</v>
       </c>
       <c r="K156" s="3">
         <v>0</v>
@@ -25030,7 +25082,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="37">
-        <v>115000000000</v>
+        <v>160000000000</v>
       </c>
       <c r="K157" s="3">
         <v>0</v>
@@ -25176,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="37">
-        <v>120000000000</v>
+        <v>170000000000</v>
       </c>
       <c r="K158" s="3">
         <v>0</v>
@@ -25589,6 +25641,1910 @@
       </c>
       <c r="AW160" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="161" spans="1:49">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E161" s="18">
+        <v>65</v>
+      </c>
+      <c r="F161" s="3">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>2</v>
+      </c>
+      <c r="I161" s="3">
+        <v>0</v>
+      </c>
+      <c r="J161" s="3">
+        <v>70000000000</v>
+      </c>
+      <c r="K161" s="3">
+        <v>0</v>
+      </c>
+      <c r="L161" s="3">
+        <v>100</v>
+      </c>
+      <c r="M161" s="3">
+        <v>9</v>
+      </c>
+      <c r="N161" s="3">
+        <v>2</v>
+      </c>
+      <c r="O161" s="4">
+        <v>100</v>
+      </c>
+      <c r="P161" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q161" s="17">
+        <v>4</v>
+      </c>
+      <c r="R161" s="17">
+        <v>10</v>
+      </c>
+      <c r="S161" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T161" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="U161" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V161" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W161" s="17">
+        <v>0</v>
+      </c>
+      <c r="X161" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y161" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI161" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK161" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL161" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM161" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN161" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO161" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP161" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ161" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR161" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS161" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT161" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU161" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV161" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW161" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="162" spans="1:49">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E162" s="18">
+        <v>66</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="3">
+        <v>2</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0</v>
+      </c>
+      <c r="J162" s="3">
+        <v>90000000000</v>
+      </c>
+      <c r="K162" s="3">
+        <v>0</v>
+      </c>
+      <c r="L162" s="3">
+        <v>100</v>
+      </c>
+      <c r="M162" s="3">
+        <v>9</v>
+      </c>
+      <c r="N162" s="3">
+        <v>2</v>
+      </c>
+      <c r="O162" s="4">
+        <v>100</v>
+      </c>
+      <c r="P162" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q162" s="17">
+        <v>4</v>
+      </c>
+      <c r="R162" s="17">
+        <v>10</v>
+      </c>
+      <c r="S162" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T162" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="U162" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V162" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W162" s="17">
+        <v>0</v>
+      </c>
+      <c r="X162" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y162" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI162" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK162" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL162" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM162" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN162" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO162" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP162" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ162" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR162" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS162" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT162" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU162" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV162" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW162" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="163" spans="1:49" s="2" customFormat="1">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E163" s="36">
+        <v>36</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3">
+        <v>5</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0</v>
+      </c>
+      <c r="J163" s="37">
+        <v>180000000000</v>
+      </c>
+      <c r="K163" s="3">
+        <v>0</v>
+      </c>
+      <c r="L163" s="3">
+        <v>500</v>
+      </c>
+      <c r="M163" s="3">
+        <v>1</v>
+      </c>
+      <c r="N163" s="3">
+        <v>2</v>
+      </c>
+      <c r="O163" s="4">
+        <v>100</v>
+      </c>
+      <c r="P163" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q163" s="2">
+        <v>4</v>
+      </c>
+      <c r="R163" s="2">
+        <v>10</v>
+      </c>
+      <c r="S163" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T163" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U163" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V163" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W163" s="2">
+        <v>0</v>
+      </c>
+      <c r="X163" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y163" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI163" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK163" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL163" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN163" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO163" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP163" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ163" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR163" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS163" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT163" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU163" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:49" s="2" customFormat="1">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E164" s="36">
+        <v>36</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="3">
+        <v>5</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0</v>
+      </c>
+      <c r="J164" s="37">
+        <v>190000000000</v>
+      </c>
+      <c r="K164" s="3">
+        <v>0</v>
+      </c>
+      <c r="L164" s="3">
+        <v>500</v>
+      </c>
+      <c r="M164" s="3">
+        <v>1</v>
+      </c>
+      <c r="N164" s="3">
+        <v>2</v>
+      </c>
+      <c r="O164" s="4">
+        <v>100</v>
+      </c>
+      <c r="P164" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q164" s="2">
+        <v>4</v>
+      </c>
+      <c r="R164" s="2">
+        <v>10</v>
+      </c>
+      <c r="S164" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T164" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U164" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V164" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W164" s="2">
+        <v>0</v>
+      </c>
+      <c r="X164" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y164" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI164" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ164" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK164" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL164" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN164" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO164" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP164" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ164" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR164" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS164" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT164" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU164" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:49" s="2" customFormat="1">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E165" s="36">
+        <v>36</v>
+      </c>
+      <c r="F165" s="3">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="3">
+        <v>5</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0</v>
+      </c>
+      <c r="J165" s="37">
+        <v>200000000000</v>
+      </c>
+      <c r="K165" s="3">
+        <v>0</v>
+      </c>
+      <c r="L165" s="3">
+        <v>500</v>
+      </c>
+      <c r="M165" s="3">
+        <v>1</v>
+      </c>
+      <c r="N165" s="3">
+        <v>2</v>
+      </c>
+      <c r="O165" s="4">
+        <v>100</v>
+      </c>
+      <c r="P165" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q165" s="2">
+        <v>4</v>
+      </c>
+      <c r="R165" s="2">
+        <v>10</v>
+      </c>
+      <c r="S165" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T165" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U165" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V165" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W165" s="2">
+        <v>0</v>
+      </c>
+      <c r="X165" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y165" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI165" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ165" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK165" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL165" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN165" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO165" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP165" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ165" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR165" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS165" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT165" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU165" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:49" s="2" customFormat="1">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C166" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E166" s="36">
+        <v>36</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="3">
+        <v>5</v>
+      </c>
+      <c r="I166" s="3">
+        <v>0</v>
+      </c>
+      <c r="J166" s="37">
+        <v>210000000000</v>
+      </c>
+      <c r="K166" s="3">
+        <v>0</v>
+      </c>
+      <c r="L166" s="3">
+        <v>500</v>
+      </c>
+      <c r="M166" s="3">
+        <v>1</v>
+      </c>
+      <c r="N166" s="3">
+        <v>2</v>
+      </c>
+      <c r="O166" s="4">
+        <v>100</v>
+      </c>
+      <c r="P166" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q166" s="2">
+        <v>4</v>
+      </c>
+      <c r="R166" s="2">
+        <v>10</v>
+      </c>
+      <c r="S166" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T166" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U166" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V166" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W166" s="2">
+        <v>0</v>
+      </c>
+      <c r="X166" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y166" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ166" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK166" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL166" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN166" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO166" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP166" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ166" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR166" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS166" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT166" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU166" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:49" s="2" customFormat="1">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E167" s="36">
+        <v>36</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="3">
+        <v>5</v>
+      </c>
+      <c r="I167" s="3">
+        <v>0</v>
+      </c>
+      <c r="J167" s="37">
+        <v>220000000000</v>
+      </c>
+      <c r="K167" s="3">
+        <v>0</v>
+      </c>
+      <c r="L167" s="3">
+        <v>500</v>
+      </c>
+      <c r="M167" s="3">
+        <v>1</v>
+      </c>
+      <c r="N167" s="3">
+        <v>2</v>
+      </c>
+      <c r="O167" s="4">
+        <v>100</v>
+      </c>
+      <c r="P167" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q167" s="2">
+        <v>4</v>
+      </c>
+      <c r="R167" s="2">
+        <v>10</v>
+      </c>
+      <c r="S167" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T167" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U167" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V167" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W167" s="2">
+        <v>0</v>
+      </c>
+      <c r="X167" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y167" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI167" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ167" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK167" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL167" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN167" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO167" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP167" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ167" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR167" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS167" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT167" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU167" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:49" s="2" customFormat="1">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C168" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E168" s="36">
+        <v>36</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="3">
+        <v>5</v>
+      </c>
+      <c r="I168" s="3">
+        <v>0</v>
+      </c>
+      <c r="J168" s="37">
+        <v>230000000000</v>
+      </c>
+      <c r="K168" s="3">
+        <v>0</v>
+      </c>
+      <c r="L168" s="3">
+        <v>500</v>
+      </c>
+      <c r="M168" s="3">
+        <v>1</v>
+      </c>
+      <c r="N168" s="3">
+        <v>2</v>
+      </c>
+      <c r="O168" s="4">
+        <v>100</v>
+      </c>
+      <c r="P168" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q168" s="2">
+        <v>4</v>
+      </c>
+      <c r="R168" s="2">
+        <v>10</v>
+      </c>
+      <c r="S168" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T168" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U168" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V168" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W168" s="2">
+        <v>0</v>
+      </c>
+      <c r="X168" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y168" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI168" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK168" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL168" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN168" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO168" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP168" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ168" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR168" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS168" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT168" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU168" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:49" s="2" customFormat="1">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E169" s="36">
+        <v>36</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>5</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0</v>
+      </c>
+      <c r="J169" s="37">
+        <v>240000000000</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0</v>
+      </c>
+      <c r="L169" s="3">
+        <v>500</v>
+      </c>
+      <c r="M169" s="3">
+        <v>1</v>
+      </c>
+      <c r="N169" s="3">
+        <v>2</v>
+      </c>
+      <c r="O169" s="4">
+        <v>100</v>
+      </c>
+      <c r="P169" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q169" s="2">
+        <v>4</v>
+      </c>
+      <c r="R169" s="2">
+        <v>10</v>
+      </c>
+      <c r="S169" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T169" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U169" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V169" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W169" s="2">
+        <v>0</v>
+      </c>
+      <c r="X169" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y169" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI169" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK169" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL169" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN169" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO169" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP169" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ169" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR169" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS169" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT169" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU169" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:49" s="2" customFormat="1">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E170" s="36">
+        <v>36</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="3">
+        <v>5</v>
+      </c>
+      <c r="I170" s="3">
+        <v>0</v>
+      </c>
+      <c r="J170" s="37">
+        <v>250000000000</v>
+      </c>
+      <c r="K170" s="3">
+        <v>0</v>
+      </c>
+      <c r="L170" s="3">
+        <v>500</v>
+      </c>
+      <c r="M170" s="3">
+        <v>1</v>
+      </c>
+      <c r="N170" s="3">
+        <v>2</v>
+      </c>
+      <c r="O170" s="4">
+        <v>100</v>
+      </c>
+      <c r="P170" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q170" s="2">
+        <v>4</v>
+      </c>
+      <c r="R170" s="2">
+        <v>10</v>
+      </c>
+      <c r="S170" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T170" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U170" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V170" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W170" s="2">
+        <v>0</v>
+      </c>
+      <c r="X170" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y170" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI170" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK170" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL170" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN170" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO170" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP170" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ170" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR170" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS170" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT170" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU170" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:49" s="2" customFormat="1">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E171" s="36">
+        <v>36</v>
+      </c>
+      <c r="F171" s="3">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="3">
+        <v>5</v>
+      </c>
+      <c r="I171" s="3">
+        <v>0</v>
+      </c>
+      <c r="J171" s="37">
+        <v>260000000000</v>
+      </c>
+      <c r="K171" s="3">
+        <v>0</v>
+      </c>
+      <c r="L171" s="3">
+        <v>500</v>
+      </c>
+      <c r="M171" s="3">
+        <v>1</v>
+      </c>
+      <c r="N171" s="3">
+        <v>2</v>
+      </c>
+      <c r="O171" s="4">
+        <v>100</v>
+      </c>
+      <c r="P171" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q171" s="2">
+        <v>4</v>
+      </c>
+      <c r="R171" s="2">
+        <v>10</v>
+      </c>
+      <c r="S171" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T171" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U171" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V171" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W171" s="2">
+        <v>0</v>
+      </c>
+      <c r="X171" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y171" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI171" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK171" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL171" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN171" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO171" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP171" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ171" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR171" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS171" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT171" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU171" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:49" s="2" customFormat="1">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E172" s="36">
+        <v>36</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="3">
+        <v>5</v>
+      </c>
+      <c r="I172" s="3">
+        <v>0</v>
+      </c>
+      <c r="J172" s="37">
+        <v>270000000000</v>
+      </c>
+      <c r="K172" s="3">
+        <v>0</v>
+      </c>
+      <c r="L172" s="3">
+        <v>500</v>
+      </c>
+      <c r="M172" s="3">
+        <v>1</v>
+      </c>
+      <c r="N172" s="3">
+        <v>2</v>
+      </c>
+      <c r="O172" s="4">
+        <v>100</v>
+      </c>
+      <c r="P172" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q172" s="2">
+        <v>4</v>
+      </c>
+      <c r="R172" s="2">
+        <v>10</v>
+      </c>
+      <c r="S172" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T172" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U172" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V172" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W172" s="2">
+        <v>0</v>
+      </c>
+      <c r="X172" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y172" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI172" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK172" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL172" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN172" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO172" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP172" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ172" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR172" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS172" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT172" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU172" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:49" s="2" customFormat="1">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E173" s="36">
+        <v>36</v>
+      </c>
+      <c r="F173" s="3">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="3">
+        <v>5</v>
+      </c>
+      <c r="I173" s="3">
+        <v>0</v>
+      </c>
+      <c r="J173" s="37">
+        <v>280000000000</v>
+      </c>
+      <c r="K173" s="3">
+        <v>0</v>
+      </c>
+      <c r="L173" s="3">
+        <v>500</v>
+      </c>
+      <c r="M173" s="3">
+        <v>1</v>
+      </c>
+      <c r="N173" s="3">
+        <v>2</v>
+      </c>
+      <c r="O173" s="4">
+        <v>100</v>
+      </c>
+      <c r="P173" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q173" s="2">
+        <v>4</v>
+      </c>
+      <c r="R173" s="2">
+        <v>10</v>
+      </c>
+      <c r="S173" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T173" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U173" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V173" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W173" s="2">
+        <v>0</v>
+      </c>
+      <c r="X173" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y173" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI173" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK173" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL173" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN173" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO173" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP173" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ173" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR173" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS173" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT173" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU173" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV173" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DBCE00-3B86-4DFA-A8C4-B082A55629E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A941CA25-55C8-4A4B-805E-5A6918AD46D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="38430" windowHeight="10500" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -1597,6 +1597,18 @@
   </si>
   <si>
     <t>수인전 - 범왕에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisionSkill12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전검 13형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인전 - 흑랑왕에서 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1610,7 +1622,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000000000000%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2258,15 +2270,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW173"/>
+  <dimension ref="A1:AW174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="K177" sqref="K177"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
@@ -2304,7 +2316,7 @@
     <col min="47" max="47" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" ht="33">
+    <row r="1" spans="1:49" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="2" customFormat="1">
+    <row r="2" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2596,7 +2608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1">
+    <row r="3" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2739,7 +2751,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="2" customFormat="1">
+    <row r="4" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2882,7 +2894,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="2" customFormat="1">
+    <row r="5" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3025,7 +3037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="2" customFormat="1">
+    <row r="6" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="2" customFormat="1">
+    <row r="7" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3311,7 +3323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="2" customFormat="1">
+    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3454,7 +3466,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="2" customFormat="1">
+    <row r="9" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3597,7 +3609,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="15.75" customHeight="1">
+    <row r="10" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3740,7 +3752,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="15.75" customHeight="1">
+    <row r="11" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3883,7 +3895,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="15.75" customHeight="1">
+    <row r="12" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4026,7 +4038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="15.75" customHeight="1">
+    <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4169,7 +4181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -4312,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -4455,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -4598,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" s="2" customFormat="1">
+    <row r="17" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4741,7 +4753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:48" s="2" customFormat="1">
+    <row r="18" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="6" customFormat="1">
+    <row r="20" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -5173,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="6" customFormat="1">
+    <row r="21" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -5319,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5465,7 +5477,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5611,7 +5623,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="17" customFormat="1">
+    <row r="24" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -5757,7 +5769,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" s="17" customFormat="1">
+    <row r="25" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -5903,7 +5915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="17" customFormat="1">
+    <row r="26" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -6049,7 +6061,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="17" customFormat="1">
+    <row r="27" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -6195,7 +6207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:48" s="17" customFormat="1">
+    <row r="28" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -6341,7 +6353,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="17" customFormat="1">
+    <row r="29" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -6487,7 +6499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:48" s="17" customFormat="1">
+    <row r="30" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -6633,7 +6645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:48" s="17" customFormat="1">
+    <row r="31" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -6779,7 +6791,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:48" s="17" customFormat="1">
+    <row r="32" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -6925,7 +6937,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" s="17" customFormat="1">
+    <row r="33" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -7071,7 +7083,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" s="17" customFormat="1">
+    <row r="34" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -7217,7 +7229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" s="17" customFormat="1">
+    <row r="35" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>33</v>
       </c>
@@ -7363,7 +7375,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" s="17" customFormat="1">
+    <row r="36" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>34</v>
       </c>
@@ -7509,7 +7521,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="17" customFormat="1">
+    <row r="37" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>35</v>
       </c>
@@ -7655,7 +7667,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" s="17" customFormat="1">
+    <row r="38" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>36</v>
       </c>
@@ -7801,7 +7813,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="6" customFormat="1">
+    <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -7947,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" s="6" customFormat="1">
+    <row r="40" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -8093,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="6" customFormat="1">
+    <row r="41" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -8239,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" s="6" customFormat="1">
+    <row r="42" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -8385,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -8531,7 +8543,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -8677,7 +8689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -8823,7 +8835,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -8969,7 +8981,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -9115,7 +9127,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -9264,7 +9276,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -9413,7 +9425,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -9562,7 +9574,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -9711,7 +9723,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -9857,7 +9869,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -10003,7 +10015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -10149,7 +10161,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -10295,7 +10307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -10441,7 +10453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>55</v>
       </c>
@@ -10590,7 +10602,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>56</v>
       </c>
@@ -10736,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -10882,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>58</v>
       </c>
@@ -11028,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>59</v>
       </c>
@@ -11174,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>60</v>
       </c>
@@ -11320,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>61</v>
       </c>
@@ -11466,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>62</v>
       </c>
@@ -11612,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>63</v>
       </c>
@@ -11758,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>64</v>
       </c>
@@ -11904,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>65</v>
       </c>
@@ -12050,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>66</v>
       </c>
@@ -12196,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>67</v>
       </c>
@@ -12342,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>68</v>
       </c>
@@ -12488,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>69</v>
       </c>
@@ -12634,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>70</v>
       </c>
@@ -12780,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>71</v>
       </c>
@@ -12926,7 +12938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>72</v>
       </c>
@@ -13072,7 +13084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>73</v>
       </c>
@@ -13218,7 +13230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>74</v>
       </c>
@@ -13364,7 +13376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:48">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>75</v>
       </c>
@@ -13510,7 +13522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:48">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>76</v>
       </c>
@@ -13656,7 +13668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>77</v>
       </c>
@@ -13802,7 +13814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>78</v>
       </c>
@@ -13948,7 +13960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:48">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>79</v>
       </c>
@@ -14094,7 +14106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:48">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>80</v>
       </c>
@@ -14240,7 +14252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:48">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>81</v>
       </c>
@@ -14386,7 +14398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:48">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>82</v>
       </c>
@@ -14532,7 +14544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:48">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>83</v>
       </c>
@@ -14678,7 +14690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:48">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>84</v>
       </c>
@@ -14824,7 +14836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:48">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>85</v>
       </c>
@@ -14970,7 +14982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:48">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>86</v>
       </c>
@@ -15116,7 +15128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:48">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>87</v>
       </c>
@@ -15262,7 +15274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:48">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>88</v>
       </c>
@@ -15408,7 +15420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:48">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>89</v>
       </c>
@@ -15554,7 +15566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:48">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>90</v>
       </c>
@@ -15700,7 +15712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:48">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>91</v>
       </c>
@@ -15846,7 +15858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:48">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>92</v>
       </c>
@@ -15992,7 +16004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:48">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>93</v>
       </c>
@@ -16138,7 +16150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:48">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>94</v>
       </c>
@@ -16284,7 +16296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:49">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>95</v>
       </c>
@@ -16433,7 +16445,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:49">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>96</v>
       </c>
@@ -16579,7 +16591,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:49">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>97</v>
       </c>
@@ -16725,7 +16737,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:49">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>98</v>
       </c>
@@ -16871,7 +16883,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:49">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>99</v>
       </c>
@@ -17017,7 +17029,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:49">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>100</v>
       </c>
@@ -17163,7 +17175,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:49">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>101</v>
       </c>
@@ -17309,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:49">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>102</v>
       </c>
@@ -17455,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:49">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>103</v>
       </c>
@@ -17601,7 +17613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:49">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>104</v>
       </c>
@@ -17747,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:49">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>105</v>
       </c>
@@ -17893,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:49">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>106</v>
       </c>
@@ -18039,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:49">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>107</v>
       </c>
@@ -18185,7 +18197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:49">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>108</v>
       </c>
@@ -18331,7 +18343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:49">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>109</v>
       </c>
@@ -18477,7 +18489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:49">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>110</v>
       </c>
@@ -18623,7 +18635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:48" s="2" customFormat="1">
+    <row r="113" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -18769,7 +18781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:48" s="2" customFormat="1">
+    <row r="114" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -18915,7 +18927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:48" s="2" customFormat="1">
+    <row r="115" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -19061,7 +19073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:48" s="2" customFormat="1">
+    <row r="116" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -19207,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:48" s="2" customFormat="1">
+    <row r="117" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -19353,7 +19365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:48" s="2" customFormat="1">
+    <row r="118" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -19499,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:48" s="2" customFormat="1">
+    <row r="119" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -19645,7 +19657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:48" s="2" customFormat="1">
+    <row r="120" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -19791,7 +19803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:48" s="2" customFormat="1">
+    <row r="121" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -19937,7 +19949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:48" s="2" customFormat="1">
+    <row r="122" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -20083,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:48" s="2" customFormat="1">
+    <row r="123" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -20229,7 +20241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:48" s="2" customFormat="1">
+    <row r="124" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -20375,7 +20387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:48" s="2" customFormat="1">
+    <row r="125" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -20521,7 +20533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:48" s="2" customFormat="1">
+    <row r="126" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -20667,7 +20679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:48" s="2" customFormat="1">
+    <row r="127" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -20813,7 +20825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:48" s="2" customFormat="1">
+    <row r="128" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -20959,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:49" s="2" customFormat="1">
+    <row r="129" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -21105,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:49" s="2" customFormat="1">
+    <row r="130" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -21251,7 +21263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:49" s="2" customFormat="1">
+    <row r="131" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -21397,7 +21409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:49" s="2" customFormat="1">
+    <row r="132" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -21543,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:49" s="2" customFormat="1">
+    <row r="133" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -21689,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:49" s="2" customFormat="1">
+    <row r="134" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -21835,7 +21847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:49" s="2" customFormat="1">
+    <row r="135" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -21981,7 +21993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="2" customFormat="1">
+    <row r="136" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -22127,7 +22139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:49" s="2" customFormat="1">
+    <row r="137" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -22273,7 +22285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:49" s="2" customFormat="1">
+    <row r="138" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -22419,7 +22431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:49" s="2" customFormat="1">
+    <row r="139" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -22565,7 +22577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:49" s="2" customFormat="1">
+    <row r="140" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -22711,7 +22723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:49" s="2" customFormat="1">
+    <row r="141" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -22857,7 +22869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:49" s="2" customFormat="1">
+    <row r="142" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -23003,7 +23015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:49">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -23152,7 +23164,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="144" spans="1:49">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -23301,7 +23313,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:49">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>143</v>
       </c>
@@ -23447,7 +23459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:49">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>144</v>
       </c>
@@ -23593,7 +23605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:49">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>145</v>
       </c>
@@ -23739,7 +23751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:49">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>146</v>
       </c>
@@ -23885,7 +23897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:49" s="2" customFormat="1">
+    <row r="149" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -24031,7 +24043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:49" s="2" customFormat="1">
+    <row r="150" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -24177,7 +24189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:49">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -24323,7 +24335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:49">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -24469,7 +24481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:49">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -24615,7 +24627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:49">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -24761,7 +24773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:49">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -24907,7 +24919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:49">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -25053,7 +25065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:49">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -25199,7 +25211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:49">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -25345,7 +25357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:49">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -25494,7 +25506,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:49">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -25643,7 +25655,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="161" spans="1:49">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -25792,7 +25804,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="1:49">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -25941,7 +25953,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:49" s="2" customFormat="1">
+    <row r="163" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -26087,7 +26099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:49" s="2" customFormat="1">
+    <row r="164" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -26233,7 +26245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:49" s="2" customFormat="1">
+    <row r="165" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -26379,7 +26391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:49" s="2" customFormat="1">
+    <row r="166" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -26525,7 +26537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:49" s="2" customFormat="1">
+    <row r="167" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -26671,7 +26683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:49" s="2" customFormat="1">
+    <row r="168" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -26817,7 +26829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:49" s="2" customFormat="1">
+    <row r="169" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -26963,7 +26975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:49" s="2" customFormat="1">
+    <row r="170" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -27109,7 +27121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:49" s="2" customFormat="1">
+    <row r="171" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -27255,7 +27267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:49" s="2" customFormat="1">
+    <row r="172" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -27401,7 +27413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:49" s="2" customFormat="1">
+    <row r="173" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -27545,6 +27557,155 @@
       </c>
       <c r="AV173" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E174" s="18">
+        <v>67</v>
+      </c>
+      <c r="F174" s="3">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="3">
+        <v>2</v>
+      </c>
+      <c r="I174" s="3">
+        <v>0</v>
+      </c>
+      <c r="J174" s="3">
+        <v>110000000000</v>
+      </c>
+      <c r="K174" s="3">
+        <v>0</v>
+      </c>
+      <c r="L174" s="3">
+        <v>100</v>
+      </c>
+      <c r="M174" s="3">
+        <v>9</v>
+      </c>
+      <c r="N174" s="3">
+        <v>2</v>
+      </c>
+      <c r="O174" s="4">
+        <v>100</v>
+      </c>
+      <c r="P174" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q174" s="17">
+        <v>4</v>
+      </c>
+      <c r="R174" s="17">
+        <v>10</v>
+      </c>
+      <c r="S174" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T174" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="U174" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V174" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W174" s="17">
+        <v>0</v>
+      </c>
+      <c r="X174" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y174" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI174" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK174" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL174" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM174" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN174" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO174" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP174" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ174" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR174" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS174" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT174" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU174" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV174" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW174" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -27562,7 +27723,7 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
@@ -27576,7 +27737,7 @@
     <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -27621,7 +27782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -27665,7 +27826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -27709,7 +27870,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -27753,7 +27914,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -27797,7 +27958,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27841,7 +28002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -27885,7 +28046,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -27929,7 +28090,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -27973,7 +28134,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -28017,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -28061,7 +28222,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -28105,7 +28266,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -28149,7 +28310,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -28192,7 +28353,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -28205,7 +28366,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -28218,7 +28379,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -28231,7 +28392,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -28244,7 +28405,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -28257,7 +28418,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -28270,7 +28431,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -28283,7 +28444,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -28291,7 +28452,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -28299,7 +28460,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -28307,7 +28468,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -28315,7 +28476,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -28323,7 +28484,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -28331,7 +28492,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1">
+    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -28363,7 +28524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1">
+    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -28395,7 +28556,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1">
+    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -28427,7 +28588,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1">
+    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -28459,7 +28620,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -28491,7 +28652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -28523,7 +28684,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>0</v>
       </c>
@@ -28555,7 +28716,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>0</v>
       </c>
@@ -28587,7 +28748,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1">
+    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -28619,7 +28780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1">
+    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -28651,7 +28812,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1">
+    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -28683,7 +28844,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1">
+    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -28730,9 +28891,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="33">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -28767,7 +28928,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -28807,7 +28968,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -28847,7 +29008,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -28887,7 +29048,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -28927,7 +29088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -28967,7 +29128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -29007,7 +29168,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -29047,7 +29208,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -29087,7 +29248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -29127,7 +29288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -29167,7 +29328,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -29207,7 +29368,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -29258,13 +29419,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -29294,7 +29455,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -29324,7 +29485,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>450</v>
       </c>
@@ -29354,13 +29515,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -29378,7 +29539,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -29396,7 +29557,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -29414,7 +29575,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -29428,7 +29589,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -29442,7 +29603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -29456,7 +29617,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>3</v>
       </c>
@@ -29470,7 +29631,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>7</v>
       </c>
@@ -29484,7 +29645,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>45</v>
       </c>
@@ -29512,7 +29673,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
@@ -29522,7 +29683,7 @@
     <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>245</v>
       </c>
@@ -29531,7 +29692,7 @@
       </c>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>246</v>
       </c>
@@ -29539,10 +29700,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -29562,7 +29723,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -29595,7 +29756,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -29630,7 +29791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -29665,7 +29826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -29700,7 +29861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -29735,7 +29896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -29770,7 +29931,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -29807,7 +29968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -29842,7 +30003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -29877,7 +30038,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -29912,7 +30073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -29947,7 +30108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -29982,7 +30143,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -30019,7 +30180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -30054,7 +30215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -30089,7 +30250,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -30124,7 +30285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -30159,7 +30320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I22" s="38"/>
       <c r="J22">
         <v>18</v>
@@ -30171,7 +30332,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I23" s="38">
         <v>4</v>
       </c>
@@ -30185,7 +30346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I24" s="38"/>
       <c r="J24">
         <v>20</v>
@@ -30197,7 +30358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I25" s="38"/>
       <c r="J25">
         <v>21</v>
@@ -30209,7 +30370,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I26" s="38"/>
       <c r="J26">
         <v>22</v>
@@ -30221,7 +30382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I27" s="38"/>
       <c r="J27">
         <v>23</v>
@@ -30233,7 +30394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I28" s="38"/>
       <c r="J28">
         <v>24</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A941CA25-55C8-4A4B-805E-5A6918AD46D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A6C47-E4E2-4D77-AE05-F9C6FC27B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="441">
   <si>
     <t>id</t>
   </si>
@@ -1609,6 +1609,14 @@
   </si>
   <si>
     <t>수인전 - 흑랑왕에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisionSkill13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전검 14형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2270,12 +2278,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW174"/>
+  <dimension ref="A1:AW175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
+      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27705,6 +27713,155 @@
         <v>300</v>
       </c>
       <c r="AW174" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="175" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E175" s="18">
+        <v>68</v>
+      </c>
+      <c r="F175" s="3">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>2</v>
+      </c>
+      <c r="I175" s="3">
+        <v>0</v>
+      </c>
+      <c r="J175" s="3">
+        <v>130000000000</v>
+      </c>
+      <c r="K175" s="3">
+        <v>0</v>
+      </c>
+      <c r="L175" s="3">
+        <v>100</v>
+      </c>
+      <c r="M175" s="3">
+        <v>9</v>
+      </c>
+      <c r="N175" s="3">
+        <v>2</v>
+      </c>
+      <c r="O175" s="4">
+        <v>100</v>
+      </c>
+      <c r="P175" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q175" s="17">
+        <v>4</v>
+      </c>
+      <c r="R175" s="17">
+        <v>10</v>
+      </c>
+      <c r="S175" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T175" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="U175" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V175" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W175" s="17">
+        <v>0</v>
+      </c>
+      <c r="X175" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y175" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI175" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK175" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL175" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM175" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN175" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO175" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP175" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ175" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR175" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS175" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT175" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU175" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV175" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW175" t="s">
         <v>438</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A6C47-E4E2-4D77-AE05-F9C6FC27B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869F72D-79AF-4733-A891-9AEF031784F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="442">
   <si>
     <t>id</t>
   </si>
@@ -1617,6 +1617,10 @@
   </si>
   <si>
     <t>비전검 14형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 51단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2283,7 +2287,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27432,7 +27436,7 @@
         <v>357</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E173" s="36">
         <v>36</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869F72D-79AF-4733-A891-9AEF031784F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD36265-5252-497D-A7C4-1C853B1839B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1621,6 +1621,50 @@
   </si>
   <si>
     <t>도술 51단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinsunSkill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinsunSkill1</t>
+  </si>
+  <si>
+    <t>SinsunSkill2</t>
+  </si>
+  <si>
+    <t>SinsunSkill3</t>
+  </si>
+  <si>
+    <t>SinsunSkill4</t>
+  </si>
+  <si>
+    <t>신선검 2형</t>
+  </si>
+  <si>
+    <t>신선검 3형</t>
+  </si>
+  <si>
+    <t>신선검 4형</t>
+  </si>
+  <si>
+    <t>신선검 5형</t>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinsunSkill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinsunSkill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinsunSkill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1634,7 +1678,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000000000000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,7 +1890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1963,6 +2007,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2282,15 +2329,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW175"/>
+  <dimension ref="A1:AW181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+      <selection pane="bottomLeft" activeCell="AK184" sqref="AK184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
@@ -2328,7 +2375,7 @@
     <col min="47" max="47" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="8" customFormat="1" ht="33">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2524,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" s="2" customFormat="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2620,7 +2667,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="2" customFormat="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2763,7 +2810,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" s="2" customFormat="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2906,7 +2953,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" s="2" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3049,7 +3096,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" s="2" customFormat="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3192,7 +3239,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" s="2" customFormat="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3335,7 +3382,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" s="2" customFormat="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3478,7 +3525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" s="2" customFormat="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3621,7 +3668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3764,7 +3811,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3907,7 +3954,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4050,7 +4097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4193,7 +4240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -4336,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -4479,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -4622,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" s="2" customFormat="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4765,7 +4812,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" s="2" customFormat="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4908,7 +4955,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5051,7 +5098,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" s="6" customFormat="1">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -5197,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" s="6" customFormat="1">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -5343,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5489,7 +5536,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5635,7 +5682,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" s="17" customFormat="1">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -5781,7 +5828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" s="17" customFormat="1">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -5927,7 +5974,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" s="17" customFormat="1">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -6073,7 +6120,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" s="17" customFormat="1">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -6219,7 +6266,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" s="17" customFormat="1">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -6365,7 +6412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" s="17" customFormat="1">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -6511,7 +6558,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" s="17" customFormat="1">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -6657,7 +6704,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" s="17" customFormat="1">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -6803,7 +6850,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" s="17" customFormat="1">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -6949,7 +6996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" s="17" customFormat="1">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -7095,7 +7142,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" s="17" customFormat="1">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -7241,7 +7288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" s="17" customFormat="1">
       <c r="A35" s="16">
         <v>33</v>
       </c>
@@ -7387,7 +7434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" s="17" customFormat="1">
       <c r="A36" s="16">
         <v>34</v>
       </c>
@@ -7533,7 +7580,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" s="17" customFormat="1">
       <c r="A37" s="16">
         <v>35</v>
       </c>
@@ -7679,7 +7726,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" s="17" customFormat="1">
       <c r="A38" s="16">
         <v>36</v>
       </c>
@@ -7825,7 +7872,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" s="6" customFormat="1">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -7971,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" s="6" customFormat="1">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -8117,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" s="6" customFormat="1">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -8263,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" s="6" customFormat="1">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -8409,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -8555,7 +8602,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -8701,7 +8748,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -8847,7 +8894,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -8993,7 +9040,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -9139,7 +9186,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -9288,7 +9335,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -9437,7 +9484,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -9586,7 +9633,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -9735,7 +9782,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -9881,7 +9928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -10027,7 +10074,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -10173,7 +10220,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -10319,7 +10366,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -10465,7 +10512,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49">
       <c r="A57" s="16">
         <v>55</v>
       </c>
@@ -10614,7 +10661,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49">
       <c r="A58" s="16">
         <v>56</v>
       </c>
@@ -10760,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -10906,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49">
       <c r="A60" s="16">
         <v>58</v>
       </c>
@@ -11052,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49">
       <c r="A61" s="16">
         <v>59</v>
       </c>
@@ -11198,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49">
       <c r="A62" s="16">
         <v>60</v>
       </c>
@@ -11344,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49">
       <c r="A63" s="16">
         <v>61</v>
       </c>
@@ -11490,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49">
       <c r="A64" s="16">
         <v>62</v>
       </c>
@@ -11636,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:48">
       <c r="A65" s="16">
         <v>63</v>
       </c>
@@ -11782,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:48">
       <c r="A66" s="16">
         <v>64</v>
       </c>
@@ -11928,7 +11975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:48">
       <c r="A67" s="16">
         <v>65</v>
       </c>
@@ -12074,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:48">
       <c r="A68" s="16">
         <v>66</v>
       </c>
@@ -12220,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:48">
       <c r="A69" s="16">
         <v>67</v>
       </c>
@@ -12366,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:48">
       <c r="A70" s="16">
         <v>68</v>
       </c>
@@ -12512,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:48">
       <c r="A71" s="16">
         <v>69</v>
       </c>
@@ -12658,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:48">
       <c r="A72" s="16">
         <v>70</v>
       </c>
@@ -12804,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:48">
       <c r="A73" s="16">
         <v>71</v>
       </c>
@@ -12950,7 +12997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:48">
       <c r="A74" s="16">
         <v>72</v>
       </c>
@@ -13096,7 +13143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:48">
       <c r="A75" s="16">
         <v>73</v>
       </c>
@@ -13242,7 +13289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:48">
       <c r="A76" s="16">
         <v>74</v>
       </c>
@@ -13388,7 +13435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:48">
       <c r="A77" s="16">
         <v>75</v>
       </c>
@@ -13534,7 +13581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:48">
       <c r="A78" s="16">
         <v>76</v>
       </c>
@@ -13680,7 +13727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:48">
       <c r="A79" s="16">
         <v>77</v>
       </c>
@@ -13826,7 +13873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:48">
       <c r="A80" s="16">
         <v>78</v>
       </c>
@@ -13972,7 +14019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:48">
       <c r="A81" s="16">
         <v>79</v>
       </c>
@@ -14118,7 +14165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:48">
       <c r="A82" s="16">
         <v>80</v>
       </c>
@@ -14264,7 +14311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:48">
       <c r="A83" s="16">
         <v>81</v>
       </c>
@@ -14410,7 +14457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:48">
       <c r="A84" s="16">
         <v>82</v>
       </c>
@@ -14556,7 +14603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:48">
       <c r="A85" s="16">
         <v>83</v>
       </c>
@@ -14702,7 +14749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:48">
       <c r="A86" s="16">
         <v>84</v>
       </c>
@@ -14848,7 +14895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:48">
       <c r="A87" s="16">
         <v>85</v>
       </c>
@@ -14994,7 +15041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:48">
       <c r="A88" s="16">
         <v>86</v>
       </c>
@@ -15140,7 +15187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:48">
       <c r="A89" s="16">
         <v>87</v>
       </c>
@@ -15286,7 +15333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:48">
       <c r="A90" s="16">
         <v>88</v>
       </c>
@@ -15432,7 +15479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:48">
       <c r="A91" s="16">
         <v>89</v>
       </c>
@@ -15578,7 +15625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:48">
       <c r="A92" s="16">
         <v>90</v>
       </c>
@@ -15724,7 +15771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:48">
       <c r="A93" s="16">
         <v>91</v>
       </c>
@@ -15870,7 +15917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:48">
       <c r="A94" s="16">
         <v>92</v>
       </c>
@@ -16016,7 +16063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:48">
       <c r="A95" s="16">
         <v>93</v>
       </c>
@@ -16162,7 +16209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:48">
       <c r="A96" s="16">
         <v>94</v>
       </c>
@@ -16308,7 +16355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49">
       <c r="A97" s="16">
         <v>95</v>
       </c>
@@ -16457,7 +16504,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49">
       <c r="A98" s="16">
         <v>96</v>
       </c>
@@ -16603,7 +16650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49">
       <c r="A99" s="16">
         <v>97</v>
       </c>
@@ -16749,7 +16796,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49">
       <c r="A100" s="16">
         <v>98</v>
       </c>
@@ -16895,7 +16942,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49">
       <c r="A101" s="16">
         <v>99</v>
       </c>
@@ -17041,7 +17088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49">
       <c r="A102" s="16">
         <v>100</v>
       </c>
@@ -17187,7 +17234,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49">
       <c r="A103" s="16">
         <v>101</v>
       </c>
@@ -17333,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49">
       <c r="A104" s="16">
         <v>102</v>
       </c>
@@ -17479,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49">
       <c r="A105" s="16">
         <v>103</v>
       </c>
@@ -17625,7 +17672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49">
       <c r="A106" s="16">
         <v>104</v>
       </c>
@@ -17771,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49">
       <c r="A107" s="16">
         <v>105</v>
       </c>
@@ -17917,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49">
       <c r="A108" s="16">
         <v>106</v>
       </c>
@@ -18063,7 +18110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49">
       <c r="A109" s="16">
         <v>107</v>
       </c>
@@ -18209,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49">
       <c r="A110" s="16">
         <v>108</v>
       </c>
@@ -18355,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49">
       <c r="A111" s="16">
         <v>109</v>
       </c>
@@ -18501,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49">
       <c r="A112" s="16">
         <v>110</v>
       </c>
@@ -18647,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:48" s="2" customFormat="1">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -18793,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:48" s="2" customFormat="1">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -18939,7 +18986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:48" s="2" customFormat="1">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -19085,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:48" s="2" customFormat="1">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -19231,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:48" s="2" customFormat="1">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -19377,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:48" s="2" customFormat="1">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -19523,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:48" s="2" customFormat="1">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -19669,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:48" s="2" customFormat="1">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -19815,7 +19862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:48" s="2" customFormat="1">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -19961,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:48" s="2" customFormat="1">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -20107,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:48" s="2" customFormat="1">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -20253,7 +20300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:48" s="2" customFormat="1">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -20399,7 +20446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:48" s="2" customFormat="1">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -20545,7 +20592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:48" s="2" customFormat="1">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -20691,7 +20738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:48" s="2" customFormat="1">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -20837,7 +20884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:48" s="2" customFormat="1">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -20983,7 +21030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" s="2" customFormat="1">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -21129,7 +21176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" s="2" customFormat="1">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -21275,7 +21322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" s="2" customFormat="1">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -21421,7 +21468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" s="2" customFormat="1">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -21567,7 +21614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" s="2" customFormat="1">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -21713,7 +21760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" s="2" customFormat="1">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -21859,7 +21906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" s="2" customFormat="1">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -22005,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" s="2" customFormat="1">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -22151,7 +22198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" s="2" customFormat="1">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -22297,7 +22344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" s="2" customFormat="1">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -22443,7 +22490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" s="2" customFormat="1">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -22589,7 +22636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" s="2" customFormat="1">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -22735,7 +22782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" s="2" customFormat="1">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -22881,7 +22928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" s="2" customFormat="1">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -23027,7 +23074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -23176,7 +23223,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -23325,7 +23372,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49">
       <c r="A145" s="16">
         <v>143</v>
       </c>
@@ -23471,7 +23518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49">
       <c r="A146" s="16">
         <v>144</v>
       </c>
@@ -23617,7 +23664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49">
       <c r="A147" s="16">
         <v>145</v>
       </c>
@@ -23763,7 +23810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49">
       <c r="A148" s="16">
         <v>146</v>
       </c>
@@ -23909,7 +23956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" s="2" customFormat="1">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -24055,7 +24102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" s="2" customFormat="1">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -24201,7 +24248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -24347,7 +24394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -24493,7 +24540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -24639,7 +24686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -24785,7 +24832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -24931,7 +24978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -25077,7 +25124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -25223,7 +25270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -25369,7 +25416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -25518,7 +25565,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -25667,7 +25714,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -25816,7 +25863,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -25965,7 +26012,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" s="2" customFormat="1">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -26111,7 +26158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" s="2" customFormat="1">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -26257,7 +26304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" s="2" customFormat="1">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -26403,7 +26450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" s="2" customFormat="1">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -26549,7 +26596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" s="2" customFormat="1">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -26695,7 +26742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" s="2" customFormat="1">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -26841,7 +26888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" s="2" customFormat="1">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -26987,7 +27034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" s="2" customFormat="1">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -27133,7 +27180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" s="2" customFormat="1">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -27279,7 +27326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" s="2" customFormat="1">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -27425,7 +27472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" s="2" customFormat="1">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -27571,7 +27618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:49">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -27720,7 +27767,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:49">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -27867,6 +27914,882 @@
       </c>
       <c r="AW175" t="s">
         <v>438</v>
+      </c>
+    </row>
+    <row r="176" spans="1:49">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C176" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E176" s="18">
+        <v>69</v>
+      </c>
+      <c r="F176" s="3">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="3">
+        <v>0</v>
+      </c>
+      <c r="J176" s="3">
+        <v>56000000</v>
+      </c>
+      <c r="K176" s="3">
+        <v>300</v>
+      </c>
+      <c r="L176" s="3">
+        <v>100</v>
+      </c>
+      <c r="M176" s="3">
+        <v>9</v>
+      </c>
+      <c r="N176" s="3">
+        <v>2</v>
+      </c>
+      <c r="O176" s="4">
+        <v>25</v>
+      </c>
+      <c r="P176" s="19">
+        <v>31</v>
+      </c>
+      <c r="Q176" s="17">
+        <v>4</v>
+      </c>
+      <c r="R176" s="17">
+        <v>10</v>
+      </c>
+      <c r="S176" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T176" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="U176" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V176" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="W176" s="17">
+        <v>0</v>
+      </c>
+      <c r="X176" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y176" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI176" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK176" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL176" s="17">
+        <v>74</v>
+      </c>
+      <c r="AM176" s="17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN176" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO176" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP176" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ176" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR176" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS176" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT176" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU176" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV176" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:48">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E177" s="18">
+        <v>70</v>
+      </c>
+      <c r="F177" s="3">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="3">
+        <v>1</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0</v>
+      </c>
+      <c r="J177" s="3">
+        <v>56800000</v>
+      </c>
+      <c r="K177" s="3">
+        <v>325</v>
+      </c>
+      <c r="L177" s="3">
+        <v>100</v>
+      </c>
+      <c r="M177" s="3">
+        <v>9</v>
+      </c>
+      <c r="N177" s="3">
+        <v>2</v>
+      </c>
+      <c r="O177" s="4">
+        <v>25</v>
+      </c>
+      <c r="P177" s="19">
+        <v>31</v>
+      </c>
+      <c r="Q177" s="17">
+        <v>4</v>
+      </c>
+      <c r="R177" s="17">
+        <v>10</v>
+      </c>
+      <c r="S177" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T177" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="U177" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V177" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="W177" s="17">
+        <v>0</v>
+      </c>
+      <c r="X177" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y177" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI177" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK177" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL177" s="17">
+        <v>74</v>
+      </c>
+      <c r="AM177" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AN177" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO177" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP177" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ177" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR177" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS177" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT177" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU177" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV177" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:48">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E178" s="18">
+        <v>71</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0</v>
+      </c>
+      <c r="J178" s="3">
+        <v>58400000</v>
+      </c>
+      <c r="K178" s="3">
+        <v>350</v>
+      </c>
+      <c r="L178" s="3">
+        <v>100</v>
+      </c>
+      <c r="M178" s="3">
+        <v>9</v>
+      </c>
+      <c r="N178" s="3">
+        <v>2</v>
+      </c>
+      <c r="O178" s="4">
+        <v>25</v>
+      </c>
+      <c r="P178" s="19">
+        <v>31</v>
+      </c>
+      <c r="Q178" s="17">
+        <v>4</v>
+      </c>
+      <c r="R178" s="17">
+        <v>10</v>
+      </c>
+      <c r="S178" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T178" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="U178" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V178" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="W178" s="17">
+        <v>0</v>
+      </c>
+      <c r="X178" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y178" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI178" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK178" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL178" s="17">
+        <v>74</v>
+      </c>
+      <c r="AM178" s="17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AN178" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO178" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP178" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ178" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR178" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS178" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT178" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU178" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV178" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:48">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E179" s="18">
+        <v>72</v>
+      </c>
+      <c r="F179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="3">
+        <v>1</v>
+      </c>
+      <c r="I179" s="3">
+        <v>0</v>
+      </c>
+      <c r="J179" s="3">
+        <v>59200000</v>
+      </c>
+      <c r="K179" s="3">
+        <v>375</v>
+      </c>
+      <c r="L179" s="3">
+        <v>100</v>
+      </c>
+      <c r="M179" s="3">
+        <v>9</v>
+      </c>
+      <c r="N179" s="3">
+        <v>2</v>
+      </c>
+      <c r="O179" s="4">
+        <v>25</v>
+      </c>
+      <c r="P179" s="19">
+        <v>31</v>
+      </c>
+      <c r="Q179" s="17">
+        <v>4</v>
+      </c>
+      <c r="R179" s="17">
+        <v>10</v>
+      </c>
+      <c r="S179" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T179" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="U179" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V179" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="W179" s="17">
+        <v>0</v>
+      </c>
+      <c r="X179" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y179" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI179" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK179" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL179" s="17">
+        <v>74</v>
+      </c>
+      <c r="AM179" s="17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AN179" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO179" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP179" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ179" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR179" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS179" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT179" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU179" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV179" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:48">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E180" s="18">
+        <v>73</v>
+      </c>
+      <c r="F180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="3">
+        <v>1</v>
+      </c>
+      <c r="I180" s="3">
+        <v>0</v>
+      </c>
+      <c r="J180" s="3">
+        <v>60000000</v>
+      </c>
+      <c r="K180" s="3">
+        <v>400</v>
+      </c>
+      <c r="L180" s="3">
+        <v>100</v>
+      </c>
+      <c r="M180" s="3">
+        <v>9</v>
+      </c>
+      <c r="N180" s="3">
+        <v>2</v>
+      </c>
+      <c r="O180" s="4">
+        <v>25</v>
+      </c>
+      <c r="P180" s="19">
+        <v>31</v>
+      </c>
+      <c r="Q180" s="17">
+        <v>4</v>
+      </c>
+      <c r="R180" s="17">
+        <v>10</v>
+      </c>
+      <c r="S180" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T180" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="U180" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V180" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="W180" s="17">
+        <v>0</v>
+      </c>
+      <c r="X180" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y180" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK180" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL180" s="17">
+        <v>74</v>
+      </c>
+      <c r="AM180" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AN180" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO180" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP180" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ180" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR180" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS180" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT180" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU180" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV180" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:48">
+      <c r="A181" s="16">
+        <v>179</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E181" s="28">
+        <v>36</v>
+      </c>
+      <c r="F181" s="24">
+        <v>1</v>
+      </c>
+      <c r="G181" s="24">
+        <v>0</v>
+      </c>
+      <c r="H181" s="24">
+        <v>0</v>
+      </c>
+      <c r="I181" s="24">
+        <v>0</v>
+      </c>
+      <c r="J181" s="24">
+        <v>3500000000000</v>
+      </c>
+      <c r="K181" s="24">
+        <v>0</v>
+      </c>
+      <c r="L181" s="24">
+        <v>100</v>
+      </c>
+      <c r="M181" s="24">
+        <v>1</v>
+      </c>
+      <c r="N181" s="24">
+        <v>2</v>
+      </c>
+      <c r="O181" s="25">
+        <v>100</v>
+      </c>
+      <c r="P181" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q181" s="6">
+        <v>4</v>
+      </c>
+      <c r="R181" s="6">
+        <v>10</v>
+      </c>
+      <c r="S181" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T181" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="U181" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V181" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="W181" s="6">
+        <v>0</v>
+      </c>
+      <c r="X181" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y181" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI181" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ181" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK181" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL181" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM181" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN181" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO181" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP181" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ181" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR181" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS181" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT181" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU181" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV181" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -27884,7 +28807,7 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
@@ -27898,7 +28821,7 @@
     <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -27943,7 +28866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -27987,7 +28910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -28031,7 +28954,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -28075,7 +28998,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -28119,7 +29042,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28163,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -28207,7 +29130,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -28251,7 +29174,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -28295,7 +29218,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -28339,7 +29262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -28383,7 +29306,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -28427,7 +29350,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -28471,7 +29394,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -28514,7 +29437,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -28527,7 +29450,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -28540,7 +29463,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:15">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -28553,7 +29476,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:15">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -28566,7 +29489,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:15">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -28579,7 +29502,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:15">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -28592,7 +29515,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:15">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -28605,7 +29528,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:15">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -28613,7 +29536,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:15">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -28621,7 +29544,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -28629,7 +29552,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -28637,7 +29560,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -28645,7 +29568,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -28653,7 +29576,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:15" s="2" customFormat="1">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -28685,7 +29608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:15" s="2" customFormat="1">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -28717,7 +29640,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:15" s="2" customFormat="1">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -28749,7 +29672,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:15" s="2" customFormat="1">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -28781,7 +29704,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:15">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -28813,7 +29736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:15">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -28845,7 +29768,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:15">
       <c r="F40">
         <v>0</v>
       </c>
@@ -28877,7 +29800,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:15">
       <c r="F41">
         <v>0</v>
       </c>
@@ -28909,7 +29832,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:15" s="2" customFormat="1">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -28941,7 +29864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:15" s="2" customFormat="1">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -28973,7 +29896,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:15" s="2" customFormat="1">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -29005,7 +29928,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:15" s="2" customFormat="1">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -29052,9 +29975,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="33">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -29089,7 +30012,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -29129,7 +30052,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -29169,7 +30092,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -29209,7 +30132,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -29249,7 +30172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -29289,7 +30212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -29329,7 +30252,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -29369,7 +30292,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -29409,7 +30332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -29449,7 +30372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -29489,7 +30412,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -29529,7 +30452,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -29580,13 +30503,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -29616,7 +30539,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -29646,7 +30569,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>450</v>
       </c>
@@ -29676,13 +30599,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -29700,7 +30623,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -29718,7 +30641,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -29736,7 +30659,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -29750,7 +30673,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -29764,7 +30687,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:10">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -29778,7 +30701,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:10">
       <c r="G19">
         <v>3</v>
       </c>
@@ -29792,7 +30715,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:10">
       <c r="G20">
         <v>7</v>
       </c>
@@ -29806,7 +30729,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:10">
       <c r="G21">
         <v>45</v>
       </c>
@@ -29834,7 +30757,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
@@ -29844,7 +30767,7 @@
     <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>245</v>
       </c>
@@ -29853,7 +30776,7 @@
       </c>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>246</v>
       </c>
@@ -29861,10 +30784,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -29884,7 +30807,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -29917,7 +30840,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -29952,7 +30875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
@@ -29987,7 +30910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -30022,7 +30945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>4</v>
       </c>
@@ -30057,7 +30980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>5</v>
       </c>
@@ -30092,7 +31015,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>6</v>
       </c>
@@ -30129,7 +31052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>7</v>
       </c>
@@ -30164,7 +31087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>8</v>
       </c>
@@ -30199,7 +31122,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>9</v>
       </c>
@@ -30234,7 +31157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>10</v>
       </c>
@@ -30269,7 +31192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>11</v>
       </c>
@@ -30304,7 +31227,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>12</v>
       </c>
@@ -30341,7 +31264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>13</v>
       </c>
@@ -30376,7 +31299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>14</v>
       </c>
@@ -30411,7 +31334,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>15</v>
       </c>
@@ -30446,7 +31369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>16</v>
       </c>
@@ -30481,7 +31404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="I22" s="38"/>
       <c r="J22">
         <v>18</v>
@@ -30493,7 +31416,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="I23" s="38">
         <v>4</v>
       </c>
@@ -30507,7 +31430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="I24" s="38"/>
       <c r="J24">
         <v>20</v>
@@ -30519,7 +31442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="I25" s="38"/>
       <c r="J25">
         <v>21</v>
@@ -30531,7 +31454,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="I26" s="38"/>
       <c r="J26">
         <v>22</v>
@@ -30543,7 +31466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="I27" s="38"/>
       <c r="J27">
         <v>23</v>
@@ -30555,7 +31478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="I28" s="38"/>
       <c r="J28">
         <v>24</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD36265-5252-497D-A7C4-1C853B1839B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B7D3AD-5F7C-460A-AE5A-59B67BCC5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="469">
   <si>
     <t>id</t>
   </si>
@@ -1665,6 +1665,54 @@
   </si>
   <si>
     <t>SinsunSkill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisionSkill14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전검 15형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 52단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 53단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 54단계</t>
+  </si>
+  <si>
+    <t>도술 55단계</t>
+  </si>
+  <si>
+    <t>도술 56단계</t>
+  </si>
+  <si>
+    <t>도술 57단계</t>
+  </si>
+  <si>
+    <t>도술 58단계</t>
+  </si>
+  <si>
+    <t>도술 59단계</t>
+  </si>
+  <si>
+    <t>도술 60단계</t>
+  </si>
+  <si>
+    <t>도술 61단계</t>
+  </si>
+  <si>
+    <t>수인전 - 풍룡왕에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계 - 용술사에서 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2005,11 +2053,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2329,12 +2377,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW181"/>
+  <dimension ref="A1:AW192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AK184" sqref="AK184"/>
+      <selection pane="bottomLeft" activeCell="AS182" sqref="AS182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -27913,7 +27961,7 @@
         <v>300</v>
       </c>
       <c r="AW175" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:49">
@@ -28062,7 +28110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:48">
+    <row r="177" spans="1:49">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -28177,7 +28225,7 @@
       <c r="AL177" s="17">
         <v>74</v>
       </c>
-      <c r="AM177" s="39">
+      <c r="AM177" s="38">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AN177" s="17">
@@ -28208,7 +28256,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:48">
+    <row r="178" spans="1:49">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -28354,7 +28402,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:48">
+    <row r="179" spans="1:49">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -28500,7 +28548,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:48">
+    <row r="180" spans="1:49">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -28615,7 +28663,7 @@
       <c r="AL180" s="17">
         <v>74</v>
       </c>
-      <c r="AM180" s="39">
+      <c r="AM180" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AN180" s="17">
@@ -28646,7 +28694,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:48">
+    <row r="181" spans="1:49">
       <c r="A181" s="16">
         <v>179</v>
       </c>
@@ -28790,6 +28838,1615 @@
       </c>
       <c r="AV181" s="6">
         <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:49">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E182" s="18">
+        <v>74</v>
+      </c>
+      <c r="F182" s="3">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="3">
+        <v>2</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0</v>
+      </c>
+      <c r="J182" s="3">
+        <v>150000000000</v>
+      </c>
+      <c r="K182" s="3">
+        <v>0</v>
+      </c>
+      <c r="L182" s="3">
+        <v>100</v>
+      </c>
+      <c r="M182" s="3">
+        <v>9</v>
+      </c>
+      <c r="N182" s="3">
+        <v>2</v>
+      </c>
+      <c r="O182" s="4">
+        <v>100</v>
+      </c>
+      <c r="P182" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q182" s="17">
+        <v>4</v>
+      </c>
+      <c r="R182" s="17">
+        <v>10</v>
+      </c>
+      <c r="S182" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T182" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="U182" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V182" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W182" s="17">
+        <v>0</v>
+      </c>
+      <c r="X182" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y182" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI182" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK182" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL182" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM182" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN182" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO182" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP182" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ182" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR182" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS182" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT182" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU182" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV182" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW182" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="183" spans="1:49" s="2" customFormat="1">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E183" s="36">
+        <v>36</v>
+      </c>
+      <c r="F183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="3">
+        <v>5</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0</v>
+      </c>
+      <c r="J183" s="37">
+        <v>260000000000</v>
+      </c>
+      <c r="K183" s="3">
+        <v>0</v>
+      </c>
+      <c r="L183" s="3">
+        <v>500</v>
+      </c>
+      <c r="M183" s="3">
+        <v>1</v>
+      </c>
+      <c r="N183" s="3">
+        <v>2</v>
+      </c>
+      <c r="O183" s="4">
+        <v>100</v>
+      </c>
+      <c r="P183" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q183" s="2">
+        <v>4</v>
+      </c>
+      <c r="R183" s="2">
+        <v>10</v>
+      </c>
+      <c r="S183" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T183" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U183" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V183" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W183" s="2">
+        <v>0</v>
+      </c>
+      <c r="X183" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y183" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI183" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK183" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL183" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN183" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO183" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP183" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ183" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR183" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS183" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT183" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU183" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:49" s="2" customFormat="1">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C184" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E184" s="36">
+        <v>36</v>
+      </c>
+      <c r="F184" s="3">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="3">
+        <v>5</v>
+      </c>
+      <c r="I184" s="3">
+        <v>0</v>
+      </c>
+      <c r="J184" s="37">
+        <v>270000000000</v>
+      </c>
+      <c r="K184" s="3">
+        <v>0</v>
+      </c>
+      <c r="L184" s="3">
+        <v>500</v>
+      </c>
+      <c r="M184" s="3">
+        <v>1</v>
+      </c>
+      <c r="N184" s="3">
+        <v>2</v>
+      </c>
+      <c r="O184" s="4">
+        <v>100</v>
+      </c>
+      <c r="P184" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q184" s="2">
+        <v>4</v>
+      </c>
+      <c r="R184" s="2">
+        <v>10</v>
+      </c>
+      <c r="S184" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T184" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U184" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V184" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W184" s="2">
+        <v>0</v>
+      </c>
+      <c r="X184" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y184" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI184" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK184" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL184" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN184" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO184" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP184" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ184" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR184" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS184" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT184" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU184" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:49" s="2" customFormat="1">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C185" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E185" s="36">
+        <v>36</v>
+      </c>
+      <c r="F185" s="3">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="3">
+        <v>5</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0</v>
+      </c>
+      <c r="J185" s="37">
+        <v>280000000000</v>
+      </c>
+      <c r="K185" s="3">
+        <v>0</v>
+      </c>
+      <c r="L185" s="3">
+        <v>500</v>
+      </c>
+      <c r="M185" s="3">
+        <v>1</v>
+      </c>
+      <c r="N185" s="3">
+        <v>2</v>
+      </c>
+      <c r="O185" s="4">
+        <v>100</v>
+      </c>
+      <c r="P185" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q185" s="2">
+        <v>4</v>
+      </c>
+      <c r="R185" s="2">
+        <v>10</v>
+      </c>
+      <c r="S185" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T185" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U185" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V185" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W185" s="2">
+        <v>0</v>
+      </c>
+      <c r="X185" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y185" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI185" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK185" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL185" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN185" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO185" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP185" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ185" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR185" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS185" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT185" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU185" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:49" s="2" customFormat="1">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C186" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E186" s="36">
+        <v>36</v>
+      </c>
+      <c r="F186" s="3">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="3">
+        <v>5</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0</v>
+      </c>
+      <c r="J186" s="37">
+        <v>290000000000</v>
+      </c>
+      <c r="K186" s="3">
+        <v>0</v>
+      </c>
+      <c r="L186" s="3">
+        <v>500</v>
+      </c>
+      <c r="M186" s="3">
+        <v>1</v>
+      </c>
+      <c r="N186" s="3">
+        <v>2</v>
+      </c>
+      <c r="O186" s="4">
+        <v>100</v>
+      </c>
+      <c r="P186" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q186" s="2">
+        <v>4</v>
+      </c>
+      <c r="R186" s="2">
+        <v>10</v>
+      </c>
+      <c r="S186" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T186" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U186" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V186" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W186" s="2">
+        <v>0</v>
+      </c>
+      <c r="X186" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y186" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI186" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK186" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL186" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN186" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO186" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP186" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ186" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR186" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS186" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT186" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU186" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV186" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:49" s="2" customFormat="1">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C187" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E187" s="36">
+        <v>36</v>
+      </c>
+      <c r="F187" s="3">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+      <c r="H187" s="3">
+        <v>5</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0</v>
+      </c>
+      <c r="J187" s="37">
+        <v>300000000000</v>
+      </c>
+      <c r="K187" s="3">
+        <v>0</v>
+      </c>
+      <c r="L187" s="3">
+        <v>500</v>
+      </c>
+      <c r="M187" s="3">
+        <v>1</v>
+      </c>
+      <c r="N187" s="3">
+        <v>2</v>
+      </c>
+      <c r="O187" s="4">
+        <v>100</v>
+      </c>
+      <c r="P187" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q187" s="2">
+        <v>4</v>
+      </c>
+      <c r="R187" s="2">
+        <v>10</v>
+      </c>
+      <c r="S187" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T187" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U187" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V187" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W187" s="2">
+        <v>0</v>
+      </c>
+      <c r="X187" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y187" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI187" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK187" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL187" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN187" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO187" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP187" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ187" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR187" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS187" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT187" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU187" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:49" s="2" customFormat="1">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C188" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E188" s="36">
+        <v>36</v>
+      </c>
+      <c r="F188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H188" s="3">
+        <v>5</v>
+      </c>
+      <c r="I188" s="3">
+        <v>0</v>
+      </c>
+      <c r="J188" s="37">
+        <v>310000000000</v>
+      </c>
+      <c r="K188" s="3">
+        <v>0</v>
+      </c>
+      <c r="L188" s="3">
+        <v>500</v>
+      </c>
+      <c r="M188" s="3">
+        <v>1</v>
+      </c>
+      <c r="N188" s="3">
+        <v>2</v>
+      </c>
+      <c r="O188" s="4">
+        <v>100</v>
+      </c>
+      <c r="P188" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q188" s="2">
+        <v>4</v>
+      </c>
+      <c r="R188" s="2">
+        <v>10</v>
+      </c>
+      <c r="S188" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T188" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U188" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V188" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W188" s="2">
+        <v>0</v>
+      </c>
+      <c r="X188" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y188" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI188" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK188" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL188" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN188" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO188" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP188" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ188" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR188" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS188" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT188" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU188" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:49" s="2" customFormat="1">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E189" s="36">
+        <v>36</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="3">
+        <v>5</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0</v>
+      </c>
+      <c r="J189" s="37">
+        <v>320000000000</v>
+      </c>
+      <c r="K189" s="3">
+        <v>0</v>
+      </c>
+      <c r="L189" s="3">
+        <v>500</v>
+      </c>
+      <c r="M189" s="3">
+        <v>1</v>
+      </c>
+      <c r="N189" s="3">
+        <v>2</v>
+      </c>
+      <c r="O189" s="4">
+        <v>100</v>
+      </c>
+      <c r="P189" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q189" s="2">
+        <v>4</v>
+      </c>
+      <c r="R189" s="2">
+        <v>10</v>
+      </c>
+      <c r="S189" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T189" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U189" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V189" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W189" s="2">
+        <v>0</v>
+      </c>
+      <c r="X189" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y189" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI189" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK189" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL189" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN189" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO189" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP189" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ189" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR189" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS189" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT189" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU189" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:49" s="2" customFormat="1">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C190" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E190" s="36">
+        <v>36</v>
+      </c>
+      <c r="F190" s="3">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="3">
+        <v>5</v>
+      </c>
+      <c r="I190" s="3">
+        <v>0</v>
+      </c>
+      <c r="J190" s="37">
+        <v>330000000000</v>
+      </c>
+      <c r="K190" s="3">
+        <v>0</v>
+      </c>
+      <c r="L190" s="3">
+        <v>500</v>
+      </c>
+      <c r="M190" s="3">
+        <v>1</v>
+      </c>
+      <c r="N190" s="3">
+        <v>2</v>
+      </c>
+      <c r="O190" s="4">
+        <v>100</v>
+      </c>
+      <c r="P190" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q190" s="2">
+        <v>4</v>
+      </c>
+      <c r="R190" s="2">
+        <v>10</v>
+      </c>
+      <c r="S190" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T190" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U190" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V190" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W190" s="2">
+        <v>0</v>
+      </c>
+      <c r="X190" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y190" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI190" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK190" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL190" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN190" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO190" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP190" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ190" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR190" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS190" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT190" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU190" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:49" s="2" customFormat="1">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C191" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E191" s="36">
+        <v>36</v>
+      </c>
+      <c r="F191" s="3">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="3">
+        <v>5</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0</v>
+      </c>
+      <c r="J191" s="37">
+        <v>340000000000</v>
+      </c>
+      <c r="K191" s="3">
+        <v>0</v>
+      </c>
+      <c r="L191" s="3">
+        <v>500</v>
+      </c>
+      <c r="M191" s="3">
+        <v>1</v>
+      </c>
+      <c r="N191" s="3">
+        <v>2</v>
+      </c>
+      <c r="O191" s="4">
+        <v>100</v>
+      </c>
+      <c r="P191" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q191" s="2">
+        <v>4</v>
+      </c>
+      <c r="R191" s="2">
+        <v>10</v>
+      </c>
+      <c r="S191" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T191" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U191" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V191" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W191" s="2">
+        <v>0</v>
+      </c>
+      <c r="X191" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y191" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI191" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ191" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK191" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL191" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN191" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO191" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP191" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ191" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR191" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS191" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT191" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU191" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:49" s="2" customFormat="1">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C192" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E192" s="36">
+        <v>36</v>
+      </c>
+      <c r="F192" s="3">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H192" s="3">
+        <v>5</v>
+      </c>
+      <c r="I192" s="3">
+        <v>0</v>
+      </c>
+      <c r="J192" s="37">
+        <v>350000000000</v>
+      </c>
+      <c r="K192" s="3">
+        <v>0</v>
+      </c>
+      <c r="L192" s="3">
+        <v>500</v>
+      </c>
+      <c r="M192" s="3">
+        <v>1</v>
+      </c>
+      <c r="N192" s="3">
+        <v>2</v>
+      </c>
+      <c r="O192" s="4">
+        <v>100</v>
+      </c>
+      <c r="P192" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q192" s="2">
+        <v>4</v>
+      </c>
+      <c r="R192" s="2">
+        <v>10</v>
+      </c>
+      <c r="S192" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T192" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U192" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V192" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W192" s="2">
+        <v>0</v>
+      </c>
+      <c r="X192" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y192" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI192" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ192" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK192" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL192" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN192" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO192" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP192" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ192" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR192" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS192" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT192" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU192" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV192" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -30827,7 +32484,7 @@
       <c r="F5" s="29">
         <v>4000000000</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="39">
         <v>1</v>
       </c>
       <c r="J5">
@@ -30864,7 +32521,7 @@
         <f>$F$5*(100+B6)/100</f>
         <v>8000000000</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="39"/>
       <c r="J6">
         <v>2</v>
       </c>
@@ -30899,7 +32556,7 @@
         <f t="shared" ref="F7:F21" si="4">$F$5*(100+B7)/100</f>
         <v>12000000000</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="39"/>
       <c r="J7">
         <v>3</v>
       </c>
@@ -30934,7 +32591,7 @@
         <f t="shared" si="4"/>
         <v>16000000000</v>
       </c>
-      <c r="I8" s="38"/>
+      <c r="I8" s="39"/>
       <c r="J8">
         <v>4</v>
       </c>
@@ -30969,7 +32626,7 @@
         <f t="shared" si="4"/>
         <v>20000000000</v>
       </c>
-      <c r="I9" s="38"/>
+      <c r="I9" s="39"/>
       <c r="J9">
         <v>5</v>
       </c>
@@ -31004,7 +32661,7 @@
         <f t="shared" si="4"/>
         <v>24000000000</v>
       </c>
-      <c r="I10" s="38"/>
+      <c r="I10" s="39"/>
       <c r="J10">
         <v>6</v>
       </c>
@@ -31039,7 +32696,7 @@
         <f t="shared" si="4"/>
         <v>28000000000</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="39">
         <v>2</v>
       </c>
       <c r="J11">
@@ -31076,7 +32733,7 @@
         <f t="shared" si="4"/>
         <v>32000000000</v>
       </c>
-      <c r="I12" s="38"/>
+      <c r="I12" s="39"/>
       <c r="J12">
         <v>8</v>
       </c>
@@ -31111,7 +32768,7 @@
         <f t="shared" si="4"/>
         <v>36000000000</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="39"/>
       <c r="J13">
         <v>9</v>
       </c>
@@ -31146,7 +32803,7 @@
         <f t="shared" si="4"/>
         <v>40000000000</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="39"/>
       <c r="J14">
         <v>10</v>
       </c>
@@ -31181,7 +32838,7 @@
         <f t="shared" si="4"/>
         <v>44000000000</v>
       </c>
-      <c r="I15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="J15">
         <v>11</v>
       </c>
@@ -31216,7 +32873,7 @@
         <f t="shared" si="4"/>
         <v>48000000000</v>
       </c>
-      <c r="I16" s="38"/>
+      <c r="I16" s="39"/>
       <c r="J16">
         <v>12</v>
       </c>
@@ -31251,7 +32908,7 @@
         <f t="shared" si="4"/>
         <v>52000000000</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="39">
         <v>3</v>
       </c>
       <c r="J17">
@@ -31288,7 +32945,7 @@
         <f t="shared" si="4"/>
         <v>56000000000</v>
       </c>
-      <c r="I18" s="38"/>
+      <c r="I18" s="39"/>
       <c r="J18">
         <v>14</v>
       </c>
@@ -31323,7 +32980,7 @@
         <f t="shared" si="4"/>
         <v>60000000000</v>
       </c>
-      <c r="I19" s="38"/>
+      <c r="I19" s="39"/>
       <c r="J19">
         <v>15</v>
       </c>
@@ -31358,7 +33015,7 @@
         <f t="shared" si="4"/>
         <v>64000000000</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="39"/>
       <c r="J20">
         <v>16</v>
       </c>
@@ -31393,7 +33050,7 @@
         <f t="shared" si="4"/>
         <v>68000000000</v>
       </c>
-      <c r="I21" s="38"/>
+      <c r="I21" s="39"/>
       <c r="J21">
         <v>17</v>
       </c>
@@ -31405,7 +33062,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="I22" s="38"/>
+      <c r="I22" s="39"/>
       <c r="J22">
         <v>18</v>
       </c>
@@ -31417,7 +33074,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="I23" s="38">
+      <c r="I23" s="39">
         <v>4</v>
       </c>
       <c r="J23">
@@ -31431,7 +33088,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="I24" s="38"/>
+      <c r="I24" s="39"/>
       <c r="J24">
         <v>20</v>
       </c>
@@ -31443,7 +33100,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="I25" s="38"/>
+      <c r="I25" s="39"/>
       <c r="J25">
         <v>21</v>
       </c>
@@ -31455,7 +33112,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="I26" s="38"/>
+      <c r="I26" s="39"/>
       <c r="J26">
         <v>22</v>
       </c>
@@ -31467,7 +33124,7 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="I27" s="38"/>
+      <c r="I27" s="39"/>
       <c r="J27">
         <v>23</v>
       </c>
@@ -31479,7 +33136,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="I28" s="38"/>
+      <c r="I28" s="39"/>
       <c r="J28">
         <v>24</v>
       </c>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B7D3AD-5F7C-460A-AE5A-59B67BCC5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB31A2-5DE4-4C7D-9215-5D5C3E92D5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="492">
   <si>
     <t>id</t>
   </si>
@@ -1713,6 +1713,80 @@
   </si>
   <si>
     <t>용인계 - 용술사에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonSkill0</t>
+  </si>
+  <si>
+    <t>DragonSkill1</t>
+  </si>
+  <si>
+    <t>DragonSkill3</t>
+  </si>
+  <si>
+    <t>DragonSkill2</t>
+  </si>
+  <si>
+    <t>DragonSkill4</t>
+  </si>
+  <si>
+    <t>DragonSkill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인검 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인검 2형</t>
+  </si>
+  <si>
+    <t>용인검 3형</t>
+  </si>
+  <si>
+    <t>용인검 4형</t>
+  </si>
+  <si>
+    <t>용인검 5형</t>
+  </si>
+  <si>
+    <t>수호동물기술25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호동물기술26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호동물기술27</t>
+  </si>
+  <si>
+    <t>수호동물기술28</t>
+  </si>
+  <si>
+    <t>수호동물기술29</t>
+  </si>
+  <si>
+    <t>수호동물기술30</t>
+  </si>
+  <si>
+    <t>수호동물기술31</t>
+  </si>
+  <si>
+    <t>수호동물기술32</t>
+  </si>
+  <si>
+    <t>수호동물기술33</t>
+  </si>
+  <si>
+    <t>수호동물기술34</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2377,12 +2451,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW192"/>
+  <dimension ref="A1:AW207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AS182" sqref="AS182"/>
+      <selection pane="bottomLeft" activeCell="AL196" sqref="AL196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30446,6 +30520,2196 @@
         <v>217</v>
       </c>
       <c r="AV192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:48">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E193" s="18">
+        <v>75</v>
+      </c>
+      <c r="F193" s="3">
+        <v>1</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0</v>
+      </c>
+      <c r="H193" s="3">
+        <v>1</v>
+      </c>
+      <c r="I193" s="3">
+        <v>0</v>
+      </c>
+      <c r="J193" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="K193" s="3">
+        <v>300</v>
+      </c>
+      <c r="L193" s="3">
+        <v>100</v>
+      </c>
+      <c r="M193" s="3">
+        <v>9</v>
+      </c>
+      <c r="N193" s="3">
+        <v>2</v>
+      </c>
+      <c r="O193" s="4">
+        <v>25</v>
+      </c>
+      <c r="P193" s="19">
+        <v>32</v>
+      </c>
+      <c r="Q193" s="17">
+        <v>4</v>
+      </c>
+      <c r="R193" s="17">
+        <v>10</v>
+      </c>
+      <c r="S193" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T193" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="U193" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V193" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="W193" s="17">
+        <v>0</v>
+      </c>
+      <c r="X193" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y193" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI193" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK193" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL193" s="17">
+        <v>99</v>
+      </c>
+      <c r="AM193" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN193" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO193" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP193" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ193" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR193" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS193" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT193" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU193" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV193" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:48">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E194" s="18">
+        <v>76</v>
+      </c>
+      <c r="F194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
+      <c r="H194" s="3">
+        <v>1</v>
+      </c>
+      <c r="I194" s="3">
+        <v>0</v>
+      </c>
+      <c r="J194" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="K194" s="3">
+        <v>325</v>
+      </c>
+      <c r="L194" s="3">
+        <v>100</v>
+      </c>
+      <c r="M194" s="3">
+        <v>9</v>
+      </c>
+      <c r="N194" s="3">
+        <v>2</v>
+      </c>
+      <c r="O194" s="4">
+        <v>25</v>
+      </c>
+      <c r="P194" s="19">
+        <v>32</v>
+      </c>
+      <c r="Q194" s="17">
+        <v>4</v>
+      </c>
+      <c r="R194" s="17">
+        <v>10</v>
+      </c>
+      <c r="S194" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T194" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="U194" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V194" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="W194" s="17">
+        <v>0</v>
+      </c>
+      <c r="X194" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y194" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI194" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK194" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL194" s="17">
+        <v>99</v>
+      </c>
+      <c r="AM194" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="AN194" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO194" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP194" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ194" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR194" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS194" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT194" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU194" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV194" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:48">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E195" s="18">
+        <v>77</v>
+      </c>
+      <c r="F195" s="3">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="3">
+        <v>1</v>
+      </c>
+      <c r="I195" s="3">
+        <v>0</v>
+      </c>
+      <c r="J195" s="3">
+        <v>300000000</v>
+      </c>
+      <c r="K195" s="3">
+        <v>350</v>
+      </c>
+      <c r="L195" s="3">
+        <v>100</v>
+      </c>
+      <c r="M195" s="3">
+        <v>9</v>
+      </c>
+      <c r="N195" s="3">
+        <v>2</v>
+      </c>
+      <c r="O195" s="4">
+        <v>25</v>
+      </c>
+      <c r="P195" s="19">
+        <v>32</v>
+      </c>
+      <c r="Q195" s="17">
+        <v>4</v>
+      </c>
+      <c r="R195" s="17">
+        <v>10</v>
+      </c>
+      <c r="S195" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T195" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="U195" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V195" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="W195" s="17">
+        <v>0</v>
+      </c>
+      <c r="X195" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y195" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI195" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK195" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL195" s="17">
+        <v>99</v>
+      </c>
+      <c r="AM195" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AN195" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO195" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP195" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ195" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR195" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS195" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT195" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU195" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV195" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:48">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E196" s="18">
+        <v>78</v>
+      </c>
+      <c r="F196" s="3">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+      <c r="H196" s="3">
+        <v>1</v>
+      </c>
+      <c r="I196" s="3">
+        <v>0</v>
+      </c>
+      <c r="J196" s="3">
+        <v>400000000</v>
+      </c>
+      <c r="K196" s="3">
+        <v>375</v>
+      </c>
+      <c r="L196" s="3">
+        <v>100</v>
+      </c>
+      <c r="M196" s="3">
+        <v>9</v>
+      </c>
+      <c r="N196" s="3">
+        <v>2</v>
+      </c>
+      <c r="O196" s="4">
+        <v>25</v>
+      </c>
+      <c r="P196" s="19">
+        <v>32</v>
+      </c>
+      <c r="Q196" s="17">
+        <v>4</v>
+      </c>
+      <c r="R196" s="17">
+        <v>10</v>
+      </c>
+      <c r="S196" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T196" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="U196" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V196" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="W196" s="17">
+        <v>0</v>
+      </c>
+      <c r="X196" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y196" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI196" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK196" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL196" s="17">
+        <v>99</v>
+      </c>
+      <c r="AM196" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="AN196" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO196" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP196" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ196" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR196" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS196" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT196" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU196" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV196" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:48">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C197" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E197" s="18">
+        <v>79</v>
+      </c>
+      <c r="F197" s="3">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0</v>
+      </c>
+      <c r="H197" s="3">
+        <v>1</v>
+      </c>
+      <c r="I197" s="3">
+        <v>0</v>
+      </c>
+      <c r="J197" s="3">
+        <v>500000000</v>
+      </c>
+      <c r="K197" s="3">
+        <v>400</v>
+      </c>
+      <c r="L197" s="3">
+        <v>100</v>
+      </c>
+      <c r="M197" s="3">
+        <v>9</v>
+      </c>
+      <c r="N197" s="3">
+        <v>2</v>
+      </c>
+      <c r="O197" s="4">
+        <v>25</v>
+      </c>
+      <c r="P197" s="19">
+        <v>32</v>
+      </c>
+      <c r="Q197" s="17">
+        <v>4</v>
+      </c>
+      <c r="R197" s="17">
+        <v>10</v>
+      </c>
+      <c r="S197" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T197" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="U197" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V197" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="W197" s="17">
+        <v>0</v>
+      </c>
+      <c r="X197" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y197" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI197" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK197" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL197" s="17">
+        <v>99</v>
+      </c>
+      <c r="AM197" s="38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN197" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO197" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP197" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ197" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR197" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS197" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT197" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU197" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV197" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:48">
+      <c r="A198" s="16">
+        <v>196</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D198" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E198" s="28">
+        <v>36</v>
+      </c>
+      <c r="F198" s="24">
+        <v>1</v>
+      </c>
+      <c r="G198" s="24">
+        <v>0</v>
+      </c>
+      <c r="H198" s="24">
+        <v>10</v>
+      </c>
+      <c r="I198" s="24">
+        <v>0</v>
+      </c>
+      <c r="J198" s="24">
+        <v>3700000000</v>
+      </c>
+      <c r="K198" s="24">
+        <v>250</v>
+      </c>
+      <c r="L198" s="24">
+        <v>100</v>
+      </c>
+      <c r="M198" s="24">
+        <v>1</v>
+      </c>
+      <c r="N198" s="24">
+        <v>2</v>
+      </c>
+      <c r="O198" s="25">
+        <v>100</v>
+      </c>
+      <c r="P198" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q198" s="6">
+        <v>4</v>
+      </c>
+      <c r="R198" s="6">
+        <v>10</v>
+      </c>
+      <c r="S198" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T198" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U198" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V198" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W198" s="6">
+        <v>0</v>
+      </c>
+      <c r="X198" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y198" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI198" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ198" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK198" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL198" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM198" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN198" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO198" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP198" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ198" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR198" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS198" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT198" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU198" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV198" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:48">
+      <c r="A199" s="16">
+        <v>197</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E199" s="28">
+        <v>36</v>
+      </c>
+      <c r="F199" s="24">
+        <v>1</v>
+      </c>
+      <c r="G199" s="24">
+        <v>0</v>
+      </c>
+      <c r="H199" s="24">
+        <v>10</v>
+      </c>
+      <c r="I199" s="24">
+        <v>0</v>
+      </c>
+      <c r="J199" s="24">
+        <v>3900000000</v>
+      </c>
+      <c r="K199" s="24">
+        <v>250</v>
+      </c>
+      <c r="L199" s="24">
+        <v>100</v>
+      </c>
+      <c r="M199" s="24">
+        <v>1</v>
+      </c>
+      <c r="N199" s="24">
+        <v>2</v>
+      </c>
+      <c r="O199" s="25">
+        <v>100</v>
+      </c>
+      <c r="P199" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q199" s="6">
+        <v>4</v>
+      </c>
+      <c r="R199" s="6">
+        <v>10</v>
+      </c>
+      <c r="S199" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T199" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U199" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V199" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W199" s="6">
+        <v>0</v>
+      </c>
+      <c r="X199" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y199" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI199" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ199" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK199" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL199" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM199" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN199" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO199" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP199" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ199" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR199" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS199" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT199" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU199" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV199" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:48">
+      <c r="A200" s="16">
+        <v>198</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="D200" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E200" s="28">
+        <v>36</v>
+      </c>
+      <c r="F200" s="24">
+        <v>1</v>
+      </c>
+      <c r="G200" s="24">
+        <v>0</v>
+      </c>
+      <c r="H200" s="24">
+        <v>10</v>
+      </c>
+      <c r="I200" s="24">
+        <v>0</v>
+      </c>
+      <c r="J200" s="24">
+        <v>4100000000</v>
+      </c>
+      <c r="K200" s="24">
+        <v>250</v>
+      </c>
+      <c r="L200" s="24">
+        <v>100</v>
+      </c>
+      <c r="M200" s="24">
+        <v>1</v>
+      </c>
+      <c r="N200" s="24">
+        <v>2</v>
+      </c>
+      <c r="O200" s="25">
+        <v>100</v>
+      </c>
+      <c r="P200" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q200" s="6">
+        <v>4</v>
+      </c>
+      <c r="R200" s="6">
+        <v>10</v>
+      </c>
+      <c r="S200" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T200" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U200" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V200" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W200" s="6">
+        <v>0</v>
+      </c>
+      <c r="X200" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y200" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI200" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ200" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK200" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL200" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM200" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN200" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO200" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP200" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ200" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR200" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS200" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT200" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU200" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV200" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:48">
+      <c r="A201" s="16">
+        <v>199</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="D201" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E201" s="28">
+        <v>36</v>
+      </c>
+      <c r="F201" s="24">
+        <v>1</v>
+      </c>
+      <c r="G201" s="24">
+        <v>0</v>
+      </c>
+      <c r="H201" s="24">
+        <v>10</v>
+      </c>
+      <c r="I201" s="24">
+        <v>0</v>
+      </c>
+      <c r="J201" s="24">
+        <v>4300000000</v>
+      </c>
+      <c r="K201" s="24">
+        <v>250</v>
+      </c>
+      <c r="L201" s="24">
+        <v>100</v>
+      </c>
+      <c r="M201" s="24">
+        <v>1</v>
+      </c>
+      <c r="N201" s="24">
+        <v>2</v>
+      </c>
+      <c r="O201" s="25">
+        <v>100</v>
+      </c>
+      <c r="P201" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q201" s="6">
+        <v>4</v>
+      </c>
+      <c r="R201" s="6">
+        <v>10</v>
+      </c>
+      <c r="S201" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T201" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U201" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V201" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W201" s="6">
+        <v>0</v>
+      </c>
+      <c r="X201" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y201" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI201" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ201" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK201" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL201" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM201" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN201" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO201" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP201" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ201" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR201" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS201" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT201" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU201" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV201" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:48">
+      <c r="A202" s="16">
+        <v>200</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D202" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E202" s="28">
+        <v>36</v>
+      </c>
+      <c r="F202" s="24">
+        <v>1</v>
+      </c>
+      <c r="G202" s="24">
+        <v>0</v>
+      </c>
+      <c r="H202" s="24">
+        <v>10</v>
+      </c>
+      <c r="I202" s="24">
+        <v>0</v>
+      </c>
+      <c r="J202" s="24">
+        <v>4500000000</v>
+      </c>
+      <c r="K202" s="24">
+        <v>250</v>
+      </c>
+      <c r="L202" s="24">
+        <v>100</v>
+      </c>
+      <c r="M202" s="24">
+        <v>1</v>
+      </c>
+      <c r="N202" s="24">
+        <v>2</v>
+      </c>
+      <c r="O202" s="25">
+        <v>100</v>
+      </c>
+      <c r="P202" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q202" s="6">
+        <v>4</v>
+      </c>
+      <c r="R202" s="6">
+        <v>10</v>
+      </c>
+      <c r="S202" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T202" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U202" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V202" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W202" s="6">
+        <v>0</v>
+      </c>
+      <c r="X202" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y202" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI202" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ202" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK202" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL202" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM202" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN202" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO202" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP202" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ202" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR202" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS202" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT202" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU202" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV202" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:48">
+      <c r="A203" s="16">
+        <v>201</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C203" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="D203" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E203" s="28">
+        <v>36</v>
+      </c>
+      <c r="F203" s="24">
+        <v>1</v>
+      </c>
+      <c r="G203" s="24">
+        <v>0</v>
+      </c>
+      <c r="H203" s="24">
+        <v>10</v>
+      </c>
+      <c r="I203" s="24">
+        <v>0</v>
+      </c>
+      <c r="J203" s="24">
+        <v>4700000000</v>
+      </c>
+      <c r="K203" s="24">
+        <v>250</v>
+      </c>
+      <c r="L203" s="24">
+        <v>100</v>
+      </c>
+      <c r="M203" s="24">
+        <v>1</v>
+      </c>
+      <c r="N203" s="24">
+        <v>2</v>
+      </c>
+      <c r="O203" s="25">
+        <v>100</v>
+      </c>
+      <c r="P203" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q203" s="6">
+        <v>4</v>
+      </c>
+      <c r="R203" s="6">
+        <v>10</v>
+      </c>
+      <c r="S203" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T203" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U203" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V203" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W203" s="6">
+        <v>0</v>
+      </c>
+      <c r="X203" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y203" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI203" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ203" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK203" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL203" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM203" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN203" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO203" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP203" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ203" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR203" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS203" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT203" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU203" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV203" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:48">
+      <c r="A204" s="16">
+        <v>202</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C204" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E204" s="28">
+        <v>36</v>
+      </c>
+      <c r="F204" s="24">
+        <v>1</v>
+      </c>
+      <c r="G204" s="24">
+        <v>0</v>
+      </c>
+      <c r="H204" s="24">
+        <v>10</v>
+      </c>
+      <c r="I204" s="24">
+        <v>0</v>
+      </c>
+      <c r="J204" s="24">
+        <v>4900000000</v>
+      </c>
+      <c r="K204" s="24">
+        <v>250</v>
+      </c>
+      <c r="L204" s="24">
+        <v>100</v>
+      </c>
+      <c r="M204" s="24">
+        <v>1</v>
+      </c>
+      <c r="N204" s="24">
+        <v>2</v>
+      </c>
+      <c r="O204" s="25">
+        <v>100</v>
+      </c>
+      <c r="P204" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q204" s="6">
+        <v>4</v>
+      </c>
+      <c r="R204" s="6">
+        <v>10</v>
+      </c>
+      <c r="S204" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T204" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U204" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V204" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W204" s="6">
+        <v>0</v>
+      </c>
+      <c r="X204" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y204" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI204" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ204" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK204" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL204" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM204" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN204" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO204" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP204" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ204" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR204" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS204" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT204" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU204" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV204" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:48">
+      <c r="A205" s="16">
+        <v>203</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C205" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="D205" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E205" s="28">
+        <v>36</v>
+      </c>
+      <c r="F205" s="24">
+        <v>1</v>
+      </c>
+      <c r="G205" s="24">
+        <v>0</v>
+      </c>
+      <c r="H205" s="24">
+        <v>10</v>
+      </c>
+      <c r="I205" s="24">
+        <v>0</v>
+      </c>
+      <c r="J205" s="24">
+        <v>5100000000</v>
+      </c>
+      <c r="K205" s="24">
+        <v>250</v>
+      </c>
+      <c r="L205" s="24">
+        <v>100</v>
+      </c>
+      <c r="M205" s="24">
+        <v>1</v>
+      </c>
+      <c r="N205" s="24">
+        <v>2</v>
+      </c>
+      <c r="O205" s="25">
+        <v>100</v>
+      </c>
+      <c r="P205" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q205" s="6">
+        <v>4</v>
+      </c>
+      <c r="R205" s="6">
+        <v>10</v>
+      </c>
+      <c r="S205" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T205" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U205" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V205" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W205" s="6">
+        <v>0</v>
+      </c>
+      <c r="X205" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y205" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI205" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ205" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK205" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL205" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM205" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN205" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO205" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP205" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ205" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR205" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS205" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT205" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU205" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV205" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:48">
+      <c r="A206" s="16">
+        <v>204</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C206" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="D206" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E206" s="28">
+        <v>36</v>
+      </c>
+      <c r="F206" s="24">
+        <v>1</v>
+      </c>
+      <c r="G206" s="24">
+        <v>0</v>
+      </c>
+      <c r="H206" s="24">
+        <v>10</v>
+      </c>
+      <c r="I206" s="24">
+        <v>0</v>
+      </c>
+      <c r="J206" s="24">
+        <v>5300000000</v>
+      </c>
+      <c r="K206" s="24">
+        <v>250</v>
+      </c>
+      <c r="L206" s="24">
+        <v>100</v>
+      </c>
+      <c r="M206" s="24">
+        <v>1</v>
+      </c>
+      <c r="N206" s="24">
+        <v>2</v>
+      </c>
+      <c r="O206" s="25">
+        <v>100</v>
+      </c>
+      <c r="P206" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q206" s="6">
+        <v>4</v>
+      </c>
+      <c r="R206" s="6">
+        <v>10</v>
+      </c>
+      <c r="S206" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T206" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U206" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V206" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W206" s="6">
+        <v>0</v>
+      </c>
+      <c r="X206" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y206" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI206" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ206" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK206" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL206" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM206" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN206" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO206" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP206" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ206" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR206" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS206" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT206" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU206" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV206" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:48">
+      <c r="A207" s="16">
+        <v>205</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D207" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E207" s="28">
+        <v>36</v>
+      </c>
+      <c r="F207" s="24">
+        <v>1</v>
+      </c>
+      <c r="G207" s="24">
+        <v>0</v>
+      </c>
+      <c r="H207" s="24">
+        <v>10</v>
+      </c>
+      <c r="I207" s="24">
+        <v>0</v>
+      </c>
+      <c r="J207" s="24">
+        <v>5500000000</v>
+      </c>
+      <c r="K207" s="24">
+        <v>250</v>
+      </c>
+      <c r="L207" s="24">
+        <v>100</v>
+      </c>
+      <c r="M207" s="24">
+        <v>1</v>
+      </c>
+      <c r="N207" s="24">
+        <v>2</v>
+      </c>
+      <c r="O207" s="25">
+        <v>100</v>
+      </c>
+      <c r="P207" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q207" s="6">
+        <v>4</v>
+      </c>
+      <c r="R207" s="6">
+        <v>10</v>
+      </c>
+      <c r="S207" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="T207" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="U207" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="V207" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="W207" s="6">
+        <v>0</v>
+      </c>
+      <c r="X207" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y207" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI207" s="6">
+        <v>4</v>
+      </c>
+      <c r="AJ207" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK207" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL207" s="6">
+        <v>40</v>
+      </c>
+      <c r="AM207" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN207" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO207" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP207" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AQ207" s="6">
+        <v>600</v>
+      </c>
+      <c r="AR207" s="6">
+        <v>600</v>
+      </c>
+      <c r="AS207" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT207" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU207" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV207" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB31A2-5DE4-4C7D-9215-5D5C3E92D5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5240A208-0AC8-44B4-8785-2A7F73BC01CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="512">
   <si>
     <t>id</t>
   </si>
@@ -1788,6 +1788,68 @@
   <si>
     <t>14</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 62단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 63단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 64단계</t>
+  </si>
+  <si>
+    <t>도술 65단계</t>
+  </si>
+  <si>
+    <t>도술 66단계</t>
+  </si>
+  <si>
+    <t>도술 67단계</t>
+  </si>
+  <si>
+    <t>도술 68단계</t>
+  </si>
+  <si>
+    <t>도술 69단계</t>
+  </si>
+  <si>
+    <t>도술 70단계</t>
+  </si>
+  <si>
+    <t>도술 71단계</t>
+  </si>
+  <si>
+    <t>도술 72단계</t>
+  </si>
+  <si>
+    <t>도술 73단계</t>
+  </si>
+  <si>
+    <t>도술 74단계</t>
+  </si>
+  <si>
+    <t>도술 75단계</t>
+  </si>
+  <si>
+    <t>도술 76단계</t>
+  </si>
+  <si>
+    <t>도술 77단계</t>
+  </si>
+  <si>
+    <t>도술 78단계</t>
+  </si>
+  <si>
+    <t>도술 79단계</t>
+  </si>
+  <si>
+    <t>도술 80단계</t>
+  </si>
+  <si>
+    <t>도술 81단계</t>
   </si>
 </sst>
 </file>
@@ -2451,12 +2513,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW207"/>
+  <dimension ref="A1:AW227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AL196" sqref="AL196"/>
+      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -32710,6 +32772,2926 @@
         <v>217</v>
       </c>
       <c r="AV207" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:48" s="2" customFormat="1">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C208" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E208" s="36">
+        <v>36</v>
+      </c>
+      <c r="F208" s="3">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="3">
+        <v>5</v>
+      </c>
+      <c r="I208" s="3">
+        <v>0</v>
+      </c>
+      <c r="J208" s="37">
+        <v>350000000000</v>
+      </c>
+      <c r="K208" s="3">
+        <v>0</v>
+      </c>
+      <c r="L208" s="3">
+        <v>500</v>
+      </c>
+      <c r="M208" s="3">
+        <v>1</v>
+      </c>
+      <c r="N208" s="3">
+        <v>2</v>
+      </c>
+      <c r="O208" s="4">
+        <v>100</v>
+      </c>
+      <c r="P208" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>4</v>
+      </c>
+      <c r="R208" s="2">
+        <v>10</v>
+      </c>
+      <c r="S208" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T208" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U208" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V208" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W208" s="2">
+        <v>0</v>
+      </c>
+      <c r="X208" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI208" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK208" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL208" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN208" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO208" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP208" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ208" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR208" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS208" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT208" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU208" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:48" s="2" customFormat="1">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C209" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E209" s="36">
+        <v>36</v>
+      </c>
+      <c r="F209" s="3">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="3">
+        <v>5</v>
+      </c>
+      <c r="I209" s="3">
+        <v>0</v>
+      </c>
+      <c r="J209" s="37">
+        <v>360000000000</v>
+      </c>
+      <c r="K209" s="3">
+        <v>0</v>
+      </c>
+      <c r="L209" s="3">
+        <v>500</v>
+      </c>
+      <c r="M209" s="3">
+        <v>1</v>
+      </c>
+      <c r="N209" s="3">
+        <v>2</v>
+      </c>
+      <c r="O209" s="4">
+        <v>100</v>
+      </c>
+      <c r="P209" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q209" s="2">
+        <v>4</v>
+      </c>
+      <c r="R209" s="2">
+        <v>10</v>
+      </c>
+      <c r="S209" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T209" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U209" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V209" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W209" s="2">
+        <v>0</v>
+      </c>
+      <c r="X209" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y209" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI209" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK209" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL209" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO209" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP209" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ209" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR209" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS209" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT209" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU209" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:48" s="2" customFormat="1">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C210" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E210" s="36">
+        <v>36</v>
+      </c>
+      <c r="F210" s="3">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="3">
+        <v>5</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0</v>
+      </c>
+      <c r="J210" s="37">
+        <v>370000000000</v>
+      </c>
+      <c r="K210" s="3">
+        <v>0</v>
+      </c>
+      <c r="L210" s="3">
+        <v>500</v>
+      </c>
+      <c r="M210" s="3">
+        <v>1</v>
+      </c>
+      <c r="N210" s="3">
+        <v>2</v>
+      </c>
+      <c r="O210" s="4">
+        <v>100</v>
+      </c>
+      <c r="P210" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>4</v>
+      </c>
+      <c r="R210" s="2">
+        <v>10</v>
+      </c>
+      <c r="S210" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T210" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U210" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V210" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W210" s="2">
+        <v>0</v>
+      </c>
+      <c r="X210" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y210" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI210" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK210" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL210" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN210" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO210" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP210" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ210" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR210" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS210" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT210" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU210" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV210" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:48" s="2" customFormat="1">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C211" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E211" s="36">
+        <v>36</v>
+      </c>
+      <c r="F211" s="3">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>5</v>
+      </c>
+      <c r="I211" s="3">
+        <v>0</v>
+      </c>
+      <c r="J211" s="37">
+        <v>380000000000</v>
+      </c>
+      <c r="K211" s="3">
+        <v>0</v>
+      </c>
+      <c r="L211" s="3">
+        <v>500</v>
+      </c>
+      <c r="M211" s="3">
+        <v>1</v>
+      </c>
+      <c r="N211" s="3">
+        <v>2</v>
+      </c>
+      <c r="O211" s="4">
+        <v>100</v>
+      </c>
+      <c r="P211" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q211" s="2">
+        <v>4</v>
+      </c>
+      <c r="R211" s="2">
+        <v>10</v>
+      </c>
+      <c r="S211" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T211" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U211" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V211" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W211" s="2">
+        <v>0</v>
+      </c>
+      <c r="X211" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y211" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI211" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK211" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL211" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN211" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO211" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP211" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ211" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR211" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS211" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT211" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU211" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:48" s="2" customFormat="1">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C212" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E212" s="36">
+        <v>36</v>
+      </c>
+      <c r="F212" s="3">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="3">
+        <v>5</v>
+      </c>
+      <c r="I212" s="3">
+        <v>0</v>
+      </c>
+      <c r="J212" s="37">
+        <v>390000000000</v>
+      </c>
+      <c r="K212" s="3">
+        <v>0</v>
+      </c>
+      <c r="L212" s="3">
+        <v>500</v>
+      </c>
+      <c r="M212" s="3">
+        <v>1</v>
+      </c>
+      <c r="N212" s="3">
+        <v>2</v>
+      </c>
+      <c r="O212" s="4">
+        <v>100</v>
+      </c>
+      <c r="P212" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q212" s="2">
+        <v>4</v>
+      </c>
+      <c r="R212" s="2">
+        <v>10</v>
+      </c>
+      <c r="S212" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T212" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U212" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V212" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W212" s="2">
+        <v>0</v>
+      </c>
+      <c r="X212" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y212" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI212" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK212" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL212" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN212" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO212" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP212" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ212" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR212" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS212" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT212" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU212" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:48" s="2" customFormat="1">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C213" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E213" s="36">
+        <v>36</v>
+      </c>
+      <c r="F213" s="3">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="3">
+        <v>5</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0</v>
+      </c>
+      <c r="J213" s="37">
+        <v>400000000000</v>
+      </c>
+      <c r="K213" s="3">
+        <v>0</v>
+      </c>
+      <c r="L213" s="3">
+        <v>500</v>
+      </c>
+      <c r="M213" s="3">
+        <v>1</v>
+      </c>
+      <c r="N213" s="3">
+        <v>2</v>
+      </c>
+      <c r="O213" s="4">
+        <v>100</v>
+      </c>
+      <c r="P213" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q213" s="2">
+        <v>4</v>
+      </c>
+      <c r="R213" s="2">
+        <v>10</v>
+      </c>
+      <c r="S213" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T213" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U213" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V213" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W213" s="2">
+        <v>0</v>
+      </c>
+      <c r="X213" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y213" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI213" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK213" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL213" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN213" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO213" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP213" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ213" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR213" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS213" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT213" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU213" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV213" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:48" s="2" customFormat="1">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C214" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E214" s="36">
+        <v>36</v>
+      </c>
+      <c r="F214" s="3">
+        <v>1</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="3">
+        <v>5</v>
+      </c>
+      <c r="I214" s="3">
+        <v>0</v>
+      </c>
+      <c r="J214" s="37">
+        <v>410000000000</v>
+      </c>
+      <c r="K214" s="3">
+        <v>0</v>
+      </c>
+      <c r="L214" s="3">
+        <v>500</v>
+      </c>
+      <c r="M214" s="3">
+        <v>1</v>
+      </c>
+      <c r="N214" s="3">
+        <v>2</v>
+      </c>
+      <c r="O214" s="4">
+        <v>100</v>
+      </c>
+      <c r="P214" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>4</v>
+      </c>
+      <c r="R214" s="2">
+        <v>10</v>
+      </c>
+      <c r="S214" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T214" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U214" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V214" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W214" s="2">
+        <v>0</v>
+      </c>
+      <c r="X214" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y214" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI214" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK214" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL214" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN214" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO214" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP214" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ214" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR214" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS214" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT214" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU214" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:48" s="2" customFormat="1">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C215" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E215" s="36">
+        <v>36</v>
+      </c>
+      <c r="F215" s="3">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="3">
+        <v>5</v>
+      </c>
+      <c r="I215" s="3">
+        <v>0</v>
+      </c>
+      <c r="J215" s="37">
+        <v>420000000000</v>
+      </c>
+      <c r="K215" s="3">
+        <v>0</v>
+      </c>
+      <c r="L215" s="3">
+        <v>500</v>
+      </c>
+      <c r="M215" s="3">
+        <v>1</v>
+      </c>
+      <c r="N215" s="3">
+        <v>2</v>
+      </c>
+      <c r="O215" s="4">
+        <v>100</v>
+      </c>
+      <c r="P215" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q215" s="2">
+        <v>4</v>
+      </c>
+      <c r="R215" s="2">
+        <v>10</v>
+      </c>
+      <c r="S215" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T215" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U215" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V215" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W215" s="2">
+        <v>0</v>
+      </c>
+      <c r="X215" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y215" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI215" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK215" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL215" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN215" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO215" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP215" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ215" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR215" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS215" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT215" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU215" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV215" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:48" s="2" customFormat="1">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C216" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E216" s="36">
+        <v>36</v>
+      </c>
+      <c r="F216" s="3">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="3">
+        <v>5</v>
+      </c>
+      <c r="I216" s="3">
+        <v>0</v>
+      </c>
+      <c r="J216" s="37">
+        <v>430000000000</v>
+      </c>
+      <c r="K216" s="3">
+        <v>0</v>
+      </c>
+      <c r="L216" s="3">
+        <v>500</v>
+      </c>
+      <c r="M216" s="3">
+        <v>1</v>
+      </c>
+      <c r="N216" s="3">
+        <v>2</v>
+      </c>
+      <c r="O216" s="4">
+        <v>100</v>
+      </c>
+      <c r="P216" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q216" s="2">
+        <v>4</v>
+      </c>
+      <c r="R216" s="2">
+        <v>10</v>
+      </c>
+      <c r="S216" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T216" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U216" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V216" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W216" s="2">
+        <v>0</v>
+      </c>
+      <c r="X216" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y216" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI216" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK216" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL216" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN216" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO216" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP216" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ216" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR216" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS216" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT216" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU216" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:48" s="2" customFormat="1">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C217" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E217" s="36">
+        <v>36</v>
+      </c>
+      <c r="F217" s="3">
+        <v>1</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="3">
+        <v>5</v>
+      </c>
+      <c r="I217" s="3">
+        <v>0</v>
+      </c>
+      <c r="J217" s="37">
+        <v>440000000000</v>
+      </c>
+      <c r="K217" s="3">
+        <v>0</v>
+      </c>
+      <c r="L217" s="3">
+        <v>500</v>
+      </c>
+      <c r="M217" s="3">
+        <v>1</v>
+      </c>
+      <c r="N217" s="3">
+        <v>2</v>
+      </c>
+      <c r="O217" s="4">
+        <v>100</v>
+      </c>
+      <c r="P217" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>4</v>
+      </c>
+      <c r="R217" s="2">
+        <v>10</v>
+      </c>
+      <c r="S217" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T217" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U217" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V217" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W217" s="2">
+        <v>0</v>
+      </c>
+      <c r="X217" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y217" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI217" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK217" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL217" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN217" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO217" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP217" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ217" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR217" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS217" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT217" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU217" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV217" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:48" s="2" customFormat="1">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C218" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E218" s="36">
+        <v>36</v>
+      </c>
+      <c r="F218" s="3">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
+      <c r="H218" s="3">
+        <v>5</v>
+      </c>
+      <c r="I218" s="3">
+        <v>0</v>
+      </c>
+      <c r="J218" s="37">
+        <v>450000000000</v>
+      </c>
+      <c r="K218" s="3">
+        <v>0</v>
+      </c>
+      <c r="L218" s="3">
+        <v>500</v>
+      </c>
+      <c r="M218" s="3">
+        <v>1</v>
+      </c>
+      <c r="N218" s="3">
+        <v>2</v>
+      </c>
+      <c r="O218" s="4">
+        <v>100</v>
+      </c>
+      <c r="P218" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q218" s="2">
+        <v>4</v>
+      </c>
+      <c r="R218" s="2">
+        <v>10</v>
+      </c>
+      <c r="S218" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T218" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U218" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V218" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W218" s="2">
+        <v>0</v>
+      </c>
+      <c r="X218" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y218" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI218" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK218" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL218" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN218" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO218" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP218" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ218" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR218" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS218" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT218" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU218" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV218" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:48" s="2" customFormat="1">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C219" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E219" s="36">
+        <v>36</v>
+      </c>
+      <c r="F219" s="3">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="3">
+        <v>5</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0</v>
+      </c>
+      <c r="J219" s="37">
+        <v>460000000000</v>
+      </c>
+      <c r="K219" s="3">
+        <v>0</v>
+      </c>
+      <c r="L219" s="3">
+        <v>500</v>
+      </c>
+      <c r="M219" s="3">
+        <v>1</v>
+      </c>
+      <c r="N219" s="3">
+        <v>2</v>
+      </c>
+      <c r="O219" s="4">
+        <v>100</v>
+      </c>
+      <c r="P219" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>4</v>
+      </c>
+      <c r="R219" s="2">
+        <v>10</v>
+      </c>
+      <c r="S219" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T219" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U219" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V219" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W219" s="2">
+        <v>0</v>
+      </c>
+      <c r="X219" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y219" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI219" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK219" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL219" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN219" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO219" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP219" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ219" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR219" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS219" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT219" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU219" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV219" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:48" s="2" customFormat="1">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C220" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E220" s="36">
+        <v>36</v>
+      </c>
+      <c r="F220" s="3">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0</v>
+      </c>
+      <c r="H220" s="3">
+        <v>5</v>
+      </c>
+      <c r="I220" s="3">
+        <v>0</v>
+      </c>
+      <c r="J220" s="37">
+        <v>470000000000</v>
+      </c>
+      <c r="K220" s="3">
+        <v>0</v>
+      </c>
+      <c r="L220" s="3">
+        <v>500</v>
+      </c>
+      <c r="M220" s="3">
+        <v>1</v>
+      </c>
+      <c r="N220" s="3">
+        <v>2</v>
+      </c>
+      <c r="O220" s="4">
+        <v>100</v>
+      </c>
+      <c r="P220" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q220" s="2">
+        <v>4</v>
+      </c>
+      <c r="R220" s="2">
+        <v>10</v>
+      </c>
+      <c r="S220" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T220" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U220" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V220" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W220" s="2">
+        <v>0</v>
+      </c>
+      <c r="X220" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y220" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI220" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK220" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL220" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN220" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO220" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP220" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ220" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR220" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS220" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT220" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU220" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV220" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:48" s="2" customFormat="1">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C221" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E221" s="36">
+        <v>36</v>
+      </c>
+      <c r="F221" s="3">
+        <v>1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0</v>
+      </c>
+      <c r="H221" s="3">
+        <v>5</v>
+      </c>
+      <c r="I221" s="3">
+        <v>0</v>
+      </c>
+      <c r="J221" s="37">
+        <v>480000000000</v>
+      </c>
+      <c r="K221" s="3">
+        <v>0</v>
+      </c>
+      <c r="L221" s="3">
+        <v>500</v>
+      </c>
+      <c r="M221" s="3">
+        <v>1</v>
+      </c>
+      <c r="N221" s="3">
+        <v>2</v>
+      </c>
+      <c r="O221" s="4">
+        <v>100</v>
+      </c>
+      <c r="P221" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q221" s="2">
+        <v>4</v>
+      </c>
+      <c r="R221" s="2">
+        <v>10</v>
+      </c>
+      <c r="S221" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T221" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U221" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V221" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W221" s="2">
+        <v>0</v>
+      </c>
+      <c r="X221" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y221" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI221" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK221" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL221" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN221" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO221" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP221" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ221" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR221" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS221" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT221" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU221" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV221" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:48" s="2" customFormat="1">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C222" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E222" s="36">
+        <v>36</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+      <c r="H222" s="3">
+        <v>5</v>
+      </c>
+      <c r="I222" s="3">
+        <v>0</v>
+      </c>
+      <c r="J222" s="37">
+        <v>490000000000</v>
+      </c>
+      <c r="K222" s="3">
+        <v>0</v>
+      </c>
+      <c r="L222" s="3">
+        <v>500</v>
+      </c>
+      <c r="M222" s="3">
+        <v>1</v>
+      </c>
+      <c r="N222" s="3">
+        <v>2</v>
+      </c>
+      <c r="O222" s="4">
+        <v>100</v>
+      </c>
+      <c r="P222" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q222" s="2">
+        <v>4</v>
+      </c>
+      <c r="R222" s="2">
+        <v>10</v>
+      </c>
+      <c r="S222" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T222" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U222" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V222" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W222" s="2">
+        <v>0</v>
+      </c>
+      <c r="X222" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y222" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI222" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK222" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL222" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO222" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP222" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ222" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR222" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS222" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT222" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU222" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:48" s="2" customFormat="1">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C223" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E223" s="36">
+        <v>36</v>
+      </c>
+      <c r="F223" s="3">
+        <v>1</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
+      <c r="H223" s="3">
+        <v>5</v>
+      </c>
+      <c r="I223" s="3">
+        <v>0</v>
+      </c>
+      <c r="J223" s="37">
+        <v>500000000000</v>
+      </c>
+      <c r="K223" s="3">
+        <v>0</v>
+      </c>
+      <c r="L223" s="3">
+        <v>500</v>
+      </c>
+      <c r="M223" s="3">
+        <v>1</v>
+      </c>
+      <c r="N223" s="3">
+        <v>2</v>
+      </c>
+      <c r="O223" s="4">
+        <v>100</v>
+      </c>
+      <c r="P223" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q223" s="2">
+        <v>4</v>
+      </c>
+      <c r="R223" s="2">
+        <v>10</v>
+      </c>
+      <c r="S223" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T223" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U223" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V223" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W223" s="2">
+        <v>0</v>
+      </c>
+      <c r="X223" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y223" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI223" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK223" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL223" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN223" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO223" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP223" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ223" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR223" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS223" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT223" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU223" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV223" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:48" s="2" customFormat="1">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C224" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E224" s="36">
+        <v>36</v>
+      </c>
+      <c r="F224" s="3">
+        <v>1</v>
+      </c>
+      <c r="G224" s="3">
+        <v>0</v>
+      </c>
+      <c r="H224" s="3">
+        <v>5</v>
+      </c>
+      <c r="I224" s="3">
+        <v>0</v>
+      </c>
+      <c r="J224" s="37">
+        <v>510000000000</v>
+      </c>
+      <c r="K224" s="3">
+        <v>0</v>
+      </c>
+      <c r="L224" s="3">
+        <v>500</v>
+      </c>
+      <c r="M224" s="3">
+        <v>1</v>
+      </c>
+      <c r="N224" s="3">
+        <v>2</v>
+      </c>
+      <c r="O224" s="4">
+        <v>100</v>
+      </c>
+      <c r="P224" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q224" s="2">
+        <v>4</v>
+      </c>
+      <c r="R224" s="2">
+        <v>10</v>
+      </c>
+      <c r="S224" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T224" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U224" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V224" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W224" s="2">
+        <v>0</v>
+      </c>
+      <c r="X224" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y224" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI224" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK224" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL224" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN224" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO224" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP224" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ224" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR224" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS224" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT224" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU224" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:48" s="2" customFormat="1">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C225" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E225" s="36">
+        <v>36</v>
+      </c>
+      <c r="F225" s="3">
+        <v>1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>0</v>
+      </c>
+      <c r="H225" s="3">
+        <v>5</v>
+      </c>
+      <c r="I225" s="3">
+        <v>0</v>
+      </c>
+      <c r="J225" s="37">
+        <v>520000000000</v>
+      </c>
+      <c r="K225" s="3">
+        <v>0</v>
+      </c>
+      <c r="L225" s="3">
+        <v>500</v>
+      </c>
+      <c r="M225" s="3">
+        <v>1</v>
+      </c>
+      <c r="N225" s="3">
+        <v>2</v>
+      </c>
+      <c r="O225" s="4">
+        <v>100</v>
+      </c>
+      <c r="P225" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q225" s="2">
+        <v>4</v>
+      </c>
+      <c r="R225" s="2">
+        <v>10</v>
+      </c>
+      <c r="S225" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T225" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U225" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V225" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W225" s="2">
+        <v>0</v>
+      </c>
+      <c r="X225" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y225" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI225" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK225" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL225" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN225" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO225" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP225" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ225" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR225" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS225" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT225" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU225" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:48" s="2" customFormat="1">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C226" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E226" s="36">
+        <v>36</v>
+      </c>
+      <c r="F226" s="3">
+        <v>1</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0</v>
+      </c>
+      <c r="H226" s="3">
+        <v>5</v>
+      </c>
+      <c r="I226" s="3">
+        <v>0</v>
+      </c>
+      <c r="J226" s="37">
+        <v>530000000000</v>
+      </c>
+      <c r="K226" s="3">
+        <v>0</v>
+      </c>
+      <c r="L226" s="3">
+        <v>500</v>
+      </c>
+      <c r="M226" s="3">
+        <v>1</v>
+      </c>
+      <c r="N226" s="3">
+        <v>2</v>
+      </c>
+      <c r="O226" s="4">
+        <v>100</v>
+      </c>
+      <c r="P226" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q226" s="2">
+        <v>4</v>
+      </c>
+      <c r="R226" s="2">
+        <v>10</v>
+      </c>
+      <c r="S226" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T226" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U226" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V226" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W226" s="2">
+        <v>0</v>
+      </c>
+      <c r="X226" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y226" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI226" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK226" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL226" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM226" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN226" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO226" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP226" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ226" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR226" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS226" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT226" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU226" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV226" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:48" s="2" customFormat="1">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C227" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E227" s="36">
+        <v>36</v>
+      </c>
+      <c r="F227" s="3">
+        <v>1</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0</v>
+      </c>
+      <c r="H227" s="3">
+        <v>5</v>
+      </c>
+      <c r="I227" s="3">
+        <v>0</v>
+      </c>
+      <c r="J227" s="37">
+        <v>540000000000</v>
+      </c>
+      <c r="K227" s="3">
+        <v>0</v>
+      </c>
+      <c r="L227" s="3">
+        <v>500</v>
+      </c>
+      <c r="M227" s="3">
+        <v>1</v>
+      </c>
+      <c r="N227" s="3">
+        <v>2</v>
+      </c>
+      <c r="O227" s="4">
+        <v>100</v>
+      </c>
+      <c r="P227" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q227" s="2">
+        <v>4</v>
+      </c>
+      <c r="R227" s="2">
+        <v>10</v>
+      </c>
+      <c r="S227" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T227" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U227" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V227" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W227" s="2">
+        <v>0</v>
+      </c>
+      <c r="X227" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y227" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI227" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK227" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL227" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM227" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN227" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO227" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP227" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ227" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR227" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS227" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT227" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU227" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV227" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5240A208-0AC8-44B4-8785-2A7F73BC01CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A85ED-FC4C-464B-A595-6C8C75B14D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="535">
   <si>
     <t>id</t>
   </si>
@@ -1850,6 +1850,81 @@
   </si>
   <si>
     <t>도술 81단계</t>
+  </si>
+  <si>
+    <t>VisionSkill15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisionSkill16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 82단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 83단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 84단계</t>
+  </si>
+  <si>
+    <t>도술 85단계</t>
+  </si>
+  <si>
+    <t>도술 86단계</t>
+  </si>
+  <si>
+    <t>도술 87단계</t>
+  </si>
+  <si>
+    <t>도술 88단계</t>
+  </si>
+  <si>
+    <t>도술 89단계</t>
+  </si>
+  <si>
+    <t>도술 90단계</t>
+  </si>
+  <si>
+    <t>도술 91단계</t>
+  </si>
+  <si>
+    <t>도술 92단계</t>
+  </si>
+  <si>
+    <t>도술 93단계</t>
+  </si>
+  <si>
+    <t>도술 94단계</t>
+  </si>
+  <si>
+    <t>도술 95단계</t>
+  </si>
+  <si>
+    <t>도술 96단계</t>
+  </si>
+  <si>
+    <t>도술 97단계</t>
+  </si>
+  <si>
+    <t>도술 98단계</t>
+  </si>
+  <si>
+    <t>도술 99단계</t>
+  </si>
+  <si>
+    <t>도술 100단계</t>
+  </si>
+  <si>
+    <t>용궁 - 흑해태자에게서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁 - 광해태자에게서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1862,7 +1937,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000000000000%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2513,15 +2588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW227"/>
+  <dimension ref="A1:AW248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
+      <selection pane="bottomLeft" activeCell="AW228" sqref="AW228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
@@ -2559,7 +2634,7 @@
     <col min="47" max="47" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" ht="33">
+    <row r="1" spans="1:49" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2708,7 +2783,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="2" customFormat="1">
+    <row r="2" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2851,7 +2926,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1">
+    <row r="3" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2994,7 +3069,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="2" customFormat="1">
+    <row r="4" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3137,7 +3212,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="2" customFormat="1">
+    <row r="5" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3280,7 +3355,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="2" customFormat="1">
+    <row r="6" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3423,7 +3498,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="2" customFormat="1">
+    <row r="7" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3566,7 +3641,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="2" customFormat="1">
+    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3709,7 +3784,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="2" customFormat="1">
+    <row r="9" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3852,7 +3927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="15.75" customHeight="1">
+    <row r="10" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3995,7 +4070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="15.75" customHeight="1">
+    <row r="11" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4138,7 +4213,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="15.75" customHeight="1">
+    <row r="12" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4281,7 +4356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="15.75" customHeight="1">
+    <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4424,7 +4499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -4567,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -4710,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -4853,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" s="2" customFormat="1">
+    <row r="17" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4996,7 +5071,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:48" s="2" customFormat="1">
+    <row r="18" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5139,7 +5214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5282,7 +5357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="6" customFormat="1">
+    <row r="20" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -5428,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="6" customFormat="1">
+    <row r="21" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -5574,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5720,7 +5795,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5866,7 +5941,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="17" customFormat="1">
+    <row r="24" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -6012,7 +6087,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" s="17" customFormat="1">
+    <row r="25" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -6158,7 +6233,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="17" customFormat="1">
+    <row r="26" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -6304,7 +6379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="17" customFormat="1">
+    <row r="27" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -6450,7 +6525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:48" s="17" customFormat="1">
+    <row r="28" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -6596,7 +6671,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="17" customFormat="1">
+    <row r="29" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -6742,7 +6817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:48" s="17" customFormat="1">
+    <row r="30" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -6888,7 +6963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:48" s="17" customFormat="1">
+    <row r="31" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -7034,7 +7109,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:48" s="17" customFormat="1">
+    <row r="32" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -7180,7 +7255,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" s="17" customFormat="1">
+    <row r="33" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -7326,7 +7401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" s="17" customFormat="1">
+    <row r="34" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -7472,7 +7547,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" s="17" customFormat="1">
+    <row r="35" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>33</v>
       </c>
@@ -7618,7 +7693,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" s="17" customFormat="1">
+    <row r="36" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>34</v>
       </c>
@@ -7764,7 +7839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="17" customFormat="1">
+    <row r="37" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>35</v>
       </c>
@@ -7910,7 +7985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" s="17" customFormat="1">
+    <row r="38" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>36</v>
       </c>
@@ -8056,7 +8131,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="6" customFormat="1">
+    <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -8202,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" s="6" customFormat="1">
+    <row r="40" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -8348,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="6" customFormat="1">
+    <row r="41" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -8494,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" s="6" customFormat="1">
+    <row r="42" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -8640,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -8786,7 +8861,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -8932,7 +9007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -9078,7 +9153,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -9224,7 +9299,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -9370,7 +9445,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -9519,7 +9594,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -9668,7 +9743,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -9817,7 +9892,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -9966,7 +10041,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -10112,7 +10187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -10258,7 +10333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -10404,7 +10479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -10550,7 +10625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -10696,7 +10771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>55</v>
       </c>
@@ -10845,7 +10920,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>56</v>
       </c>
@@ -10991,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -11137,7 +11212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>58</v>
       </c>
@@ -11283,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>59</v>
       </c>
@@ -11429,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>60</v>
       </c>
@@ -11575,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>61</v>
       </c>
@@ -11721,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>62</v>
       </c>
@@ -11867,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>63</v>
       </c>
@@ -12013,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>64</v>
       </c>
@@ -12159,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>65</v>
       </c>
@@ -12305,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>66</v>
       </c>
@@ -12451,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>67</v>
       </c>
@@ -12597,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>68</v>
       </c>
@@ -12743,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>69</v>
       </c>
@@ -12889,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>70</v>
       </c>
@@ -13035,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>71</v>
       </c>
@@ -13181,7 +13256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>72</v>
       </c>
@@ -13327,7 +13402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>73</v>
       </c>
@@ -13473,7 +13548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>74</v>
       </c>
@@ -13619,7 +13694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:48">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>75</v>
       </c>
@@ -13765,7 +13840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:48">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>76</v>
       </c>
@@ -13911,7 +13986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>77</v>
       </c>
@@ -14057,7 +14132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>78</v>
       </c>
@@ -14203,7 +14278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:48">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>79</v>
       </c>
@@ -14349,7 +14424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:48">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>80</v>
       </c>
@@ -14495,7 +14570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:48">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>81</v>
       </c>
@@ -14641,7 +14716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:48">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>82</v>
       </c>
@@ -14787,7 +14862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:48">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>83</v>
       </c>
@@ -14933,7 +15008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:48">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>84</v>
       </c>
@@ -15079,7 +15154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:48">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>85</v>
       </c>
@@ -15225,7 +15300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:48">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>86</v>
       </c>
@@ -15371,7 +15446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:48">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>87</v>
       </c>
@@ -15517,7 +15592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:48">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>88</v>
       </c>
@@ -15663,7 +15738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:48">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>89</v>
       </c>
@@ -15809,7 +15884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:48">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>90</v>
       </c>
@@ -15955,7 +16030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:48">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>91</v>
       </c>
@@ -16101,7 +16176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:48">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>92</v>
       </c>
@@ -16247,7 +16322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:48">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>93</v>
       </c>
@@ -16393,7 +16468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:48">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>94</v>
       </c>
@@ -16539,7 +16614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:49">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>95</v>
       </c>
@@ -16688,7 +16763,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:49">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>96</v>
       </c>
@@ -16834,7 +16909,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:49">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>97</v>
       </c>
@@ -16980,7 +17055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:49">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>98</v>
       </c>
@@ -17126,7 +17201,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:49">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>99</v>
       </c>
@@ -17272,7 +17347,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:49">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>100</v>
       </c>
@@ -17418,7 +17493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:49">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>101</v>
       </c>
@@ -17564,7 +17639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:49">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>102</v>
       </c>
@@ -17710,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:49">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>103</v>
       </c>
@@ -17856,7 +17931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:49">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>104</v>
       </c>
@@ -18002,7 +18077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:49">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>105</v>
       </c>
@@ -18148,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:49">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>106</v>
       </c>
@@ -18294,7 +18369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:49">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>107</v>
       </c>
@@ -18440,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:49">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>108</v>
       </c>
@@ -18586,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:49">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>109</v>
       </c>
@@ -18732,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:49">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>110</v>
       </c>
@@ -18878,7 +18953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:48" s="2" customFormat="1">
+    <row r="113" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -19024,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:48" s="2" customFormat="1">
+    <row r="114" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -19170,7 +19245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:48" s="2" customFormat="1">
+    <row r="115" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -19316,7 +19391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:48" s="2" customFormat="1">
+    <row r="116" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -19462,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:48" s="2" customFormat="1">
+    <row r="117" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -19608,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:48" s="2" customFormat="1">
+    <row r="118" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -19754,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:48" s="2" customFormat="1">
+    <row r="119" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -19900,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:48" s="2" customFormat="1">
+    <row r="120" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -20046,7 +20121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:48" s="2" customFormat="1">
+    <row r="121" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -20192,7 +20267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:48" s="2" customFormat="1">
+    <row r="122" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -20338,7 +20413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:48" s="2" customFormat="1">
+    <row r="123" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -20484,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:48" s="2" customFormat="1">
+    <row r="124" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -20630,7 +20705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:48" s="2" customFormat="1">
+    <row r="125" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -20776,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:48" s="2" customFormat="1">
+    <row r="126" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -20922,7 +20997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:48" s="2" customFormat="1">
+    <row r="127" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -21068,7 +21143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:48" s="2" customFormat="1">
+    <row r="128" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -21214,7 +21289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:49" s="2" customFormat="1">
+    <row r="129" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -21360,7 +21435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:49" s="2" customFormat="1">
+    <row r="130" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -21506,7 +21581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:49" s="2" customFormat="1">
+    <row r="131" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -21652,7 +21727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:49" s="2" customFormat="1">
+    <row r="132" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -21798,7 +21873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:49" s="2" customFormat="1">
+    <row r="133" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -21944,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:49" s="2" customFormat="1">
+    <row r="134" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -22090,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:49" s="2" customFormat="1">
+    <row r="135" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -22236,7 +22311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="2" customFormat="1">
+    <row r="136" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -22382,7 +22457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:49" s="2" customFormat="1">
+    <row r="137" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -22528,7 +22603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:49" s="2" customFormat="1">
+    <row r="138" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -22674,7 +22749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:49" s="2" customFormat="1">
+    <row r="139" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -22820,7 +22895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:49" s="2" customFormat="1">
+    <row r="140" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -22966,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:49" s="2" customFormat="1">
+    <row r="141" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -23112,7 +23187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:49" s="2" customFormat="1">
+    <row r="142" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -23258,7 +23333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:49">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -23407,7 +23482,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="144" spans="1:49">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -23556,7 +23631,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:49">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>143</v>
       </c>
@@ -23702,7 +23777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:49">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>144</v>
       </c>
@@ -23848,7 +23923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:49">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>145</v>
       </c>
@@ -23994,7 +24069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:49">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>146</v>
       </c>
@@ -24140,7 +24215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:49" s="2" customFormat="1">
+    <row r="149" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -24286,7 +24361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:49" s="2" customFormat="1">
+    <row r="150" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -24432,7 +24507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:49">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -24578,7 +24653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:49">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -24724,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:49">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -24870,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:49">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -25016,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:49">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -25162,7 +25237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:49">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -25308,7 +25383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:49">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -25454,7 +25529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:49">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -25600,7 +25675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:49">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -25749,7 +25824,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:49">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -25898,7 +25973,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="161" spans="1:49">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -26047,7 +26122,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="1:49">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -26196,7 +26271,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:49" s="2" customFormat="1">
+    <row r="163" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -26342,7 +26417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:49" s="2" customFormat="1">
+    <row r="164" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -26488,7 +26563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:49" s="2" customFormat="1">
+    <row r="165" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -26634,7 +26709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:49" s="2" customFormat="1">
+    <row r="166" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -26780,7 +26855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:49" s="2" customFormat="1">
+    <row r="167" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -26926,7 +27001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:49" s="2" customFormat="1">
+    <row r="168" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -27072,7 +27147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:49" s="2" customFormat="1">
+    <row r="169" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -27218,7 +27293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:49" s="2" customFormat="1">
+    <row r="170" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -27364,7 +27439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:49" s="2" customFormat="1">
+    <row r="171" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -27510,7 +27585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:49" s="2" customFormat="1">
+    <row r="172" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -27656,7 +27731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:49" s="2" customFormat="1">
+    <row r="173" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -27802,7 +27877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:49">
+    <row r="174" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -27951,7 +28026,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="175" spans="1:49">
+    <row r="175" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -28100,7 +28175,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="176" spans="1:49">
+    <row r="176" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -28246,7 +28321,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:49">
+    <row r="177" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -28392,7 +28467,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:49">
+    <row r="178" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -28538,7 +28613,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:49">
+    <row r="179" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -28684,7 +28759,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:49">
+    <row r="180" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -28830,7 +28905,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:49">
+    <row r="181" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>179</v>
       </c>
@@ -28976,7 +29051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:49">
+    <row r="182" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -29125,7 +29200,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="183" spans="1:49" s="2" customFormat="1">
+    <row r="183" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -29271,7 +29346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:49" s="2" customFormat="1">
+    <row r="184" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -29417,7 +29492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:49" s="2" customFormat="1">
+    <row r="185" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -29563,7 +29638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:49" s="2" customFormat="1">
+    <row r="186" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -29709,7 +29784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:49" s="2" customFormat="1">
+    <row r="187" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -29855,7 +29930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:49" s="2" customFormat="1">
+    <row r="188" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -30001,7 +30076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:49" s="2" customFormat="1">
+    <row r="189" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -30147,7 +30222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:49" s="2" customFormat="1">
+    <row r="190" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -30293,7 +30368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:49" s="2" customFormat="1">
+    <row r="191" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -30439,7 +30514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:49" s="2" customFormat="1">
+    <row r="192" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -30585,7 +30660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:48">
+    <row r="193" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -30731,7 +30806,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:48">
+    <row r="194" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -30877,7 +30952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:48">
+    <row r="195" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -31023,7 +31098,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:48">
+    <row r="196" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -31169,7 +31244,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:48">
+    <row r="197" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -31315,7 +31390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:48">
+    <row r="198" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>196</v>
       </c>
@@ -31461,7 +31536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:48">
+    <row r="199" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>197</v>
       </c>
@@ -31607,7 +31682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:48">
+    <row r="200" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>198</v>
       </c>
@@ -31753,7 +31828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:48">
+    <row r="201" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>199</v>
       </c>
@@ -31899,7 +31974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:48">
+    <row r="202" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>200</v>
       </c>
@@ -32045,7 +32120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:48">
+    <row r="203" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>201</v>
       </c>
@@ -32191,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:48">
+    <row r="204" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>202</v>
       </c>
@@ -32337,7 +32412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:48">
+    <row r="205" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>203</v>
       </c>
@@ -32483,7 +32558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:48">
+    <row r="206" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>204</v>
       </c>
@@ -32629,7 +32704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:48">
+    <row r="207" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>205</v>
       </c>
@@ -32775,7 +32850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:48" s="2" customFormat="1">
+    <row r="208" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -32921,7 +32996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:48" s="2" customFormat="1">
+    <row r="209" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -33067,7 +33142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:48" s="2" customFormat="1">
+    <row r="210" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -33213,7 +33288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:48" s="2" customFormat="1">
+    <row r="211" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -33359,7 +33434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:48" s="2" customFormat="1">
+    <row r="212" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -33505,7 +33580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:48" s="2" customFormat="1">
+    <row r="213" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -33651,7 +33726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:48" s="2" customFormat="1">
+    <row r="214" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -33797,7 +33872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:48" s="2" customFormat="1">
+    <row r="215" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -33943,7 +34018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:48" s="2" customFormat="1">
+    <row r="216" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -34089,7 +34164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:48" s="2" customFormat="1">
+    <row r="217" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -34235,7 +34310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:48" s="2" customFormat="1">
+    <row r="218" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -34381,7 +34456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:48" s="2" customFormat="1">
+    <row r="219" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -34527,7 +34602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:48" s="2" customFormat="1">
+    <row r="220" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -34673,7 +34748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:48" s="2" customFormat="1">
+    <row r="221" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -34819,7 +34894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:48" s="2" customFormat="1">
+    <row r="222" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -34965,7 +35040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:48" s="2" customFormat="1">
+    <row r="223" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -35111,7 +35186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:48" s="2" customFormat="1">
+    <row r="224" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -35257,7 +35332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:48" s="2" customFormat="1">
+    <row r="225" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -35403,7 +35478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:48" s="2" customFormat="1">
+    <row r="226" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -35549,7 +35624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:48" s="2" customFormat="1">
+    <row r="227" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -35692,6 +35767,3078 @@
         <v>217</v>
       </c>
       <c r="AV227" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C228" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="D228" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E228" s="18">
+        <v>80</v>
+      </c>
+      <c r="F228" s="18">
+        <v>1</v>
+      </c>
+      <c r="G228" s="18">
+        <v>0</v>
+      </c>
+      <c r="H228" s="18">
+        <v>2</v>
+      </c>
+      <c r="I228" s="18">
+        <v>0</v>
+      </c>
+      <c r="J228" s="18">
+        <v>600000000000</v>
+      </c>
+      <c r="K228" s="18">
+        <v>0</v>
+      </c>
+      <c r="L228" s="18">
+        <v>100</v>
+      </c>
+      <c r="M228" s="18">
+        <v>9</v>
+      </c>
+      <c r="N228" s="18">
+        <v>2</v>
+      </c>
+      <c r="O228" s="18">
+        <v>100</v>
+      </c>
+      <c r="P228" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q228" s="17">
+        <v>4</v>
+      </c>
+      <c r="R228" s="17">
+        <v>10</v>
+      </c>
+      <c r="S228" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T228" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="U228" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V228" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W228" s="17">
+        <v>0</v>
+      </c>
+      <c r="X228" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y228" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI228" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK228" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL228" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM228" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN228" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO228" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP228" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ228" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR228" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS228" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT228" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU228" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV228" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW228" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="229" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="C229" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="D229" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E229" s="18">
+        <v>81</v>
+      </c>
+      <c r="F229" s="18">
+        <v>1</v>
+      </c>
+      <c r="G229" s="18">
+        <v>0</v>
+      </c>
+      <c r="H229" s="18">
+        <v>2</v>
+      </c>
+      <c r="I229" s="18">
+        <v>0</v>
+      </c>
+      <c r="J229" s="18">
+        <v>1200000000000</v>
+      </c>
+      <c r="K229" s="18">
+        <v>0</v>
+      </c>
+      <c r="L229" s="18">
+        <v>100</v>
+      </c>
+      <c r="M229" s="18">
+        <v>9</v>
+      </c>
+      <c r="N229" s="18">
+        <v>2</v>
+      </c>
+      <c r="O229" s="18">
+        <v>100</v>
+      </c>
+      <c r="P229" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q229" s="17">
+        <v>4</v>
+      </c>
+      <c r="R229" s="17">
+        <v>10</v>
+      </c>
+      <c r="S229" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T229" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="U229" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V229" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W229" s="17">
+        <v>0</v>
+      </c>
+      <c r="X229" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y229" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI229" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK229" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL229" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM229" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN229" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO229" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP229" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ229" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR229" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS229" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT229" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU229" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV229" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW229" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="230" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C230" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E230" s="36">
+        <v>36</v>
+      </c>
+      <c r="F230" s="3">
+        <v>1</v>
+      </c>
+      <c r="G230" s="3">
+        <v>0</v>
+      </c>
+      <c r="H230" s="3">
+        <v>5</v>
+      </c>
+      <c r="I230" s="3">
+        <v>0</v>
+      </c>
+      <c r="J230" s="37">
+        <v>550000000000</v>
+      </c>
+      <c r="K230" s="3">
+        <v>0</v>
+      </c>
+      <c r="L230" s="3">
+        <v>500</v>
+      </c>
+      <c r="M230" s="3">
+        <v>1</v>
+      </c>
+      <c r="N230" s="3">
+        <v>2</v>
+      </c>
+      <c r="O230" s="4">
+        <v>100</v>
+      </c>
+      <c r="P230" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q230" s="2">
+        <v>4</v>
+      </c>
+      <c r="R230" s="2">
+        <v>10</v>
+      </c>
+      <c r="S230" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T230" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U230" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V230" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W230" s="2">
+        <v>0</v>
+      </c>
+      <c r="X230" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y230" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI230" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK230" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL230" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM230" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN230" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO230" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP230" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ230" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR230" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS230" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT230" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU230" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C231" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E231" s="36">
+        <v>36</v>
+      </c>
+      <c r="F231" s="3">
+        <v>1</v>
+      </c>
+      <c r="G231" s="3">
+        <v>0</v>
+      </c>
+      <c r="H231" s="3">
+        <v>5</v>
+      </c>
+      <c r="I231" s="3">
+        <v>0</v>
+      </c>
+      <c r="J231" s="37">
+        <v>560000000000</v>
+      </c>
+      <c r="K231" s="3">
+        <v>0</v>
+      </c>
+      <c r="L231" s="3">
+        <v>500</v>
+      </c>
+      <c r="M231" s="3">
+        <v>1</v>
+      </c>
+      <c r="N231" s="3">
+        <v>2</v>
+      </c>
+      <c r="O231" s="4">
+        <v>100</v>
+      </c>
+      <c r="P231" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q231" s="2">
+        <v>4</v>
+      </c>
+      <c r="R231" s="2">
+        <v>10</v>
+      </c>
+      <c r="S231" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T231" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U231" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V231" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W231" s="2">
+        <v>0</v>
+      </c>
+      <c r="X231" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y231" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI231" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK231" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL231" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM231" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN231" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO231" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP231" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ231" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR231" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS231" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT231" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU231" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV231" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C232" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E232" s="36">
+        <v>36</v>
+      </c>
+      <c r="F232" s="3">
+        <v>1</v>
+      </c>
+      <c r="G232" s="3">
+        <v>0</v>
+      </c>
+      <c r="H232" s="3">
+        <v>5</v>
+      </c>
+      <c r="I232" s="3">
+        <v>0</v>
+      </c>
+      <c r="J232" s="37">
+        <v>570000000000</v>
+      </c>
+      <c r="K232" s="3">
+        <v>0</v>
+      </c>
+      <c r="L232" s="3">
+        <v>500</v>
+      </c>
+      <c r="M232" s="3">
+        <v>1</v>
+      </c>
+      <c r="N232" s="3">
+        <v>2</v>
+      </c>
+      <c r="O232" s="4">
+        <v>100</v>
+      </c>
+      <c r="P232" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q232" s="2">
+        <v>4</v>
+      </c>
+      <c r="R232" s="2">
+        <v>10</v>
+      </c>
+      <c r="S232" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T232" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U232" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V232" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W232" s="2">
+        <v>0</v>
+      </c>
+      <c r="X232" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y232" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI232" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK232" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL232" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM232" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN232" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO232" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP232" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ232" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR232" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS232" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT232" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU232" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C233" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E233" s="36">
+        <v>36</v>
+      </c>
+      <c r="F233" s="3">
+        <v>1</v>
+      </c>
+      <c r="G233" s="3">
+        <v>0</v>
+      </c>
+      <c r="H233" s="3">
+        <v>5</v>
+      </c>
+      <c r="I233" s="3">
+        <v>0</v>
+      </c>
+      <c r="J233" s="37">
+        <v>580000000000</v>
+      </c>
+      <c r="K233" s="3">
+        <v>0</v>
+      </c>
+      <c r="L233" s="3">
+        <v>500</v>
+      </c>
+      <c r="M233" s="3">
+        <v>1</v>
+      </c>
+      <c r="N233" s="3">
+        <v>2</v>
+      </c>
+      <c r="O233" s="4">
+        <v>100</v>
+      </c>
+      <c r="P233" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q233" s="2">
+        <v>4</v>
+      </c>
+      <c r="R233" s="2">
+        <v>10</v>
+      </c>
+      <c r="S233" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T233" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U233" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V233" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W233" s="2">
+        <v>0</v>
+      </c>
+      <c r="X233" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y233" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI233" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK233" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL233" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM233" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN233" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO233" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP233" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ233" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR233" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS233" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT233" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU233" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C234" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E234" s="36">
+        <v>36</v>
+      </c>
+      <c r="F234" s="3">
+        <v>1</v>
+      </c>
+      <c r="G234" s="3">
+        <v>0</v>
+      </c>
+      <c r="H234" s="3">
+        <v>5</v>
+      </c>
+      <c r="I234" s="3">
+        <v>0</v>
+      </c>
+      <c r="J234" s="37">
+        <v>590000000000</v>
+      </c>
+      <c r="K234" s="3">
+        <v>0</v>
+      </c>
+      <c r="L234" s="3">
+        <v>500</v>
+      </c>
+      <c r="M234" s="3">
+        <v>1</v>
+      </c>
+      <c r="N234" s="3">
+        <v>2</v>
+      </c>
+      <c r="O234" s="4">
+        <v>100</v>
+      </c>
+      <c r="P234" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q234" s="2">
+        <v>4</v>
+      </c>
+      <c r="R234" s="2">
+        <v>10</v>
+      </c>
+      <c r="S234" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T234" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U234" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V234" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W234" s="2">
+        <v>0</v>
+      </c>
+      <c r="X234" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y234" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI234" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK234" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL234" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM234" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN234" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO234" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP234" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ234" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR234" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS234" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT234" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU234" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV234" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C235" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E235" s="36">
+        <v>36</v>
+      </c>
+      <c r="F235" s="3">
+        <v>1</v>
+      </c>
+      <c r="G235" s="3">
+        <v>0</v>
+      </c>
+      <c r="H235" s="3">
+        <v>5</v>
+      </c>
+      <c r="I235" s="3">
+        <v>0</v>
+      </c>
+      <c r="J235" s="37">
+        <v>600000000000</v>
+      </c>
+      <c r="K235" s="3">
+        <v>0</v>
+      </c>
+      <c r="L235" s="3">
+        <v>500</v>
+      </c>
+      <c r="M235" s="3">
+        <v>1</v>
+      </c>
+      <c r="N235" s="3">
+        <v>2</v>
+      </c>
+      <c r="O235" s="4">
+        <v>100</v>
+      </c>
+      <c r="P235" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q235" s="2">
+        <v>4</v>
+      </c>
+      <c r="R235" s="2">
+        <v>10</v>
+      </c>
+      <c r="S235" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T235" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U235" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V235" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W235" s="2">
+        <v>0</v>
+      </c>
+      <c r="X235" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y235" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI235" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK235" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL235" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM235" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN235" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO235" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP235" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ235" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR235" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS235" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT235" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU235" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV235" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C236" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E236" s="36">
+        <v>36</v>
+      </c>
+      <c r="F236" s="3">
+        <v>1</v>
+      </c>
+      <c r="G236" s="3">
+        <v>0</v>
+      </c>
+      <c r="H236" s="3">
+        <v>5</v>
+      </c>
+      <c r="I236" s="3">
+        <v>0</v>
+      </c>
+      <c r="J236" s="37">
+        <v>610000000000</v>
+      </c>
+      <c r="K236" s="3">
+        <v>0</v>
+      </c>
+      <c r="L236" s="3">
+        <v>500</v>
+      </c>
+      <c r="M236" s="3">
+        <v>1</v>
+      </c>
+      <c r="N236" s="3">
+        <v>2</v>
+      </c>
+      <c r="O236" s="4">
+        <v>100</v>
+      </c>
+      <c r="P236" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q236" s="2">
+        <v>4</v>
+      </c>
+      <c r="R236" s="2">
+        <v>10</v>
+      </c>
+      <c r="S236" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T236" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U236" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V236" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W236" s="2">
+        <v>0</v>
+      </c>
+      <c r="X236" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y236" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI236" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK236" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL236" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM236" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN236" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO236" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP236" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ236" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR236" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS236" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT236" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU236" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C237" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E237" s="36">
+        <v>36</v>
+      </c>
+      <c r="F237" s="3">
+        <v>1</v>
+      </c>
+      <c r="G237" s="3">
+        <v>0</v>
+      </c>
+      <c r="H237" s="3">
+        <v>5</v>
+      </c>
+      <c r="I237" s="3">
+        <v>0</v>
+      </c>
+      <c r="J237" s="37">
+        <v>620000000000</v>
+      </c>
+      <c r="K237" s="3">
+        <v>0</v>
+      </c>
+      <c r="L237" s="3">
+        <v>500</v>
+      </c>
+      <c r="M237" s="3">
+        <v>1</v>
+      </c>
+      <c r="N237" s="3">
+        <v>2</v>
+      </c>
+      <c r="O237" s="4">
+        <v>100</v>
+      </c>
+      <c r="P237" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q237" s="2">
+        <v>4</v>
+      </c>
+      <c r="R237" s="2">
+        <v>10</v>
+      </c>
+      <c r="S237" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T237" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U237" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V237" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W237" s="2">
+        <v>0</v>
+      </c>
+      <c r="X237" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y237" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI237" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK237" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL237" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN237" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO237" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP237" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ237" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR237" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS237" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT237" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU237" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C238" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E238" s="36">
+        <v>36</v>
+      </c>
+      <c r="F238" s="3">
+        <v>1</v>
+      </c>
+      <c r="G238" s="3">
+        <v>0</v>
+      </c>
+      <c r="H238" s="3">
+        <v>5</v>
+      </c>
+      <c r="I238" s="3">
+        <v>0</v>
+      </c>
+      <c r="J238" s="37">
+        <v>630000000000</v>
+      </c>
+      <c r="K238" s="3">
+        <v>0</v>
+      </c>
+      <c r="L238" s="3">
+        <v>500</v>
+      </c>
+      <c r="M238" s="3">
+        <v>1</v>
+      </c>
+      <c r="N238" s="3">
+        <v>2</v>
+      </c>
+      <c r="O238" s="4">
+        <v>100</v>
+      </c>
+      <c r="P238" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q238" s="2">
+        <v>4</v>
+      </c>
+      <c r="R238" s="2">
+        <v>10</v>
+      </c>
+      <c r="S238" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T238" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U238" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V238" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W238" s="2">
+        <v>0</v>
+      </c>
+      <c r="X238" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y238" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI238" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK238" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL238" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM238" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN238" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO238" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP238" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ238" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR238" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS238" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT238" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU238" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C239" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E239" s="36">
+        <v>36</v>
+      </c>
+      <c r="F239" s="3">
+        <v>1</v>
+      </c>
+      <c r="G239" s="3">
+        <v>0</v>
+      </c>
+      <c r="H239" s="3">
+        <v>5</v>
+      </c>
+      <c r="I239" s="3">
+        <v>0</v>
+      </c>
+      <c r="J239" s="37">
+        <v>640000000000</v>
+      </c>
+      <c r="K239" s="3">
+        <v>0</v>
+      </c>
+      <c r="L239" s="3">
+        <v>500</v>
+      </c>
+      <c r="M239" s="3">
+        <v>1</v>
+      </c>
+      <c r="N239" s="3">
+        <v>2</v>
+      </c>
+      <c r="O239" s="4">
+        <v>100</v>
+      </c>
+      <c r="P239" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q239" s="2">
+        <v>4</v>
+      </c>
+      <c r="R239" s="2">
+        <v>10</v>
+      </c>
+      <c r="S239" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T239" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U239" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V239" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W239" s="2">
+        <v>0</v>
+      </c>
+      <c r="X239" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y239" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI239" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK239" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL239" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM239" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN239" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO239" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP239" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ239" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR239" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS239" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT239" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU239" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV239" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C240" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E240" s="36">
+        <v>36</v>
+      </c>
+      <c r="F240" s="3">
+        <v>1</v>
+      </c>
+      <c r="G240" s="3">
+        <v>0</v>
+      </c>
+      <c r="H240" s="3">
+        <v>5</v>
+      </c>
+      <c r="I240" s="3">
+        <v>0</v>
+      </c>
+      <c r="J240" s="37">
+        <v>650000000000</v>
+      </c>
+      <c r="K240" s="3">
+        <v>0</v>
+      </c>
+      <c r="L240" s="3">
+        <v>500</v>
+      </c>
+      <c r="M240" s="3">
+        <v>1</v>
+      </c>
+      <c r="N240" s="3">
+        <v>2</v>
+      </c>
+      <c r="O240" s="4">
+        <v>100</v>
+      </c>
+      <c r="P240" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q240" s="2">
+        <v>4</v>
+      </c>
+      <c r="R240" s="2">
+        <v>10</v>
+      </c>
+      <c r="S240" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T240" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U240" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V240" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W240" s="2">
+        <v>0</v>
+      </c>
+      <c r="X240" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y240" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI240" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK240" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL240" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM240" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN240" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO240" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP240" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ240" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR240" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS240" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT240" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU240" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV240" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C241" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E241" s="36">
+        <v>36</v>
+      </c>
+      <c r="F241" s="3">
+        <v>1</v>
+      </c>
+      <c r="G241" s="3">
+        <v>0</v>
+      </c>
+      <c r="H241" s="3">
+        <v>5</v>
+      </c>
+      <c r="I241" s="3">
+        <v>0</v>
+      </c>
+      <c r="J241" s="37">
+        <v>660000000000</v>
+      </c>
+      <c r="K241" s="3">
+        <v>0</v>
+      </c>
+      <c r="L241" s="3">
+        <v>500</v>
+      </c>
+      <c r="M241" s="3">
+        <v>1</v>
+      </c>
+      <c r="N241" s="3">
+        <v>2</v>
+      </c>
+      <c r="O241" s="4">
+        <v>100</v>
+      </c>
+      <c r="P241" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q241" s="2">
+        <v>4</v>
+      </c>
+      <c r="R241" s="2">
+        <v>10</v>
+      </c>
+      <c r="S241" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T241" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U241" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V241" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W241" s="2">
+        <v>0</v>
+      </c>
+      <c r="X241" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y241" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI241" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK241" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL241" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM241" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN241" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO241" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP241" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ241" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR241" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS241" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT241" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU241" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV241" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C242" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E242" s="36">
+        <v>36</v>
+      </c>
+      <c r="F242" s="3">
+        <v>1</v>
+      </c>
+      <c r="G242" s="3">
+        <v>0</v>
+      </c>
+      <c r="H242" s="3">
+        <v>5</v>
+      </c>
+      <c r="I242" s="3">
+        <v>0</v>
+      </c>
+      <c r="J242" s="37">
+        <v>670000000000</v>
+      </c>
+      <c r="K242" s="3">
+        <v>0</v>
+      </c>
+      <c r="L242" s="3">
+        <v>500</v>
+      </c>
+      <c r="M242" s="3">
+        <v>1</v>
+      </c>
+      <c r="N242" s="3">
+        <v>2</v>
+      </c>
+      <c r="O242" s="4">
+        <v>100</v>
+      </c>
+      <c r="P242" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q242" s="2">
+        <v>4</v>
+      </c>
+      <c r="R242" s="2">
+        <v>10</v>
+      </c>
+      <c r="S242" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T242" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U242" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V242" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W242" s="2">
+        <v>0</v>
+      </c>
+      <c r="X242" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y242" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI242" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ242" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK242" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL242" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM242" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN242" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO242" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP242" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ242" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR242" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS242" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT242" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU242" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV242" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C243" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E243" s="36">
+        <v>36</v>
+      </c>
+      <c r="F243" s="3">
+        <v>1</v>
+      </c>
+      <c r="G243" s="3">
+        <v>0</v>
+      </c>
+      <c r="H243" s="3">
+        <v>5</v>
+      </c>
+      <c r="I243" s="3">
+        <v>0</v>
+      </c>
+      <c r="J243" s="37">
+        <v>680000000000</v>
+      </c>
+      <c r="K243" s="3">
+        <v>0</v>
+      </c>
+      <c r="L243" s="3">
+        <v>500</v>
+      </c>
+      <c r="M243" s="3">
+        <v>1</v>
+      </c>
+      <c r="N243" s="3">
+        <v>2</v>
+      </c>
+      <c r="O243" s="4">
+        <v>100</v>
+      </c>
+      <c r="P243" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q243" s="2">
+        <v>4</v>
+      </c>
+      <c r="R243" s="2">
+        <v>10</v>
+      </c>
+      <c r="S243" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T243" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U243" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V243" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W243" s="2">
+        <v>0</v>
+      </c>
+      <c r="X243" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y243" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI243" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ243" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK243" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL243" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM243" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN243" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO243" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP243" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ243" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR243" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS243" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT243" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU243" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV243" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C244" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E244" s="36">
+        <v>36</v>
+      </c>
+      <c r="F244" s="3">
+        <v>1</v>
+      </c>
+      <c r="G244" s="3">
+        <v>0</v>
+      </c>
+      <c r="H244" s="3">
+        <v>5</v>
+      </c>
+      <c r="I244" s="3">
+        <v>0</v>
+      </c>
+      <c r="J244" s="37">
+        <v>690000000000</v>
+      </c>
+      <c r="K244" s="3">
+        <v>0</v>
+      </c>
+      <c r="L244" s="3">
+        <v>500</v>
+      </c>
+      <c r="M244" s="3">
+        <v>1</v>
+      </c>
+      <c r="N244" s="3">
+        <v>2</v>
+      </c>
+      <c r="O244" s="4">
+        <v>100</v>
+      </c>
+      <c r="P244" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q244" s="2">
+        <v>4</v>
+      </c>
+      <c r="R244" s="2">
+        <v>10</v>
+      </c>
+      <c r="S244" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T244" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U244" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V244" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W244" s="2">
+        <v>0</v>
+      </c>
+      <c r="X244" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y244" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI244" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK244" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL244" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM244" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN244" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO244" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP244" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ244" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR244" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS244" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT244" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU244" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV244" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C245" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E245" s="36">
+        <v>36</v>
+      </c>
+      <c r="F245" s="3">
+        <v>1</v>
+      </c>
+      <c r="G245" s="3">
+        <v>0</v>
+      </c>
+      <c r="H245" s="3">
+        <v>5</v>
+      </c>
+      <c r="I245" s="3">
+        <v>0</v>
+      </c>
+      <c r="J245" s="37">
+        <v>700000000000</v>
+      </c>
+      <c r="K245" s="3">
+        <v>0</v>
+      </c>
+      <c r="L245" s="3">
+        <v>500</v>
+      </c>
+      <c r="M245" s="3">
+        <v>1</v>
+      </c>
+      <c r="N245" s="3">
+        <v>2</v>
+      </c>
+      <c r="O245" s="4">
+        <v>100</v>
+      </c>
+      <c r="P245" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q245" s="2">
+        <v>4</v>
+      </c>
+      <c r="R245" s="2">
+        <v>10</v>
+      </c>
+      <c r="S245" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T245" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U245" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V245" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W245" s="2">
+        <v>0</v>
+      </c>
+      <c r="X245" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y245" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI245" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK245" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL245" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM245" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN245" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO245" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP245" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ245" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR245" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS245" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT245" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU245" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV245" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C246" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E246" s="36">
+        <v>36</v>
+      </c>
+      <c r="F246" s="3">
+        <v>1</v>
+      </c>
+      <c r="G246" s="3">
+        <v>0</v>
+      </c>
+      <c r="H246" s="3">
+        <v>5</v>
+      </c>
+      <c r="I246" s="3">
+        <v>0</v>
+      </c>
+      <c r="J246" s="37">
+        <v>710000000000</v>
+      </c>
+      <c r="K246" s="3">
+        <v>0</v>
+      </c>
+      <c r="L246" s="3">
+        <v>500</v>
+      </c>
+      <c r="M246" s="3">
+        <v>1</v>
+      </c>
+      <c r="N246" s="3">
+        <v>2</v>
+      </c>
+      <c r="O246" s="4">
+        <v>100</v>
+      </c>
+      <c r="P246" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q246" s="2">
+        <v>4</v>
+      </c>
+      <c r="R246" s="2">
+        <v>10</v>
+      </c>
+      <c r="S246" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T246" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U246" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V246" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W246" s="2">
+        <v>0</v>
+      </c>
+      <c r="X246" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y246" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI246" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK246" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL246" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN246" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO246" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP246" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ246" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR246" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS246" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT246" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU246" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV246" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C247" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E247" s="36">
+        <v>36</v>
+      </c>
+      <c r="F247" s="3">
+        <v>1</v>
+      </c>
+      <c r="G247" s="3">
+        <v>0</v>
+      </c>
+      <c r="H247" s="3">
+        <v>5</v>
+      </c>
+      <c r="I247" s="3">
+        <v>0</v>
+      </c>
+      <c r="J247" s="37">
+        <v>720000000000</v>
+      </c>
+      <c r="K247" s="3">
+        <v>0</v>
+      </c>
+      <c r="L247" s="3">
+        <v>500</v>
+      </c>
+      <c r="M247" s="3">
+        <v>1</v>
+      </c>
+      <c r="N247" s="3">
+        <v>2</v>
+      </c>
+      <c r="O247" s="4">
+        <v>100</v>
+      </c>
+      <c r="P247" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q247" s="2">
+        <v>4</v>
+      </c>
+      <c r="R247" s="2">
+        <v>10</v>
+      </c>
+      <c r="S247" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T247" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U247" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V247" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W247" s="2">
+        <v>0</v>
+      </c>
+      <c r="X247" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y247" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI247" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK247" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL247" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN247" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO247" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP247" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ247" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR247" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS247" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT247" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU247" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV247" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C248" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E248" s="36">
+        <v>36</v>
+      </c>
+      <c r="F248" s="3">
+        <v>1</v>
+      </c>
+      <c r="G248" s="3">
+        <v>0</v>
+      </c>
+      <c r="H248" s="3">
+        <v>5</v>
+      </c>
+      <c r="I248" s="3">
+        <v>0</v>
+      </c>
+      <c r="J248" s="37">
+        <v>730000000000</v>
+      </c>
+      <c r="K248" s="3">
+        <v>0</v>
+      </c>
+      <c r="L248" s="3">
+        <v>500</v>
+      </c>
+      <c r="M248" s="3">
+        <v>1</v>
+      </c>
+      <c r="N248" s="3">
+        <v>2</v>
+      </c>
+      <c r="O248" s="4">
+        <v>100</v>
+      </c>
+      <c r="P248" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q248" s="2">
+        <v>4</v>
+      </c>
+      <c r="R248" s="2">
+        <v>10</v>
+      </c>
+      <c r="S248" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T248" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U248" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V248" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="W248" s="2">
+        <v>0</v>
+      </c>
+      <c r="X248" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y248" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI248" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK248" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL248" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN248" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO248" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP248" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ248" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR248" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS248" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT248" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU248" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV248" s="2">
         <v>0</v>
       </c>
     </row>
@@ -35710,7 +38857,7 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
@@ -35724,7 +38871,7 @@
     <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -35769,7 +38916,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -35813,7 +38960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -35857,7 +39004,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -35901,7 +39048,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -35945,7 +39092,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -35989,7 +39136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -36033,7 +39180,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -36077,7 +39224,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -36121,7 +39268,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -36165,7 +39312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -36209,7 +39356,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -36253,7 +39400,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -36297,7 +39444,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -36340,7 +39487,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -36353,7 +39500,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -36366,7 +39513,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -36379,7 +39526,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -36392,7 +39539,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -36405,7 +39552,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -36418,7 +39565,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -36431,7 +39578,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -36439,7 +39586,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -36447,7 +39594,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -36455,7 +39602,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -36463,7 +39610,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -36471,7 +39618,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -36479,7 +39626,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1">
+    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -36511,7 +39658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1">
+    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -36543,7 +39690,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1">
+    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -36575,7 +39722,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1">
+    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -36607,7 +39754,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -36639,7 +39786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -36671,7 +39818,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>0</v>
       </c>
@@ -36703,7 +39850,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>0</v>
       </c>
@@ -36735,7 +39882,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1">
+    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -36767,7 +39914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1">
+    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -36799,7 +39946,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1">
+    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -36831,7 +39978,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1">
+    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -36878,9 +40025,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="33">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -36915,7 +40062,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -36955,7 +40102,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -36995,7 +40142,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -37035,7 +40182,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -37075,7 +40222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -37115,7 +40262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -37155,7 +40302,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -37195,7 +40342,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -37235,7 +40382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -37275,7 +40422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -37315,7 +40462,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -37355,7 +40502,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -37406,13 +40553,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -37442,7 +40589,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -37472,7 +40619,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>450</v>
       </c>
@@ -37502,13 +40649,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -37526,7 +40673,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -37544,7 +40691,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -37562,7 +40709,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -37576,7 +40723,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -37590,7 +40737,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -37604,7 +40751,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>3</v>
       </c>
@@ -37618,7 +40765,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>7</v>
       </c>
@@ -37632,7 +40779,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>45</v>
       </c>
@@ -37660,7 +40807,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
@@ -37670,7 +40817,7 @@
     <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>245</v>
       </c>
@@ -37679,7 +40826,7 @@
       </c>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>246</v>
       </c>
@@ -37687,10 +40834,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -37710,7 +40857,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -37743,7 +40890,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -37778,7 +40925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -37813,7 +40960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -37848,7 +40995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -37883,7 +41030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -37918,7 +41065,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -37955,7 +41102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -37990,7 +41137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -38025,7 +41172,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -38060,7 +41207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -38095,7 +41242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -38130,7 +41277,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -38167,7 +41314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -38202,7 +41349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -38237,7 +41384,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -38272,7 +41419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -38307,7 +41454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I22" s="39"/>
       <c r="J22">
         <v>18</v>
@@ -38319,7 +41466,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I23" s="39">
         <v>4</v>
       </c>
@@ -38333,7 +41480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I24" s="39"/>
       <c r="J24">
         <v>20</v>
@@ -38345,7 +41492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I25" s="39"/>
       <c r="J25">
         <v>21</v>
@@ -38357,7 +41504,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I26" s="39"/>
       <c r="J26">
         <v>22</v>
@@ -38369,7 +41516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I27" s="39"/>
       <c r="J27">
         <v>23</v>
@@ -38381,7 +41528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I28" s="39"/>
       <c r="J28">
         <v>24</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A85ED-FC4C-464B-A595-6C8C75B14D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E30BEA-B533-4298-83B8-0A37E77FCB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="555">
   <si>
     <t>id</t>
   </si>
@@ -1925,6 +1925,66 @@
   <si>
     <t>용궁 - 광해태자에게서 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 101단계</t>
+  </si>
+  <si>
+    <t>도술 102단계</t>
+  </si>
+  <si>
+    <t>도술 103단계</t>
+  </si>
+  <si>
+    <t>도술 104단계</t>
+  </si>
+  <si>
+    <t>도술 105단계</t>
+  </si>
+  <si>
+    <t>도술 106단계</t>
+  </si>
+  <si>
+    <t>도술 107단계</t>
+  </si>
+  <si>
+    <t>도술 108단계</t>
+  </si>
+  <si>
+    <t>도술 109단계</t>
+  </si>
+  <si>
+    <t>도술 110단계</t>
+  </si>
+  <si>
+    <t>도술 111단계</t>
+  </si>
+  <si>
+    <t>도술 112단계</t>
+  </si>
+  <si>
+    <t>도술 113단계</t>
+  </si>
+  <si>
+    <t>도술 114단계</t>
+  </si>
+  <si>
+    <t>도술 115단계</t>
+  </si>
+  <si>
+    <t>도술 116단계</t>
+  </si>
+  <si>
+    <t>도술 117단계</t>
+  </si>
+  <si>
+    <t>도술 118단계</t>
+  </si>
+  <si>
+    <t>도술 119단계</t>
+  </si>
+  <si>
+    <t>도술 120단계</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2266,6 +2326,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2588,12 +2651,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW248"/>
+  <dimension ref="A1:AW268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AW228" sqref="AW228"/>
+      <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29079,7 +29142,7 @@
       <c r="I182" s="3">
         <v>0</v>
       </c>
-      <c r="J182" s="3">
+      <c r="J182" s="39">
         <v>150000000000</v>
       </c>
       <c r="K182" s="3">
@@ -29229,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="37">
-        <v>260000000000</v>
+        <v>300000000000</v>
       </c>
       <c r="K183" s="3">
         <v>0</v>
@@ -29375,7 +29438,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="37">
-        <v>270000000000</v>
+        <v>310000000000</v>
       </c>
       <c r="K184" s="3">
         <v>0</v>
@@ -29521,7 +29584,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="37">
-        <v>280000000000</v>
+        <v>320000000000</v>
       </c>
       <c r="K185" s="3">
         <v>0</v>
@@ -29667,7 +29730,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="37">
-        <v>290000000000</v>
+        <v>330000000000</v>
       </c>
       <c r="K186" s="3">
         <v>0</v>
@@ -29813,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="37">
-        <v>300000000000</v>
+        <v>360000000000</v>
       </c>
       <c r="K187" s="3">
         <v>0</v>
@@ -29959,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="37">
-        <v>310000000000</v>
+        <v>370000000000</v>
       </c>
       <c r="K188" s="3">
         <v>0</v>
@@ -30105,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="37">
-        <v>320000000000</v>
+        <v>380000000000</v>
       </c>
       <c r="K189" s="3">
         <v>0</v>
@@ -30251,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="37">
-        <v>330000000000</v>
+        <v>390000000000</v>
       </c>
       <c r="K190" s="3">
         <v>0</v>
@@ -30397,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="37">
-        <v>340000000000</v>
+        <v>400000000000</v>
       </c>
       <c r="K191" s="3">
         <v>0</v>
@@ -30543,7 +30606,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="37">
-        <v>350000000000</v>
+        <v>410000000000</v>
       </c>
       <c r="K192" s="3">
         <v>0</v>
@@ -32879,7 +32942,7 @@
         <v>0</v>
       </c>
       <c r="J208" s="37">
-        <v>350000000000</v>
+        <v>420000000000</v>
       </c>
       <c r="K208" s="3">
         <v>0</v>
@@ -33025,7 +33088,7 @@
         <v>0</v>
       </c>
       <c r="J209" s="37">
-        <v>360000000000</v>
+        <v>430000000000</v>
       </c>
       <c r="K209" s="3">
         <v>0</v>
@@ -33171,7 +33234,7 @@
         <v>0</v>
       </c>
       <c r="J210" s="37">
-        <v>370000000000</v>
+        <v>440000000000</v>
       </c>
       <c r="K210" s="3">
         <v>0</v>
@@ -33317,7 +33380,7 @@
         <v>0</v>
       </c>
       <c r="J211" s="37">
-        <v>380000000000</v>
+        <v>450000000000</v>
       </c>
       <c r="K211" s="3">
         <v>0</v>
@@ -33463,7 +33526,7 @@
         <v>0</v>
       </c>
       <c r="J212" s="37">
-        <v>390000000000</v>
+        <v>460000000000</v>
       </c>
       <c r="K212" s="3">
         <v>0</v>
@@ -33609,7 +33672,7 @@
         <v>0</v>
       </c>
       <c r="J213" s="37">
-        <v>400000000000</v>
+        <v>470000000000</v>
       </c>
       <c r="K213" s="3">
         <v>0</v>
@@ -33755,7 +33818,7 @@
         <v>0</v>
       </c>
       <c r="J214" s="37">
-        <v>410000000000</v>
+        <v>480000000000</v>
       </c>
       <c r="K214" s="3">
         <v>0</v>
@@ -33901,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="37">
-        <v>420000000000</v>
+        <v>490000000000</v>
       </c>
       <c r="K215" s="3">
         <v>0</v>
@@ -34047,7 +34110,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="37">
-        <v>430000000000</v>
+        <v>500000000000</v>
       </c>
       <c r="K216" s="3">
         <v>0</v>
@@ -34193,7 +34256,7 @@
         <v>0</v>
       </c>
       <c r="J217" s="37">
-        <v>440000000000</v>
+        <v>510000000000</v>
       </c>
       <c r="K217" s="3">
         <v>0</v>
@@ -34339,7 +34402,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="37">
-        <v>450000000000</v>
+        <v>520000000000</v>
       </c>
       <c r="K218" s="3">
         <v>0</v>
@@ -34485,7 +34548,7 @@
         <v>0</v>
       </c>
       <c r="J219" s="37">
-        <v>460000000000</v>
+        <v>530000000000</v>
       </c>
       <c r="K219" s="3">
         <v>0</v>
@@ -34631,7 +34694,7 @@
         <v>0</v>
       </c>
       <c r="J220" s="37">
-        <v>470000000000</v>
+        <v>540000000000</v>
       </c>
       <c r="K220" s="3">
         <v>0</v>
@@ -34777,7 +34840,7 @@
         <v>0</v>
       </c>
       <c r="J221" s="37">
-        <v>480000000000</v>
+        <v>550000000000</v>
       </c>
       <c r="K221" s="3">
         <v>0</v>
@@ -34923,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="37">
-        <v>490000000000</v>
+        <v>560000000000</v>
       </c>
       <c r="K222" s="3">
         <v>0</v>
@@ -35069,7 +35132,7 @@
         <v>0</v>
       </c>
       <c r="J223" s="37">
-        <v>500000000000</v>
+        <v>570000000000</v>
       </c>
       <c r="K223" s="3">
         <v>0</v>
@@ -35215,7 +35278,7 @@
         <v>0</v>
       </c>
       <c r="J224" s="37">
-        <v>510000000000</v>
+        <v>580000000000</v>
       </c>
       <c r="K224" s="3">
         <v>0</v>
@@ -35361,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="J225" s="37">
-        <v>520000000000</v>
+        <v>590000000000</v>
       </c>
       <c r="K225" s="3">
         <v>0</v>
@@ -35507,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="37">
-        <v>530000000000</v>
+        <v>600000000000</v>
       </c>
       <c r="K226" s="3">
         <v>0</v>
@@ -35653,7 +35716,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="37">
-        <v>540000000000</v>
+        <v>610000000000</v>
       </c>
       <c r="K227" s="3">
         <v>0</v>
@@ -36097,7 +36160,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="37">
-        <v>550000000000</v>
+        <v>620000000000</v>
       </c>
       <c r="K230" s="3">
         <v>0</v>
@@ -36243,7 +36306,7 @@
         <v>0</v>
       </c>
       <c r="J231" s="37">
-        <v>560000000000</v>
+        <v>630000000000</v>
       </c>
       <c r="K231" s="3">
         <v>0</v>
@@ -36389,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="J232" s="37">
-        <v>570000000000</v>
+        <v>640000000000</v>
       </c>
       <c r="K232" s="3">
         <v>0</v>
@@ -36535,7 +36598,7 @@
         <v>0</v>
       </c>
       <c r="J233" s="37">
-        <v>580000000000</v>
+        <v>650000000000</v>
       </c>
       <c r="K233" s="3">
         <v>0</v>
@@ -36681,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="J234" s="37">
-        <v>590000000000</v>
+        <v>660000000000</v>
       </c>
       <c r="K234" s="3">
         <v>0</v>
@@ -36827,7 +36890,7 @@
         <v>0</v>
       </c>
       <c r="J235" s="37">
-        <v>600000000000</v>
+        <v>670000000000</v>
       </c>
       <c r="K235" s="3">
         <v>0</v>
@@ -36973,7 +37036,7 @@
         <v>0</v>
       </c>
       <c r="J236" s="37">
-        <v>610000000000</v>
+        <v>680000000000</v>
       </c>
       <c r="K236" s="3">
         <v>0</v>
@@ -37119,7 +37182,7 @@
         <v>0</v>
       </c>
       <c r="J237" s="37">
-        <v>620000000000</v>
+        <v>690000000000</v>
       </c>
       <c r="K237" s="3">
         <v>0</v>
@@ -37265,7 +37328,7 @@
         <v>0</v>
       </c>
       <c r="J238" s="37">
-        <v>630000000000</v>
+        <v>700000000000</v>
       </c>
       <c r="K238" s="3">
         <v>0</v>
@@ -37411,7 +37474,7 @@
         <v>0</v>
       </c>
       <c r="J239" s="37">
-        <v>640000000000</v>
+        <v>710000000000</v>
       </c>
       <c r="K239" s="3">
         <v>0</v>
@@ -37557,7 +37620,7 @@
         <v>0</v>
       </c>
       <c r="J240" s="37">
-        <v>650000000000</v>
+        <v>720000000000</v>
       </c>
       <c r="K240" s="3">
         <v>0</v>
@@ -37703,7 +37766,7 @@
         <v>0</v>
       </c>
       <c r="J241" s="37">
-        <v>660000000000</v>
+        <v>730000000000</v>
       </c>
       <c r="K241" s="3">
         <v>0</v>
@@ -37849,7 +37912,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="37">
-        <v>670000000000</v>
+        <v>740000000000</v>
       </c>
       <c r="K242" s="3">
         <v>0</v>
@@ -37995,7 +38058,7 @@
         <v>0</v>
       </c>
       <c r="J243" s="37">
-        <v>680000000000</v>
+        <v>750000000000</v>
       </c>
       <c r="K243" s="3">
         <v>0</v>
@@ -38141,7 +38204,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="37">
-        <v>690000000000</v>
+        <v>760000000000</v>
       </c>
       <c r="K244" s="3">
         <v>0</v>
@@ -38287,7 +38350,7 @@
         <v>0</v>
       </c>
       <c r="J245" s="37">
-        <v>700000000000</v>
+        <v>770000000000</v>
       </c>
       <c r="K245" s="3">
         <v>0</v>
@@ -38433,7 +38496,7 @@
         <v>0</v>
       </c>
       <c r="J246" s="37">
-        <v>710000000000</v>
+        <v>780000000000</v>
       </c>
       <c r="K246" s="3">
         <v>0</v>
@@ -38579,7 +38642,7 @@
         <v>0</v>
       </c>
       <c r="J247" s="37">
-        <v>720000000000</v>
+        <v>790000000000</v>
       </c>
       <c r="K247" s="3">
         <v>0</v>
@@ -38725,7 +38788,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="37">
-        <v>730000000000</v>
+        <v>800000000000</v>
       </c>
       <c r="K248" s="3">
         <v>0</v>
@@ -38839,6 +38902,2926 @@
         <v>217</v>
       </c>
       <c r="AV248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C249" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E249" s="36">
+        <v>36</v>
+      </c>
+      <c r="F249" s="3">
+        <v>1</v>
+      </c>
+      <c r="G249" s="3">
+        <v>0</v>
+      </c>
+      <c r="H249" s="3">
+        <v>5</v>
+      </c>
+      <c r="I249" s="3">
+        <v>0</v>
+      </c>
+      <c r="J249" s="37">
+        <v>810000000000</v>
+      </c>
+      <c r="K249" s="3">
+        <v>0</v>
+      </c>
+      <c r="L249" s="3">
+        <v>500</v>
+      </c>
+      <c r="M249" s="3">
+        <v>1</v>
+      </c>
+      <c r="N249" s="3">
+        <v>2</v>
+      </c>
+      <c r="O249" s="4">
+        <v>100</v>
+      </c>
+      <c r="P249" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q249" s="2">
+        <v>4</v>
+      </c>
+      <c r="R249" s="2">
+        <v>10</v>
+      </c>
+      <c r="S249" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T249" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U249" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V249" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W249" s="2">
+        <v>0</v>
+      </c>
+      <c r="X249" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y249" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI249" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK249" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL249" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN249" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO249" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP249" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ249" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR249" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS249" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT249" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU249" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV249" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C250" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E250" s="36">
+        <v>36</v>
+      </c>
+      <c r="F250" s="3">
+        <v>1</v>
+      </c>
+      <c r="G250" s="3">
+        <v>0</v>
+      </c>
+      <c r="H250" s="3">
+        <v>5</v>
+      </c>
+      <c r="I250" s="3">
+        <v>0</v>
+      </c>
+      <c r="J250" s="37">
+        <v>820000000000</v>
+      </c>
+      <c r="K250" s="3">
+        <v>0</v>
+      </c>
+      <c r="L250" s="3">
+        <v>500</v>
+      </c>
+      <c r="M250" s="3">
+        <v>1</v>
+      </c>
+      <c r="N250" s="3">
+        <v>2</v>
+      </c>
+      <c r="O250" s="4">
+        <v>100</v>
+      </c>
+      <c r="P250" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q250" s="2">
+        <v>4</v>
+      </c>
+      <c r="R250" s="2">
+        <v>10</v>
+      </c>
+      <c r="S250" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T250" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U250" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V250" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W250" s="2">
+        <v>0</v>
+      </c>
+      <c r="X250" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y250" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI250" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK250" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL250" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN250" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO250" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP250" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ250" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR250" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS250" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT250" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU250" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV250" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C251" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E251" s="36">
+        <v>36</v>
+      </c>
+      <c r="F251" s="3">
+        <v>1</v>
+      </c>
+      <c r="G251" s="3">
+        <v>0</v>
+      </c>
+      <c r="H251" s="3">
+        <v>5</v>
+      </c>
+      <c r="I251" s="3">
+        <v>0</v>
+      </c>
+      <c r="J251" s="37">
+        <v>830000000000</v>
+      </c>
+      <c r="K251" s="3">
+        <v>0</v>
+      </c>
+      <c r="L251" s="3">
+        <v>500</v>
+      </c>
+      <c r="M251" s="3">
+        <v>1</v>
+      </c>
+      <c r="N251" s="3">
+        <v>2</v>
+      </c>
+      <c r="O251" s="4">
+        <v>100</v>
+      </c>
+      <c r="P251" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q251" s="2">
+        <v>4</v>
+      </c>
+      <c r="R251" s="2">
+        <v>10</v>
+      </c>
+      <c r="S251" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T251" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U251" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V251" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W251" s="2">
+        <v>0</v>
+      </c>
+      <c r="X251" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y251" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI251" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK251" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL251" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN251" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO251" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP251" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ251" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR251" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS251" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT251" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU251" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV251" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C252" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E252" s="36">
+        <v>36</v>
+      </c>
+      <c r="F252" s="3">
+        <v>1</v>
+      </c>
+      <c r="G252" s="3">
+        <v>0</v>
+      </c>
+      <c r="H252" s="3">
+        <v>5</v>
+      </c>
+      <c r="I252" s="3">
+        <v>0</v>
+      </c>
+      <c r="J252" s="37">
+        <v>840000000000</v>
+      </c>
+      <c r="K252" s="3">
+        <v>0</v>
+      </c>
+      <c r="L252" s="3">
+        <v>500</v>
+      </c>
+      <c r="M252" s="3">
+        <v>1</v>
+      </c>
+      <c r="N252" s="3">
+        <v>2</v>
+      </c>
+      <c r="O252" s="4">
+        <v>100</v>
+      </c>
+      <c r="P252" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q252" s="2">
+        <v>4</v>
+      </c>
+      <c r="R252" s="2">
+        <v>10</v>
+      </c>
+      <c r="S252" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T252" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U252" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V252" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W252" s="2">
+        <v>0</v>
+      </c>
+      <c r="X252" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y252" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI252" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK252" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL252" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN252" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO252" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP252" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ252" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR252" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS252" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT252" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU252" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C253" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E253" s="36">
+        <v>36</v>
+      </c>
+      <c r="F253" s="3">
+        <v>1</v>
+      </c>
+      <c r="G253" s="3">
+        <v>0</v>
+      </c>
+      <c r="H253" s="3">
+        <v>5</v>
+      </c>
+      <c r="I253" s="3">
+        <v>0</v>
+      </c>
+      <c r="J253" s="37">
+        <v>850000000000</v>
+      </c>
+      <c r="K253" s="3">
+        <v>0</v>
+      </c>
+      <c r="L253" s="3">
+        <v>500</v>
+      </c>
+      <c r="M253" s="3">
+        <v>1</v>
+      </c>
+      <c r="N253" s="3">
+        <v>2</v>
+      </c>
+      <c r="O253" s="4">
+        <v>100</v>
+      </c>
+      <c r="P253" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q253" s="2">
+        <v>4</v>
+      </c>
+      <c r="R253" s="2">
+        <v>10</v>
+      </c>
+      <c r="S253" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T253" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U253" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V253" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W253" s="2">
+        <v>0</v>
+      </c>
+      <c r="X253" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y253" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI253" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK253" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL253" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN253" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO253" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP253" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ253" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR253" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS253" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT253" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU253" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV253" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C254" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E254" s="36">
+        <v>36</v>
+      </c>
+      <c r="F254" s="3">
+        <v>1</v>
+      </c>
+      <c r="G254" s="3">
+        <v>0</v>
+      </c>
+      <c r="H254" s="3">
+        <v>5</v>
+      </c>
+      <c r="I254" s="3">
+        <v>0</v>
+      </c>
+      <c r="J254" s="37">
+        <v>860000000000</v>
+      </c>
+      <c r="K254" s="3">
+        <v>0</v>
+      </c>
+      <c r="L254" s="3">
+        <v>500</v>
+      </c>
+      <c r="M254" s="3">
+        <v>1</v>
+      </c>
+      <c r="N254" s="3">
+        <v>2</v>
+      </c>
+      <c r="O254" s="4">
+        <v>100</v>
+      </c>
+      <c r="P254" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q254" s="2">
+        <v>4</v>
+      </c>
+      <c r="R254" s="2">
+        <v>10</v>
+      </c>
+      <c r="S254" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T254" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U254" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V254" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W254" s="2">
+        <v>0</v>
+      </c>
+      <c r="X254" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y254" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI254" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK254" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL254" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN254" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO254" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP254" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ254" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR254" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS254" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT254" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU254" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV254" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C255" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E255" s="36">
+        <v>36</v>
+      </c>
+      <c r="F255" s="3">
+        <v>1</v>
+      </c>
+      <c r="G255" s="3">
+        <v>0</v>
+      </c>
+      <c r="H255" s="3">
+        <v>5</v>
+      </c>
+      <c r="I255" s="3">
+        <v>0</v>
+      </c>
+      <c r="J255" s="37">
+        <v>870000000000</v>
+      </c>
+      <c r="K255" s="3">
+        <v>0</v>
+      </c>
+      <c r="L255" s="3">
+        <v>500</v>
+      </c>
+      <c r="M255" s="3">
+        <v>1</v>
+      </c>
+      <c r="N255" s="3">
+        <v>2</v>
+      </c>
+      <c r="O255" s="4">
+        <v>100</v>
+      </c>
+      <c r="P255" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q255" s="2">
+        <v>4</v>
+      </c>
+      <c r="R255" s="2">
+        <v>10</v>
+      </c>
+      <c r="S255" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T255" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U255" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V255" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W255" s="2">
+        <v>0</v>
+      </c>
+      <c r="X255" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y255" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI255" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK255" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL255" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN255" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO255" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP255" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ255" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR255" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS255" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT255" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU255" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV255" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C256" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E256" s="36">
+        <v>36</v>
+      </c>
+      <c r="F256" s="3">
+        <v>1</v>
+      </c>
+      <c r="G256" s="3">
+        <v>0</v>
+      </c>
+      <c r="H256" s="3">
+        <v>5</v>
+      </c>
+      <c r="I256" s="3">
+        <v>0</v>
+      </c>
+      <c r="J256" s="37">
+        <v>880000000000</v>
+      </c>
+      <c r="K256" s="3">
+        <v>0</v>
+      </c>
+      <c r="L256" s="3">
+        <v>500</v>
+      </c>
+      <c r="M256" s="3">
+        <v>1</v>
+      </c>
+      <c r="N256" s="3">
+        <v>2</v>
+      </c>
+      <c r="O256" s="4">
+        <v>100</v>
+      </c>
+      <c r="P256" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q256" s="2">
+        <v>4</v>
+      </c>
+      <c r="R256" s="2">
+        <v>10</v>
+      </c>
+      <c r="S256" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T256" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U256" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V256" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W256" s="2">
+        <v>0</v>
+      </c>
+      <c r="X256" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y256" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI256" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK256" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL256" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN256" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO256" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP256" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ256" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR256" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS256" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT256" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU256" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV256" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C257" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E257" s="36">
+        <v>36</v>
+      </c>
+      <c r="F257" s="3">
+        <v>1</v>
+      </c>
+      <c r="G257" s="3">
+        <v>0</v>
+      </c>
+      <c r="H257" s="3">
+        <v>5</v>
+      </c>
+      <c r="I257" s="3">
+        <v>0</v>
+      </c>
+      <c r="J257" s="37">
+        <v>890000000000</v>
+      </c>
+      <c r="K257" s="3">
+        <v>0</v>
+      </c>
+      <c r="L257" s="3">
+        <v>500</v>
+      </c>
+      <c r="M257" s="3">
+        <v>1</v>
+      </c>
+      <c r="N257" s="3">
+        <v>2</v>
+      </c>
+      <c r="O257" s="4">
+        <v>100</v>
+      </c>
+      <c r="P257" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q257" s="2">
+        <v>4</v>
+      </c>
+      <c r="R257" s="2">
+        <v>10</v>
+      </c>
+      <c r="S257" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T257" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U257" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V257" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W257" s="2">
+        <v>0</v>
+      </c>
+      <c r="X257" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y257" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI257" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK257" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL257" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN257" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO257" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP257" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ257" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR257" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS257" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT257" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU257" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV257" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C258" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E258" s="36">
+        <v>36</v>
+      </c>
+      <c r="F258" s="3">
+        <v>1</v>
+      </c>
+      <c r="G258" s="3">
+        <v>0</v>
+      </c>
+      <c r="H258" s="3">
+        <v>5</v>
+      </c>
+      <c r="I258" s="3">
+        <v>0</v>
+      </c>
+      <c r="J258" s="37">
+        <v>900000000000</v>
+      </c>
+      <c r="K258" s="3">
+        <v>0</v>
+      </c>
+      <c r="L258" s="3">
+        <v>500</v>
+      </c>
+      <c r="M258" s="3">
+        <v>1</v>
+      </c>
+      <c r="N258" s="3">
+        <v>2</v>
+      </c>
+      <c r="O258" s="4">
+        <v>100</v>
+      </c>
+      <c r="P258" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q258" s="2">
+        <v>4</v>
+      </c>
+      <c r="R258" s="2">
+        <v>10</v>
+      </c>
+      <c r="S258" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T258" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U258" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V258" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W258" s="2">
+        <v>0</v>
+      </c>
+      <c r="X258" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y258" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI258" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK258" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL258" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN258" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO258" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP258" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ258" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR258" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS258" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT258" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU258" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV258" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C259" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E259" s="36">
+        <v>36</v>
+      </c>
+      <c r="F259" s="3">
+        <v>1</v>
+      </c>
+      <c r="G259" s="3">
+        <v>0</v>
+      </c>
+      <c r="H259" s="3">
+        <v>5</v>
+      </c>
+      <c r="I259" s="3">
+        <v>0</v>
+      </c>
+      <c r="J259" s="37">
+        <v>910000000000</v>
+      </c>
+      <c r="K259" s="3">
+        <v>0</v>
+      </c>
+      <c r="L259" s="3">
+        <v>500</v>
+      </c>
+      <c r="M259" s="3">
+        <v>1</v>
+      </c>
+      <c r="N259" s="3">
+        <v>2</v>
+      </c>
+      <c r="O259" s="4">
+        <v>100</v>
+      </c>
+      <c r="P259" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q259" s="2">
+        <v>4</v>
+      </c>
+      <c r="R259" s="2">
+        <v>10</v>
+      </c>
+      <c r="S259" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T259" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U259" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V259" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W259" s="2">
+        <v>0</v>
+      </c>
+      <c r="X259" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y259" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI259" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK259" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL259" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN259" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO259" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP259" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ259" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR259" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS259" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT259" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU259" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV259" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C260" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E260" s="36">
+        <v>36</v>
+      </c>
+      <c r="F260" s="3">
+        <v>1</v>
+      </c>
+      <c r="G260" s="3">
+        <v>0</v>
+      </c>
+      <c r="H260" s="3">
+        <v>5</v>
+      </c>
+      <c r="I260" s="3">
+        <v>0</v>
+      </c>
+      <c r="J260" s="37">
+        <v>920000000000</v>
+      </c>
+      <c r="K260" s="3">
+        <v>0</v>
+      </c>
+      <c r="L260" s="3">
+        <v>500</v>
+      </c>
+      <c r="M260" s="3">
+        <v>1</v>
+      </c>
+      <c r="N260" s="3">
+        <v>2</v>
+      </c>
+      <c r="O260" s="4">
+        <v>100</v>
+      </c>
+      <c r="P260" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q260" s="2">
+        <v>4</v>
+      </c>
+      <c r="R260" s="2">
+        <v>10</v>
+      </c>
+      <c r="S260" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T260" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U260" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V260" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W260" s="2">
+        <v>0</v>
+      </c>
+      <c r="X260" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y260" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI260" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK260" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL260" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN260" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO260" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP260" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ260" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR260" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS260" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT260" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU260" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV260" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C261" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E261" s="36">
+        <v>36</v>
+      </c>
+      <c r="F261" s="3">
+        <v>1</v>
+      </c>
+      <c r="G261" s="3">
+        <v>0</v>
+      </c>
+      <c r="H261" s="3">
+        <v>5</v>
+      </c>
+      <c r="I261" s="3">
+        <v>0</v>
+      </c>
+      <c r="J261" s="37">
+        <v>930000000000</v>
+      </c>
+      <c r="K261" s="3">
+        <v>0</v>
+      </c>
+      <c r="L261" s="3">
+        <v>500</v>
+      </c>
+      <c r="M261" s="3">
+        <v>1</v>
+      </c>
+      <c r="N261" s="3">
+        <v>2</v>
+      </c>
+      <c r="O261" s="4">
+        <v>100</v>
+      </c>
+      <c r="P261" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q261" s="2">
+        <v>4</v>
+      </c>
+      <c r="R261" s="2">
+        <v>10</v>
+      </c>
+      <c r="S261" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T261" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U261" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V261" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W261" s="2">
+        <v>0</v>
+      </c>
+      <c r="X261" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y261" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI261" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK261" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL261" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN261" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO261" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP261" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ261" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR261" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS261" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT261" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU261" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV261" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C262" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E262" s="36">
+        <v>36</v>
+      </c>
+      <c r="F262" s="3">
+        <v>1</v>
+      </c>
+      <c r="G262" s="3">
+        <v>0</v>
+      </c>
+      <c r="H262" s="3">
+        <v>5</v>
+      </c>
+      <c r="I262" s="3">
+        <v>0</v>
+      </c>
+      <c r="J262" s="37">
+        <v>940000000000</v>
+      </c>
+      <c r="K262" s="3">
+        <v>0</v>
+      </c>
+      <c r="L262" s="3">
+        <v>500</v>
+      </c>
+      <c r="M262" s="3">
+        <v>1</v>
+      </c>
+      <c r="N262" s="3">
+        <v>2</v>
+      </c>
+      <c r="O262" s="4">
+        <v>100</v>
+      </c>
+      <c r="P262" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q262" s="2">
+        <v>4</v>
+      </c>
+      <c r="R262" s="2">
+        <v>10</v>
+      </c>
+      <c r="S262" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T262" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U262" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V262" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W262" s="2">
+        <v>0</v>
+      </c>
+      <c r="X262" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y262" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI262" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK262" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL262" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN262" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO262" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP262" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ262" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR262" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS262" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT262" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU262" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV262" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C263" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E263" s="36">
+        <v>36</v>
+      </c>
+      <c r="F263" s="3">
+        <v>1</v>
+      </c>
+      <c r="G263" s="3">
+        <v>0</v>
+      </c>
+      <c r="H263" s="3">
+        <v>5</v>
+      </c>
+      <c r="I263" s="3">
+        <v>0</v>
+      </c>
+      <c r="J263" s="37">
+        <v>950000000000</v>
+      </c>
+      <c r="K263" s="3">
+        <v>0</v>
+      </c>
+      <c r="L263" s="3">
+        <v>500</v>
+      </c>
+      <c r="M263" s="3">
+        <v>1</v>
+      </c>
+      <c r="N263" s="3">
+        <v>2</v>
+      </c>
+      <c r="O263" s="4">
+        <v>100</v>
+      </c>
+      <c r="P263" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q263" s="2">
+        <v>4</v>
+      </c>
+      <c r="R263" s="2">
+        <v>10</v>
+      </c>
+      <c r="S263" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T263" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U263" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V263" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W263" s="2">
+        <v>0</v>
+      </c>
+      <c r="X263" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y263" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI263" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK263" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL263" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN263" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO263" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP263" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ263" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR263" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS263" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT263" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU263" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV263" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C264" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E264" s="36">
+        <v>36</v>
+      </c>
+      <c r="F264" s="3">
+        <v>1</v>
+      </c>
+      <c r="G264" s="3">
+        <v>0</v>
+      </c>
+      <c r="H264" s="3">
+        <v>5</v>
+      </c>
+      <c r="I264" s="3">
+        <v>0</v>
+      </c>
+      <c r="J264" s="37">
+        <v>960000000000</v>
+      </c>
+      <c r="K264" s="3">
+        <v>0</v>
+      </c>
+      <c r="L264" s="3">
+        <v>500</v>
+      </c>
+      <c r="M264" s="3">
+        <v>1</v>
+      </c>
+      <c r="N264" s="3">
+        <v>2</v>
+      </c>
+      <c r="O264" s="4">
+        <v>100</v>
+      </c>
+      <c r="P264" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q264" s="2">
+        <v>4</v>
+      </c>
+      <c r="R264" s="2">
+        <v>10</v>
+      </c>
+      <c r="S264" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T264" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U264" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V264" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W264" s="2">
+        <v>0</v>
+      </c>
+      <c r="X264" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y264" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI264" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK264" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL264" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN264" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO264" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP264" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ264" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR264" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS264" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT264" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU264" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV264" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C265" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E265" s="36">
+        <v>36</v>
+      </c>
+      <c r="F265" s="3">
+        <v>1</v>
+      </c>
+      <c r="G265" s="3">
+        <v>0</v>
+      </c>
+      <c r="H265" s="3">
+        <v>5</v>
+      </c>
+      <c r="I265" s="3">
+        <v>0</v>
+      </c>
+      <c r="J265" s="37">
+        <v>970000000000</v>
+      </c>
+      <c r="K265" s="3">
+        <v>0</v>
+      </c>
+      <c r="L265" s="3">
+        <v>500</v>
+      </c>
+      <c r="M265" s="3">
+        <v>1</v>
+      </c>
+      <c r="N265" s="3">
+        <v>2</v>
+      </c>
+      <c r="O265" s="4">
+        <v>100</v>
+      </c>
+      <c r="P265" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q265" s="2">
+        <v>4</v>
+      </c>
+      <c r="R265" s="2">
+        <v>10</v>
+      </c>
+      <c r="S265" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T265" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U265" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V265" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W265" s="2">
+        <v>0</v>
+      </c>
+      <c r="X265" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y265" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI265" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK265" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL265" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN265" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO265" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP265" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ265" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR265" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS265" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT265" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU265" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C266" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E266" s="36">
+        <v>36</v>
+      </c>
+      <c r="F266" s="3">
+        <v>1</v>
+      </c>
+      <c r="G266" s="3">
+        <v>0</v>
+      </c>
+      <c r="H266" s="3">
+        <v>5</v>
+      </c>
+      <c r="I266" s="3">
+        <v>0</v>
+      </c>
+      <c r="J266" s="37">
+        <v>980000000000</v>
+      </c>
+      <c r="K266" s="3">
+        <v>0</v>
+      </c>
+      <c r="L266" s="3">
+        <v>500</v>
+      </c>
+      <c r="M266" s="3">
+        <v>1</v>
+      </c>
+      <c r="N266" s="3">
+        <v>2</v>
+      </c>
+      <c r="O266" s="4">
+        <v>100</v>
+      </c>
+      <c r="P266" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q266" s="2">
+        <v>4</v>
+      </c>
+      <c r="R266" s="2">
+        <v>10</v>
+      </c>
+      <c r="S266" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T266" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U266" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V266" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W266" s="2">
+        <v>0</v>
+      </c>
+      <c r="X266" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y266" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI266" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK266" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL266" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN266" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO266" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP266" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ266" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR266" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS266" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT266" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU266" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C267" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E267" s="36">
+        <v>36</v>
+      </c>
+      <c r="F267" s="3">
+        <v>1</v>
+      </c>
+      <c r="G267" s="3">
+        <v>0</v>
+      </c>
+      <c r="H267" s="3">
+        <v>5</v>
+      </c>
+      <c r="I267" s="3">
+        <v>0</v>
+      </c>
+      <c r="J267" s="37">
+        <v>990000000000</v>
+      </c>
+      <c r="K267" s="3">
+        <v>0</v>
+      </c>
+      <c r="L267" s="3">
+        <v>500</v>
+      </c>
+      <c r="M267" s="3">
+        <v>1</v>
+      </c>
+      <c r="N267" s="3">
+        <v>2</v>
+      </c>
+      <c r="O267" s="4">
+        <v>100</v>
+      </c>
+      <c r="P267" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q267" s="2">
+        <v>4</v>
+      </c>
+      <c r="R267" s="2">
+        <v>10</v>
+      </c>
+      <c r="S267" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T267" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U267" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V267" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W267" s="2">
+        <v>0</v>
+      </c>
+      <c r="X267" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y267" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI267" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK267" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL267" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN267" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO267" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP267" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ267" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR267" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS267" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT267" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU267" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV267" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C268" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E268" s="36">
+        <v>36</v>
+      </c>
+      <c r="F268" s="3">
+        <v>1</v>
+      </c>
+      <c r="G268" s="3">
+        <v>0</v>
+      </c>
+      <c r="H268" s="3">
+        <v>5</v>
+      </c>
+      <c r="I268" s="3">
+        <v>0</v>
+      </c>
+      <c r="J268" s="37">
+        <v>1000000000000</v>
+      </c>
+      <c r="K268" s="3">
+        <v>0</v>
+      </c>
+      <c r="L268" s="3">
+        <v>500</v>
+      </c>
+      <c r="M268" s="3">
+        <v>1</v>
+      </c>
+      <c r="N268" s="3">
+        <v>2</v>
+      </c>
+      <c r="O268" s="4">
+        <v>100</v>
+      </c>
+      <c r="P268" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q268" s="2">
+        <v>4</v>
+      </c>
+      <c r="R268" s="2">
+        <v>10</v>
+      </c>
+      <c r="S268" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T268" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U268" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V268" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W268" s="2">
+        <v>0</v>
+      </c>
+      <c r="X268" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y268" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI268" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK268" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL268" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN268" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO268" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP268" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ268" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR268" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS268" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT268" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU268" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV268" s="2">
         <v>0</v>
       </c>
     </row>
@@ -40877,7 +43860,7 @@
       <c r="F5" s="29">
         <v>4000000000</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="40">
         <v>1</v>
       </c>
       <c r="J5">
@@ -40914,7 +43897,7 @@
         <f>$F$5*(100+B6)/100</f>
         <v>8000000000</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="40"/>
       <c r="J6">
         <v>2</v>
       </c>
@@ -40949,7 +43932,7 @@
         <f t="shared" ref="F7:F21" si="4">$F$5*(100+B7)/100</f>
         <v>12000000000</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="40"/>
       <c r="J7">
         <v>3</v>
       </c>
@@ -40984,7 +43967,7 @@
         <f t="shared" si="4"/>
         <v>16000000000</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="40"/>
       <c r="J8">
         <v>4</v>
       </c>
@@ -41019,7 +44002,7 @@
         <f t="shared" si="4"/>
         <v>20000000000</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="40"/>
       <c r="J9">
         <v>5</v>
       </c>
@@ -41054,7 +44037,7 @@
         <f t="shared" si="4"/>
         <v>24000000000</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="40"/>
       <c r="J10">
         <v>6</v>
       </c>
@@ -41089,7 +44072,7 @@
         <f t="shared" si="4"/>
         <v>28000000000</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="40">
         <v>2</v>
       </c>
       <c r="J11">
@@ -41126,7 +44109,7 @@
         <f t="shared" si="4"/>
         <v>32000000000</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="40"/>
       <c r="J12">
         <v>8</v>
       </c>
@@ -41161,7 +44144,7 @@
         <f t="shared" si="4"/>
         <v>36000000000</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="40"/>
       <c r="J13">
         <v>9</v>
       </c>
@@ -41196,7 +44179,7 @@
         <f t="shared" si="4"/>
         <v>40000000000</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="40"/>
       <c r="J14">
         <v>10</v>
       </c>
@@ -41231,7 +44214,7 @@
         <f t="shared" si="4"/>
         <v>44000000000</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="40"/>
       <c r="J15">
         <v>11</v>
       </c>
@@ -41266,7 +44249,7 @@
         <f t="shared" si="4"/>
         <v>48000000000</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="40"/>
       <c r="J16">
         <v>12</v>
       </c>
@@ -41301,7 +44284,7 @@
         <f t="shared" si="4"/>
         <v>52000000000</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="40">
         <v>3</v>
       </c>
       <c r="J17">
@@ -41338,7 +44321,7 @@
         <f t="shared" si="4"/>
         <v>56000000000</v>
       </c>
-      <c r="I18" s="39"/>
+      <c r="I18" s="40"/>
       <c r="J18">
         <v>14</v>
       </c>
@@ -41373,7 +44356,7 @@
         <f t="shared" si="4"/>
         <v>60000000000</v>
       </c>
-      <c r="I19" s="39"/>
+      <c r="I19" s="40"/>
       <c r="J19">
         <v>15</v>
       </c>
@@ -41408,7 +44391,7 @@
         <f t="shared" si="4"/>
         <v>64000000000</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="40"/>
       <c r="J20">
         <v>16</v>
       </c>
@@ -41443,7 +44426,7 @@
         <f t="shared" si="4"/>
         <v>68000000000</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="40"/>
       <c r="J21">
         <v>17</v>
       </c>
@@ -41455,7 +44438,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="39"/>
+      <c r="I22" s="40"/>
       <c r="J22">
         <v>18</v>
       </c>
@@ -41467,7 +44450,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I23" s="39">
+      <c r="I23" s="40">
         <v>4</v>
       </c>
       <c r="J23">
@@ -41481,7 +44464,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I24" s="39"/>
+      <c r="I24" s="40"/>
       <c r="J24">
         <v>20</v>
       </c>
@@ -41493,7 +44476,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I25" s="39"/>
+      <c r="I25" s="40"/>
       <c r="J25">
         <v>21</v>
       </c>
@@ -41505,7 +44488,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I26" s="39"/>
+      <c r="I26" s="40"/>
       <c r="J26">
         <v>22</v>
       </c>
@@ -41517,7 +44500,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I27" s="39"/>
+      <c r="I27" s="40"/>
       <c r="J27">
         <v>23</v>
       </c>
@@ -41529,7 +44512,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I28" s="39"/>
+      <c r="I28" s="40"/>
       <c r="J28">
         <v>24</v>
       </c>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E30BEA-B533-4298-83B8-0A37E77FCB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F5F155-A48B-4DC6-94E6-F13D95C0A28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="590">
   <si>
     <t>id</t>
   </si>
@@ -1985,6 +1985,118 @@
   </si>
   <si>
     <t>도술 120단계</t>
+  </si>
+  <si>
+    <t>StudentSkill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기 1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기 2단계</t>
+  </si>
+  <si>
+    <t>비기 3단계</t>
+  </si>
+  <si>
+    <t>비기 4단계</t>
+  </si>
+  <si>
+    <t>비기 5단계</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>비기 6단계</t>
+  </si>
+  <si>
+    <t>비기 7단계</t>
+  </si>
+  <si>
+    <t>비기 8단계</t>
+  </si>
+  <si>
+    <t>비기 9단계</t>
+  </si>
+  <si>
+    <t>비기 10단계</t>
+  </si>
+  <si>
+    <t>도술 121단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 122단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 123단계</t>
+  </si>
+  <si>
+    <t>도술 124단계</t>
+  </si>
+  <si>
+    <t>도술 125단계</t>
+  </si>
+  <si>
+    <t>도술 126단계</t>
+  </si>
+  <si>
+    <t>도술 127단계</t>
+  </si>
+  <si>
+    <t>도술 128단계</t>
+  </si>
+  <si>
+    <t>도술 129단계</t>
+  </si>
+  <si>
+    <t>도술 130단계</t>
+  </si>
+  <si>
+    <t>도술 131단계</t>
+  </si>
+  <si>
+    <t>도술 132단계</t>
+  </si>
+  <si>
+    <t>도술 133단계</t>
+  </si>
+  <si>
+    <t>도술 134단계</t>
+  </si>
+  <si>
+    <t>도술 135단계</t>
+  </si>
+  <si>
+    <t>도술 136단계</t>
+  </si>
+  <si>
+    <t>도술 137단계</t>
+  </si>
+  <si>
+    <t>도술 138단계</t>
+  </si>
+  <si>
+    <t>도술 139단계</t>
+  </si>
+  <si>
+    <t>도술 140단계</t>
+  </si>
+  <si>
+    <t>damagePer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1997,7 +2109,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000000000000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2209,7 +2321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2328,6 +2440,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2651,15 +2769,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW268"/>
+  <dimension ref="A1:AW298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="A268" sqref="A268"/>
+      <selection pane="bottomLeft" activeCell="J274" sqref="J274"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
@@ -2697,7 +2815,7 @@
     <col min="47" max="47" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="8" customFormat="1" ht="33">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2726,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>7</v>
+        <v>589</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>8</v>
@@ -2846,7 +2964,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" s="2" customFormat="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2989,7 +3107,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="2" customFormat="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3132,7 +3250,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" s="2" customFormat="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3275,7 +3393,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" s="2" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3418,7 +3536,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" s="2" customFormat="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3561,7 +3679,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" s="2" customFormat="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3704,7 +3822,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" s="2" customFormat="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3847,7 +3965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" s="2" customFormat="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3990,7 +4108,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4133,7 +4251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4276,7 +4394,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4419,7 +4537,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4562,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -4705,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -4848,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -4991,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" s="2" customFormat="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5134,7 +5252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" s="2" customFormat="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5277,7 +5395,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5420,7 +5538,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" s="6" customFormat="1">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -5566,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" s="6" customFormat="1">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -5712,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5858,7 +5976,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6004,7 +6122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" s="17" customFormat="1">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -6150,7 +6268,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" s="17" customFormat="1">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -6296,7 +6414,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" s="17" customFormat="1">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -6442,7 +6560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" s="17" customFormat="1">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -6588,7 +6706,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" s="17" customFormat="1">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -6734,7 +6852,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" s="17" customFormat="1">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -6880,7 +6998,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" s="17" customFormat="1">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -7026,7 +7144,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" s="17" customFormat="1">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -7172,7 +7290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" s="17" customFormat="1">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -7318,7 +7436,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" s="17" customFormat="1">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -7464,7 +7582,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" s="17" customFormat="1">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -7610,7 +7728,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" s="17" customFormat="1">
       <c r="A35" s="16">
         <v>33</v>
       </c>
@@ -7756,7 +7874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" s="17" customFormat="1">
       <c r="A36" s="16">
         <v>34</v>
       </c>
@@ -7902,7 +8020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" s="17" customFormat="1">
       <c r="A37" s="16">
         <v>35</v>
       </c>
@@ -8048,7 +8166,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" s="17" customFormat="1">
       <c r="A38" s="16">
         <v>36</v>
       </c>
@@ -8194,7 +8312,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" s="6" customFormat="1">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -8340,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" s="6" customFormat="1">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -8486,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" s="6" customFormat="1">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -8632,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" s="6" customFormat="1">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -8778,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -8924,7 +9042,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -9070,7 +9188,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -9216,7 +9334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -9362,7 +9480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -9508,7 +9626,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -9657,7 +9775,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -9806,7 +9924,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -9955,7 +10073,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -10104,7 +10222,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -10250,7 +10368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -10396,7 +10514,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -10542,7 +10660,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -10688,7 +10806,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -10834,7 +10952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49">
       <c r="A57" s="16">
         <v>55</v>
       </c>
@@ -10983,7 +11101,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49">
       <c r="A58" s="16">
         <v>56</v>
       </c>
@@ -11129,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -11275,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49">
       <c r="A60" s="16">
         <v>58</v>
       </c>
@@ -11421,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49">
       <c r="A61" s="16">
         <v>59</v>
       </c>
@@ -11567,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49">
       <c r="A62" s="16">
         <v>60</v>
       </c>
@@ -11713,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49">
       <c r="A63" s="16">
         <v>61</v>
       </c>
@@ -11859,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49">
       <c r="A64" s="16">
         <v>62</v>
       </c>
@@ -12005,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:48">
       <c r="A65" s="16">
         <v>63</v>
       </c>
@@ -12151,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:48">
       <c r="A66" s="16">
         <v>64</v>
       </c>
@@ -12297,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:48">
       <c r="A67" s="16">
         <v>65</v>
       </c>
@@ -12443,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:48">
       <c r="A68" s="16">
         <v>66</v>
       </c>
@@ -12589,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:48">
       <c r="A69" s="16">
         <v>67</v>
       </c>
@@ -12735,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:48">
       <c r="A70" s="16">
         <v>68</v>
       </c>
@@ -12881,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:48">
       <c r="A71" s="16">
         <v>69</v>
       </c>
@@ -13027,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:48">
       <c r="A72" s="16">
         <v>70</v>
       </c>
@@ -13173,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:48">
       <c r="A73" s="16">
         <v>71</v>
       </c>
@@ -13319,7 +13437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:48">
       <c r="A74" s="16">
         <v>72</v>
       </c>
@@ -13465,7 +13583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:48">
       <c r="A75" s="16">
         <v>73</v>
       </c>
@@ -13611,7 +13729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:48">
       <c r="A76" s="16">
         <v>74</v>
       </c>
@@ -13757,7 +13875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:48">
       <c r="A77" s="16">
         <v>75</v>
       </c>
@@ -13903,7 +14021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:48">
       <c r="A78" s="16">
         <v>76</v>
       </c>
@@ -14049,7 +14167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:48">
       <c r="A79" s="16">
         <v>77</v>
       </c>
@@ -14195,7 +14313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:48">
       <c r="A80" s="16">
         <v>78</v>
       </c>
@@ -14341,7 +14459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:48">
       <c r="A81" s="16">
         <v>79</v>
       </c>
@@ -14487,7 +14605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:48">
       <c r="A82" s="16">
         <v>80</v>
       </c>
@@ -14633,7 +14751,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:48">
       <c r="A83" s="16">
         <v>81</v>
       </c>
@@ -14779,7 +14897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:48">
       <c r="A84" s="16">
         <v>82</v>
       </c>
@@ -14925,7 +15043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:48">
       <c r="A85" s="16">
         <v>83</v>
       </c>
@@ -15071,7 +15189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:48">
       <c r="A86" s="16">
         <v>84</v>
       </c>
@@ -15217,7 +15335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:48">
       <c r="A87" s="16">
         <v>85</v>
       </c>
@@ -15363,7 +15481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:48">
       <c r="A88" s="16">
         <v>86</v>
       </c>
@@ -15509,7 +15627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:48">
       <c r="A89" s="16">
         <v>87</v>
       </c>
@@ -15655,7 +15773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:48">
       <c r="A90" s="16">
         <v>88</v>
       </c>
@@ -15801,7 +15919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:48">
       <c r="A91" s="16">
         <v>89</v>
       </c>
@@ -15947,7 +16065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:48">
       <c r="A92" s="16">
         <v>90</v>
       </c>
@@ -16093,7 +16211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:48">
       <c r="A93" s="16">
         <v>91</v>
       </c>
@@ -16239,7 +16357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:48">
       <c r="A94" s="16">
         <v>92</v>
       </c>
@@ -16385,7 +16503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:48">
       <c r="A95" s="16">
         <v>93</v>
       </c>
@@ -16531,7 +16649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:48">
       <c r="A96" s="16">
         <v>94</v>
       </c>
@@ -16677,7 +16795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49">
       <c r="A97" s="16">
         <v>95</v>
       </c>
@@ -16826,7 +16944,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49">
       <c r="A98" s="16">
         <v>96</v>
       </c>
@@ -16972,7 +17090,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49">
       <c r="A99" s="16">
         <v>97</v>
       </c>
@@ -17118,7 +17236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49">
       <c r="A100" s="16">
         <v>98</v>
       </c>
@@ -17264,7 +17382,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49">
       <c r="A101" s="16">
         <v>99</v>
       </c>
@@ -17410,7 +17528,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49">
       <c r="A102" s="16">
         <v>100</v>
       </c>
@@ -17556,7 +17674,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49">
       <c r="A103" s="16">
         <v>101</v>
       </c>
@@ -17702,7 +17820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49">
       <c r="A104" s="16">
         <v>102</v>
       </c>
@@ -17848,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49">
       <c r="A105" s="16">
         <v>103</v>
       </c>
@@ -17994,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49">
       <c r="A106" s="16">
         <v>104</v>
       </c>
@@ -18140,7 +18258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49">
       <c r="A107" s="16">
         <v>105</v>
       </c>
@@ -18286,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49">
       <c r="A108" s="16">
         <v>106</v>
       </c>
@@ -18432,7 +18550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49">
       <c r="A109" s="16">
         <v>107</v>
       </c>
@@ -18578,7 +18696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49">
       <c r="A110" s="16">
         <v>108</v>
       </c>
@@ -18724,7 +18842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49">
       <c r="A111" s="16">
         <v>109</v>
       </c>
@@ -18870,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49">
       <c r="A112" s="16">
         <v>110</v>
       </c>
@@ -19016,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:48" s="2" customFormat="1">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -19162,7 +19280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:48" s="2" customFormat="1">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -19308,7 +19426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:48" s="2" customFormat="1">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -19454,7 +19572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:48" s="2" customFormat="1">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -19600,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:48" s="2" customFormat="1">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -19746,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:48" s="2" customFormat="1">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -19892,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:48" s="2" customFormat="1">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -20038,7 +20156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:48" s="2" customFormat="1">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -20184,7 +20302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:48" s="2" customFormat="1">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -20330,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:48" s="2" customFormat="1">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -20476,7 +20594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:48" s="2" customFormat="1">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -20622,7 +20740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:48" s="2" customFormat="1">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -20768,7 +20886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:48" s="2" customFormat="1">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -20914,7 +21032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:48" s="2" customFormat="1">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -21060,7 +21178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:48" s="2" customFormat="1">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -21206,7 +21324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:48" s="2" customFormat="1">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -21352,7 +21470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" s="2" customFormat="1">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -21498,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" s="2" customFormat="1">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -21644,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" s="2" customFormat="1">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -21790,7 +21908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" s="2" customFormat="1">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -21936,7 +22054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" s="2" customFormat="1">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -22082,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" s="2" customFormat="1">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -22228,7 +22346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" s="2" customFormat="1">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -22374,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" s="2" customFormat="1">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -22520,7 +22638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" s="2" customFormat="1">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -22666,7 +22784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" s="2" customFormat="1">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -22812,7 +22930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" s="2" customFormat="1">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -22958,7 +23076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" s="2" customFormat="1">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -23104,7 +23222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" s="2" customFormat="1">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -23250,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" s="2" customFormat="1">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -23396,7 +23514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -23545,7 +23663,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -23694,7 +23812,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49">
       <c r="A145" s="16">
         <v>143</v>
       </c>
@@ -23840,7 +23958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49">
       <c r="A146" s="16">
         <v>144</v>
       </c>
@@ -23986,7 +24104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49">
       <c r="A147" s="16">
         <v>145</v>
       </c>
@@ -24132,7 +24250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49">
       <c r="A148" s="16">
         <v>146</v>
       </c>
@@ -24278,7 +24396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" s="2" customFormat="1">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -24424,7 +24542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" s="2" customFormat="1">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -24570,7 +24688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -24716,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -24862,7 +24980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -25008,7 +25126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -25154,7 +25272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -25300,7 +25418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -25446,7 +25564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -25592,7 +25710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -25738,7 +25856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -25887,7 +26005,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -26036,7 +26154,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -26185,7 +26303,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -26334,7 +26452,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" s="2" customFormat="1">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -26480,7 +26598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" s="2" customFormat="1">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -26626,7 +26744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" s="2" customFormat="1">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -26772,7 +26890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" s="2" customFormat="1">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -26918,7 +27036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" s="2" customFormat="1">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -27064,7 +27182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" s="2" customFormat="1">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -27210,7 +27328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" s="2" customFormat="1">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -27356,7 +27474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" s="2" customFormat="1">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -27502,7 +27620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" s="2" customFormat="1">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -27648,7 +27766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" s="2" customFormat="1">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -27794,7 +27912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" s="2" customFormat="1">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -27940,7 +28058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:49">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -28089,7 +28207,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:49">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -28238,7 +28356,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="176" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:49">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -28384,7 +28502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:49">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -28530,7 +28648,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:49">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -28676,7 +28794,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:49">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -28822,7 +28940,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:49">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -28968,7 +29086,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:49">
       <c r="A181" s="16">
         <v>179</v>
       </c>
@@ -29114,7 +29232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:49">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -29263,7 +29381,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="183" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:49" s="2" customFormat="1">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -29409,7 +29527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:49" s="2" customFormat="1">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -29555,7 +29673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:49" s="2" customFormat="1">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -29701,7 +29819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:49" s="2" customFormat="1">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -29847,7 +29965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:49" s="2" customFormat="1">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -29993,7 +30111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:49" s="2" customFormat="1">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -30139,7 +30257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:49" s="2" customFormat="1">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -30285,7 +30403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:49" s="2" customFormat="1">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -30431,7 +30549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:49" s="2" customFormat="1">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -30577,7 +30695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:49" s="2" customFormat="1">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -30723,7 +30841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:48">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -30869,7 +30987,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:48">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -31015,7 +31133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:48">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -31161,7 +31279,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:48">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -31307,7 +31425,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:48">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -31453,7 +31571,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:48">
       <c r="A198" s="16">
         <v>196</v>
       </c>
@@ -31599,7 +31717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:48">
       <c r="A199" s="16">
         <v>197</v>
       </c>
@@ -31745,7 +31863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:48">
       <c r="A200" s="16">
         <v>198</v>
       </c>
@@ -31891,7 +32009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:48">
       <c r="A201" s="16">
         <v>199</v>
       </c>
@@ -32037,7 +32155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:48">
       <c r="A202" s="16">
         <v>200</v>
       </c>
@@ -32183,7 +32301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:48">
       <c r="A203" s="16">
         <v>201</v>
       </c>
@@ -32329,7 +32447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:48">
       <c r="A204" s="16">
         <v>202</v>
       </c>
@@ -32475,7 +32593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:48">
       <c r="A205" s="16">
         <v>203</v>
       </c>
@@ -32621,7 +32739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:48">
       <c r="A206" s="16">
         <v>204</v>
       </c>
@@ -32767,7 +32885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:48">
       <c r="A207" s="16">
         <v>205</v>
       </c>
@@ -32913,7 +33031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:48" s="2" customFormat="1">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -33059,7 +33177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:48" s="2" customFormat="1">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -33205,7 +33323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:48" s="2" customFormat="1">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -33351,7 +33469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:48" s="2" customFormat="1">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -33497,7 +33615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:48" s="2" customFormat="1">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -33643,7 +33761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:48" s="2" customFormat="1">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -33789,7 +33907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:48" s="2" customFormat="1">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -33935,7 +34053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:48" s="2" customFormat="1">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -34081,7 +34199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:48" s="2" customFormat="1">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -34227,7 +34345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:48" s="2" customFormat="1">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -34373,7 +34491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:48" s="2" customFormat="1">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -34519,7 +34637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:48" s="2" customFormat="1">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -34665,7 +34783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:48" s="2" customFormat="1">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -34811,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:48" s="2" customFormat="1">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -34957,7 +35075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:48" s="2" customFormat="1">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -35103,7 +35221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:48" s="2" customFormat="1">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -35249,7 +35367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:48" s="2" customFormat="1">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -35395,7 +35513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:49" s="2" customFormat="1">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -35541,7 +35659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:49" s="2" customFormat="1">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -35687,7 +35805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:49" s="2" customFormat="1">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -35833,7 +35951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:49">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -35982,7 +36100,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="229" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:49">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -36131,7 +36249,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:49" s="2" customFormat="1">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -36277,7 +36395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:49" s="2" customFormat="1">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -36423,7 +36541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:49" s="2" customFormat="1">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -36569,7 +36687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:49" s="2" customFormat="1">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -36715,7 +36833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:49" s="2" customFormat="1">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -36861,7 +36979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:49" s="2" customFormat="1">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -37007,7 +37125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:49" s="2" customFormat="1">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -37153,7 +37271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:49" s="2" customFormat="1">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -37299,7 +37417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:49" s="2" customFormat="1">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -37445,7 +37563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:49" s="2" customFormat="1">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -37591,7 +37709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:49" s="2" customFormat="1">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -37737,7 +37855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:48" s="2" customFormat="1">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -37883,7 +38001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:48" s="2" customFormat="1">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -38029,7 +38147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:48" s="2" customFormat="1">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -38175,7 +38293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:48" s="2" customFormat="1">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -38321,7 +38439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:48" s="2" customFormat="1">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -38467,7 +38585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:48" s="2" customFormat="1">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -38613,7 +38731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:48" s="2" customFormat="1">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -38759,7 +38877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:48" s="2" customFormat="1">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -38905,7 +39023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:48">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -39051,7 +39169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:48">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -39197,7 +39315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:48">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -39343,7 +39461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:48">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -39489,7 +39607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:48">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -39635,7 +39753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:48">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -39781,7 +39899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:48">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -39927,7 +40045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:48">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -40073,7 +40191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:48">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -40219,7 +40337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:48">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -40365,7 +40483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:48">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -40511,7 +40629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:48">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -40657,7 +40775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:48">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -40803,7 +40921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:48">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -40949,7 +41067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:48">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -41095,7 +41213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:48">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -41241,7 +41359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:48">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -41387,7 +41505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:48">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -41533,7 +41651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:48">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -41679,12 +41797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:48">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C268" s="36" t="s">
         <v>357</v>
@@ -41822,6 +41940,4386 @@
         <v>217</v>
       </c>
       <c r="AV268" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:48" s="17" customFormat="1">
+      <c r="A269" s="16">
+        <v>267</v>
+      </c>
+      <c r="B269" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C269" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D269" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="E269" s="18">
+        <v>36</v>
+      </c>
+      <c r="F269" s="40">
+        <v>1</v>
+      </c>
+      <c r="G269" s="40">
+        <v>0</v>
+      </c>
+      <c r="H269" s="40">
+        <v>2</v>
+      </c>
+      <c r="I269" s="40">
+        <v>0</v>
+      </c>
+      <c r="J269" s="40">
+        <v>20000000000000</v>
+      </c>
+      <c r="K269" s="40">
+        <v>0</v>
+      </c>
+      <c r="L269" s="40">
+        <v>100</v>
+      </c>
+      <c r="M269" s="40">
+        <v>9</v>
+      </c>
+      <c r="N269" s="40">
+        <v>2</v>
+      </c>
+      <c r="O269" s="41">
+        <v>100</v>
+      </c>
+      <c r="P269" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q269" s="17">
+        <v>4</v>
+      </c>
+      <c r="R269" s="17">
+        <v>10</v>
+      </c>
+      <c r="S269" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T269" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U269" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V269" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="W269" s="17">
+        <v>0</v>
+      </c>
+      <c r="X269" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y269" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI269" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ269" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK269" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL269" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN269" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO269" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP269" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ269" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR269" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS269" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT269" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU269" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV269" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="270" spans="1:48" s="17" customFormat="1">
+      <c r="A270" s="16">
+        <v>268</v>
+      </c>
+      <c r="B270" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C270" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D270" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="E270" s="18">
+        <v>36</v>
+      </c>
+      <c r="F270" s="40">
+        <v>1</v>
+      </c>
+      <c r="G270" s="40">
+        <v>0</v>
+      </c>
+      <c r="H270" s="40">
+        <v>2</v>
+      </c>
+      <c r="I270" s="40">
+        <v>0</v>
+      </c>
+      <c r="J270" s="40">
+        <v>40000000000000</v>
+      </c>
+      <c r="K270" s="40">
+        <v>0</v>
+      </c>
+      <c r="L270" s="40">
+        <v>100</v>
+      </c>
+      <c r="M270" s="40">
+        <v>9</v>
+      </c>
+      <c r="N270" s="40">
+        <v>2</v>
+      </c>
+      <c r="O270" s="41">
+        <v>100</v>
+      </c>
+      <c r="P270" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q270" s="17">
+        <v>4</v>
+      </c>
+      <c r="R270" s="17">
+        <v>10</v>
+      </c>
+      <c r="S270" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T270" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U270" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V270" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="W270" s="17">
+        <v>0</v>
+      </c>
+      <c r="X270" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y270" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI270" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ270" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK270" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL270" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM270" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN270" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO270" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP270" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ270" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR270" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS270" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT270" s="17">
+        <v>10</v>
+      </c>
+      <c r="AU270" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV270" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="271" spans="1:48" s="17" customFormat="1">
+      <c r="A271" s="16">
+        <v>269</v>
+      </c>
+      <c r="B271" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C271" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D271" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="E271" s="18">
+        <v>36</v>
+      </c>
+      <c r="F271" s="40">
+        <v>1</v>
+      </c>
+      <c r="G271" s="40">
+        <v>0</v>
+      </c>
+      <c r="H271" s="40">
+        <v>2</v>
+      </c>
+      <c r="I271" s="40">
+        <v>0</v>
+      </c>
+      <c r="J271" s="40">
+        <v>60000000000000</v>
+      </c>
+      <c r="K271" s="40">
+        <v>0</v>
+      </c>
+      <c r="L271" s="40">
+        <v>100</v>
+      </c>
+      <c r="M271" s="40">
+        <v>9</v>
+      </c>
+      <c r="N271" s="40">
+        <v>2</v>
+      </c>
+      <c r="O271" s="41">
+        <v>100</v>
+      </c>
+      <c r="P271" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q271" s="17">
+        <v>4</v>
+      </c>
+      <c r="R271" s="17">
+        <v>10</v>
+      </c>
+      <c r="S271" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T271" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U271" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V271" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="W271" s="17">
+        <v>0</v>
+      </c>
+      <c r="X271" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y271" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI271" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ271" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK271" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL271" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM271" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN271" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO271" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP271" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ271" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR271" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS271" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT271" s="17">
+        <v>20</v>
+      </c>
+      <c r="AU271" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV271" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="272" spans="1:48" s="17" customFormat="1">
+      <c r="A272" s="16">
+        <v>270</v>
+      </c>
+      <c r="B272" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C272" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D272" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="E272" s="18">
+        <v>36</v>
+      </c>
+      <c r="F272" s="40">
+        <v>1</v>
+      </c>
+      <c r="G272" s="40">
+        <v>0</v>
+      </c>
+      <c r="H272" s="40">
+        <v>2</v>
+      </c>
+      <c r="I272" s="40">
+        <v>0</v>
+      </c>
+      <c r="J272" s="40">
+        <v>80000000000000</v>
+      </c>
+      <c r="K272" s="40">
+        <v>0</v>
+      </c>
+      <c r="L272" s="40">
+        <v>100</v>
+      </c>
+      <c r="M272" s="40">
+        <v>9</v>
+      </c>
+      <c r="N272" s="40">
+        <v>2</v>
+      </c>
+      <c r="O272" s="41">
+        <v>100</v>
+      </c>
+      <c r="P272" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q272" s="17">
+        <v>4</v>
+      </c>
+      <c r="R272" s="17">
+        <v>10</v>
+      </c>
+      <c r="S272" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T272" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U272" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V272" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="W272" s="17">
+        <v>0</v>
+      </c>
+      <c r="X272" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y272" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI272" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ272" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK272" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL272" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM272" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN272" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO272" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP272" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ272" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR272" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS272" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT272" s="17">
+        <v>30</v>
+      </c>
+      <c r="AU272" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV272" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="273" spans="1:48" s="17" customFormat="1">
+      <c r="A273" s="16">
+        <v>271</v>
+      </c>
+      <c r="B273" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C273" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D273" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="E273" s="18">
+        <v>36</v>
+      </c>
+      <c r="F273" s="40">
+        <v>1</v>
+      </c>
+      <c r="G273" s="40">
+        <v>0</v>
+      </c>
+      <c r="H273" s="40">
+        <v>2</v>
+      </c>
+      <c r="I273" s="40">
+        <v>0</v>
+      </c>
+      <c r="J273" s="40">
+        <v>100000000000000</v>
+      </c>
+      <c r="K273" s="40">
+        <v>0</v>
+      </c>
+      <c r="L273" s="40">
+        <v>100</v>
+      </c>
+      <c r="M273" s="40">
+        <v>9</v>
+      </c>
+      <c r="N273" s="40">
+        <v>2</v>
+      </c>
+      <c r="O273" s="41">
+        <v>100</v>
+      </c>
+      <c r="P273" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q273" s="17">
+        <v>4</v>
+      </c>
+      <c r="R273" s="17">
+        <v>10</v>
+      </c>
+      <c r="S273" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T273" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U273" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V273" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W273" s="17">
+        <v>0</v>
+      </c>
+      <c r="X273" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y273" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI273" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ273" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK273" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL273" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM273" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN273" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO273" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP273" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ273" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR273" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS273" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT273" s="17">
+        <v>40</v>
+      </c>
+      <c r="AU273" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV273" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="274" spans="1:48" s="17" customFormat="1">
+      <c r="A274" s="16">
+        <v>272</v>
+      </c>
+      <c r="B274" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C274" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="E274" s="18">
+        <v>36</v>
+      </c>
+      <c r="F274" s="40">
+        <v>1</v>
+      </c>
+      <c r="G274" s="40">
+        <v>0</v>
+      </c>
+      <c r="H274" s="40">
+        <v>2</v>
+      </c>
+      <c r="I274" s="40">
+        <v>0</v>
+      </c>
+      <c r="J274" s="40">
+        <v>140000000000000</v>
+      </c>
+      <c r="K274" s="40">
+        <v>0</v>
+      </c>
+      <c r="L274" s="40">
+        <v>100</v>
+      </c>
+      <c r="M274" s="40">
+        <v>9</v>
+      </c>
+      <c r="N274" s="40">
+        <v>2</v>
+      </c>
+      <c r="O274" s="41">
+        <v>100</v>
+      </c>
+      <c r="P274" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q274" s="17">
+        <v>4</v>
+      </c>
+      <c r="R274" s="17">
+        <v>10</v>
+      </c>
+      <c r="S274" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T274" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U274" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V274" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W274" s="17">
+        <v>0</v>
+      </c>
+      <c r="X274" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y274" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI274" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ274" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK274" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL274" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM274" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN274" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO274" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP274" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ274" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR274" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS274" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT274" s="17">
+        <v>50</v>
+      </c>
+      <c r="AU274" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV274" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="275" spans="1:48" s="17" customFormat="1">
+      <c r="A275" s="16">
+        <v>273</v>
+      </c>
+      <c r="B275" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C275" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D275" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="E275" s="18">
+        <v>36</v>
+      </c>
+      <c r="F275" s="40">
+        <v>1</v>
+      </c>
+      <c r="G275" s="40">
+        <v>0</v>
+      </c>
+      <c r="H275" s="40">
+        <v>2</v>
+      </c>
+      <c r="I275" s="40">
+        <v>0</v>
+      </c>
+      <c r="J275" s="40">
+        <v>180000000000000</v>
+      </c>
+      <c r="K275" s="40">
+        <v>0</v>
+      </c>
+      <c r="L275" s="40">
+        <v>100</v>
+      </c>
+      <c r="M275" s="40">
+        <v>9</v>
+      </c>
+      <c r="N275" s="40">
+        <v>2</v>
+      </c>
+      <c r="O275" s="41">
+        <v>100</v>
+      </c>
+      <c r="P275" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q275" s="17">
+        <v>4</v>
+      </c>
+      <c r="R275" s="17">
+        <v>10</v>
+      </c>
+      <c r="S275" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T275" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U275" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V275" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W275" s="17">
+        <v>0</v>
+      </c>
+      <c r="X275" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y275" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI275" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ275" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK275" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL275" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM275" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN275" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO275" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP275" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ275" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR275" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS275" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT275" s="17">
+        <v>60</v>
+      </c>
+      <c r="AU275" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV275" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="276" spans="1:48" s="17" customFormat="1">
+      <c r="A276" s="16">
+        <v>274</v>
+      </c>
+      <c r="B276" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C276" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="E276" s="18">
+        <v>36</v>
+      </c>
+      <c r="F276" s="40">
+        <v>1</v>
+      </c>
+      <c r="G276" s="40">
+        <v>0</v>
+      </c>
+      <c r="H276" s="40">
+        <v>2</v>
+      </c>
+      <c r="I276" s="40">
+        <v>0</v>
+      </c>
+      <c r="J276" s="40">
+        <v>220000000000000</v>
+      </c>
+      <c r="K276" s="40">
+        <v>0</v>
+      </c>
+      <c r="L276" s="40">
+        <v>100</v>
+      </c>
+      <c r="M276" s="40">
+        <v>9</v>
+      </c>
+      <c r="N276" s="40">
+        <v>2</v>
+      </c>
+      <c r="O276" s="41">
+        <v>100</v>
+      </c>
+      <c r="P276" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q276" s="17">
+        <v>4</v>
+      </c>
+      <c r="R276" s="17">
+        <v>10</v>
+      </c>
+      <c r="S276" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T276" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U276" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V276" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W276" s="17">
+        <v>0</v>
+      </c>
+      <c r="X276" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y276" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI276" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ276" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK276" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL276" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM276" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN276" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO276" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP276" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ276" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR276" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS276" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT276" s="17">
+        <v>70</v>
+      </c>
+      <c r="AU276" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV276" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="277" spans="1:48" s="17" customFormat="1">
+      <c r="A277" s="16">
+        <v>275</v>
+      </c>
+      <c r="B277" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C277" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D277" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="E277" s="18">
+        <v>36</v>
+      </c>
+      <c r="F277" s="40">
+        <v>1</v>
+      </c>
+      <c r="G277" s="40">
+        <v>0</v>
+      </c>
+      <c r="H277" s="40">
+        <v>2</v>
+      </c>
+      <c r="I277" s="40">
+        <v>0</v>
+      </c>
+      <c r="J277" s="40">
+        <v>260000000000000</v>
+      </c>
+      <c r="K277" s="40">
+        <v>0</v>
+      </c>
+      <c r="L277" s="40">
+        <v>100</v>
+      </c>
+      <c r="M277" s="40">
+        <v>9</v>
+      </c>
+      <c r="N277" s="40">
+        <v>2</v>
+      </c>
+      <c r="O277" s="41">
+        <v>100</v>
+      </c>
+      <c r="P277" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q277" s="17">
+        <v>4</v>
+      </c>
+      <c r="R277" s="17">
+        <v>10</v>
+      </c>
+      <c r="S277" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T277" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U277" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V277" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W277" s="17">
+        <v>0</v>
+      </c>
+      <c r="X277" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y277" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI277" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ277" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK277" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL277" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM277" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN277" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO277" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP277" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ277" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR277" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS277" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT277" s="17">
+        <v>80</v>
+      </c>
+      <c r="AU277" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV277" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="278" spans="1:48" s="17" customFormat="1">
+      <c r="A278" s="16">
+        <v>276</v>
+      </c>
+      <c r="B278" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C278" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="E278" s="18">
+        <v>36</v>
+      </c>
+      <c r="F278" s="40">
+        <v>1</v>
+      </c>
+      <c r="G278" s="40">
+        <v>0</v>
+      </c>
+      <c r="H278" s="40">
+        <v>2</v>
+      </c>
+      <c r="I278" s="40">
+        <v>0</v>
+      </c>
+      <c r="J278" s="40">
+        <v>300000000000000</v>
+      </c>
+      <c r="K278" s="40">
+        <v>0</v>
+      </c>
+      <c r="L278" s="40">
+        <v>100</v>
+      </c>
+      <c r="M278" s="40">
+        <v>9</v>
+      </c>
+      <c r="N278" s="40">
+        <v>2</v>
+      </c>
+      <c r="O278" s="41">
+        <v>100</v>
+      </c>
+      <c r="P278" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q278" s="17">
+        <v>4</v>
+      </c>
+      <c r="R278" s="17">
+        <v>10</v>
+      </c>
+      <c r="S278" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T278" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U278" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V278" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W278" s="17">
+        <v>0</v>
+      </c>
+      <c r="X278" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y278" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI278" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ278" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK278" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL278" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM278" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN278" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO278" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP278" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ278" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR278" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS278" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT278" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU278" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV278" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="279" spans="1:48">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C279" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E279" s="36">
+        <v>36</v>
+      </c>
+      <c r="F279" s="3">
+        <v>1</v>
+      </c>
+      <c r="G279" s="3">
+        <v>0</v>
+      </c>
+      <c r="H279" s="3">
+        <v>5</v>
+      </c>
+      <c r="I279" s="3">
+        <v>0</v>
+      </c>
+      <c r="J279" s="37">
+        <v>1010000000000</v>
+      </c>
+      <c r="K279" s="3">
+        <v>0</v>
+      </c>
+      <c r="L279" s="3">
+        <v>500</v>
+      </c>
+      <c r="M279" s="3">
+        <v>1</v>
+      </c>
+      <c r="N279" s="3">
+        <v>2</v>
+      </c>
+      <c r="O279" s="4">
+        <v>100</v>
+      </c>
+      <c r="P279" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q279" s="2">
+        <v>4</v>
+      </c>
+      <c r="R279" s="2">
+        <v>10</v>
+      </c>
+      <c r="S279" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T279" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U279" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V279" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W279" s="2">
+        <v>0</v>
+      </c>
+      <c r="X279" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y279" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI279" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ279" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK279" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL279" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM279" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN279" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO279" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP279" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ279" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR279" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS279" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT279" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU279" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:48">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C280" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E280" s="36">
+        <v>36</v>
+      </c>
+      <c r="F280" s="3">
+        <v>1</v>
+      </c>
+      <c r="G280" s="3">
+        <v>0</v>
+      </c>
+      <c r="H280" s="3">
+        <v>5</v>
+      </c>
+      <c r="I280" s="3">
+        <v>0</v>
+      </c>
+      <c r="J280" s="37">
+        <v>1020000000000</v>
+      </c>
+      <c r="K280" s="3">
+        <v>0</v>
+      </c>
+      <c r="L280" s="3">
+        <v>500</v>
+      </c>
+      <c r="M280" s="3">
+        <v>1</v>
+      </c>
+      <c r="N280" s="3">
+        <v>2</v>
+      </c>
+      <c r="O280" s="4">
+        <v>100</v>
+      </c>
+      <c r="P280" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q280" s="2">
+        <v>4</v>
+      </c>
+      <c r="R280" s="2">
+        <v>10</v>
+      </c>
+      <c r="S280" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T280" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U280" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V280" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W280" s="2">
+        <v>0</v>
+      </c>
+      <c r="X280" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y280" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI280" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK280" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL280" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM280" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN280" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO280" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP280" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ280" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR280" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS280" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT280" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU280" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV280" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:48">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C281" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E281" s="36">
+        <v>36</v>
+      </c>
+      <c r="F281" s="3">
+        <v>1</v>
+      </c>
+      <c r="G281" s="3">
+        <v>0</v>
+      </c>
+      <c r="H281" s="3">
+        <v>5</v>
+      </c>
+      <c r="I281" s="3">
+        <v>0</v>
+      </c>
+      <c r="J281" s="37">
+        <v>1030000000000</v>
+      </c>
+      <c r="K281" s="3">
+        <v>0</v>
+      </c>
+      <c r="L281" s="3">
+        <v>500</v>
+      </c>
+      <c r="M281" s="3">
+        <v>1</v>
+      </c>
+      <c r="N281" s="3">
+        <v>2</v>
+      </c>
+      <c r="O281" s="4">
+        <v>100</v>
+      </c>
+      <c r="P281" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q281" s="2">
+        <v>4</v>
+      </c>
+      <c r="R281" s="2">
+        <v>10</v>
+      </c>
+      <c r="S281" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T281" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U281" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V281" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W281" s="2">
+        <v>0</v>
+      </c>
+      <c r="X281" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y281" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI281" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK281" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL281" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM281" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN281" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO281" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP281" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ281" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR281" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS281" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT281" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU281" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:48">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C282" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E282" s="36">
+        <v>36</v>
+      </c>
+      <c r="F282" s="3">
+        <v>1</v>
+      </c>
+      <c r="G282" s="3">
+        <v>0</v>
+      </c>
+      <c r="H282" s="3">
+        <v>5</v>
+      </c>
+      <c r="I282" s="3">
+        <v>0</v>
+      </c>
+      <c r="J282" s="37">
+        <v>1040000000000</v>
+      </c>
+      <c r="K282" s="3">
+        <v>0</v>
+      </c>
+      <c r="L282" s="3">
+        <v>500</v>
+      </c>
+      <c r="M282" s="3">
+        <v>1</v>
+      </c>
+      <c r="N282" s="3">
+        <v>2</v>
+      </c>
+      <c r="O282" s="4">
+        <v>100</v>
+      </c>
+      <c r="P282" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q282" s="2">
+        <v>4</v>
+      </c>
+      <c r="R282" s="2">
+        <v>10</v>
+      </c>
+      <c r="S282" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T282" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U282" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V282" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W282" s="2">
+        <v>0</v>
+      </c>
+      <c r="X282" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y282" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI282" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK282" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL282" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM282" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN282" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO282" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP282" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ282" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR282" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS282" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT282" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU282" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV282" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:48">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C283" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E283" s="36">
+        <v>36</v>
+      </c>
+      <c r="F283" s="3">
+        <v>1</v>
+      </c>
+      <c r="G283" s="3">
+        <v>0</v>
+      </c>
+      <c r="H283" s="3">
+        <v>5</v>
+      </c>
+      <c r="I283" s="3">
+        <v>0</v>
+      </c>
+      <c r="J283" s="37">
+        <v>1050000000000</v>
+      </c>
+      <c r="K283" s="3">
+        <v>0</v>
+      </c>
+      <c r="L283" s="3">
+        <v>500</v>
+      </c>
+      <c r="M283" s="3">
+        <v>1</v>
+      </c>
+      <c r="N283" s="3">
+        <v>2</v>
+      </c>
+      <c r="O283" s="4">
+        <v>100</v>
+      </c>
+      <c r="P283" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q283" s="2">
+        <v>4</v>
+      </c>
+      <c r="R283" s="2">
+        <v>10</v>
+      </c>
+      <c r="S283" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T283" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U283" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V283" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W283" s="2">
+        <v>0</v>
+      </c>
+      <c r="X283" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y283" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI283" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK283" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL283" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM283" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN283" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO283" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP283" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ283" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR283" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS283" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT283" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU283" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV283" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:48">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C284" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E284" s="36">
+        <v>36</v>
+      </c>
+      <c r="F284" s="3">
+        <v>1</v>
+      </c>
+      <c r="G284" s="3">
+        <v>0</v>
+      </c>
+      <c r="H284" s="3">
+        <v>5</v>
+      </c>
+      <c r="I284" s="3">
+        <v>0</v>
+      </c>
+      <c r="J284" s="37">
+        <v>1060000000000</v>
+      </c>
+      <c r="K284" s="3">
+        <v>0</v>
+      </c>
+      <c r="L284" s="3">
+        <v>500</v>
+      </c>
+      <c r="M284" s="3">
+        <v>1</v>
+      </c>
+      <c r="N284" s="3">
+        <v>2</v>
+      </c>
+      <c r="O284" s="4">
+        <v>100</v>
+      </c>
+      <c r="P284" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q284" s="2">
+        <v>4</v>
+      </c>
+      <c r="R284" s="2">
+        <v>10</v>
+      </c>
+      <c r="S284" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T284" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U284" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V284" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W284" s="2">
+        <v>0</v>
+      </c>
+      <c r="X284" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y284" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI284" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ284" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK284" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL284" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM284" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN284" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO284" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP284" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ284" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR284" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS284" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT284" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU284" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:48">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C285" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E285" s="36">
+        <v>36</v>
+      </c>
+      <c r="F285" s="3">
+        <v>1</v>
+      </c>
+      <c r="G285" s="3">
+        <v>0</v>
+      </c>
+      <c r="H285" s="3">
+        <v>5</v>
+      </c>
+      <c r="I285" s="3">
+        <v>0</v>
+      </c>
+      <c r="J285" s="37">
+        <v>1070000000000</v>
+      </c>
+      <c r="K285" s="3">
+        <v>0</v>
+      </c>
+      <c r="L285" s="3">
+        <v>500</v>
+      </c>
+      <c r="M285" s="3">
+        <v>1</v>
+      </c>
+      <c r="N285" s="3">
+        <v>2</v>
+      </c>
+      <c r="O285" s="4">
+        <v>100</v>
+      </c>
+      <c r="P285" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q285" s="2">
+        <v>4</v>
+      </c>
+      <c r="R285" s="2">
+        <v>10</v>
+      </c>
+      <c r="S285" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T285" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U285" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V285" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W285" s="2">
+        <v>0</v>
+      </c>
+      <c r="X285" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y285" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI285" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK285" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL285" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM285" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN285" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO285" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP285" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ285" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR285" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS285" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT285" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU285" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:48">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C286" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E286" s="36">
+        <v>36</v>
+      </c>
+      <c r="F286" s="3">
+        <v>1</v>
+      </c>
+      <c r="G286" s="3">
+        <v>0</v>
+      </c>
+      <c r="H286" s="3">
+        <v>5</v>
+      </c>
+      <c r="I286" s="3">
+        <v>0</v>
+      </c>
+      <c r="J286" s="37">
+        <v>1080000000000</v>
+      </c>
+      <c r="K286" s="3">
+        <v>0</v>
+      </c>
+      <c r="L286" s="3">
+        <v>500</v>
+      </c>
+      <c r="M286" s="3">
+        <v>1</v>
+      </c>
+      <c r="N286" s="3">
+        <v>2</v>
+      </c>
+      <c r="O286" s="4">
+        <v>100</v>
+      </c>
+      <c r="P286" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q286" s="2">
+        <v>4</v>
+      </c>
+      <c r="R286" s="2">
+        <v>10</v>
+      </c>
+      <c r="S286" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T286" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U286" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V286" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W286" s="2">
+        <v>0</v>
+      </c>
+      <c r="X286" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y286" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI286" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ286" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK286" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL286" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM286" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN286" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO286" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP286" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ286" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR286" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS286" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT286" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU286" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV286" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:48">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C287" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E287" s="36">
+        <v>36</v>
+      </c>
+      <c r="F287" s="3">
+        <v>1</v>
+      </c>
+      <c r="G287" s="3">
+        <v>0</v>
+      </c>
+      <c r="H287" s="3">
+        <v>5</v>
+      </c>
+      <c r="I287" s="3">
+        <v>0</v>
+      </c>
+      <c r="J287" s="37">
+        <v>1090000000000</v>
+      </c>
+      <c r="K287" s="3">
+        <v>0</v>
+      </c>
+      <c r="L287" s="3">
+        <v>500</v>
+      </c>
+      <c r="M287" s="3">
+        <v>1</v>
+      </c>
+      <c r="N287" s="3">
+        <v>2</v>
+      </c>
+      <c r="O287" s="4">
+        <v>100</v>
+      </c>
+      <c r="P287" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q287" s="2">
+        <v>4</v>
+      </c>
+      <c r="R287" s="2">
+        <v>10</v>
+      </c>
+      <c r="S287" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T287" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U287" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V287" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W287" s="2">
+        <v>0</v>
+      </c>
+      <c r="X287" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y287" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI287" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK287" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL287" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM287" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN287" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO287" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP287" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ287" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR287" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS287" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT287" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU287" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV287" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:48">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C288" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E288" s="36">
+        <v>36</v>
+      </c>
+      <c r="F288" s="3">
+        <v>1</v>
+      </c>
+      <c r="G288" s="3">
+        <v>0</v>
+      </c>
+      <c r="H288" s="3">
+        <v>5</v>
+      </c>
+      <c r="I288" s="3">
+        <v>0</v>
+      </c>
+      <c r="J288" s="37">
+        <v>1100000000000</v>
+      </c>
+      <c r="K288" s="3">
+        <v>0</v>
+      </c>
+      <c r="L288" s="3">
+        <v>500</v>
+      </c>
+      <c r="M288" s="3">
+        <v>1</v>
+      </c>
+      <c r="N288" s="3">
+        <v>2</v>
+      </c>
+      <c r="O288" s="4">
+        <v>100</v>
+      </c>
+      <c r="P288" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q288" s="2">
+        <v>4</v>
+      </c>
+      <c r="R288" s="2">
+        <v>10</v>
+      </c>
+      <c r="S288" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T288" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U288" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V288" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W288" s="2">
+        <v>0</v>
+      </c>
+      <c r="X288" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y288" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI288" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK288" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL288" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM288" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN288" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO288" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP288" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ288" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR288" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS288" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT288" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU288" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV288" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:48">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C289" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E289" s="36">
+        <v>36</v>
+      </c>
+      <c r="F289" s="3">
+        <v>1</v>
+      </c>
+      <c r="G289" s="3">
+        <v>0</v>
+      </c>
+      <c r="H289" s="3">
+        <v>5</v>
+      </c>
+      <c r="I289" s="3">
+        <v>0</v>
+      </c>
+      <c r="J289" s="37">
+        <v>1110000000000</v>
+      </c>
+      <c r="K289" s="3">
+        <v>0</v>
+      </c>
+      <c r="L289" s="3">
+        <v>500</v>
+      </c>
+      <c r="M289" s="3">
+        <v>1</v>
+      </c>
+      <c r="N289" s="3">
+        <v>2</v>
+      </c>
+      <c r="O289" s="4">
+        <v>100</v>
+      </c>
+      <c r="P289" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q289" s="2">
+        <v>4</v>
+      </c>
+      <c r="R289" s="2">
+        <v>10</v>
+      </c>
+      <c r="S289" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T289" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U289" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V289" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W289" s="2">
+        <v>0</v>
+      </c>
+      <c r="X289" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y289" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI289" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ289" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK289" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL289" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM289" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN289" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO289" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP289" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ289" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR289" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS289" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT289" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU289" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:48">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C290" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E290" s="36">
+        <v>36</v>
+      </c>
+      <c r="F290" s="3">
+        <v>1</v>
+      </c>
+      <c r="G290" s="3">
+        <v>0</v>
+      </c>
+      <c r="H290" s="3">
+        <v>5</v>
+      </c>
+      <c r="I290" s="3">
+        <v>0</v>
+      </c>
+      <c r="J290" s="37">
+        <v>1120000000000</v>
+      </c>
+      <c r="K290" s="3">
+        <v>0</v>
+      </c>
+      <c r="L290" s="3">
+        <v>500</v>
+      </c>
+      <c r="M290" s="3">
+        <v>1</v>
+      </c>
+      <c r="N290" s="3">
+        <v>2</v>
+      </c>
+      <c r="O290" s="4">
+        <v>100</v>
+      </c>
+      <c r="P290" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q290" s="2">
+        <v>4</v>
+      </c>
+      <c r="R290" s="2">
+        <v>10</v>
+      </c>
+      <c r="S290" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T290" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U290" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V290" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W290" s="2">
+        <v>0</v>
+      </c>
+      <c r="X290" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y290" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI290" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ290" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK290" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL290" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM290" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN290" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO290" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP290" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ290" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR290" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS290" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT290" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU290" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV290" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:48">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C291" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E291" s="36">
+        <v>36</v>
+      </c>
+      <c r="F291" s="3">
+        <v>1</v>
+      </c>
+      <c r="G291" s="3">
+        <v>0</v>
+      </c>
+      <c r="H291" s="3">
+        <v>5</v>
+      </c>
+      <c r="I291" s="3">
+        <v>0</v>
+      </c>
+      <c r="J291" s="37">
+        <v>1130000000000</v>
+      </c>
+      <c r="K291" s="3">
+        <v>0</v>
+      </c>
+      <c r="L291" s="3">
+        <v>500</v>
+      </c>
+      <c r="M291" s="3">
+        <v>1</v>
+      </c>
+      <c r="N291" s="3">
+        <v>2</v>
+      </c>
+      <c r="O291" s="4">
+        <v>100</v>
+      </c>
+      <c r="P291" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q291" s="2">
+        <v>4</v>
+      </c>
+      <c r="R291" s="2">
+        <v>10</v>
+      </c>
+      <c r="S291" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T291" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U291" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V291" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W291" s="2">
+        <v>0</v>
+      </c>
+      <c r="X291" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y291" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI291" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ291" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK291" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL291" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM291" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN291" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO291" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP291" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ291" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR291" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS291" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT291" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU291" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV291" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:48">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C292" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E292" s="36">
+        <v>36</v>
+      </c>
+      <c r="F292" s="3">
+        <v>1</v>
+      </c>
+      <c r="G292" s="3">
+        <v>0</v>
+      </c>
+      <c r="H292" s="3">
+        <v>5</v>
+      </c>
+      <c r="I292" s="3">
+        <v>0</v>
+      </c>
+      <c r="J292" s="37">
+        <v>1140000000000</v>
+      </c>
+      <c r="K292" s="3">
+        <v>0</v>
+      </c>
+      <c r="L292" s="3">
+        <v>500</v>
+      </c>
+      <c r="M292" s="3">
+        <v>1</v>
+      </c>
+      <c r="N292" s="3">
+        <v>2</v>
+      </c>
+      <c r="O292" s="4">
+        <v>100</v>
+      </c>
+      <c r="P292" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q292" s="2">
+        <v>4</v>
+      </c>
+      <c r="R292" s="2">
+        <v>10</v>
+      </c>
+      <c r="S292" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T292" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U292" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V292" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W292" s="2">
+        <v>0</v>
+      </c>
+      <c r="X292" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y292" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI292" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ292" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK292" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL292" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM292" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN292" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO292" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP292" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ292" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR292" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS292" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT292" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU292" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:48">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C293" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E293" s="36">
+        <v>36</v>
+      </c>
+      <c r="F293" s="3">
+        <v>1</v>
+      </c>
+      <c r="G293" s="3">
+        <v>0</v>
+      </c>
+      <c r="H293" s="3">
+        <v>5</v>
+      </c>
+      <c r="I293" s="3">
+        <v>0</v>
+      </c>
+      <c r="J293" s="37">
+        <v>1150000000000</v>
+      </c>
+      <c r="K293" s="3">
+        <v>0</v>
+      </c>
+      <c r="L293" s="3">
+        <v>500</v>
+      </c>
+      <c r="M293" s="3">
+        <v>1</v>
+      </c>
+      <c r="N293" s="3">
+        <v>2</v>
+      </c>
+      <c r="O293" s="4">
+        <v>100</v>
+      </c>
+      <c r="P293" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q293" s="2">
+        <v>4</v>
+      </c>
+      <c r="R293" s="2">
+        <v>10</v>
+      </c>
+      <c r="S293" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T293" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U293" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V293" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W293" s="2">
+        <v>0</v>
+      </c>
+      <c r="X293" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y293" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI293" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ293" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK293" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL293" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM293" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN293" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO293" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP293" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ293" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR293" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS293" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT293" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU293" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV293" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:48">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C294" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E294" s="36">
+        <v>36</v>
+      </c>
+      <c r="F294" s="3">
+        <v>1</v>
+      </c>
+      <c r="G294" s="3">
+        <v>0</v>
+      </c>
+      <c r="H294" s="3">
+        <v>5</v>
+      </c>
+      <c r="I294" s="3">
+        <v>0</v>
+      </c>
+      <c r="J294" s="37">
+        <v>1160000000000</v>
+      </c>
+      <c r="K294" s="3">
+        <v>0</v>
+      </c>
+      <c r="L294" s="3">
+        <v>500</v>
+      </c>
+      <c r="M294" s="3">
+        <v>1</v>
+      </c>
+      <c r="N294" s="3">
+        <v>2</v>
+      </c>
+      <c r="O294" s="4">
+        <v>100</v>
+      </c>
+      <c r="P294" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q294" s="2">
+        <v>4</v>
+      </c>
+      <c r="R294" s="2">
+        <v>10</v>
+      </c>
+      <c r="S294" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T294" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U294" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V294" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W294" s="2">
+        <v>0</v>
+      </c>
+      <c r="X294" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y294" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI294" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ294" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK294" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL294" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM294" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN294" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO294" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP294" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ294" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR294" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS294" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT294" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU294" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV294" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:48">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C295" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E295" s="36">
+        <v>36</v>
+      </c>
+      <c r="F295" s="3">
+        <v>1</v>
+      </c>
+      <c r="G295" s="3">
+        <v>0</v>
+      </c>
+      <c r="H295" s="3">
+        <v>5</v>
+      </c>
+      <c r="I295" s="3">
+        <v>0</v>
+      </c>
+      <c r="J295" s="37">
+        <v>1170000000000</v>
+      </c>
+      <c r="K295" s="3">
+        <v>0</v>
+      </c>
+      <c r="L295" s="3">
+        <v>500</v>
+      </c>
+      <c r="M295" s="3">
+        <v>1</v>
+      </c>
+      <c r="N295" s="3">
+        <v>2</v>
+      </c>
+      <c r="O295" s="4">
+        <v>100</v>
+      </c>
+      <c r="P295" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q295" s="2">
+        <v>4</v>
+      </c>
+      <c r="R295" s="2">
+        <v>10</v>
+      </c>
+      <c r="S295" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T295" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U295" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V295" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W295" s="2">
+        <v>0</v>
+      </c>
+      <c r="X295" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y295" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI295" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ295" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK295" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL295" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM295" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN295" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO295" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP295" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ295" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR295" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS295" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT295" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU295" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:48">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C296" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E296" s="36">
+        <v>36</v>
+      </c>
+      <c r="F296" s="3">
+        <v>1</v>
+      </c>
+      <c r="G296" s="3">
+        <v>0</v>
+      </c>
+      <c r="H296" s="3">
+        <v>5</v>
+      </c>
+      <c r="I296" s="3">
+        <v>0</v>
+      </c>
+      <c r="J296" s="37">
+        <v>1180000000000</v>
+      </c>
+      <c r="K296" s="3">
+        <v>0</v>
+      </c>
+      <c r="L296" s="3">
+        <v>500</v>
+      </c>
+      <c r="M296" s="3">
+        <v>1</v>
+      </c>
+      <c r="N296" s="3">
+        <v>2</v>
+      </c>
+      <c r="O296" s="4">
+        <v>100</v>
+      </c>
+      <c r="P296" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q296" s="2">
+        <v>4</v>
+      </c>
+      <c r="R296" s="2">
+        <v>10</v>
+      </c>
+      <c r="S296" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T296" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U296" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V296" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W296" s="2">
+        <v>0</v>
+      </c>
+      <c r="X296" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y296" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI296" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ296" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK296" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL296" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM296" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN296" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO296" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP296" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ296" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR296" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS296" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT296" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU296" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV296" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:48">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C297" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E297" s="36">
+        <v>36</v>
+      </c>
+      <c r="F297" s="3">
+        <v>1</v>
+      </c>
+      <c r="G297" s="3">
+        <v>0</v>
+      </c>
+      <c r="H297" s="3">
+        <v>5</v>
+      </c>
+      <c r="I297" s="3">
+        <v>0</v>
+      </c>
+      <c r="J297" s="37">
+        <v>1190000000000</v>
+      </c>
+      <c r="K297" s="3">
+        <v>0</v>
+      </c>
+      <c r="L297" s="3">
+        <v>500</v>
+      </c>
+      <c r="M297" s="3">
+        <v>1</v>
+      </c>
+      <c r="N297" s="3">
+        <v>2</v>
+      </c>
+      <c r="O297" s="4">
+        <v>100</v>
+      </c>
+      <c r="P297" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q297" s="2">
+        <v>4</v>
+      </c>
+      <c r="R297" s="2">
+        <v>10</v>
+      </c>
+      <c r="S297" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T297" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U297" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V297" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W297" s="2">
+        <v>0</v>
+      </c>
+      <c r="X297" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y297" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI297" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK297" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL297" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM297" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN297" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO297" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP297" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ297" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR297" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS297" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT297" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU297" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV297" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:48">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C298" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E298" s="36">
+        <v>36</v>
+      </c>
+      <c r="F298" s="3">
+        <v>1</v>
+      </c>
+      <c r="G298" s="3">
+        <v>0</v>
+      </c>
+      <c r="H298" s="3">
+        <v>5</v>
+      </c>
+      <c r="I298" s="3">
+        <v>0</v>
+      </c>
+      <c r="J298" s="37">
+        <v>1200000000000</v>
+      </c>
+      <c r="K298" s="3">
+        <v>0</v>
+      </c>
+      <c r="L298" s="3">
+        <v>500</v>
+      </c>
+      <c r="M298" s="3">
+        <v>1</v>
+      </c>
+      <c r="N298" s="3">
+        <v>2</v>
+      </c>
+      <c r="O298" s="4">
+        <v>100</v>
+      </c>
+      <c r="P298" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q298" s="2">
+        <v>4</v>
+      </c>
+      <c r="R298" s="2">
+        <v>10</v>
+      </c>
+      <c r="S298" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T298" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U298" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V298" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W298" s="2">
+        <v>0</v>
+      </c>
+      <c r="X298" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y298" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI298" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ298" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK298" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL298" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM298" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN298" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO298" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP298" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ298" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR298" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS298" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT298" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU298" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV298" s="2">
         <v>0</v>
       </c>
     </row>
@@ -41840,7 +46338,7 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
@@ -41854,7 +46352,7 @@
     <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -41899,7 +46397,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -41943,7 +46441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -41987,7 +46485,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -42031,7 +46529,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -42075,7 +46573,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -42119,7 +46617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -42163,7 +46661,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -42207,7 +46705,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -42251,7 +46749,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -42295,7 +46793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -42339,7 +46837,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -42383,7 +46881,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -42427,7 +46925,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -42470,7 +46968,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -42483,7 +46981,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -42496,7 +46994,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:15">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -42509,7 +47007,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:15">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -42522,7 +47020,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:15">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -42535,7 +47033,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:15">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -42548,7 +47046,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:15">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -42561,7 +47059,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:15">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -42569,7 +47067,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:15">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -42577,7 +47075,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -42585,7 +47083,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -42593,7 +47091,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -42601,7 +47099,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -42609,7 +47107,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:15" s="2" customFormat="1">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -42641,7 +47139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:15" s="2" customFormat="1">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -42673,7 +47171,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:15" s="2" customFormat="1">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -42705,7 +47203,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:15" s="2" customFormat="1">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -42737,7 +47235,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:15">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -42769,7 +47267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:15">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -42801,7 +47299,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:15">
       <c r="F40">
         <v>0</v>
       </c>
@@ -42833,7 +47331,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:15">
       <c r="F41">
         <v>0</v>
       </c>
@@ -42865,7 +47363,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:15" s="2" customFormat="1">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -42897,7 +47395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:15" s="2" customFormat="1">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -42929,7 +47427,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:15" s="2" customFormat="1">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -42961,7 +47459,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:15" s="2" customFormat="1">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -43008,9 +47506,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="33">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -43045,7 +47543,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -43085,7 +47583,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -43125,7 +47623,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -43165,7 +47663,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -43205,7 +47703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -43245,7 +47743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -43285,7 +47783,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -43325,7 +47823,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -43365,7 +47863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -43405,7 +47903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -43445,7 +47943,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -43485,7 +47983,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -43536,13 +48034,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -43572,7 +48070,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -43602,7 +48100,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>450</v>
       </c>
@@ -43632,13 +48130,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -43656,7 +48154,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -43674,7 +48172,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -43692,7 +48190,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -43706,7 +48204,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -43720,7 +48218,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:10">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -43734,7 +48232,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:10">
       <c r="G19">
         <v>3</v>
       </c>
@@ -43748,7 +48246,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:10">
       <c r="G20">
         <v>7</v>
       </c>
@@ -43762,7 +48260,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:10">
       <c r="G21">
         <v>45</v>
       </c>
@@ -43790,7 +48288,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
@@ -43800,7 +48298,7 @@
     <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>245</v>
       </c>
@@ -43809,7 +48307,7 @@
       </c>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>246</v>
       </c>
@@ -43817,10 +48315,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -43840,7 +48338,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -43860,7 +48358,7 @@
       <c r="F5" s="29">
         <v>4000000000</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="42">
         <v>1</v>
       </c>
       <c r="J5">
@@ -43873,7 +48371,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -43897,7 +48395,7 @@
         <f>$F$5*(100+B6)/100</f>
         <v>8000000000</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="42"/>
       <c r="J6">
         <v>2</v>
       </c>
@@ -43908,7 +48406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
@@ -43932,7 +48430,7 @@
         <f t="shared" ref="F7:F21" si="4">$F$5*(100+B7)/100</f>
         <v>12000000000</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="42"/>
       <c r="J7">
         <v>3</v>
       </c>
@@ -43943,7 +48441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -43967,7 +48465,7 @@
         <f t="shared" si="4"/>
         <v>16000000000</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="42"/>
       <c r="J8">
         <v>4</v>
       </c>
@@ -43978,7 +48476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>4</v>
       </c>
@@ -44002,7 +48500,7 @@
         <f t="shared" si="4"/>
         <v>20000000000</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="42"/>
       <c r="J9">
         <v>5</v>
       </c>
@@ -44013,7 +48511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>5</v>
       </c>
@@ -44037,7 +48535,7 @@
         <f t="shared" si="4"/>
         <v>24000000000</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="42"/>
       <c r="J10">
         <v>6</v>
       </c>
@@ -44048,7 +48546,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>6</v>
       </c>
@@ -44072,7 +48570,7 @@
         <f t="shared" si="4"/>
         <v>28000000000</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="42">
         <v>2</v>
       </c>
       <c r="J11">
@@ -44085,7 +48583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>7</v>
       </c>
@@ -44109,7 +48607,7 @@
         <f t="shared" si="4"/>
         <v>32000000000</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="42"/>
       <c r="J12">
         <v>8</v>
       </c>
@@ -44120,7 +48618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>8</v>
       </c>
@@ -44144,7 +48642,7 @@
         <f t="shared" si="4"/>
         <v>36000000000</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="42"/>
       <c r="J13">
         <v>9</v>
       </c>
@@ -44155,7 +48653,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>9</v>
       </c>
@@ -44179,7 +48677,7 @@
         <f t="shared" si="4"/>
         <v>40000000000</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="42"/>
       <c r="J14">
         <v>10</v>
       </c>
@@ -44190,7 +48688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>10</v>
       </c>
@@ -44214,7 +48712,7 @@
         <f t="shared" si="4"/>
         <v>44000000000</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="42"/>
       <c r="J15">
         <v>11</v>
       </c>
@@ -44225,7 +48723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>11</v>
       </c>
@@ -44249,7 +48747,7 @@
         <f t="shared" si="4"/>
         <v>48000000000</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="42"/>
       <c r="J16">
         <v>12</v>
       </c>
@@ -44260,7 +48758,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>12</v>
       </c>
@@ -44284,7 +48782,7 @@
         <f t="shared" si="4"/>
         <v>52000000000</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="42">
         <v>3</v>
       </c>
       <c r="J17">
@@ -44297,7 +48795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>13</v>
       </c>
@@ -44321,7 +48819,7 @@
         <f t="shared" si="4"/>
         <v>56000000000</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="42"/>
       <c r="J18">
         <v>14</v>
       </c>
@@ -44332,7 +48830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>14</v>
       </c>
@@ -44356,7 +48854,7 @@
         <f t="shared" si="4"/>
         <v>60000000000</v>
       </c>
-      <c r="I19" s="40"/>
+      <c r="I19" s="42"/>
       <c r="J19">
         <v>15</v>
       </c>
@@ -44367,7 +48865,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>15</v>
       </c>
@@ -44391,7 +48889,7 @@
         <f t="shared" si="4"/>
         <v>64000000000</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="42"/>
       <c r="J20">
         <v>16</v>
       </c>
@@ -44402,7 +48900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>16</v>
       </c>
@@ -44426,7 +48924,7 @@
         <f t="shared" si="4"/>
         <v>68000000000</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="42"/>
       <c r="J21">
         <v>17</v>
       </c>
@@ -44437,8 +48935,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="40"/>
+    <row r="22" spans="1:12">
+      <c r="I22" s="42"/>
       <c r="J22">
         <v>18</v>
       </c>
@@ -44449,8 +48947,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I23" s="40">
+    <row r="23" spans="1:12">
+      <c r="I23" s="42">
         <v>4</v>
       </c>
       <c r="J23">
@@ -44463,8 +48961,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I24" s="40"/>
+    <row r="24" spans="1:12">
+      <c r="I24" s="42"/>
       <c r="J24">
         <v>20</v>
       </c>
@@ -44475,8 +48973,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I25" s="40"/>
+    <row r="25" spans="1:12">
+      <c r="I25" s="42"/>
       <c r="J25">
         <v>21</v>
       </c>
@@ -44487,8 +48985,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I26" s="40"/>
+    <row r="26" spans="1:12">
+      <c r="I26" s="42"/>
       <c r="J26">
         <v>22</v>
       </c>
@@ -44499,8 +48997,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I27" s="40"/>
+    <row r="27" spans="1:12">
+      <c r="I27" s="42"/>
       <c r="J27">
         <v>23</v>
       </c>
@@ -44511,8 +49009,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I28" s="40"/>
+    <row r="28" spans="1:12">
+      <c r="I28" s="42"/>
       <c r="J28">
         <v>24</v>
       </c>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F5F155-A48B-4DC6-94E6-F13D95C0A28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A88550-2C8A-43DE-9FBA-2F6376787FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="641">
   <si>
     <t>id</t>
   </si>
@@ -2096,6 +2096,171 @@
   </si>
   <si>
     <t>damagePer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPSkill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPSkill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPSkill2</t>
+  </si>
+  <si>
+    <t>DPSkill3</t>
+  </si>
+  <si>
+    <t>DPSkill4</t>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 141단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 142단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 143단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 144단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 145단계</t>
+  </si>
+  <si>
+    <t>도술 146단계</t>
+  </si>
+  <si>
+    <t>도술 147단계</t>
+  </si>
+  <si>
+    <t>도술 148단계</t>
+  </si>
+  <si>
+    <t>도술 149단계</t>
+  </si>
+  <si>
+    <t>도술 150단계</t>
+  </si>
+  <si>
+    <t>도술 151단계</t>
+  </si>
+  <si>
+    <t>도술 152단계</t>
+  </si>
+  <si>
+    <t>도술 153단계</t>
+  </si>
+  <si>
+    <t>도술 154단계</t>
+  </si>
+  <si>
+    <t>도술 155단계</t>
+  </si>
+  <si>
+    <t>도술 156단계</t>
+  </si>
+  <si>
+    <t>도술 157단계</t>
+  </si>
+  <si>
+    <t>도술 158단계</t>
+  </si>
+  <si>
+    <t>도술 159단계</t>
+  </si>
+  <si>
+    <t>도술 160단계</t>
+  </si>
+  <si>
+    <t>도술 161단계</t>
+  </si>
+  <si>
+    <t>도술 162단계</t>
+  </si>
+  <si>
+    <t>도술 163단계</t>
+  </si>
+  <si>
+    <t>도술 164단계</t>
+  </si>
+  <si>
+    <t>도술 165단계</t>
+  </si>
+  <si>
+    <t>도술 166단계</t>
+  </si>
+  <si>
+    <t>도술 167단계</t>
+  </si>
+  <si>
+    <t>도술 168단계</t>
+  </si>
+  <si>
+    <t>도술 169단계</t>
+  </si>
+  <si>
+    <t>도술 170단계</t>
+  </si>
+  <si>
+    <t>도술 171단계</t>
+  </si>
+  <si>
+    <t>도술 172단계</t>
+  </si>
+  <si>
+    <t>도술 173단계</t>
+  </si>
+  <si>
+    <t>도술 174단계</t>
+  </si>
+  <si>
+    <t>도술 175단계</t>
+  </si>
+  <si>
+    <t>도술 176단계</t>
+  </si>
+  <si>
+    <t>도술 177단계</t>
+  </si>
+  <si>
+    <t>도술 178단계</t>
+  </si>
+  <si>
+    <t>도술 179단계</t>
+  </si>
+  <si>
+    <t>도술 180단계</t>
+  </si>
+  <si>
+    <t>용궁검 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검 2형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검 3형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검 4형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁검 5형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2769,12 +2934,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW298"/>
+  <dimension ref="A1:AW343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="J274" sqref="J274"/>
+      <selection pane="bottomLeft" activeCell="G317" sqref="G317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -46320,6 +46485,6576 @@
         <v>217</v>
       </c>
       <c r="AV298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:48">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C299" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E299" s="18">
+        <v>82</v>
+      </c>
+      <c r="F299" s="3">
+        <v>1</v>
+      </c>
+      <c r="G299" s="3">
+        <v>0</v>
+      </c>
+      <c r="H299" s="3">
+        <v>1</v>
+      </c>
+      <c r="I299" s="3">
+        <v>0</v>
+      </c>
+      <c r="J299" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="K299" s="3">
+        <v>300</v>
+      </c>
+      <c r="L299" s="3">
+        <v>100</v>
+      </c>
+      <c r="M299" s="3">
+        <v>9</v>
+      </c>
+      <c r="N299" s="3">
+        <v>2</v>
+      </c>
+      <c r="O299" s="4">
+        <v>25</v>
+      </c>
+      <c r="P299" s="19">
+        <v>33</v>
+      </c>
+      <c r="Q299" s="17">
+        <v>4</v>
+      </c>
+      <c r="R299" s="17">
+        <v>10</v>
+      </c>
+      <c r="S299" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T299" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="U299" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V299" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="W299" s="17">
+        <v>0</v>
+      </c>
+      <c r="X299" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y299" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI299" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ299" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK299" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL299" s="17">
+        <v>107</v>
+      </c>
+      <c r="AM299" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="AN299" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO299" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP299" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ299" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR299" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS299" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT299" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU299" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV299" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:48">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E300" s="18">
+        <v>83</v>
+      </c>
+      <c r="F300" s="3">
+        <v>1</v>
+      </c>
+      <c r="G300" s="3">
+        <v>0</v>
+      </c>
+      <c r="H300" s="3">
+        <v>1</v>
+      </c>
+      <c r="I300" s="3">
+        <v>0</v>
+      </c>
+      <c r="J300" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="K300" s="3">
+        <v>325</v>
+      </c>
+      <c r="L300" s="3">
+        <v>100</v>
+      </c>
+      <c r="M300" s="3">
+        <v>9</v>
+      </c>
+      <c r="N300" s="3">
+        <v>2</v>
+      </c>
+      <c r="O300" s="4">
+        <v>25</v>
+      </c>
+      <c r="P300" s="19">
+        <v>33</v>
+      </c>
+      <c r="Q300" s="17">
+        <v>4</v>
+      </c>
+      <c r="R300" s="17">
+        <v>10</v>
+      </c>
+      <c r="S300" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T300" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="U300" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V300" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="W300" s="17">
+        <v>0</v>
+      </c>
+      <c r="X300" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y300" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI300" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ300" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK300" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL300" s="17">
+        <v>107</v>
+      </c>
+      <c r="AM300" s="38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN300" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO300" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP300" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ300" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR300" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS300" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT300" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU300" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV300" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:48">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="C301" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E301" s="18">
+        <v>84</v>
+      </c>
+      <c r="F301" s="3">
+        <v>1</v>
+      </c>
+      <c r="G301" s="3">
+        <v>0</v>
+      </c>
+      <c r="H301" s="3">
+        <v>1</v>
+      </c>
+      <c r="I301" s="3">
+        <v>0</v>
+      </c>
+      <c r="J301" s="3">
+        <v>3000000000</v>
+      </c>
+      <c r="K301" s="3">
+        <v>350</v>
+      </c>
+      <c r="L301" s="3">
+        <v>100</v>
+      </c>
+      <c r="M301" s="3">
+        <v>9</v>
+      </c>
+      <c r="N301" s="3">
+        <v>2</v>
+      </c>
+      <c r="O301" s="4">
+        <v>25</v>
+      </c>
+      <c r="P301" s="19">
+        <v>33</v>
+      </c>
+      <c r="Q301" s="17">
+        <v>4</v>
+      </c>
+      <c r="R301" s="17">
+        <v>10</v>
+      </c>
+      <c r="S301" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T301" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="U301" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V301" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="W301" s="17">
+        <v>0</v>
+      </c>
+      <c r="X301" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y301" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI301" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ301" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK301" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL301" s="17">
+        <v>107</v>
+      </c>
+      <c r="AM301" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN301" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO301" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP301" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ301" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR301" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS301" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT301" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU301" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV301" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:48">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="C302" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E302" s="18">
+        <v>85</v>
+      </c>
+      <c r="F302" s="3">
+        <v>1</v>
+      </c>
+      <c r="G302" s="3">
+        <v>0</v>
+      </c>
+      <c r="H302" s="3">
+        <v>1</v>
+      </c>
+      <c r="I302" s="3">
+        <v>0</v>
+      </c>
+      <c r="J302" s="3">
+        <v>4000000000</v>
+      </c>
+      <c r="K302" s="3">
+        <v>375</v>
+      </c>
+      <c r="L302" s="3">
+        <v>100</v>
+      </c>
+      <c r="M302" s="3">
+        <v>9</v>
+      </c>
+      <c r="N302" s="3">
+        <v>2</v>
+      </c>
+      <c r="O302" s="4">
+        <v>25</v>
+      </c>
+      <c r="P302" s="19">
+        <v>33</v>
+      </c>
+      <c r="Q302" s="17">
+        <v>4</v>
+      </c>
+      <c r="R302" s="17">
+        <v>10</v>
+      </c>
+      <c r="S302" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T302" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="U302" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V302" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="W302" s="17">
+        <v>0</v>
+      </c>
+      <c r="X302" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y302" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI302" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ302" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK302" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL302" s="17">
+        <v>107</v>
+      </c>
+      <c r="AM302" s="17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AN302" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO302" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP302" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ302" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR302" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS302" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT302" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU302" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV302" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:48">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E303" s="18">
+        <v>86</v>
+      </c>
+      <c r="F303" s="3">
+        <v>1</v>
+      </c>
+      <c r="G303" s="3">
+        <v>0</v>
+      </c>
+      <c r="H303" s="3">
+        <v>1</v>
+      </c>
+      <c r="I303" s="3">
+        <v>0</v>
+      </c>
+      <c r="J303" s="3">
+        <v>5000000000</v>
+      </c>
+      <c r="K303" s="3">
+        <v>400</v>
+      </c>
+      <c r="L303" s="3">
+        <v>100</v>
+      </c>
+      <c r="M303" s="3">
+        <v>9</v>
+      </c>
+      <c r="N303" s="3">
+        <v>2</v>
+      </c>
+      <c r="O303" s="4">
+        <v>25</v>
+      </c>
+      <c r="P303" s="19">
+        <v>33</v>
+      </c>
+      <c r="Q303" s="17">
+        <v>4</v>
+      </c>
+      <c r="R303" s="17">
+        <v>10</v>
+      </c>
+      <c r="S303" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T303" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="U303" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V303" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="W303" s="17">
+        <v>0</v>
+      </c>
+      <c r="X303" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y303" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI303" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ303" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK303" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL303" s="17">
+        <v>107</v>
+      </c>
+      <c r="AM303" s="38">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AN303" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO303" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP303" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ303" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR303" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS303" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT303" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU303" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV303" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:48">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C304" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E304" s="36">
+        <v>36</v>
+      </c>
+      <c r="F304" s="3">
+        <v>1</v>
+      </c>
+      <c r="G304" s="3">
+        <v>0</v>
+      </c>
+      <c r="H304" s="3">
+        <v>5</v>
+      </c>
+      <c r="I304" s="3">
+        <v>0</v>
+      </c>
+      <c r="J304" s="37">
+        <v>1200000000000</v>
+      </c>
+      <c r="K304" s="3">
+        <v>0</v>
+      </c>
+      <c r="L304" s="3">
+        <v>500</v>
+      </c>
+      <c r="M304" s="3">
+        <v>1</v>
+      </c>
+      <c r="N304" s="3">
+        <v>2</v>
+      </c>
+      <c r="O304" s="4">
+        <v>100</v>
+      </c>
+      <c r="P304" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q304" s="2">
+        <v>4</v>
+      </c>
+      <c r="R304" s="2">
+        <v>10</v>
+      </c>
+      <c r="S304" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T304" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U304" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V304" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W304" s="2">
+        <v>0</v>
+      </c>
+      <c r="X304" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y304" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI304" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ304" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK304" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL304" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM304" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN304" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO304" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP304" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ304" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR304" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS304" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT304" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU304" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV304" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:48">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C305" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E305" s="36">
+        <v>36</v>
+      </c>
+      <c r="F305" s="3">
+        <v>1</v>
+      </c>
+      <c r="G305" s="3">
+        <v>0</v>
+      </c>
+      <c r="H305" s="3">
+        <v>5</v>
+      </c>
+      <c r="I305" s="3">
+        <v>0</v>
+      </c>
+      <c r="J305" s="37">
+        <v>1210000000000</v>
+      </c>
+      <c r="K305" s="3">
+        <v>0</v>
+      </c>
+      <c r="L305" s="3">
+        <v>500</v>
+      </c>
+      <c r="M305" s="3">
+        <v>1</v>
+      </c>
+      <c r="N305" s="3">
+        <v>2</v>
+      </c>
+      <c r="O305" s="4">
+        <v>100</v>
+      </c>
+      <c r="P305" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q305" s="2">
+        <v>4</v>
+      </c>
+      <c r="R305" s="2">
+        <v>10</v>
+      </c>
+      <c r="S305" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T305" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U305" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V305" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W305" s="2">
+        <v>0</v>
+      </c>
+      <c r="X305" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y305" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI305" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ305" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK305" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL305" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM305" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN305" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO305" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP305" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ305" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR305" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS305" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT305" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU305" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV305" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:48">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C306" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E306" s="36">
+        <v>36</v>
+      </c>
+      <c r="F306" s="3">
+        <v>1</v>
+      </c>
+      <c r="G306" s="3">
+        <v>0</v>
+      </c>
+      <c r="H306" s="3">
+        <v>5</v>
+      </c>
+      <c r="I306" s="3">
+        <v>0</v>
+      </c>
+      <c r="J306" s="37">
+        <v>1220000000000</v>
+      </c>
+      <c r="K306" s="3">
+        <v>0</v>
+      </c>
+      <c r="L306" s="3">
+        <v>500</v>
+      </c>
+      <c r="M306" s="3">
+        <v>1</v>
+      </c>
+      <c r="N306" s="3">
+        <v>2</v>
+      </c>
+      <c r="O306" s="4">
+        <v>100</v>
+      </c>
+      <c r="P306" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q306" s="2">
+        <v>4</v>
+      </c>
+      <c r="R306" s="2">
+        <v>10</v>
+      </c>
+      <c r="S306" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T306" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U306" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V306" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W306" s="2">
+        <v>0</v>
+      </c>
+      <c r="X306" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y306" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI306" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ306" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK306" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL306" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM306" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN306" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO306" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP306" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ306" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR306" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS306" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT306" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU306" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV306" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:48">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C307" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E307" s="36">
+        <v>36</v>
+      </c>
+      <c r="F307" s="3">
+        <v>1</v>
+      </c>
+      <c r="G307" s="3">
+        <v>0</v>
+      </c>
+      <c r="H307" s="3">
+        <v>5</v>
+      </c>
+      <c r="I307" s="3">
+        <v>0</v>
+      </c>
+      <c r="J307" s="37">
+        <v>1230000000000</v>
+      </c>
+      <c r="K307" s="3">
+        <v>0</v>
+      </c>
+      <c r="L307" s="3">
+        <v>500</v>
+      </c>
+      <c r="M307" s="3">
+        <v>1</v>
+      </c>
+      <c r="N307" s="3">
+        <v>2</v>
+      </c>
+      <c r="O307" s="4">
+        <v>100</v>
+      </c>
+      <c r="P307" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q307" s="2">
+        <v>4</v>
+      </c>
+      <c r="R307" s="2">
+        <v>10</v>
+      </c>
+      <c r="S307" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T307" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U307" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V307" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W307" s="2">
+        <v>0</v>
+      </c>
+      <c r="X307" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y307" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI307" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ307" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK307" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL307" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM307" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN307" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO307" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP307" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ307" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR307" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS307" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT307" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU307" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV307" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:48">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C308" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E308" s="36">
+        <v>36</v>
+      </c>
+      <c r="F308" s="3">
+        <v>1</v>
+      </c>
+      <c r="G308" s="3">
+        <v>0</v>
+      </c>
+      <c r="H308" s="3">
+        <v>5</v>
+      </c>
+      <c r="I308" s="3">
+        <v>0</v>
+      </c>
+      <c r="J308" s="37">
+        <v>1240000000000</v>
+      </c>
+      <c r="K308" s="3">
+        <v>0</v>
+      </c>
+      <c r="L308" s="3">
+        <v>500</v>
+      </c>
+      <c r="M308" s="3">
+        <v>1</v>
+      </c>
+      <c r="N308" s="3">
+        <v>2</v>
+      </c>
+      <c r="O308" s="4">
+        <v>100</v>
+      </c>
+      <c r="P308" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q308" s="2">
+        <v>4</v>
+      </c>
+      <c r="R308" s="2">
+        <v>10</v>
+      </c>
+      <c r="S308" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T308" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U308" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V308" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W308" s="2">
+        <v>0</v>
+      </c>
+      <c r="X308" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y308" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI308" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ308" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK308" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL308" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM308" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN308" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO308" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP308" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ308" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR308" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS308" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT308" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU308" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV308" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:48">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C309" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E309" s="36">
+        <v>36</v>
+      </c>
+      <c r="F309" s="3">
+        <v>1</v>
+      </c>
+      <c r="G309" s="3">
+        <v>0</v>
+      </c>
+      <c r="H309" s="3">
+        <v>5</v>
+      </c>
+      <c r="I309" s="3">
+        <v>0</v>
+      </c>
+      <c r="J309" s="37">
+        <v>1250000000000</v>
+      </c>
+      <c r="K309" s="3">
+        <v>0</v>
+      </c>
+      <c r="L309" s="3">
+        <v>500</v>
+      </c>
+      <c r="M309" s="3">
+        <v>1</v>
+      </c>
+      <c r="N309" s="3">
+        <v>2</v>
+      </c>
+      <c r="O309" s="4">
+        <v>100</v>
+      </c>
+      <c r="P309" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q309" s="2">
+        <v>4</v>
+      </c>
+      <c r="R309" s="2">
+        <v>10</v>
+      </c>
+      <c r="S309" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T309" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U309" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V309" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W309" s="2">
+        <v>0</v>
+      </c>
+      <c r="X309" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y309" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI309" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ309" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK309" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL309" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM309" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN309" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO309" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP309" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ309" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR309" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS309" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT309" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU309" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV309" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:48">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C310" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E310" s="36">
+        <v>36</v>
+      </c>
+      <c r="F310" s="3">
+        <v>1</v>
+      </c>
+      <c r="G310" s="3">
+        <v>0</v>
+      </c>
+      <c r="H310" s="3">
+        <v>5</v>
+      </c>
+      <c r="I310" s="3">
+        <v>0</v>
+      </c>
+      <c r="J310" s="37">
+        <v>1260000000000</v>
+      </c>
+      <c r="K310" s="3">
+        <v>0</v>
+      </c>
+      <c r="L310" s="3">
+        <v>500</v>
+      </c>
+      <c r="M310" s="3">
+        <v>1</v>
+      </c>
+      <c r="N310" s="3">
+        <v>2</v>
+      </c>
+      <c r="O310" s="4">
+        <v>100</v>
+      </c>
+      <c r="P310" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q310" s="2">
+        <v>4</v>
+      </c>
+      <c r="R310" s="2">
+        <v>10</v>
+      </c>
+      <c r="S310" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T310" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U310" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V310" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W310" s="2">
+        <v>0</v>
+      </c>
+      <c r="X310" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y310" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI310" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ310" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK310" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL310" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM310" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN310" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO310" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP310" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ310" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR310" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS310" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT310" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU310" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV310" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:48">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C311" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E311" s="36">
+        <v>36</v>
+      </c>
+      <c r="F311" s="3">
+        <v>1</v>
+      </c>
+      <c r="G311" s="3">
+        <v>0</v>
+      </c>
+      <c r="H311" s="3">
+        <v>5</v>
+      </c>
+      <c r="I311" s="3">
+        <v>0</v>
+      </c>
+      <c r="J311" s="37">
+        <v>1270000000000</v>
+      </c>
+      <c r="K311" s="3">
+        <v>0</v>
+      </c>
+      <c r="L311" s="3">
+        <v>500</v>
+      </c>
+      <c r="M311" s="3">
+        <v>1</v>
+      </c>
+      <c r="N311" s="3">
+        <v>2</v>
+      </c>
+      <c r="O311" s="4">
+        <v>100</v>
+      </c>
+      <c r="P311" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q311" s="2">
+        <v>4</v>
+      </c>
+      <c r="R311" s="2">
+        <v>10</v>
+      </c>
+      <c r="S311" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T311" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U311" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V311" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W311" s="2">
+        <v>0</v>
+      </c>
+      <c r="X311" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y311" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI311" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ311" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK311" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL311" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM311" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN311" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO311" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP311" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ311" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR311" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS311" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT311" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU311" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV311" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:48">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C312" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E312" s="36">
+        <v>36</v>
+      </c>
+      <c r="F312" s="3">
+        <v>1</v>
+      </c>
+      <c r="G312" s="3">
+        <v>0</v>
+      </c>
+      <c r="H312" s="3">
+        <v>5</v>
+      </c>
+      <c r="I312" s="3">
+        <v>0</v>
+      </c>
+      <c r="J312" s="37">
+        <v>1280000000000</v>
+      </c>
+      <c r="K312" s="3">
+        <v>0</v>
+      </c>
+      <c r="L312" s="3">
+        <v>500</v>
+      </c>
+      <c r="M312" s="3">
+        <v>1</v>
+      </c>
+      <c r="N312" s="3">
+        <v>2</v>
+      </c>
+      <c r="O312" s="4">
+        <v>100</v>
+      </c>
+      <c r="P312" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q312" s="2">
+        <v>4</v>
+      </c>
+      <c r="R312" s="2">
+        <v>10</v>
+      </c>
+      <c r="S312" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T312" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U312" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V312" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W312" s="2">
+        <v>0</v>
+      </c>
+      <c r="X312" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y312" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI312" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ312" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK312" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL312" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM312" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN312" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO312" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP312" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ312" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR312" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS312" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT312" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU312" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV312" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:48">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C313" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E313" s="36">
+        <v>36</v>
+      </c>
+      <c r="F313" s="3">
+        <v>1</v>
+      </c>
+      <c r="G313" s="3">
+        <v>0</v>
+      </c>
+      <c r="H313" s="3">
+        <v>5</v>
+      </c>
+      <c r="I313" s="3">
+        <v>0</v>
+      </c>
+      <c r="J313" s="37">
+        <v>1290000000000</v>
+      </c>
+      <c r="K313" s="3">
+        <v>0</v>
+      </c>
+      <c r="L313" s="3">
+        <v>500</v>
+      </c>
+      <c r="M313" s="3">
+        <v>1</v>
+      </c>
+      <c r="N313" s="3">
+        <v>2</v>
+      </c>
+      <c r="O313" s="4">
+        <v>100</v>
+      </c>
+      <c r="P313" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q313" s="2">
+        <v>4</v>
+      </c>
+      <c r="R313" s="2">
+        <v>10</v>
+      </c>
+      <c r="S313" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T313" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U313" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V313" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W313" s="2">
+        <v>0</v>
+      </c>
+      <c r="X313" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y313" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI313" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ313" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK313" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL313" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM313" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN313" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO313" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP313" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ313" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR313" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS313" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT313" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU313" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV313" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:48">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C314" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E314" s="36">
+        <v>36</v>
+      </c>
+      <c r="F314" s="3">
+        <v>1</v>
+      </c>
+      <c r="G314" s="3">
+        <v>0</v>
+      </c>
+      <c r="H314" s="3">
+        <v>5</v>
+      </c>
+      <c r="I314" s="3">
+        <v>0</v>
+      </c>
+      <c r="J314" s="37">
+        <v>1300000000000</v>
+      </c>
+      <c r="K314" s="3">
+        <v>0</v>
+      </c>
+      <c r="L314" s="3">
+        <v>500</v>
+      </c>
+      <c r="M314" s="3">
+        <v>1</v>
+      </c>
+      <c r="N314" s="3">
+        <v>2</v>
+      </c>
+      <c r="O314" s="4">
+        <v>100</v>
+      </c>
+      <c r="P314" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q314" s="2">
+        <v>4</v>
+      </c>
+      <c r="R314" s="2">
+        <v>10</v>
+      </c>
+      <c r="S314" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T314" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U314" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V314" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W314" s="2">
+        <v>0</v>
+      </c>
+      <c r="X314" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y314" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI314" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ314" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK314" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL314" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM314" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN314" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO314" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP314" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ314" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR314" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS314" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT314" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU314" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV314" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:48">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C315" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E315" s="36">
+        <v>36</v>
+      </c>
+      <c r="F315" s="3">
+        <v>1</v>
+      </c>
+      <c r="G315" s="3">
+        <v>0</v>
+      </c>
+      <c r="H315" s="3">
+        <v>5</v>
+      </c>
+      <c r="I315" s="3">
+        <v>0</v>
+      </c>
+      <c r="J315" s="37">
+        <v>1310000000000</v>
+      </c>
+      <c r="K315" s="3">
+        <v>0</v>
+      </c>
+      <c r="L315" s="3">
+        <v>500</v>
+      </c>
+      <c r="M315" s="3">
+        <v>1</v>
+      </c>
+      <c r="N315" s="3">
+        <v>2</v>
+      </c>
+      <c r="O315" s="4">
+        <v>100</v>
+      </c>
+      <c r="P315" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q315" s="2">
+        <v>4</v>
+      </c>
+      <c r="R315" s="2">
+        <v>10</v>
+      </c>
+      <c r="S315" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T315" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U315" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V315" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W315" s="2">
+        <v>0</v>
+      </c>
+      <c r="X315" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y315" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI315" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ315" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK315" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL315" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM315" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN315" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO315" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP315" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ315" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR315" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS315" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT315" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU315" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV315" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:48">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C316" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E316" s="36">
+        <v>36</v>
+      </c>
+      <c r="F316" s="3">
+        <v>1</v>
+      </c>
+      <c r="G316" s="3">
+        <v>0</v>
+      </c>
+      <c r="H316" s="3">
+        <v>5</v>
+      </c>
+      <c r="I316" s="3">
+        <v>0</v>
+      </c>
+      <c r="J316" s="37">
+        <v>1320000000000</v>
+      </c>
+      <c r="K316" s="3">
+        <v>0</v>
+      </c>
+      <c r="L316" s="3">
+        <v>500</v>
+      </c>
+      <c r="M316" s="3">
+        <v>1</v>
+      </c>
+      <c r="N316" s="3">
+        <v>2</v>
+      </c>
+      <c r="O316" s="4">
+        <v>100</v>
+      </c>
+      <c r="P316" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q316" s="2">
+        <v>4</v>
+      </c>
+      <c r="R316" s="2">
+        <v>10</v>
+      </c>
+      <c r="S316" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T316" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U316" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V316" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W316" s="2">
+        <v>0</v>
+      </c>
+      <c r="X316" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y316" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI316" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ316" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK316" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL316" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM316" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN316" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO316" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP316" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ316" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR316" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS316" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT316" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU316" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV316" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:48">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C317" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E317" s="36">
+        <v>36</v>
+      </c>
+      <c r="F317" s="3">
+        <v>1</v>
+      </c>
+      <c r="G317" s="3">
+        <v>0</v>
+      </c>
+      <c r="H317" s="3">
+        <v>5</v>
+      </c>
+      <c r="I317" s="3">
+        <v>0</v>
+      </c>
+      <c r="J317" s="37">
+        <v>1330000000000</v>
+      </c>
+      <c r="K317" s="3">
+        <v>0</v>
+      </c>
+      <c r="L317" s="3">
+        <v>500</v>
+      </c>
+      <c r="M317" s="3">
+        <v>1</v>
+      </c>
+      <c r="N317" s="3">
+        <v>2</v>
+      </c>
+      <c r="O317" s="4">
+        <v>100</v>
+      </c>
+      <c r="P317" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q317" s="2">
+        <v>4</v>
+      </c>
+      <c r="R317" s="2">
+        <v>10</v>
+      </c>
+      <c r="S317" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T317" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U317" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V317" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W317" s="2">
+        <v>0</v>
+      </c>
+      <c r="X317" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y317" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI317" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ317" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK317" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL317" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM317" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN317" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO317" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP317" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ317" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR317" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS317" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT317" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU317" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV317" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:48">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C318" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E318" s="36">
+        <v>36</v>
+      </c>
+      <c r="F318" s="3">
+        <v>1</v>
+      </c>
+      <c r="G318" s="3">
+        <v>0</v>
+      </c>
+      <c r="H318" s="3">
+        <v>5</v>
+      </c>
+      <c r="I318" s="3">
+        <v>0</v>
+      </c>
+      <c r="J318" s="37">
+        <v>1340000000000</v>
+      </c>
+      <c r="K318" s="3">
+        <v>0</v>
+      </c>
+      <c r="L318" s="3">
+        <v>500</v>
+      </c>
+      <c r="M318" s="3">
+        <v>1</v>
+      </c>
+      <c r="N318" s="3">
+        <v>2</v>
+      </c>
+      <c r="O318" s="4">
+        <v>100</v>
+      </c>
+      <c r="P318" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q318" s="2">
+        <v>4</v>
+      </c>
+      <c r="R318" s="2">
+        <v>10</v>
+      </c>
+      <c r="S318" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T318" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U318" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V318" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W318" s="2">
+        <v>0</v>
+      </c>
+      <c r="X318" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y318" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI318" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ318" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK318" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL318" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM318" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN318" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO318" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP318" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ318" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR318" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS318" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT318" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU318" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV318" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:48">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C319" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E319" s="36">
+        <v>36</v>
+      </c>
+      <c r="F319" s="3">
+        <v>1</v>
+      </c>
+      <c r="G319" s="3">
+        <v>0</v>
+      </c>
+      <c r="H319" s="3">
+        <v>5</v>
+      </c>
+      <c r="I319" s="3">
+        <v>0</v>
+      </c>
+      <c r="J319" s="37">
+        <v>1350000000000</v>
+      </c>
+      <c r="K319" s="3">
+        <v>0</v>
+      </c>
+      <c r="L319" s="3">
+        <v>500</v>
+      </c>
+      <c r="M319" s="3">
+        <v>1</v>
+      </c>
+      <c r="N319" s="3">
+        <v>2</v>
+      </c>
+      <c r="O319" s="4">
+        <v>100</v>
+      </c>
+      <c r="P319" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q319" s="2">
+        <v>4</v>
+      </c>
+      <c r="R319" s="2">
+        <v>10</v>
+      </c>
+      <c r="S319" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T319" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U319" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V319" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W319" s="2">
+        <v>0</v>
+      </c>
+      <c r="X319" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y319" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI319" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ319" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK319" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL319" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM319" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN319" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO319" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP319" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ319" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR319" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS319" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT319" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU319" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV319" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:48">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C320" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E320" s="36">
+        <v>36</v>
+      </c>
+      <c r="F320" s="3">
+        <v>1</v>
+      </c>
+      <c r="G320" s="3">
+        <v>0</v>
+      </c>
+      <c r="H320" s="3">
+        <v>5</v>
+      </c>
+      <c r="I320" s="3">
+        <v>0</v>
+      </c>
+      <c r="J320" s="37">
+        <v>1360000000000</v>
+      </c>
+      <c r="K320" s="3">
+        <v>0</v>
+      </c>
+      <c r="L320" s="3">
+        <v>500</v>
+      </c>
+      <c r="M320" s="3">
+        <v>1</v>
+      </c>
+      <c r="N320" s="3">
+        <v>2</v>
+      </c>
+      <c r="O320" s="4">
+        <v>100</v>
+      </c>
+      <c r="P320" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q320" s="2">
+        <v>4</v>
+      </c>
+      <c r="R320" s="2">
+        <v>10</v>
+      </c>
+      <c r="S320" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T320" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U320" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V320" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W320" s="2">
+        <v>0</v>
+      </c>
+      <c r="X320" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y320" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI320" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ320" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK320" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL320" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM320" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN320" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO320" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP320" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ320" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR320" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS320" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT320" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU320" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV320" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:48">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C321" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E321" s="36">
+        <v>36</v>
+      </c>
+      <c r="F321" s="3">
+        <v>1</v>
+      </c>
+      <c r="G321" s="3">
+        <v>0</v>
+      </c>
+      <c r="H321" s="3">
+        <v>5</v>
+      </c>
+      <c r="I321" s="3">
+        <v>0</v>
+      </c>
+      <c r="J321" s="37">
+        <v>1370000000000</v>
+      </c>
+      <c r="K321" s="3">
+        <v>0</v>
+      </c>
+      <c r="L321" s="3">
+        <v>500</v>
+      </c>
+      <c r="M321" s="3">
+        <v>1</v>
+      </c>
+      <c r="N321" s="3">
+        <v>2</v>
+      </c>
+      <c r="O321" s="4">
+        <v>100</v>
+      </c>
+      <c r="P321" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q321" s="2">
+        <v>4</v>
+      </c>
+      <c r="R321" s="2">
+        <v>10</v>
+      </c>
+      <c r="S321" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T321" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U321" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V321" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W321" s="2">
+        <v>0</v>
+      </c>
+      <c r="X321" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y321" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI321" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK321" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL321" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM321" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN321" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO321" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP321" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ321" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR321" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS321" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT321" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU321" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV321" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:48">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C322" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E322" s="36">
+        <v>36</v>
+      </c>
+      <c r="F322" s="3">
+        <v>1</v>
+      </c>
+      <c r="G322" s="3">
+        <v>0</v>
+      </c>
+      <c r="H322" s="3">
+        <v>5</v>
+      </c>
+      <c r="I322" s="3">
+        <v>0</v>
+      </c>
+      <c r="J322" s="37">
+        <v>1380000000000</v>
+      </c>
+      <c r="K322" s="3">
+        <v>0</v>
+      </c>
+      <c r="L322" s="3">
+        <v>500</v>
+      </c>
+      <c r="M322" s="3">
+        <v>1</v>
+      </c>
+      <c r="N322" s="3">
+        <v>2</v>
+      </c>
+      <c r="O322" s="4">
+        <v>100</v>
+      </c>
+      <c r="P322" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q322" s="2">
+        <v>4</v>
+      </c>
+      <c r="R322" s="2">
+        <v>10</v>
+      </c>
+      <c r="S322" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T322" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U322" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V322" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W322" s="2">
+        <v>0</v>
+      </c>
+      <c r="X322" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y322" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI322" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ322" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK322" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL322" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM322" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN322" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO322" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP322" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ322" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR322" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS322" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT322" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU322" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV322" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:48">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C323" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E323" s="36">
+        <v>36</v>
+      </c>
+      <c r="F323" s="3">
+        <v>1</v>
+      </c>
+      <c r="G323" s="3">
+        <v>0</v>
+      </c>
+      <c r="H323" s="3">
+        <v>5</v>
+      </c>
+      <c r="I323" s="3">
+        <v>0</v>
+      </c>
+      <c r="J323" s="37">
+        <v>1390000000000</v>
+      </c>
+      <c r="K323" s="3">
+        <v>0</v>
+      </c>
+      <c r="L323" s="3">
+        <v>500</v>
+      </c>
+      <c r="M323" s="3">
+        <v>1</v>
+      </c>
+      <c r="N323" s="3">
+        <v>2</v>
+      </c>
+      <c r="O323" s="4">
+        <v>100</v>
+      </c>
+      <c r="P323" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q323" s="2">
+        <v>4</v>
+      </c>
+      <c r="R323" s="2">
+        <v>10</v>
+      </c>
+      <c r="S323" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T323" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U323" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V323" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W323" s="2">
+        <v>0</v>
+      </c>
+      <c r="X323" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y323" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI323" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK323" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL323" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM323" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN323" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO323" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP323" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ323" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR323" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS323" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT323" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU323" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV323" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:48">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C324" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E324" s="36">
+        <v>36</v>
+      </c>
+      <c r="F324" s="3">
+        <v>1</v>
+      </c>
+      <c r="G324" s="3">
+        <v>0</v>
+      </c>
+      <c r="H324" s="3">
+        <v>5</v>
+      </c>
+      <c r="I324" s="3">
+        <v>0</v>
+      </c>
+      <c r="J324" s="37">
+        <v>1400000000000</v>
+      </c>
+      <c r="K324" s="3">
+        <v>0</v>
+      </c>
+      <c r="L324" s="3">
+        <v>500</v>
+      </c>
+      <c r="M324" s="3">
+        <v>1</v>
+      </c>
+      <c r="N324" s="3">
+        <v>2</v>
+      </c>
+      <c r="O324" s="4">
+        <v>100</v>
+      </c>
+      <c r="P324" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q324" s="2">
+        <v>4</v>
+      </c>
+      <c r="R324" s="2">
+        <v>10</v>
+      </c>
+      <c r="S324" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T324" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U324" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V324" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W324" s="2">
+        <v>0</v>
+      </c>
+      <c r="X324" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y324" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI324" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ324" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK324" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL324" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM324" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN324" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO324" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP324" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ324" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR324" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS324" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT324" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU324" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV324" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:48">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C325" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E325" s="36">
+        <v>36</v>
+      </c>
+      <c r="F325" s="3">
+        <v>1</v>
+      </c>
+      <c r="G325" s="3">
+        <v>0</v>
+      </c>
+      <c r="H325" s="3">
+        <v>5</v>
+      </c>
+      <c r="I325" s="3">
+        <v>0</v>
+      </c>
+      <c r="J325" s="37">
+        <v>1410000000000</v>
+      </c>
+      <c r="K325" s="3">
+        <v>0</v>
+      </c>
+      <c r="L325" s="3">
+        <v>500</v>
+      </c>
+      <c r="M325" s="3">
+        <v>1</v>
+      </c>
+      <c r="N325" s="3">
+        <v>2</v>
+      </c>
+      <c r="O325" s="4">
+        <v>100</v>
+      </c>
+      <c r="P325" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q325" s="2">
+        <v>4</v>
+      </c>
+      <c r="R325" s="2">
+        <v>10</v>
+      </c>
+      <c r="S325" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T325" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U325" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V325" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W325" s="2">
+        <v>0</v>
+      </c>
+      <c r="X325" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y325" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI325" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK325" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL325" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM325" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN325" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO325" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP325" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ325" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR325" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS325" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT325" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU325" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV325" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:48">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C326" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E326" s="36">
+        <v>36</v>
+      </c>
+      <c r="F326" s="3">
+        <v>1</v>
+      </c>
+      <c r="G326" s="3">
+        <v>0</v>
+      </c>
+      <c r="H326" s="3">
+        <v>5</v>
+      </c>
+      <c r="I326" s="3">
+        <v>0</v>
+      </c>
+      <c r="J326" s="37">
+        <v>1420000000000</v>
+      </c>
+      <c r="K326" s="3">
+        <v>0</v>
+      </c>
+      <c r="L326" s="3">
+        <v>500</v>
+      </c>
+      <c r="M326" s="3">
+        <v>1</v>
+      </c>
+      <c r="N326" s="3">
+        <v>2</v>
+      </c>
+      <c r="O326" s="4">
+        <v>100</v>
+      </c>
+      <c r="P326" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q326" s="2">
+        <v>4</v>
+      </c>
+      <c r="R326" s="2">
+        <v>10</v>
+      </c>
+      <c r="S326" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T326" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U326" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V326" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W326" s="2">
+        <v>0</v>
+      </c>
+      <c r="X326" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y326" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI326" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK326" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL326" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM326" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN326" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO326" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP326" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ326" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR326" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS326" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT326" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU326" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV326" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:48">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C327" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E327" s="36">
+        <v>36</v>
+      </c>
+      <c r="F327" s="3">
+        <v>1</v>
+      </c>
+      <c r="G327" s="3">
+        <v>0</v>
+      </c>
+      <c r="H327" s="3">
+        <v>5</v>
+      </c>
+      <c r="I327" s="3">
+        <v>0</v>
+      </c>
+      <c r="J327" s="37">
+        <v>1430000000000</v>
+      </c>
+      <c r="K327" s="3">
+        <v>0</v>
+      </c>
+      <c r="L327" s="3">
+        <v>500</v>
+      </c>
+      <c r="M327" s="3">
+        <v>1</v>
+      </c>
+      <c r="N327" s="3">
+        <v>2</v>
+      </c>
+      <c r="O327" s="4">
+        <v>100</v>
+      </c>
+      <c r="P327" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q327" s="2">
+        <v>4</v>
+      </c>
+      <c r="R327" s="2">
+        <v>10</v>
+      </c>
+      <c r="S327" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T327" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U327" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V327" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W327" s="2">
+        <v>0</v>
+      </c>
+      <c r="X327" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y327" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI327" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ327" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK327" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL327" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM327" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN327" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO327" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP327" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ327" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR327" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS327" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT327" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU327" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV327" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:48">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C328" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E328" s="36">
+        <v>36</v>
+      </c>
+      <c r="F328" s="3">
+        <v>1</v>
+      </c>
+      <c r="G328" s="3">
+        <v>0</v>
+      </c>
+      <c r="H328" s="3">
+        <v>5</v>
+      </c>
+      <c r="I328" s="3">
+        <v>0</v>
+      </c>
+      <c r="J328" s="37">
+        <v>1440000000000</v>
+      </c>
+      <c r="K328" s="3">
+        <v>0</v>
+      </c>
+      <c r="L328" s="3">
+        <v>500</v>
+      </c>
+      <c r="M328" s="3">
+        <v>1</v>
+      </c>
+      <c r="N328" s="3">
+        <v>2</v>
+      </c>
+      <c r="O328" s="4">
+        <v>100</v>
+      </c>
+      <c r="P328" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q328" s="2">
+        <v>4</v>
+      </c>
+      <c r="R328" s="2">
+        <v>10</v>
+      </c>
+      <c r="S328" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T328" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U328" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V328" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W328" s="2">
+        <v>0</v>
+      </c>
+      <c r="X328" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y328" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI328" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ328" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK328" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL328" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM328" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN328" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO328" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP328" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ328" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR328" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS328" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT328" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU328" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV328" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:48">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C329" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E329" s="36">
+        <v>36</v>
+      </c>
+      <c r="F329" s="3">
+        <v>1</v>
+      </c>
+      <c r="G329" s="3">
+        <v>0</v>
+      </c>
+      <c r="H329" s="3">
+        <v>5</v>
+      </c>
+      <c r="I329" s="3">
+        <v>0</v>
+      </c>
+      <c r="J329" s="37">
+        <v>1450000000000</v>
+      </c>
+      <c r="K329" s="3">
+        <v>0</v>
+      </c>
+      <c r="L329" s="3">
+        <v>500</v>
+      </c>
+      <c r="M329" s="3">
+        <v>1</v>
+      </c>
+      <c r="N329" s="3">
+        <v>2</v>
+      </c>
+      <c r="O329" s="4">
+        <v>100</v>
+      </c>
+      <c r="P329" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q329" s="2">
+        <v>4</v>
+      </c>
+      <c r="R329" s="2">
+        <v>10</v>
+      </c>
+      <c r="S329" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T329" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U329" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V329" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W329" s="2">
+        <v>0</v>
+      </c>
+      <c r="X329" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y329" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI329" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ329" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK329" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL329" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM329" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN329" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO329" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP329" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ329" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR329" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS329" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT329" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU329" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV329" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:48">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C330" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E330" s="36">
+        <v>36</v>
+      </c>
+      <c r="F330" s="3">
+        <v>1</v>
+      </c>
+      <c r="G330" s="3">
+        <v>0</v>
+      </c>
+      <c r="H330" s="3">
+        <v>5</v>
+      </c>
+      <c r="I330" s="3">
+        <v>0</v>
+      </c>
+      <c r="J330" s="37">
+        <v>1460000000000</v>
+      </c>
+      <c r="K330" s="3">
+        <v>0</v>
+      </c>
+      <c r="L330" s="3">
+        <v>500</v>
+      </c>
+      <c r="M330" s="3">
+        <v>1</v>
+      </c>
+      <c r="N330" s="3">
+        <v>2</v>
+      </c>
+      <c r="O330" s="4">
+        <v>100</v>
+      </c>
+      <c r="P330" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q330" s="2">
+        <v>4</v>
+      </c>
+      <c r="R330" s="2">
+        <v>10</v>
+      </c>
+      <c r="S330" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T330" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U330" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V330" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W330" s="2">
+        <v>0</v>
+      </c>
+      <c r="X330" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y330" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI330" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ330" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK330" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL330" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM330" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN330" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO330" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP330" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ330" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR330" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS330" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT330" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU330" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV330" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:48">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C331" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E331" s="36">
+        <v>36</v>
+      </c>
+      <c r="F331" s="3">
+        <v>1</v>
+      </c>
+      <c r="G331" s="3">
+        <v>0</v>
+      </c>
+      <c r="H331" s="3">
+        <v>5</v>
+      </c>
+      <c r="I331" s="3">
+        <v>0</v>
+      </c>
+      <c r="J331" s="37">
+        <v>1470000000000</v>
+      </c>
+      <c r="K331" s="3">
+        <v>0</v>
+      </c>
+      <c r="L331" s="3">
+        <v>500</v>
+      </c>
+      <c r="M331" s="3">
+        <v>1</v>
+      </c>
+      <c r="N331" s="3">
+        <v>2</v>
+      </c>
+      <c r="O331" s="4">
+        <v>100</v>
+      </c>
+      <c r="P331" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q331" s="2">
+        <v>4</v>
+      </c>
+      <c r="R331" s="2">
+        <v>10</v>
+      </c>
+      <c r="S331" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T331" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U331" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V331" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W331" s="2">
+        <v>0</v>
+      </c>
+      <c r="X331" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y331" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI331" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ331" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK331" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL331" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM331" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN331" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO331" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP331" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ331" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR331" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS331" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT331" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU331" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV331" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:48">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C332" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E332" s="36">
+        <v>36</v>
+      </c>
+      <c r="F332" s="3">
+        <v>1</v>
+      </c>
+      <c r="G332" s="3">
+        <v>0</v>
+      </c>
+      <c r="H332" s="3">
+        <v>5</v>
+      </c>
+      <c r="I332" s="3">
+        <v>0</v>
+      </c>
+      <c r="J332" s="37">
+        <v>1480000000000</v>
+      </c>
+      <c r="K332" s="3">
+        <v>0</v>
+      </c>
+      <c r="L332" s="3">
+        <v>500</v>
+      </c>
+      <c r="M332" s="3">
+        <v>1</v>
+      </c>
+      <c r="N332" s="3">
+        <v>2</v>
+      </c>
+      <c r="O332" s="4">
+        <v>100</v>
+      </c>
+      <c r="P332" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q332" s="2">
+        <v>4</v>
+      </c>
+      <c r="R332" s="2">
+        <v>10</v>
+      </c>
+      <c r="S332" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T332" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U332" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V332" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W332" s="2">
+        <v>0</v>
+      </c>
+      <c r="X332" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y332" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI332" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ332" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK332" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL332" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM332" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN332" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO332" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP332" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ332" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR332" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS332" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT332" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU332" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV332" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:48">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C333" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E333" s="36">
+        <v>36</v>
+      </c>
+      <c r="F333" s="3">
+        <v>1</v>
+      </c>
+      <c r="G333" s="3">
+        <v>0</v>
+      </c>
+      <c r="H333" s="3">
+        <v>5</v>
+      </c>
+      <c r="I333" s="3">
+        <v>0</v>
+      </c>
+      <c r="J333" s="37">
+        <v>1490000000000</v>
+      </c>
+      <c r="K333" s="3">
+        <v>0</v>
+      </c>
+      <c r="L333" s="3">
+        <v>500</v>
+      </c>
+      <c r="M333" s="3">
+        <v>1</v>
+      </c>
+      <c r="N333" s="3">
+        <v>2</v>
+      </c>
+      <c r="O333" s="4">
+        <v>100</v>
+      </c>
+      <c r="P333" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q333" s="2">
+        <v>4</v>
+      </c>
+      <c r="R333" s="2">
+        <v>10</v>
+      </c>
+      <c r="S333" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T333" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U333" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V333" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W333" s="2">
+        <v>0</v>
+      </c>
+      <c r="X333" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y333" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI333" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK333" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL333" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM333" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN333" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO333" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP333" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ333" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR333" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS333" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT333" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU333" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV333" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:48">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C334" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E334" s="36">
+        <v>36</v>
+      </c>
+      <c r="F334" s="3">
+        <v>1</v>
+      </c>
+      <c r="G334" s="3">
+        <v>0</v>
+      </c>
+      <c r="H334" s="3">
+        <v>5</v>
+      </c>
+      <c r="I334" s="3">
+        <v>0</v>
+      </c>
+      <c r="J334" s="37">
+        <v>1500000000000</v>
+      </c>
+      <c r="K334" s="3">
+        <v>0</v>
+      </c>
+      <c r="L334" s="3">
+        <v>500</v>
+      </c>
+      <c r="M334" s="3">
+        <v>1</v>
+      </c>
+      <c r="N334" s="3">
+        <v>2</v>
+      </c>
+      <c r="O334" s="4">
+        <v>100</v>
+      </c>
+      <c r="P334" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q334" s="2">
+        <v>4</v>
+      </c>
+      <c r="R334" s="2">
+        <v>10</v>
+      </c>
+      <c r="S334" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T334" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U334" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V334" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W334" s="2">
+        <v>0</v>
+      </c>
+      <c r="X334" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y334" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI334" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ334" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK334" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL334" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM334" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN334" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO334" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP334" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ334" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR334" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS334" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT334" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU334" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV334" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:48">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C335" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E335" s="36">
+        <v>36</v>
+      </c>
+      <c r="F335" s="3">
+        <v>1</v>
+      </c>
+      <c r="G335" s="3">
+        <v>0</v>
+      </c>
+      <c r="H335" s="3">
+        <v>5</v>
+      </c>
+      <c r="I335" s="3">
+        <v>0</v>
+      </c>
+      <c r="J335" s="37">
+        <v>1510000000000</v>
+      </c>
+      <c r="K335" s="3">
+        <v>0</v>
+      </c>
+      <c r="L335" s="3">
+        <v>500</v>
+      </c>
+      <c r="M335" s="3">
+        <v>1</v>
+      </c>
+      <c r="N335" s="3">
+        <v>2</v>
+      </c>
+      <c r="O335" s="4">
+        <v>100</v>
+      </c>
+      <c r="P335" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q335" s="2">
+        <v>4</v>
+      </c>
+      <c r="R335" s="2">
+        <v>10</v>
+      </c>
+      <c r="S335" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T335" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U335" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V335" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W335" s="2">
+        <v>0</v>
+      </c>
+      <c r="X335" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y335" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI335" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ335" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK335" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL335" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM335" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN335" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO335" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP335" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ335" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR335" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS335" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT335" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU335" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV335" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:48">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C336" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E336" s="36">
+        <v>36</v>
+      </c>
+      <c r="F336" s="3">
+        <v>1</v>
+      </c>
+      <c r="G336" s="3">
+        <v>0</v>
+      </c>
+      <c r="H336" s="3">
+        <v>5</v>
+      </c>
+      <c r="I336" s="3">
+        <v>0</v>
+      </c>
+      <c r="J336" s="37">
+        <v>1520000000000</v>
+      </c>
+      <c r="K336" s="3">
+        <v>0</v>
+      </c>
+      <c r="L336" s="3">
+        <v>500</v>
+      </c>
+      <c r="M336" s="3">
+        <v>1</v>
+      </c>
+      <c r="N336" s="3">
+        <v>2</v>
+      </c>
+      <c r="O336" s="4">
+        <v>100</v>
+      </c>
+      <c r="P336" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q336" s="2">
+        <v>4</v>
+      </c>
+      <c r="R336" s="2">
+        <v>10</v>
+      </c>
+      <c r="S336" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T336" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U336" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V336" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W336" s="2">
+        <v>0</v>
+      </c>
+      <c r="X336" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y336" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI336" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ336" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK336" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL336" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM336" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN336" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO336" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP336" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ336" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR336" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS336" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT336" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU336" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV336" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:48">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C337" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E337" s="36">
+        <v>36</v>
+      </c>
+      <c r="F337" s="3">
+        <v>1</v>
+      </c>
+      <c r="G337" s="3">
+        <v>0</v>
+      </c>
+      <c r="H337" s="3">
+        <v>5</v>
+      </c>
+      <c r="I337" s="3">
+        <v>0</v>
+      </c>
+      <c r="J337" s="37">
+        <v>1530000000000</v>
+      </c>
+      <c r="K337" s="3">
+        <v>0</v>
+      </c>
+      <c r="L337" s="3">
+        <v>500</v>
+      </c>
+      <c r="M337" s="3">
+        <v>1</v>
+      </c>
+      <c r="N337" s="3">
+        <v>2</v>
+      </c>
+      <c r="O337" s="4">
+        <v>100</v>
+      </c>
+      <c r="P337" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q337" s="2">
+        <v>4</v>
+      </c>
+      <c r="R337" s="2">
+        <v>10</v>
+      </c>
+      <c r="S337" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T337" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U337" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V337" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W337" s="2">
+        <v>0</v>
+      </c>
+      <c r="X337" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y337" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI337" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ337" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK337" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL337" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM337" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN337" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO337" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP337" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ337" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR337" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS337" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT337" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU337" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV337" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:48">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C338" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E338" s="36">
+        <v>36</v>
+      </c>
+      <c r="F338" s="3">
+        <v>1</v>
+      </c>
+      <c r="G338" s="3">
+        <v>0</v>
+      </c>
+      <c r="H338" s="3">
+        <v>5</v>
+      </c>
+      <c r="I338" s="3">
+        <v>0</v>
+      </c>
+      <c r="J338" s="37">
+        <v>1540000000000</v>
+      </c>
+      <c r="K338" s="3">
+        <v>0</v>
+      </c>
+      <c r="L338" s="3">
+        <v>500</v>
+      </c>
+      <c r="M338" s="3">
+        <v>1</v>
+      </c>
+      <c r="N338" s="3">
+        <v>2</v>
+      </c>
+      <c r="O338" s="4">
+        <v>100</v>
+      </c>
+      <c r="P338" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q338" s="2">
+        <v>4</v>
+      </c>
+      <c r="R338" s="2">
+        <v>10</v>
+      </c>
+      <c r="S338" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T338" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U338" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V338" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W338" s="2">
+        <v>0</v>
+      </c>
+      <c r="X338" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y338" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI338" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ338" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK338" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL338" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM338" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN338" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO338" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP338" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ338" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR338" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS338" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT338" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU338" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV338" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:48">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C339" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E339" s="36">
+        <v>36</v>
+      </c>
+      <c r="F339" s="3">
+        <v>1</v>
+      </c>
+      <c r="G339" s="3">
+        <v>0</v>
+      </c>
+      <c r="H339" s="3">
+        <v>5</v>
+      </c>
+      <c r="I339" s="3">
+        <v>0</v>
+      </c>
+      <c r="J339" s="37">
+        <v>1550000000000</v>
+      </c>
+      <c r="K339" s="3">
+        <v>0</v>
+      </c>
+      <c r="L339" s="3">
+        <v>500</v>
+      </c>
+      <c r="M339" s="3">
+        <v>1</v>
+      </c>
+      <c r="N339" s="3">
+        <v>2</v>
+      </c>
+      <c r="O339" s="4">
+        <v>100</v>
+      </c>
+      <c r="P339" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q339" s="2">
+        <v>4</v>
+      </c>
+      <c r="R339" s="2">
+        <v>10</v>
+      </c>
+      <c r="S339" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T339" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U339" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V339" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W339" s="2">
+        <v>0</v>
+      </c>
+      <c r="X339" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y339" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI339" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ339" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK339" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL339" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM339" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN339" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO339" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP339" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ339" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR339" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS339" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT339" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU339" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV339" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:48">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C340" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E340" s="36">
+        <v>36</v>
+      </c>
+      <c r="F340" s="3">
+        <v>1</v>
+      </c>
+      <c r="G340" s="3">
+        <v>0</v>
+      </c>
+      <c r="H340" s="3">
+        <v>5</v>
+      </c>
+      <c r="I340" s="3">
+        <v>0</v>
+      </c>
+      <c r="J340" s="37">
+        <v>1560000000000</v>
+      </c>
+      <c r="K340" s="3">
+        <v>0</v>
+      </c>
+      <c r="L340" s="3">
+        <v>500</v>
+      </c>
+      <c r="M340" s="3">
+        <v>1</v>
+      </c>
+      <c r="N340" s="3">
+        <v>2</v>
+      </c>
+      <c r="O340" s="4">
+        <v>100</v>
+      </c>
+      <c r="P340" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q340" s="2">
+        <v>4</v>
+      </c>
+      <c r="R340" s="2">
+        <v>10</v>
+      </c>
+      <c r="S340" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T340" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U340" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V340" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W340" s="2">
+        <v>0</v>
+      </c>
+      <c r="X340" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y340" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI340" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ340" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK340" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL340" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM340" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN340" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO340" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP340" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ340" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR340" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS340" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT340" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU340" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV340" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:48">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C341" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E341" s="36">
+        <v>36</v>
+      </c>
+      <c r="F341" s="3">
+        <v>1</v>
+      </c>
+      <c r="G341" s="3">
+        <v>0</v>
+      </c>
+      <c r="H341" s="3">
+        <v>5</v>
+      </c>
+      <c r="I341" s="3">
+        <v>0</v>
+      </c>
+      <c r="J341" s="37">
+        <v>1570000000000</v>
+      </c>
+      <c r="K341" s="3">
+        <v>0</v>
+      </c>
+      <c r="L341" s="3">
+        <v>500</v>
+      </c>
+      <c r="M341" s="3">
+        <v>1</v>
+      </c>
+      <c r="N341" s="3">
+        <v>2</v>
+      </c>
+      <c r="O341" s="4">
+        <v>100</v>
+      </c>
+      <c r="P341" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q341" s="2">
+        <v>4</v>
+      </c>
+      <c r="R341" s="2">
+        <v>10</v>
+      </c>
+      <c r="S341" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T341" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U341" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V341" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W341" s="2">
+        <v>0</v>
+      </c>
+      <c r="X341" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y341" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI341" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK341" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL341" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM341" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN341" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO341" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP341" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ341" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR341" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS341" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT341" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU341" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV341" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:48">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C342" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E342" s="36">
+        <v>36</v>
+      </c>
+      <c r="F342" s="3">
+        <v>1</v>
+      </c>
+      <c r="G342" s="3">
+        <v>0</v>
+      </c>
+      <c r="H342" s="3">
+        <v>5</v>
+      </c>
+      <c r="I342" s="3">
+        <v>0</v>
+      </c>
+      <c r="J342" s="37">
+        <v>1580000000000</v>
+      </c>
+      <c r="K342" s="3">
+        <v>0</v>
+      </c>
+      <c r="L342" s="3">
+        <v>500</v>
+      </c>
+      <c r="M342" s="3">
+        <v>1</v>
+      </c>
+      <c r="N342" s="3">
+        <v>2</v>
+      </c>
+      <c r="O342" s="4">
+        <v>100</v>
+      </c>
+      <c r="P342" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q342" s="2">
+        <v>4</v>
+      </c>
+      <c r="R342" s="2">
+        <v>10</v>
+      </c>
+      <c r="S342" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T342" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U342" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V342" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W342" s="2">
+        <v>0</v>
+      </c>
+      <c r="X342" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y342" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI342" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK342" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL342" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM342" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN342" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO342" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP342" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ342" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR342" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS342" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT342" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU342" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV342" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:48">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C343" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E343" s="36">
+        <v>36</v>
+      </c>
+      <c r="F343" s="3">
+        <v>1</v>
+      </c>
+      <c r="G343" s="3">
+        <v>0</v>
+      </c>
+      <c r="H343" s="3">
+        <v>5</v>
+      </c>
+      <c r="I343" s="3">
+        <v>0</v>
+      </c>
+      <c r="J343" s="37">
+        <v>1590000000000</v>
+      </c>
+      <c r="K343" s="3">
+        <v>0</v>
+      </c>
+      <c r="L343" s="3">
+        <v>500</v>
+      </c>
+      <c r="M343" s="3">
+        <v>1</v>
+      </c>
+      <c r="N343" s="3">
+        <v>2</v>
+      </c>
+      <c r="O343" s="4">
+        <v>100</v>
+      </c>
+      <c r="P343" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q343" s="2">
+        <v>4</v>
+      </c>
+      <c r="R343" s="2">
+        <v>10</v>
+      </c>
+      <c r="S343" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T343" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U343" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V343" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W343" s="2">
+        <v>0</v>
+      </c>
+      <c r="X343" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y343" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI343" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK343" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL343" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM343" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN343" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO343" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP343" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ343" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR343" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS343" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT343" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU343" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV343" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A88550-2C8A-43DE-9FBA-2F6376787FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71285F49-1343-424B-B74B-186D97C69592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="646">
   <si>
     <t>id</t>
   </si>
@@ -2261,6 +2261,26 @@
   </si>
   <si>
     <t>용궁검 5형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonSkill0_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonSkill1_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonSkill2_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonSkill3_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonSkill4_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2937,9 +2957,9 @@
   <dimension ref="A1:AW343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="G317" sqref="G317"/>
+      <selection pane="bottomLeft" activeCell="S190" sqref="S190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -31065,7 +31085,7 @@
         <v>215</v>
       </c>
       <c r="T193" s="17" t="s">
-        <v>469</v>
+        <v>641</v>
       </c>
       <c r="U193" s="20" t="s">
         <v>153</v>
@@ -31211,7 +31231,7 @@
         <v>215</v>
       </c>
       <c r="T194" s="17" t="s">
-        <v>470</v>
+        <v>642</v>
       </c>
       <c r="U194" s="20" t="s">
         <v>153</v>
@@ -31357,7 +31377,7 @@
         <v>215</v>
       </c>
       <c r="T195" s="17" t="s">
-        <v>472</v>
+        <v>643</v>
       </c>
       <c r="U195" s="20" t="s">
         <v>153</v>
@@ -31503,7 +31523,7 @@
         <v>215</v>
       </c>
       <c r="T196" s="17" t="s">
-        <v>474</v>
+        <v>644</v>
       </c>
       <c r="U196" s="20" t="s">
         <v>153</v>
@@ -31649,7 +31669,7 @@
         <v>215</v>
       </c>
       <c r="T197" s="17" t="s">
-        <v>473</v>
+        <v>645</v>
       </c>
       <c r="U197" s="20" t="s">
         <v>153</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DBFAB9-9864-4BA9-9CAD-DBC237C6260D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05238B6-CA6F-4EE4-B44F-D4C10067A627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3933" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="656">
   <si>
     <t>id</t>
   </si>
@@ -2331,6 +2331,14 @@
   </si>
   <si>
     <t>극락 - 천세상제에게서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisionSkill19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락 - 천세왕후에게서 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2344,7 +2352,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000000000000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2714,9 +2722,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2754,7 +2762,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2860,7 +2868,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3002,7 +3010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3018,15 +3026,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW345"/>
+  <dimension ref="A1:AW346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AB346" sqref="A346:XFD348"/>
+      <selection pane="bottomLeft" activeCell="J278" sqref="J278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
@@ -3064,7 +3072,7 @@
     <col min="47" max="47" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="8" customFormat="1" ht="33">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +3221,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" s="2" customFormat="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3356,7 +3364,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="2" customFormat="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3499,7 +3507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" s="2" customFormat="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3642,7 +3650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" s="2" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3785,7 +3793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" s="2" customFormat="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3928,7 +3936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" s="2" customFormat="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4071,7 +4079,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" s="2" customFormat="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4214,7 +4222,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" s="2" customFormat="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4357,7 +4365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4500,7 +4508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4643,7 +4651,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4929,7 +4937,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -5072,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -5215,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -5358,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" s="2" customFormat="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5501,7 +5509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" s="2" customFormat="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5644,7 +5652,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5787,7 +5795,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" s="6" customFormat="1">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -5933,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" s="6" customFormat="1">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -6079,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6225,7 +6233,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6371,7 +6379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" s="17" customFormat="1">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -6517,7 +6525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" s="17" customFormat="1">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -6663,7 +6671,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" s="17" customFormat="1">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -6809,7 +6817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" s="17" customFormat="1">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -6955,7 +6963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" s="17" customFormat="1">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -7101,7 +7109,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" s="17" customFormat="1">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -7247,7 +7255,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" s="17" customFormat="1">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -7393,7 +7401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" s="17" customFormat="1">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -7539,7 +7547,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" s="17" customFormat="1">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -7685,7 +7693,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" s="17" customFormat="1">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -7831,7 +7839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" s="17" customFormat="1">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -7977,7 +7985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" s="17" customFormat="1">
       <c r="A35" s="16">
         <v>33</v>
       </c>
@@ -8123,7 +8131,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" s="17" customFormat="1">
       <c r="A36" s="16">
         <v>34</v>
       </c>
@@ -8269,7 +8277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" s="17" customFormat="1">
       <c r="A37" s="16">
         <v>35</v>
       </c>
@@ -8415,7 +8423,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" s="17" customFormat="1">
       <c r="A38" s="16">
         <v>36</v>
       </c>
@@ -8561,7 +8569,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" s="6" customFormat="1">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -8707,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" s="6" customFormat="1">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -8853,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" s="6" customFormat="1">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -8999,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" s="6" customFormat="1">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -9145,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -9291,7 +9299,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -9437,7 +9445,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -9583,7 +9591,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -9729,7 +9737,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -9875,7 +9883,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -10024,7 +10032,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -10173,7 +10181,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -10322,7 +10330,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -10471,7 +10479,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -10617,7 +10625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -10763,7 +10771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -10909,7 +10917,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -11055,7 +11063,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -11201,7 +11209,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49">
       <c r="A57" s="16">
         <v>55</v>
       </c>
@@ -11350,7 +11358,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49">
       <c r="A58" s="16">
         <v>56</v>
       </c>
@@ -11496,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -11642,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49">
       <c r="A60" s="16">
         <v>58</v>
       </c>
@@ -11788,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49">
       <c r="A61" s="16">
         <v>59</v>
       </c>
@@ -11934,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49">
       <c r="A62" s="16">
         <v>60</v>
       </c>
@@ -12080,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49">
       <c r="A63" s="16">
         <v>61</v>
       </c>
@@ -12226,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49">
       <c r="A64" s="16">
         <v>62</v>
       </c>
@@ -12372,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:48">
       <c r="A65" s="16">
         <v>63</v>
       </c>
@@ -12518,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:48">
       <c r="A66" s="16">
         <v>64</v>
       </c>
@@ -12664,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:48">
       <c r="A67" s="16">
         <v>65</v>
       </c>
@@ -12810,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:48">
       <c r="A68" s="16">
         <v>66</v>
       </c>
@@ -12956,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:48">
       <c r="A69" s="16">
         <v>67</v>
       </c>
@@ -13102,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:48">
       <c r="A70" s="16">
         <v>68</v>
       </c>
@@ -13248,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:48">
       <c r="A71" s="16">
         <v>69</v>
       </c>
@@ -13394,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:48">
       <c r="A72" s="16">
         <v>70</v>
       </c>
@@ -13540,7 +13548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:48">
       <c r="A73" s="16">
         <v>71</v>
       </c>
@@ -13686,7 +13694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:48">
       <c r="A74" s="16">
         <v>72</v>
       </c>
@@ -13832,7 +13840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:48">
       <c r="A75" s="16">
         <v>73</v>
       </c>
@@ -13978,7 +13986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:48">
       <c r="A76" s="16">
         <v>74</v>
       </c>
@@ -14124,7 +14132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:48">
       <c r="A77" s="16">
         <v>75</v>
       </c>
@@ -14270,7 +14278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:48">
       <c r="A78" s="16">
         <v>76</v>
       </c>
@@ -14416,7 +14424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:48">
       <c r="A79" s="16">
         <v>77</v>
       </c>
@@ -14562,7 +14570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:48">
       <c r="A80" s="16">
         <v>78</v>
       </c>
@@ -14708,7 +14716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:48">
       <c r="A81" s="16">
         <v>79</v>
       </c>
@@ -14854,7 +14862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:48">
       <c r="A82" s="16">
         <v>80</v>
       </c>
@@ -15000,7 +15008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:48">
       <c r="A83" s="16">
         <v>81</v>
       </c>
@@ -15146,7 +15154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:48">
       <c r="A84" s="16">
         <v>82</v>
       </c>
@@ -15292,7 +15300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:48">
       <c r="A85" s="16">
         <v>83</v>
       </c>
@@ -15438,7 +15446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:48">
       <c r="A86" s="16">
         <v>84</v>
       </c>
@@ -15584,7 +15592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:48">
       <c r="A87" s="16">
         <v>85</v>
       </c>
@@ -15730,7 +15738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:48">
       <c r="A88" s="16">
         <v>86</v>
       </c>
@@ -15876,7 +15884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:48">
       <c r="A89" s="16">
         <v>87</v>
       </c>
@@ -16022,7 +16030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:48">
       <c r="A90" s="16">
         <v>88</v>
       </c>
@@ -16168,7 +16176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:48">
       <c r="A91" s="16">
         <v>89</v>
       </c>
@@ -16314,7 +16322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:48">
       <c r="A92" s="16">
         <v>90</v>
       </c>
@@ -16460,7 +16468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:48">
       <c r="A93" s="16">
         <v>91</v>
       </c>
@@ -16606,7 +16614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:48">
       <c r="A94" s="16">
         <v>92</v>
       </c>
@@ -16752,7 +16760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:48">
       <c r="A95" s="16">
         <v>93</v>
       </c>
@@ -16898,7 +16906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:48">
       <c r="A96" s="16">
         <v>94</v>
       </c>
@@ -17044,7 +17052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49">
       <c r="A97" s="16">
         <v>95</v>
       </c>
@@ -17193,7 +17201,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49">
       <c r="A98" s="16">
         <v>96</v>
       </c>
@@ -17339,7 +17347,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49">
       <c r="A99" s="16">
         <v>97</v>
       </c>
@@ -17485,7 +17493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49">
       <c r="A100" s="16">
         <v>98</v>
       </c>
@@ -17631,7 +17639,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49">
       <c r="A101" s="16">
         <v>99</v>
       </c>
@@ -17777,7 +17785,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49">
       <c r="A102" s="16">
         <v>100</v>
       </c>
@@ -17923,7 +17931,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49">
       <c r="A103" s="16">
         <v>101</v>
       </c>
@@ -18069,7 +18077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49">
       <c r="A104" s="16">
         <v>102</v>
       </c>
@@ -18215,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49">
       <c r="A105" s="16">
         <v>103</v>
       </c>
@@ -18361,7 +18369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49">
       <c r="A106" s="16">
         <v>104</v>
       </c>
@@ -18507,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49">
       <c r="A107" s="16">
         <v>105</v>
       </c>
@@ -18653,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49">
       <c r="A108" s="16">
         <v>106</v>
       </c>
@@ -18799,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49">
       <c r="A109" s="16">
         <v>107</v>
       </c>
@@ -18945,7 +18953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49">
       <c r="A110" s="16">
         <v>108</v>
       </c>
@@ -19091,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49">
       <c r="A111" s="16">
         <v>109</v>
       </c>
@@ -19237,7 +19245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49">
       <c r="A112" s="16">
         <v>110</v>
       </c>
@@ -19383,7 +19391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:48" s="2" customFormat="1">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -19529,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:48" s="2" customFormat="1">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -19675,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:48" s="2" customFormat="1">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -19821,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:48" s="2" customFormat="1">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -19967,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:48" s="2" customFormat="1">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -20113,7 +20121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:48" s="2" customFormat="1">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -20259,7 +20267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:48" s="2" customFormat="1">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -20405,7 +20413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:48" s="2" customFormat="1">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -20551,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:48" s="2" customFormat="1">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -20697,7 +20705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:48" s="2" customFormat="1">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -20843,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:48" s="2" customFormat="1">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -20989,7 +20997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:48" s="2" customFormat="1">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -21135,7 +21143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:48" s="2" customFormat="1">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -21281,7 +21289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:48" s="2" customFormat="1">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -21427,7 +21435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:48" s="2" customFormat="1">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -21573,7 +21581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:48" s="2" customFormat="1">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -21719,7 +21727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" s="2" customFormat="1">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -21865,7 +21873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" s="2" customFormat="1">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -22011,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" s="2" customFormat="1">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -22157,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" s="2" customFormat="1">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -22303,7 +22311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" s="2" customFormat="1">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -22449,7 +22457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" s="2" customFormat="1">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -22595,7 +22603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" s="2" customFormat="1">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -22741,7 +22749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" s="2" customFormat="1">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -22887,7 +22895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" s="2" customFormat="1">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -23033,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" s="2" customFormat="1">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -23179,7 +23187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" s="2" customFormat="1">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -23325,7 +23333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" s="2" customFormat="1">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -23471,7 +23479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" s="2" customFormat="1">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -23617,7 +23625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" s="2" customFormat="1">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -23763,7 +23771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -23912,7 +23920,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -24061,7 +24069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49">
       <c r="A145" s="16">
         <v>143</v>
       </c>
@@ -24207,7 +24215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49">
       <c r="A146" s="16">
         <v>144</v>
       </c>
@@ -24353,7 +24361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49">
       <c r="A147" s="16">
         <v>145</v>
       </c>
@@ -24499,7 +24507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49">
       <c r="A148" s="16">
         <v>146</v>
       </c>
@@ -24645,7 +24653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" s="2" customFormat="1">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -24791,7 +24799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" s="2" customFormat="1">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -24937,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -25083,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -25229,7 +25237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -25375,7 +25383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -25521,7 +25529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -25667,7 +25675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -25813,7 +25821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -25959,7 +25967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -26105,7 +26113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -26254,7 +26262,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -26403,7 +26411,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -26552,7 +26560,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -26701,7 +26709,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" s="2" customFormat="1">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -26847,7 +26855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" s="2" customFormat="1">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -26993,7 +27001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" s="2" customFormat="1">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -27139,7 +27147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" s="2" customFormat="1">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -27285,7 +27293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" s="2" customFormat="1">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -27431,7 +27439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" s="2" customFormat="1">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -27577,7 +27585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" s="2" customFormat="1">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -27723,7 +27731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" s="2" customFormat="1">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -27869,7 +27877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" s="2" customFormat="1">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -28015,7 +28023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" s="2" customFormat="1">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -28161,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" s="2" customFormat="1">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -28307,7 +28315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:49">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -28456,7 +28464,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:49">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -28605,7 +28613,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="176" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:49">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -28751,7 +28759,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:49">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -28897,7 +28905,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:49">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -29043,7 +29051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:49">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -29189,7 +29197,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:49">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -29335,7 +29343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:49">
       <c r="A181" s="16">
         <v>179</v>
       </c>
@@ -29481,7 +29489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:49">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -29630,7 +29638,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="183" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:49" s="2" customFormat="1">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -29776,7 +29784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:49" s="2" customFormat="1">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -29922,7 +29930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:49" s="2" customFormat="1">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -30068,7 +30076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:49" s="2" customFormat="1">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -30214,7 +30222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:49" s="2" customFormat="1">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -30360,7 +30368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:49" s="2" customFormat="1">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -30506,7 +30514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:49" s="2" customFormat="1">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -30652,7 +30660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:49" s="2" customFormat="1">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -30798,7 +30806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:49" s="2" customFormat="1">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -30944,7 +30952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:49" s="2" customFormat="1">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -31090,7 +31098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:48">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -31236,7 +31244,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:48">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -31382,7 +31390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:48">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -31528,7 +31536,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:48">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -31674,7 +31682,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:48">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -31820,7 +31828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:48">
       <c r="A198" s="16">
         <v>196</v>
       </c>
@@ -31966,7 +31974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:48">
       <c r="A199" s="16">
         <v>197</v>
       </c>
@@ -32112,7 +32120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:48">
       <c r="A200" s="16">
         <v>198</v>
       </c>
@@ -32258,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:48">
       <c r="A201" s="16">
         <v>199</v>
       </c>
@@ -32404,7 +32412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:48">
       <c r="A202" s="16">
         <v>200</v>
       </c>
@@ -32550,7 +32558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:48">
       <c r="A203" s="16">
         <v>201</v>
       </c>
@@ -32696,7 +32704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:48">
       <c r="A204" s="16">
         <v>202</v>
       </c>
@@ -32842,7 +32850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:48">
       <c r="A205" s="16">
         <v>203</v>
       </c>
@@ -32988,7 +32996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:48">
       <c r="A206" s="16">
         <v>204</v>
       </c>
@@ -33134,7 +33142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:48">
       <c r="A207" s="16">
         <v>205</v>
       </c>
@@ -33280,7 +33288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:48" s="2" customFormat="1">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -33426,7 +33434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:48" s="2" customFormat="1">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -33572,7 +33580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:48" s="2" customFormat="1">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -33718,7 +33726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:48" s="2" customFormat="1">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -33864,7 +33872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:48" s="2" customFormat="1">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -34010,7 +34018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:48" s="2" customFormat="1">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -34156,7 +34164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:48" s="2" customFormat="1">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -34302,7 +34310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:48" s="2" customFormat="1">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -34448,7 +34456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:48" s="2" customFormat="1">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -34594,7 +34602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:48" s="2" customFormat="1">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -34740,7 +34748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:48" s="2" customFormat="1">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -34886,7 +34894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:48" s="2" customFormat="1">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -35032,7 +35040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:48" s="2" customFormat="1">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -35178,7 +35186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:48" s="2" customFormat="1">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -35324,7 +35332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:48" s="2" customFormat="1">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -35470,7 +35478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:48" s="2" customFormat="1">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -35616,7 +35624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:48" s="2" customFormat="1">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -35762,7 +35770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:49" s="2" customFormat="1">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -35908,7 +35916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:49" s="2" customFormat="1">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -36054,7 +36062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:49" s="2" customFormat="1">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -36200,7 +36208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:49">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -36349,7 +36357,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="229" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:49">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -36498,7 +36506,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:49" s="2" customFormat="1">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -36644,7 +36652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:49" s="2" customFormat="1">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -36790,7 +36798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:49" s="2" customFormat="1">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -36936,7 +36944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:49" s="2" customFormat="1">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -37082,7 +37090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:49" s="2" customFormat="1">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -37228,7 +37236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:49" s="2" customFormat="1">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -37374,7 +37382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:49" s="2" customFormat="1">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -37520,7 +37528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:49" s="2" customFormat="1">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -37666,7 +37674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:49" s="2" customFormat="1">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -37812,7 +37820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:49" s="2" customFormat="1">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -37958,7 +37966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:49" s="2" customFormat="1">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -38104,7 +38112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:48" s="2" customFormat="1">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -38250,7 +38258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:48" s="2" customFormat="1">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -38396,7 +38404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:48" s="2" customFormat="1">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -38542,7 +38550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:48" s="2" customFormat="1">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -38688,7 +38696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:48" s="2" customFormat="1">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -38834,7 +38842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:48" s="2" customFormat="1">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -38980,7 +38988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:48" s="2" customFormat="1">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -39126,7 +39134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:48" s="2" customFormat="1">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -39272,7 +39280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:48">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -39418,7 +39426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:48">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -39564,7 +39572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:48">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -39710,7 +39718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:48">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -39856,7 +39864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:48">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -40002,7 +40010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:48">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -40148,7 +40156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:48">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -40294,7 +40302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:48">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -40440,7 +40448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:48">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -40586,7 +40594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:48">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -40732,7 +40740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:48">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -40878,7 +40886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:48">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -41024,7 +41032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:48">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -41170,7 +41178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:48">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -41316,7 +41324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:48">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -41462,7 +41470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:48">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -41608,7 +41616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:48">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -41754,7 +41762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:48">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -41900,7 +41908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:48">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -42046,7 +42054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:48">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -42192,7 +42200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:48" s="17" customFormat="1">
       <c r="A269" s="16">
         <v>267</v>
       </c>
@@ -42338,7 +42346,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:48" s="17" customFormat="1">
       <c r="A270" s="16">
         <v>268</v>
       </c>
@@ -42484,7 +42492,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="271" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:48" s="17" customFormat="1">
       <c r="A271" s="16">
         <v>269</v>
       </c>
@@ -42630,7 +42638,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="272" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:48" s="17" customFormat="1">
       <c r="A272" s="16">
         <v>270</v>
       </c>
@@ -42776,7 +42784,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="273" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:48" s="17" customFormat="1">
       <c r="A273" s="16">
         <v>271</v>
       </c>
@@ -42805,7 +42813,7 @@
         <v>0</v>
       </c>
       <c r="J273" s="40">
-        <v>100000000000000</v>
+        <v>120000000000000</v>
       </c>
       <c r="K273" s="40">
         <v>0</v>
@@ -42922,7 +42930,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="274" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:48" s="17" customFormat="1">
       <c r="A274" s="16">
         <v>272</v>
       </c>
@@ -42951,7 +42959,7 @@
         <v>0</v>
       </c>
       <c r="J274" s="40">
-        <v>140000000000000</v>
+        <v>180000000000000</v>
       </c>
       <c r="K274" s="40">
         <v>0</v>
@@ -43068,7 +43076,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:48" s="17" customFormat="1">
       <c r="A275" s="16">
         <v>273</v>
       </c>
@@ -43097,7 +43105,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="40">
-        <v>180000000000000</v>
+        <v>240000000000000</v>
       </c>
       <c r="K275" s="40">
         <v>0</v>
@@ -43214,7 +43222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="276" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:48" s="17" customFormat="1">
       <c r="A276" s="16">
         <v>274</v>
       </c>
@@ -43243,7 +43251,7 @@
         <v>0</v>
       </c>
       <c r="J276" s="40">
-        <v>220000000000000</v>
+        <v>300000000000000</v>
       </c>
       <c r="K276" s="40">
         <v>0</v>
@@ -43360,7 +43368,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:48" s="17" customFormat="1">
       <c r="A277" s="16">
         <v>275</v>
       </c>
@@ -43389,7 +43397,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="40">
-        <v>260000000000000</v>
+        <v>360000000000000</v>
       </c>
       <c r="K277" s="40">
         <v>0</v>
@@ -43506,7 +43514,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="278" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:48" s="17" customFormat="1">
       <c r="A278" s="16">
         <v>276</v>
       </c>
@@ -43535,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="40">
-        <v>300000000000000</v>
+        <v>420000000000000</v>
       </c>
       <c r="K278" s="40">
         <v>0</v>
@@ -43652,7 +43660,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="279" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:48">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -43798,7 +43806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:48">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -43944,7 +43952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:48">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -44090,7 +44098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:48">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -44236,7 +44244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:48">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -44382,7 +44390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:48">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -44528,7 +44536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:48">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -44674,7 +44682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:48">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -44820,7 +44828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:48">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -44966,7 +44974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:48">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -45112,7 +45120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:48">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -45258,7 +45266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:48">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -45404,7 +45412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:48">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -45550,7 +45558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:48">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -45696,7 +45704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:48">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -45842,7 +45850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:48">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -45988,7 +45996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:48">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -46134,7 +46142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:48">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -46280,7 +46288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:48">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -46426,7 +46434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:48">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -46572,7 +46580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:48">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -46718,7 +46726,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:48">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -46864,7 +46872,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="301" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:48">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -47010,7 +47018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="302" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:48">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -47156,7 +47164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="303" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:48">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -47302,7 +47310,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:48">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -47448,7 +47456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:48">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -47594,7 +47602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:48">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -47740,7 +47748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:48">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -47886,7 +47894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:48">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -48032,7 +48040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:48">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -48178,7 +48186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:48">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -48324,7 +48332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:48">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -48470,7 +48478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:48">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -48616,7 +48624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:48">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -48762,7 +48770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:48">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -48908,7 +48916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:48">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -49054,7 +49062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:48">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -49200,7 +49208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:48">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -49346,7 +49354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:48">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -49492,7 +49500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:48">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -49638,7 +49646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:48">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -49784,7 +49792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:48">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -49930,7 +49938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:48">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -50076,7 +50084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:48">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -50222,7 +50230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:48">
       <c r="A324" s="1">
         <f t="shared" ref="A324:A343" si="0">ROW()-2</f>
         <v>322</v>
@@ -50369,7 +50377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:48">
       <c r="A325" s="1">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -50516,7 +50524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:48">
       <c r="A326" s="1">
         <f t="shared" si="0"/>
         <v>324</v>
@@ -50663,7 +50671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:48">
       <c r="A327" s="1">
         <f t="shared" si="0"/>
         <v>325</v>
@@ -50810,7 +50818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:48">
       <c r="A328" s="1">
         <f t="shared" si="0"/>
         <v>326</v>
@@ -50957,7 +50965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:48">
       <c r="A329" s="1">
         <f t="shared" si="0"/>
         <v>327</v>
@@ -51104,7 +51112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:48">
       <c r="A330" s="1">
         <f t="shared" si="0"/>
         <v>328</v>
@@ -51251,7 +51259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:48">
       <c r="A331" s="1">
         <f t="shared" si="0"/>
         <v>329</v>
@@ -51398,7 +51406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:48">
       <c r="A332" s="1">
         <f t="shared" si="0"/>
         <v>330</v>
@@ -51545,7 +51553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:48">
       <c r="A333" s="1">
         <f t="shared" si="0"/>
         <v>331</v>
@@ -51692,7 +51700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:48">
       <c r="A334" s="1">
         <f t="shared" si="0"/>
         <v>332</v>
@@ -51839,7 +51847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:48">
       <c r="A335" s="1">
         <f t="shared" si="0"/>
         <v>333</v>
@@ -51986,7 +51994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:48">
       <c r="A336" s="1">
         <f t="shared" si="0"/>
         <v>334</v>
@@ -52133,7 +52141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:49">
       <c r="A337" s="1">
         <f t="shared" si="0"/>
         <v>335</v>
@@ -52280,7 +52288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:49">
       <c r="A338" s="1">
         <f t="shared" si="0"/>
         <v>336</v>
@@ -52427,7 +52435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:49">
       <c r="A339" s="1">
         <f t="shared" si="0"/>
         <v>337</v>
@@ -52574,7 +52582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:49">
       <c r="A340" s="1">
         <f t="shared" si="0"/>
         <v>338</v>
@@ -52721,7 +52729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:49">
       <c r="A341" s="1">
         <f t="shared" si="0"/>
         <v>339</v>
@@ -52868,7 +52876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:49">
       <c r="A342" s="1">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -53015,7 +53023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:49">
       <c r="A343" s="1">
         <f t="shared" si="0"/>
         <v>341</v>
@@ -53162,7 +53170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:49">
       <c r="A344" s="1">
         <f>ROW()-2</f>
         <v>342</v>
@@ -53313,7 +53321,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="345" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:49">
       <c r="A345" s="1">
         <f>ROW()-2</f>
         <v>343</v>
@@ -53462,6 +53470,157 @@
       </c>
       <c r="AW345" t="s">
         <v>653</v>
+      </c>
+    </row>
+    <row r="346" spans="1:49">
+      <c r="A346" s="1">
+        <f>ROW()-2</f>
+        <v>344</v>
+      </c>
+      <c r="B346" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="C346" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="D346" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E346" s="18">
+        <v>89</v>
+      </c>
+      <c r="F346" s="18">
+        <v>1</v>
+      </c>
+      <c r="G346" s="18">
+        <v>0</v>
+      </c>
+      <c r="H346" s="18">
+        <v>2</v>
+      </c>
+      <c r="I346" s="18">
+        <v>0</v>
+      </c>
+      <c r="J346" s="18">
+        <v>35000000000000</v>
+      </c>
+      <c r="K346" s="18">
+        <v>0</v>
+      </c>
+      <c r="L346" s="18">
+        <v>100</v>
+      </c>
+      <c r="M346" s="18">
+        <v>9</v>
+      </c>
+      <c r="N346" s="18">
+        <v>2</v>
+      </c>
+      <c r="O346" s="18">
+        <v>100</v>
+      </c>
+      <c r="P346" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q346" s="17">
+        <v>4</v>
+      </c>
+      <c r="R346" s="17">
+        <v>10</v>
+      </c>
+      <c r="S346" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T346" s="17" t="str">
+        <f>B346</f>
+        <v>VisionSkill19</v>
+      </c>
+      <c r="U346" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V346" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W346" s="17">
+        <v>0</v>
+      </c>
+      <c r="X346" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y346" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI346" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ346" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK346" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL346" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM346" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN346" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO346" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP346" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ346" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR346" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS346" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT346" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU346" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV346" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW346" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -53480,7 +53639,7 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
@@ -53494,7 +53653,7 @@
     <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -53539,7 +53698,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -53583,7 +53742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -53627,7 +53786,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -53671,7 +53830,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -53715,7 +53874,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -53759,7 +53918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -53803,7 +53962,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -53847,7 +54006,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -53891,7 +54050,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -53935,7 +54094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -53979,7 +54138,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -54023,7 +54182,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -54067,7 +54226,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -54110,7 +54269,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -54123,7 +54282,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -54136,7 +54295,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:15">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -54149,7 +54308,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:15">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -54162,7 +54321,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:15">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -54175,7 +54334,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:15">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -54188,7 +54347,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:15">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -54201,7 +54360,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:15">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -54209,7 +54368,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:15">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -54217,7 +54376,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -54225,7 +54384,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -54233,7 +54392,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -54241,7 +54400,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -54249,7 +54408,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:15" s="2" customFormat="1">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -54281,7 +54440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:15" s="2" customFormat="1">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -54313,7 +54472,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:15" s="2" customFormat="1">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -54345,7 +54504,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:15" s="2" customFormat="1">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -54377,7 +54536,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:15">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -54409,7 +54568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:15">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -54441,7 +54600,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:15">
       <c r="F40">
         <v>0</v>
       </c>
@@ -54473,7 +54632,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:15">
       <c r="F41">
         <v>0</v>
       </c>
@@ -54505,7 +54664,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:15" s="2" customFormat="1">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -54537,7 +54696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:15" s="2" customFormat="1">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -54569,7 +54728,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:15" s="2" customFormat="1">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -54601,7 +54760,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:15" s="2" customFormat="1">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -54648,9 +54807,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="33">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -54685,7 +54844,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -54725,7 +54884,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -54765,7 +54924,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -54805,7 +54964,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -54845,7 +55004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -54885,7 +55044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -54925,7 +55084,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -54965,7 +55124,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -55005,7 +55164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -55045,7 +55204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -55085,7 +55244,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -55125,7 +55284,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -55176,13 +55335,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -55212,7 +55371,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -55242,7 +55401,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>450</v>
       </c>
@@ -55272,13 +55431,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -55296,7 +55455,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -55314,7 +55473,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -55332,7 +55491,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -55346,7 +55505,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -55360,7 +55519,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:10">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -55374,7 +55533,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:10">
       <c r="G19">
         <v>3</v>
       </c>
@@ -55388,7 +55547,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:10">
       <c r="G20">
         <v>7</v>
       </c>
@@ -55402,7 +55561,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:10">
       <c r="G21">
         <v>45</v>
       </c>
@@ -55430,7 +55589,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
@@ -55440,7 +55599,7 @@
     <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>245</v>
       </c>
@@ -55449,7 +55608,7 @@
       </c>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>246</v>
       </c>
@@ -55457,10 +55616,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -55480,7 +55639,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -55513,7 +55672,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -55548,7 +55707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
@@ -55583,7 +55742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -55618,7 +55777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>4</v>
       </c>
@@ -55653,7 +55812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>5</v>
       </c>
@@ -55688,7 +55847,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>6</v>
       </c>
@@ -55725,7 +55884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>7</v>
       </c>
@@ -55760,7 +55919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>8</v>
       </c>
@@ -55795,7 +55954,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>9</v>
       </c>
@@ -55830,7 +55989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>10</v>
       </c>
@@ -55865,7 +56024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>11</v>
       </c>
@@ -55900,7 +56059,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>12</v>
       </c>
@@ -55937,7 +56096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>13</v>
       </c>
@@ -55972,7 +56131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>14</v>
       </c>
@@ -56007,7 +56166,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>15</v>
       </c>
@@ -56042,7 +56201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>16</v>
       </c>
@@ -56077,7 +56236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="I22" s="42"/>
       <c r="J22">
         <v>18</v>
@@ -56089,7 +56248,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="I23" s="42">
         <v>4</v>
       </c>
@@ -56103,7 +56262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="I24" s="42"/>
       <c r="J24">
         <v>20</v>
@@ -56115,7 +56274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="I25" s="42"/>
       <c r="J25">
         <v>21</v>
@@ -56127,7 +56286,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="I26" s="42"/>
       <c r="J26">
         <v>22</v>
@@ -56139,7 +56298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="I27" s="42"/>
       <c r="J27">
         <v>23</v>
@@ -56151,7 +56310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="I28" s="42"/>
       <c r="J28">
         <v>24</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05238B6-CA6F-4EE4-B44F-D4C10067A627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFFAE9E-EC81-4FE8-916E-C8A020B04957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3944" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="707">
   <si>
     <t>id</t>
   </si>
@@ -2340,6 +2340,164 @@
   <si>
     <t>극락 - 천세왕후에게서 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRSkill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRSkill1</t>
+  </si>
+  <si>
+    <t>GRSkill2</t>
+  </si>
+  <si>
+    <t>GRSkill3</t>
+  </si>
+  <si>
+    <t>GRSkill4</t>
+  </si>
+  <si>
+    <t>도술 181단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 182단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 183단계</t>
+  </si>
+  <si>
+    <t>도술 184단계</t>
+  </si>
+  <si>
+    <t>도술 185단계</t>
+  </si>
+  <si>
+    <t>도술 186단계</t>
+  </si>
+  <si>
+    <t>도술 187단계</t>
+  </si>
+  <si>
+    <t>도술 188단계</t>
+  </si>
+  <si>
+    <t>도술 189단계</t>
+  </si>
+  <si>
+    <t>도술 190단계</t>
+  </si>
+  <si>
+    <t>도술 191단계</t>
+  </si>
+  <si>
+    <t>도술 192단계</t>
+  </si>
+  <si>
+    <t>도술 193단계</t>
+  </si>
+  <si>
+    <t>도술 194단계</t>
+  </si>
+  <si>
+    <t>도술 195단계</t>
+  </si>
+  <si>
+    <t>도술 196단계</t>
+  </si>
+  <si>
+    <t>도술 197단계</t>
+  </si>
+  <si>
+    <t>도술 198단계</t>
+  </si>
+  <si>
+    <t>도술 199단계</t>
+  </si>
+  <si>
+    <t>도술 200단계</t>
+  </si>
+  <si>
+    <t>도술 201단계</t>
+  </si>
+  <si>
+    <t>도술 202단계</t>
+  </si>
+  <si>
+    <t>도술 203단계</t>
+  </si>
+  <si>
+    <t>도술 204단계</t>
+  </si>
+  <si>
+    <t>도술 205단계</t>
+  </si>
+  <si>
+    <t>도술 206단계</t>
+  </si>
+  <si>
+    <t>도술 207단계</t>
+  </si>
+  <si>
+    <t>도술 208단계</t>
+  </si>
+  <si>
+    <t>도술 209단계</t>
+  </si>
+  <si>
+    <t>도술 210단계</t>
+  </si>
+  <si>
+    <t>도술 211단계</t>
+  </si>
+  <si>
+    <t>도술 212단계</t>
+  </si>
+  <si>
+    <t>도술 213단계</t>
+  </si>
+  <si>
+    <t>도술 214단계</t>
+  </si>
+  <si>
+    <t>도술 215단계</t>
+  </si>
+  <si>
+    <t>도술 216단계</t>
+  </si>
+  <si>
+    <t>도술 217단계</t>
+  </si>
+  <si>
+    <t>도술 218단계</t>
+  </si>
+  <si>
+    <t>도술 219단계</t>
+  </si>
+  <si>
+    <t>도술 220단계</t>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락검 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락검 2형</t>
+  </si>
+  <si>
+    <t>극락검 3형</t>
+  </si>
+  <si>
+    <t>극락검 4형</t>
+  </si>
+  <si>
+    <t>극락검 5형</t>
   </si>
 </sst>
 </file>
@@ -3026,12 +3184,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW346"/>
+  <dimension ref="A1:AW391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="J278" sqref="J278"/>
+      <selection pane="bottomLeft" activeCell="D345" sqref="D345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -53621,6 +53779,6626 @@
       </c>
       <c r="AW346" t="s">
         <v>655</v>
+      </c>
+    </row>
+    <row r="347" spans="1:49">
+      <c r="A347" s="1">
+        <f t="shared" ref="A347:A391" si="1">ROW()-2</f>
+        <v>345</v>
+      </c>
+      <c r="B347" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="C347" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E347" s="18">
+        <v>90</v>
+      </c>
+      <c r="F347" s="3">
+        <v>1</v>
+      </c>
+      <c r="G347" s="3">
+        <v>0</v>
+      </c>
+      <c r="H347" s="3">
+        <v>1</v>
+      </c>
+      <c r="I347" s="3">
+        <v>0</v>
+      </c>
+      <c r="J347" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="K347" s="3">
+        <v>300</v>
+      </c>
+      <c r="L347" s="3">
+        <v>100</v>
+      </c>
+      <c r="M347" s="3">
+        <v>9</v>
+      </c>
+      <c r="N347" s="3">
+        <v>2</v>
+      </c>
+      <c r="O347" s="4">
+        <v>25</v>
+      </c>
+      <c r="P347" s="19">
+        <v>34</v>
+      </c>
+      <c r="Q347" s="17">
+        <v>4</v>
+      </c>
+      <c r="R347" s="17">
+        <v>10</v>
+      </c>
+      <c r="S347" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T347" s="17" t="str">
+        <f>B347</f>
+        <v>GRSkill0</v>
+      </c>
+      <c r="U347" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V347" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="W347" s="17">
+        <v>0</v>
+      </c>
+      <c r="X347" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y347" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI347" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ347" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK347" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL347" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM347" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="AN347" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO347" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP347" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ347" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR347" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS347" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT347" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU347" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV347" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:49">
+      <c r="A348" s="1">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C348" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E348" s="18">
+        <v>91</v>
+      </c>
+      <c r="F348" s="3">
+        <v>1</v>
+      </c>
+      <c r="G348" s="3">
+        <v>0</v>
+      </c>
+      <c r="H348" s="3">
+        <v>1</v>
+      </c>
+      <c r="I348" s="3">
+        <v>0</v>
+      </c>
+      <c r="J348" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="K348" s="3">
+        <v>325</v>
+      </c>
+      <c r="L348" s="3">
+        <v>100</v>
+      </c>
+      <c r="M348" s="3">
+        <v>9</v>
+      </c>
+      <c r="N348" s="3">
+        <v>2</v>
+      </c>
+      <c r="O348" s="4">
+        <v>25</v>
+      </c>
+      <c r="P348" s="19">
+        <v>34</v>
+      </c>
+      <c r="Q348" s="17">
+        <v>4</v>
+      </c>
+      <c r="R348" s="17">
+        <v>10</v>
+      </c>
+      <c r="S348" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T348" s="17" t="str">
+        <f t="shared" ref="T348:T351" si="2">B348</f>
+        <v>GRSkill1</v>
+      </c>
+      <c r="U348" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V348" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="W348" s="17">
+        <v>0</v>
+      </c>
+      <c r="X348" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y348" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI348" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ348" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK348" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL348" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM348" s="38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN348" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO348" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP348" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ348" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR348" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS348" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT348" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU348" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV348" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:49">
+      <c r="A349" s="1">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="B349" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="C349" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E349" s="18">
+        <v>92</v>
+      </c>
+      <c r="F349" s="3">
+        <v>1</v>
+      </c>
+      <c r="G349" s="3">
+        <v>0</v>
+      </c>
+      <c r="H349" s="3">
+        <v>1</v>
+      </c>
+      <c r="I349" s="3">
+        <v>0</v>
+      </c>
+      <c r="J349" s="3">
+        <v>30000000000</v>
+      </c>
+      <c r="K349" s="3">
+        <v>350</v>
+      </c>
+      <c r="L349" s="3">
+        <v>100</v>
+      </c>
+      <c r="M349" s="3">
+        <v>9</v>
+      </c>
+      <c r="N349" s="3">
+        <v>2</v>
+      </c>
+      <c r="O349" s="4">
+        <v>25</v>
+      </c>
+      <c r="P349" s="19">
+        <v>34</v>
+      </c>
+      <c r="Q349" s="17">
+        <v>4</v>
+      </c>
+      <c r="R349" s="17">
+        <v>10</v>
+      </c>
+      <c r="S349" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T349" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSkill2</v>
+      </c>
+      <c r="U349" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V349" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="W349" s="17">
+        <v>0</v>
+      </c>
+      <c r="X349" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y349" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI349" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ349" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK349" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL349" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM349" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN349" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO349" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP349" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ349" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR349" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS349" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT349" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU349" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV349" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:49">
+      <c r="A350" s="1">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="B350" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="C350" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E350" s="18">
+        <v>93</v>
+      </c>
+      <c r="F350" s="3">
+        <v>1</v>
+      </c>
+      <c r="G350" s="3">
+        <v>0</v>
+      </c>
+      <c r="H350" s="3">
+        <v>1</v>
+      </c>
+      <c r="I350" s="3">
+        <v>0</v>
+      </c>
+      <c r="J350" s="3">
+        <v>40000000000</v>
+      </c>
+      <c r="K350" s="3">
+        <v>375</v>
+      </c>
+      <c r="L350" s="3">
+        <v>100</v>
+      </c>
+      <c r="M350" s="3">
+        <v>9</v>
+      </c>
+      <c r="N350" s="3">
+        <v>2</v>
+      </c>
+      <c r="O350" s="4">
+        <v>25</v>
+      </c>
+      <c r="P350" s="19">
+        <v>34</v>
+      </c>
+      <c r="Q350" s="17">
+        <v>4</v>
+      </c>
+      <c r="R350" s="17">
+        <v>10</v>
+      </c>
+      <c r="S350" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T350" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSkill3</v>
+      </c>
+      <c r="U350" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V350" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="W350" s="17">
+        <v>0</v>
+      </c>
+      <c r="X350" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y350" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI350" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ350" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK350" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL350" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM350" s="17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AN350" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO350" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP350" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ350" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR350" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS350" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT350" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU350" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV350" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:49">
+      <c r="A351" s="1">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="B351" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="C351" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E351" s="18">
+        <v>94</v>
+      </c>
+      <c r="F351" s="3">
+        <v>1</v>
+      </c>
+      <c r="G351" s="3">
+        <v>0</v>
+      </c>
+      <c r="H351" s="3">
+        <v>1</v>
+      </c>
+      <c r="I351" s="3">
+        <v>0</v>
+      </c>
+      <c r="J351" s="3">
+        <v>50000000000</v>
+      </c>
+      <c r="K351" s="3">
+        <v>400</v>
+      </c>
+      <c r="L351" s="3">
+        <v>100</v>
+      </c>
+      <c r="M351" s="3">
+        <v>9</v>
+      </c>
+      <c r="N351" s="3">
+        <v>2</v>
+      </c>
+      <c r="O351" s="4">
+        <v>25</v>
+      </c>
+      <c r="P351" s="19">
+        <v>34</v>
+      </c>
+      <c r="Q351" s="17">
+        <v>4</v>
+      </c>
+      <c r="R351" s="17">
+        <v>10</v>
+      </c>
+      <c r="S351" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T351" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSkill4</v>
+      </c>
+      <c r="U351" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V351" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="W351" s="17">
+        <v>0</v>
+      </c>
+      <c r="X351" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y351" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI351" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ351" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK351" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL351" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM351" s="17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AN351" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO351" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP351" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ351" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR351" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS351" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT351" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU351" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV351" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:49">
+      <c r="A352" s="1">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C352" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E352" s="36">
+        <v>36</v>
+      </c>
+      <c r="F352" s="3">
+        <v>1</v>
+      </c>
+      <c r="G352" s="3">
+        <v>0</v>
+      </c>
+      <c r="H352" s="3">
+        <v>5</v>
+      </c>
+      <c r="I352" s="3">
+        <v>0</v>
+      </c>
+      <c r="J352" s="37">
+        <v>1600000000000</v>
+      </c>
+      <c r="K352" s="3">
+        <v>0</v>
+      </c>
+      <c r="L352" s="3">
+        <v>500</v>
+      </c>
+      <c r="M352" s="3">
+        <v>1</v>
+      </c>
+      <c r="N352" s="3">
+        <v>2</v>
+      </c>
+      <c r="O352" s="4">
+        <v>100</v>
+      </c>
+      <c r="P352" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q352" s="2">
+        <v>4</v>
+      </c>
+      <c r="R352" s="2">
+        <v>10</v>
+      </c>
+      <c r="S352" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T352" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U352" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V352" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W352" s="2">
+        <v>0</v>
+      </c>
+      <c r="X352" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y352" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI352" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ352" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK352" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL352" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM352" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN352" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO352" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP352" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ352" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR352" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS352" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT352" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU352" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV352" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:48">
+      <c r="A353" s="1">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C353" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E353" s="36">
+        <v>36</v>
+      </c>
+      <c r="F353" s="3">
+        <v>1</v>
+      </c>
+      <c r="G353" s="3">
+        <v>0</v>
+      </c>
+      <c r="H353" s="3">
+        <v>5</v>
+      </c>
+      <c r="I353" s="3">
+        <v>0</v>
+      </c>
+      <c r="J353" s="37">
+        <v>1610000000000</v>
+      </c>
+      <c r="K353" s="3">
+        <v>0</v>
+      </c>
+      <c r="L353" s="3">
+        <v>500</v>
+      </c>
+      <c r="M353" s="3">
+        <v>1</v>
+      </c>
+      <c r="N353" s="3">
+        <v>2</v>
+      </c>
+      <c r="O353" s="4">
+        <v>100</v>
+      </c>
+      <c r="P353" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q353" s="2">
+        <v>4</v>
+      </c>
+      <c r="R353" s="2">
+        <v>10</v>
+      </c>
+      <c r="S353" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T353" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U353" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V353" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W353" s="2">
+        <v>0</v>
+      </c>
+      <c r="X353" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y353" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI353" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ353" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK353" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL353" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM353" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN353" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO353" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP353" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ353" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR353" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS353" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT353" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU353" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV353" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:48">
+      <c r="A354" s="1">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C354" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E354" s="36">
+        <v>36</v>
+      </c>
+      <c r="F354" s="3">
+        <v>1</v>
+      </c>
+      <c r="G354" s="3">
+        <v>0</v>
+      </c>
+      <c r="H354" s="3">
+        <v>5</v>
+      </c>
+      <c r="I354" s="3">
+        <v>0</v>
+      </c>
+      <c r="J354" s="37">
+        <v>1620000000000</v>
+      </c>
+      <c r="K354" s="3">
+        <v>0</v>
+      </c>
+      <c r="L354" s="3">
+        <v>500</v>
+      </c>
+      <c r="M354" s="3">
+        <v>1</v>
+      </c>
+      <c r="N354" s="3">
+        <v>2</v>
+      </c>
+      <c r="O354" s="4">
+        <v>100</v>
+      </c>
+      <c r="P354" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q354" s="2">
+        <v>4</v>
+      </c>
+      <c r="R354" s="2">
+        <v>10</v>
+      </c>
+      <c r="S354" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T354" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U354" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V354" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W354" s="2">
+        <v>0</v>
+      </c>
+      <c r="X354" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y354" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI354" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ354" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK354" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL354" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM354" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN354" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO354" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP354" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ354" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR354" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS354" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT354" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU354" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV354" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:48">
+      <c r="A355" s="1">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C355" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E355" s="36">
+        <v>36</v>
+      </c>
+      <c r="F355" s="3">
+        <v>1</v>
+      </c>
+      <c r="G355" s="3">
+        <v>0</v>
+      </c>
+      <c r="H355" s="3">
+        <v>5</v>
+      </c>
+      <c r="I355" s="3">
+        <v>0</v>
+      </c>
+      <c r="J355" s="37">
+        <v>1630000000000</v>
+      </c>
+      <c r="K355" s="3">
+        <v>0</v>
+      </c>
+      <c r="L355" s="3">
+        <v>500</v>
+      </c>
+      <c r="M355" s="3">
+        <v>1</v>
+      </c>
+      <c r="N355" s="3">
+        <v>2</v>
+      </c>
+      <c r="O355" s="4">
+        <v>100</v>
+      </c>
+      <c r="P355" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q355" s="2">
+        <v>4</v>
+      </c>
+      <c r="R355" s="2">
+        <v>10</v>
+      </c>
+      <c r="S355" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T355" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U355" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V355" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W355" s="2">
+        <v>0</v>
+      </c>
+      <c r="X355" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y355" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI355" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ355" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK355" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL355" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM355" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN355" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO355" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP355" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ355" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR355" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS355" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT355" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU355" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV355" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:48">
+      <c r="A356" s="1">
+        <f t="shared" si="1"/>
+        <v>354</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C356" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E356" s="36">
+        <v>36</v>
+      </c>
+      <c r="F356" s="3">
+        <v>1</v>
+      </c>
+      <c r="G356" s="3">
+        <v>0</v>
+      </c>
+      <c r="H356" s="3">
+        <v>5</v>
+      </c>
+      <c r="I356" s="3">
+        <v>0</v>
+      </c>
+      <c r="J356" s="37">
+        <v>1640000000000</v>
+      </c>
+      <c r="K356" s="3">
+        <v>0</v>
+      </c>
+      <c r="L356" s="3">
+        <v>500</v>
+      </c>
+      <c r="M356" s="3">
+        <v>1</v>
+      </c>
+      <c r="N356" s="3">
+        <v>2</v>
+      </c>
+      <c r="O356" s="4">
+        <v>100</v>
+      </c>
+      <c r="P356" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q356" s="2">
+        <v>4</v>
+      </c>
+      <c r="R356" s="2">
+        <v>10</v>
+      </c>
+      <c r="S356" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T356" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U356" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V356" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W356" s="2">
+        <v>0</v>
+      </c>
+      <c r="X356" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y356" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI356" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ356" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK356" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL356" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM356" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN356" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO356" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP356" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ356" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR356" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS356" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT356" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU356" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV356" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:48">
+      <c r="A357" s="1">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C357" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E357" s="36">
+        <v>36</v>
+      </c>
+      <c r="F357" s="3">
+        <v>1</v>
+      </c>
+      <c r="G357" s="3">
+        <v>0</v>
+      </c>
+      <c r="H357" s="3">
+        <v>5</v>
+      </c>
+      <c r="I357" s="3">
+        <v>0</v>
+      </c>
+      <c r="J357" s="37">
+        <v>1650000000000</v>
+      </c>
+      <c r="K357" s="3">
+        <v>0</v>
+      </c>
+      <c r="L357" s="3">
+        <v>500</v>
+      </c>
+      <c r="M357" s="3">
+        <v>1</v>
+      </c>
+      <c r="N357" s="3">
+        <v>2</v>
+      </c>
+      <c r="O357" s="4">
+        <v>100</v>
+      </c>
+      <c r="P357" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q357" s="2">
+        <v>4</v>
+      </c>
+      <c r="R357" s="2">
+        <v>10</v>
+      </c>
+      <c r="S357" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T357" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U357" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V357" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W357" s="2">
+        <v>0</v>
+      </c>
+      <c r="X357" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y357" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI357" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ357" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK357" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL357" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM357" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN357" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO357" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP357" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ357" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR357" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS357" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT357" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU357" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV357" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:48">
+      <c r="A358" s="1">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C358" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E358" s="36">
+        <v>36</v>
+      </c>
+      <c r="F358" s="3">
+        <v>1</v>
+      </c>
+      <c r="G358" s="3">
+        <v>0</v>
+      </c>
+      <c r="H358" s="3">
+        <v>5</v>
+      </c>
+      <c r="I358" s="3">
+        <v>0</v>
+      </c>
+      <c r="J358" s="37">
+        <v>1660000000000</v>
+      </c>
+      <c r="K358" s="3">
+        <v>0</v>
+      </c>
+      <c r="L358" s="3">
+        <v>500</v>
+      </c>
+      <c r="M358" s="3">
+        <v>1</v>
+      </c>
+      <c r="N358" s="3">
+        <v>2</v>
+      </c>
+      <c r="O358" s="4">
+        <v>100</v>
+      </c>
+      <c r="P358" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q358" s="2">
+        <v>4</v>
+      </c>
+      <c r="R358" s="2">
+        <v>10</v>
+      </c>
+      <c r="S358" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T358" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U358" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V358" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W358" s="2">
+        <v>0</v>
+      </c>
+      <c r="X358" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y358" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI358" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ358" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK358" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL358" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM358" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN358" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO358" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP358" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ358" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR358" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS358" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT358" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU358" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV358" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:48">
+      <c r="A359" s="1">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C359" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E359" s="36">
+        <v>36</v>
+      </c>
+      <c r="F359" s="3">
+        <v>1</v>
+      </c>
+      <c r="G359" s="3">
+        <v>0</v>
+      </c>
+      <c r="H359" s="3">
+        <v>5</v>
+      </c>
+      <c r="I359" s="3">
+        <v>0</v>
+      </c>
+      <c r="J359" s="37">
+        <v>1670000000000</v>
+      </c>
+      <c r="K359" s="3">
+        <v>0</v>
+      </c>
+      <c r="L359" s="3">
+        <v>500</v>
+      </c>
+      <c r="M359" s="3">
+        <v>1</v>
+      </c>
+      <c r="N359" s="3">
+        <v>2</v>
+      </c>
+      <c r="O359" s="4">
+        <v>100</v>
+      </c>
+      <c r="P359" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q359" s="2">
+        <v>4</v>
+      </c>
+      <c r="R359" s="2">
+        <v>10</v>
+      </c>
+      <c r="S359" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T359" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U359" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V359" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W359" s="2">
+        <v>0</v>
+      </c>
+      <c r="X359" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y359" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI359" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ359" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK359" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL359" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM359" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN359" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO359" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP359" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ359" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR359" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS359" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT359" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU359" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV359" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:48">
+      <c r="A360" s="1">
+        <f t="shared" si="1"/>
+        <v>358</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C360" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E360" s="36">
+        <v>36</v>
+      </c>
+      <c r="F360" s="3">
+        <v>1</v>
+      </c>
+      <c r="G360" s="3">
+        <v>0</v>
+      </c>
+      <c r="H360" s="3">
+        <v>5</v>
+      </c>
+      <c r="I360" s="3">
+        <v>0</v>
+      </c>
+      <c r="J360" s="37">
+        <v>1680000000000</v>
+      </c>
+      <c r="K360" s="3">
+        <v>0</v>
+      </c>
+      <c r="L360" s="3">
+        <v>500</v>
+      </c>
+      <c r="M360" s="3">
+        <v>1</v>
+      </c>
+      <c r="N360" s="3">
+        <v>2</v>
+      </c>
+      <c r="O360" s="4">
+        <v>100</v>
+      </c>
+      <c r="P360" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q360" s="2">
+        <v>4</v>
+      </c>
+      <c r="R360" s="2">
+        <v>10</v>
+      </c>
+      <c r="S360" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T360" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U360" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V360" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W360" s="2">
+        <v>0</v>
+      </c>
+      <c r="X360" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y360" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI360" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ360" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK360" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL360" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM360" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN360" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO360" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP360" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ360" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR360" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS360" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT360" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU360" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV360" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:48">
+      <c r="A361" s="1">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C361" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E361" s="36">
+        <v>36</v>
+      </c>
+      <c r="F361" s="3">
+        <v>1</v>
+      </c>
+      <c r="G361" s="3">
+        <v>0</v>
+      </c>
+      <c r="H361" s="3">
+        <v>5</v>
+      </c>
+      <c r="I361" s="3">
+        <v>0</v>
+      </c>
+      <c r="J361" s="37">
+        <v>1690000000000</v>
+      </c>
+      <c r="K361" s="3">
+        <v>0</v>
+      </c>
+      <c r="L361" s="3">
+        <v>500</v>
+      </c>
+      <c r="M361" s="3">
+        <v>1</v>
+      </c>
+      <c r="N361" s="3">
+        <v>2</v>
+      </c>
+      <c r="O361" s="4">
+        <v>100</v>
+      </c>
+      <c r="P361" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q361" s="2">
+        <v>4</v>
+      </c>
+      <c r="R361" s="2">
+        <v>10</v>
+      </c>
+      <c r="S361" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T361" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U361" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V361" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W361" s="2">
+        <v>0</v>
+      </c>
+      <c r="X361" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y361" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI361" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ361" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK361" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL361" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM361" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN361" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO361" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP361" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ361" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR361" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS361" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT361" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU361" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV361" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:48">
+      <c r="A362" s="1">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C362" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E362" s="36">
+        <v>36</v>
+      </c>
+      <c r="F362" s="3">
+        <v>1</v>
+      </c>
+      <c r="G362" s="3">
+        <v>0</v>
+      </c>
+      <c r="H362" s="3">
+        <v>5</v>
+      </c>
+      <c r="I362" s="3">
+        <v>0</v>
+      </c>
+      <c r="J362" s="37">
+        <v>1700000000000</v>
+      </c>
+      <c r="K362" s="3">
+        <v>0</v>
+      </c>
+      <c r="L362" s="3">
+        <v>500</v>
+      </c>
+      <c r="M362" s="3">
+        <v>1</v>
+      </c>
+      <c r="N362" s="3">
+        <v>2</v>
+      </c>
+      <c r="O362" s="4">
+        <v>100</v>
+      </c>
+      <c r="P362" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q362" s="2">
+        <v>4</v>
+      </c>
+      <c r="R362" s="2">
+        <v>10</v>
+      </c>
+      <c r="S362" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T362" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U362" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V362" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W362" s="2">
+        <v>0</v>
+      </c>
+      <c r="X362" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y362" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI362" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ362" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK362" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL362" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM362" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN362" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO362" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP362" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ362" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR362" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS362" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT362" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU362" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV362" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:48">
+      <c r="A363" s="1">
+        <f t="shared" si="1"/>
+        <v>361</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C363" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E363" s="36">
+        <v>36</v>
+      </c>
+      <c r="F363" s="3">
+        <v>1</v>
+      </c>
+      <c r="G363" s="3">
+        <v>0</v>
+      </c>
+      <c r="H363" s="3">
+        <v>5</v>
+      </c>
+      <c r="I363" s="3">
+        <v>0</v>
+      </c>
+      <c r="J363" s="37">
+        <v>1710000000000</v>
+      </c>
+      <c r="K363" s="3">
+        <v>0</v>
+      </c>
+      <c r="L363" s="3">
+        <v>500</v>
+      </c>
+      <c r="M363" s="3">
+        <v>1</v>
+      </c>
+      <c r="N363" s="3">
+        <v>2</v>
+      </c>
+      <c r="O363" s="4">
+        <v>100</v>
+      </c>
+      <c r="P363" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q363" s="2">
+        <v>4</v>
+      </c>
+      <c r="R363" s="2">
+        <v>10</v>
+      </c>
+      <c r="S363" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T363" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U363" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V363" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W363" s="2">
+        <v>0</v>
+      </c>
+      <c r="X363" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y363" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI363" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ363" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK363" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL363" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM363" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN363" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO363" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP363" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ363" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR363" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS363" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT363" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU363" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV363" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:48">
+      <c r="A364" s="1">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C364" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E364" s="36">
+        <v>36</v>
+      </c>
+      <c r="F364" s="3">
+        <v>1</v>
+      </c>
+      <c r="G364" s="3">
+        <v>0</v>
+      </c>
+      <c r="H364" s="3">
+        <v>5</v>
+      </c>
+      <c r="I364" s="3">
+        <v>0</v>
+      </c>
+      <c r="J364" s="37">
+        <v>1720000000000</v>
+      </c>
+      <c r="K364" s="3">
+        <v>0</v>
+      </c>
+      <c r="L364" s="3">
+        <v>500</v>
+      </c>
+      <c r="M364" s="3">
+        <v>1</v>
+      </c>
+      <c r="N364" s="3">
+        <v>2</v>
+      </c>
+      <c r="O364" s="4">
+        <v>100</v>
+      </c>
+      <c r="P364" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q364" s="2">
+        <v>4</v>
+      </c>
+      <c r="R364" s="2">
+        <v>10</v>
+      </c>
+      <c r="S364" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T364" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U364" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V364" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W364" s="2">
+        <v>0</v>
+      </c>
+      <c r="X364" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y364" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI364" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ364" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK364" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL364" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM364" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN364" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO364" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP364" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ364" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR364" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS364" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT364" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU364" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV364" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:48">
+      <c r="A365" s="1">
+        <f t="shared" si="1"/>
+        <v>363</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C365" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E365" s="36">
+        <v>36</v>
+      </c>
+      <c r="F365" s="3">
+        <v>1</v>
+      </c>
+      <c r="G365" s="3">
+        <v>0</v>
+      </c>
+      <c r="H365" s="3">
+        <v>5</v>
+      </c>
+      <c r="I365" s="3">
+        <v>0</v>
+      </c>
+      <c r="J365" s="37">
+        <v>1730000000000</v>
+      </c>
+      <c r="K365" s="3">
+        <v>0</v>
+      </c>
+      <c r="L365" s="3">
+        <v>500</v>
+      </c>
+      <c r="M365" s="3">
+        <v>1</v>
+      </c>
+      <c r="N365" s="3">
+        <v>2</v>
+      </c>
+      <c r="O365" s="4">
+        <v>100</v>
+      </c>
+      <c r="P365" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q365" s="2">
+        <v>4</v>
+      </c>
+      <c r="R365" s="2">
+        <v>10</v>
+      </c>
+      <c r="S365" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T365" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U365" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V365" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W365" s="2">
+        <v>0</v>
+      </c>
+      <c r="X365" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y365" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI365" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ365" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK365" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL365" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM365" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN365" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO365" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP365" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ365" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR365" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS365" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT365" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU365" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV365" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:48">
+      <c r="A366" s="1">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C366" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E366" s="36">
+        <v>36</v>
+      </c>
+      <c r="F366" s="3">
+        <v>1</v>
+      </c>
+      <c r="G366" s="3">
+        <v>0</v>
+      </c>
+      <c r="H366" s="3">
+        <v>5</v>
+      </c>
+      <c r="I366" s="3">
+        <v>0</v>
+      </c>
+      <c r="J366" s="37">
+        <v>1740000000000</v>
+      </c>
+      <c r="K366" s="3">
+        <v>0</v>
+      </c>
+      <c r="L366" s="3">
+        <v>500</v>
+      </c>
+      <c r="M366" s="3">
+        <v>1</v>
+      </c>
+      <c r="N366" s="3">
+        <v>2</v>
+      </c>
+      <c r="O366" s="4">
+        <v>100</v>
+      </c>
+      <c r="P366" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q366" s="2">
+        <v>4</v>
+      </c>
+      <c r="R366" s="2">
+        <v>10</v>
+      </c>
+      <c r="S366" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T366" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U366" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V366" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W366" s="2">
+        <v>0</v>
+      </c>
+      <c r="X366" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y366" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI366" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ366" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK366" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL366" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM366" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN366" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO366" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP366" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ366" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR366" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS366" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT366" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU366" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV366" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:48">
+      <c r="A367" s="1">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C367" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E367" s="36">
+        <v>36</v>
+      </c>
+      <c r="F367" s="3">
+        <v>1</v>
+      </c>
+      <c r="G367" s="3">
+        <v>0</v>
+      </c>
+      <c r="H367" s="3">
+        <v>5</v>
+      </c>
+      <c r="I367" s="3">
+        <v>0</v>
+      </c>
+      <c r="J367" s="37">
+        <v>1750000000000</v>
+      </c>
+      <c r="K367" s="3">
+        <v>0</v>
+      </c>
+      <c r="L367" s="3">
+        <v>500</v>
+      </c>
+      <c r="M367" s="3">
+        <v>1</v>
+      </c>
+      <c r="N367" s="3">
+        <v>2</v>
+      </c>
+      <c r="O367" s="4">
+        <v>100</v>
+      </c>
+      <c r="P367" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q367" s="2">
+        <v>4</v>
+      </c>
+      <c r="R367" s="2">
+        <v>10</v>
+      </c>
+      <c r="S367" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T367" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U367" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V367" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W367" s="2">
+        <v>0</v>
+      </c>
+      <c r="X367" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y367" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI367" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ367" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK367" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL367" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM367" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN367" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO367" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP367" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ367" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR367" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS367" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT367" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU367" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV367" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:48">
+      <c r="A368" s="1">
+        <f t="shared" si="1"/>
+        <v>366</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C368" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E368" s="36">
+        <v>36</v>
+      </c>
+      <c r="F368" s="3">
+        <v>1</v>
+      </c>
+      <c r="G368" s="3">
+        <v>0</v>
+      </c>
+      <c r="H368" s="3">
+        <v>5</v>
+      </c>
+      <c r="I368" s="3">
+        <v>0</v>
+      </c>
+      <c r="J368" s="37">
+        <v>1760000000000</v>
+      </c>
+      <c r="K368" s="3">
+        <v>0</v>
+      </c>
+      <c r="L368" s="3">
+        <v>500</v>
+      </c>
+      <c r="M368" s="3">
+        <v>1</v>
+      </c>
+      <c r="N368" s="3">
+        <v>2</v>
+      </c>
+      <c r="O368" s="4">
+        <v>100</v>
+      </c>
+      <c r="P368" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q368" s="2">
+        <v>4</v>
+      </c>
+      <c r="R368" s="2">
+        <v>10</v>
+      </c>
+      <c r="S368" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T368" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U368" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V368" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W368" s="2">
+        <v>0</v>
+      </c>
+      <c r="X368" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y368" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI368" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ368" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK368" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL368" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM368" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN368" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO368" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP368" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ368" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR368" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS368" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT368" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU368" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV368" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:48">
+      <c r="A369" s="1">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C369" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E369" s="36">
+        <v>36</v>
+      </c>
+      <c r="F369" s="3">
+        <v>1</v>
+      </c>
+      <c r="G369" s="3">
+        <v>0</v>
+      </c>
+      <c r="H369" s="3">
+        <v>5</v>
+      </c>
+      <c r="I369" s="3">
+        <v>0</v>
+      </c>
+      <c r="J369" s="37">
+        <v>1770000000000</v>
+      </c>
+      <c r="K369" s="3">
+        <v>0</v>
+      </c>
+      <c r="L369" s="3">
+        <v>500</v>
+      </c>
+      <c r="M369" s="3">
+        <v>1</v>
+      </c>
+      <c r="N369" s="3">
+        <v>2</v>
+      </c>
+      <c r="O369" s="4">
+        <v>100</v>
+      </c>
+      <c r="P369" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q369" s="2">
+        <v>4</v>
+      </c>
+      <c r="R369" s="2">
+        <v>10</v>
+      </c>
+      <c r="S369" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T369" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U369" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V369" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W369" s="2">
+        <v>0</v>
+      </c>
+      <c r="X369" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y369" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI369" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ369" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK369" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL369" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM369" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN369" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO369" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP369" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ369" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR369" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS369" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT369" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU369" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV369" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:48">
+      <c r="A370" s="1">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C370" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E370" s="36">
+        <v>36</v>
+      </c>
+      <c r="F370" s="3">
+        <v>1</v>
+      </c>
+      <c r="G370" s="3">
+        <v>0</v>
+      </c>
+      <c r="H370" s="3">
+        <v>5</v>
+      </c>
+      <c r="I370" s="3">
+        <v>0</v>
+      </c>
+      <c r="J370" s="37">
+        <v>1780000000000</v>
+      </c>
+      <c r="K370" s="3">
+        <v>0</v>
+      </c>
+      <c r="L370" s="3">
+        <v>500</v>
+      </c>
+      <c r="M370" s="3">
+        <v>1</v>
+      </c>
+      <c r="N370" s="3">
+        <v>2</v>
+      </c>
+      <c r="O370" s="4">
+        <v>100</v>
+      </c>
+      <c r="P370" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q370" s="2">
+        <v>4</v>
+      </c>
+      <c r="R370" s="2">
+        <v>10</v>
+      </c>
+      <c r="S370" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T370" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U370" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V370" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W370" s="2">
+        <v>0</v>
+      </c>
+      <c r="X370" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y370" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI370" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ370" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK370" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL370" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM370" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN370" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO370" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP370" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ370" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR370" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS370" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT370" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU370" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV370" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:48">
+      <c r="A371" s="1">
+        <f t="shared" si="1"/>
+        <v>369</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C371" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E371" s="36">
+        <v>36</v>
+      </c>
+      <c r="F371" s="3">
+        <v>1</v>
+      </c>
+      <c r="G371" s="3">
+        <v>0</v>
+      </c>
+      <c r="H371" s="3">
+        <v>5</v>
+      </c>
+      <c r="I371" s="3">
+        <v>0</v>
+      </c>
+      <c r="J371" s="37">
+        <v>1790000000000</v>
+      </c>
+      <c r="K371" s="3">
+        <v>0</v>
+      </c>
+      <c r="L371" s="3">
+        <v>500</v>
+      </c>
+      <c r="M371" s="3">
+        <v>1</v>
+      </c>
+      <c r="N371" s="3">
+        <v>2</v>
+      </c>
+      <c r="O371" s="4">
+        <v>100</v>
+      </c>
+      <c r="P371" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q371" s="2">
+        <v>4</v>
+      </c>
+      <c r="R371" s="2">
+        <v>10</v>
+      </c>
+      <c r="S371" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T371" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U371" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V371" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W371" s="2">
+        <v>0</v>
+      </c>
+      <c r="X371" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y371" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI371" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ371" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK371" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL371" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM371" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN371" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO371" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP371" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ371" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR371" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS371" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT371" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU371" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV371" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:48">
+      <c r="A372" s="1">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C372" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E372" s="36">
+        <v>36</v>
+      </c>
+      <c r="F372" s="3">
+        <v>1</v>
+      </c>
+      <c r="G372" s="3">
+        <v>0</v>
+      </c>
+      <c r="H372" s="3">
+        <v>5</v>
+      </c>
+      <c r="I372" s="3">
+        <v>0</v>
+      </c>
+      <c r="J372" s="37">
+        <v>1800000000000</v>
+      </c>
+      <c r="K372" s="3">
+        <v>0</v>
+      </c>
+      <c r="L372" s="3">
+        <v>500</v>
+      </c>
+      <c r="M372" s="3">
+        <v>1</v>
+      </c>
+      <c r="N372" s="3">
+        <v>2</v>
+      </c>
+      <c r="O372" s="4">
+        <v>100</v>
+      </c>
+      <c r="P372" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q372" s="2">
+        <v>4</v>
+      </c>
+      <c r="R372" s="2">
+        <v>10</v>
+      </c>
+      <c r="S372" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T372" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U372" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V372" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W372" s="2">
+        <v>0</v>
+      </c>
+      <c r="X372" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y372" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI372" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ372" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK372" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL372" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM372" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN372" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO372" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP372" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ372" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR372" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS372" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT372" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU372" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV372" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:48">
+      <c r="A373" s="1">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C373" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E373" s="36">
+        <v>36</v>
+      </c>
+      <c r="F373" s="3">
+        <v>1</v>
+      </c>
+      <c r="G373" s="3">
+        <v>0</v>
+      </c>
+      <c r="H373" s="3">
+        <v>5</v>
+      </c>
+      <c r="I373" s="3">
+        <v>0</v>
+      </c>
+      <c r="J373" s="37">
+        <v>1810000000000</v>
+      </c>
+      <c r="K373" s="3">
+        <v>0</v>
+      </c>
+      <c r="L373" s="3">
+        <v>500</v>
+      </c>
+      <c r="M373" s="3">
+        <v>1</v>
+      </c>
+      <c r="N373" s="3">
+        <v>2</v>
+      </c>
+      <c r="O373" s="4">
+        <v>100</v>
+      </c>
+      <c r="P373" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q373" s="2">
+        <v>4</v>
+      </c>
+      <c r="R373" s="2">
+        <v>10</v>
+      </c>
+      <c r="S373" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T373" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U373" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V373" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W373" s="2">
+        <v>0</v>
+      </c>
+      <c r="X373" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y373" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI373" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ373" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK373" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL373" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM373" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN373" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO373" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP373" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ373" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR373" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS373" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT373" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU373" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV373" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:48">
+      <c r="A374" s="1">
+        <f t="shared" si="1"/>
+        <v>372</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C374" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E374" s="36">
+        <v>36</v>
+      </c>
+      <c r="F374" s="3">
+        <v>1</v>
+      </c>
+      <c r="G374" s="3">
+        <v>0</v>
+      </c>
+      <c r="H374" s="3">
+        <v>5</v>
+      </c>
+      <c r="I374" s="3">
+        <v>0</v>
+      </c>
+      <c r="J374" s="37">
+        <v>1820000000000</v>
+      </c>
+      <c r="K374" s="3">
+        <v>0</v>
+      </c>
+      <c r="L374" s="3">
+        <v>500</v>
+      </c>
+      <c r="M374" s="3">
+        <v>1</v>
+      </c>
+      <c r="N374" s="3">
+        <v>2</v>
+      </c>
+      <c r="O374" s="4">
+        <v>100</v>
+      </c>
+      <c r="P374" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q374" s="2">
+        <v>4</v>
+      </c>
+      <c r="R374" s="2">
+        <v>10</v>
+      </c>
+      <c r="S374" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T374" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U374" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V374" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W374" s="2">
+        <v>0</v>
+      </c>
+      <c r="X374" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y374" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI374" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ374" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK374" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL374" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM374" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN374" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO374" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP374" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ374" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR374" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS374" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT374" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU374" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV374" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:48">
+      <c r="A375" s="1">
+        <f t="shared" si="1"/>
+        <v>373</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C375" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E375" s="36">
+        <v>36</v>
+      </c>
+      <c r="F375" s="3">
+        <v>1</v>
+      </c>
+      <c r="G375" s="3">
+        <v>0</v>
+      </c>
+      <c r="H375" s="3">
+        <v>5</v>
+      </c>
+      <c r="I375" s="3">
+        <v>0</v>
+      </c>
+      <c r="J375" s="37">
+        <v>1830000000000</v>
+      </c>
+      <c r="K375" s="3">
+        <v>0</v>
+      </c>
+      <c r="L375" s="3">
+        <v>500</v>
+      </c>
+      <c r="M375" s="3">
+        <v>1</v>
+      </c>
+      <c r="N375" s="3">
+        <v>2</v>
+      </c>
+      <c r="O375" s="4">
+        <v>100</v>
+      </c>
+      <c r="P375" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q375" s="2">
+        <v>4</v>
+      </c>
+      <c r="R375" s="2">
+        <v>10</v>
+      </c>
+      <c r="S375" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T375" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U375" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V375" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W375" s="2">
+        <v>0</v>
+      </c>
+      <c r="X375" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y375" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI375" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ375" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK375" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL375" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM375" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN375" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO375" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP375" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ375" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR375" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS375" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT375" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU375" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV375" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:48">
+      <c r="A376" s="1">
+        <f t="shared" si="1"/>
+        <v>374</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C376" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E376" s="36">
+        <v>36</v>
+      </c>
+      <c r="F376" s="3">
+        <v>1</v>
+      </c>
+      <c r="G376" s="3">
+        <v>0</v>
+      </c>
+      <c r="H376" s="3">
+        <v>5</v>
+      </c>
+      <c r="I376" s="3">
+        <v>0</v>
+      </c>
+      <c r="J376" s="37">
+        <v>1840000000000</v>
+      </c>
+      <c r="K376" s="3">
+        <v>0</v>
+      </c>
+      <c r="L376" s="3">
+        <v>500</v>
+      </c>
+      <c r="M376" s="3">
+        <v>1</v>
+      </c>
+      <c r="N376" s="3">
+        <v>2</v>
+      </c>
+      <c r="O376" s="4">
+        <v>100</v>
+      </c>
+      <c r="P376" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q376" s="2">
+        <v>4</v>
+      </c>
+      <c r="R376" s="2">
+        <v>10</v>
+      </c>
+      <c r="S376" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T376" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U376" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V376" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W376" s="2">
+        <v>0</v>
+      </c>
+      <c r="X376" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y376" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI376" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ376" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK376" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL376" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM376" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN376" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO376" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP376" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ376" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR376" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS376" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT376" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU376" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV376" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:48">
+      <c r="A377" s="1">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C377" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E377" s="36">
+        <v>36</v>
+      </c>
+      <c r="F377" s="3">
+        <v>1</v>
+      </c>
+      <c r="G377" s="3">
+        <v>0</v>
+      </c>
+      <c r="H377" s="3">
+        <v>5</v>
+      </c>
+      <c r="I377" s="3">
+        <v>0</v>
+      </c>
+      <c r="J377" s="37">
+        <v>1850000000000</v>
+      </c>
+      <c r="K377" s="3">
+        <v>0</v>
+      </c>
+      <c r="L377" s="3">
+        <v>500</v>
+      </c>
+      <c r="M377" s="3">
+        <v>1</v>
+      </c>
+      <c r="N377" s="3">
+        <v>2</v>
+      </c>
+      <c r="O377" s="4">
+        <v>100</v>
+      </c>
+      <c r="P377" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q377" s="2">
+        <v>4</v>
+      </c>
+      <c r="R377" s="2">
+        <v>10</v>
+      </c>
+      <c r="S377" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T377" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U377" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V377" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W377" s="2">
+        <v>0</v>
+      </c>
+      <c r="X377" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y377" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI377" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ377" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK377" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL377" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM377" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN377" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO377" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP377" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ377" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR377" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS377" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT377" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU377" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV377" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:48">
+      <c r="A378" s="1">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C378" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E378" s="36">
+        <v>36</v>
+      </c>
+      <c r="F378" s="3">
+        <v>1</v>
+      </c>
+      <c r="G378" s="3">
+        <v>0</v>
+      </c>
+      <c r="H378" s="3">
+        <v>5</v>
+      </c>
+      <c r="I378" s="3">
+        <v>0</v>
+      </c>
+      <c r="J378" s="37">
+        <v>1860000000000</v>
+      </c>
+      <c r="K378" s="3">
+        <v>0</v>
+      </c>
+      <c r="L378" s="3">
+        <v>500</v>
+      </c>
+      <c r="M378" s="3">
+        <v>1</v>
+      </c>
+      <c r="N378" s="3">
+        <v>2</v>
+      </c>
+      <c r="O378" s="4">
+        <v>100</v>
+      </c>
+      <c r="P378" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q378" s="2">
+        <v>4</v>
+      </c>
+      <c r="R378" s="2">
+        <v>10</v>
+      </c>
+      <c r="S378" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T378" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U378" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V378" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W378" s="2">
+        <v>0</v>
+      </c>
+      <c r="X378" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y378" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI378" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ378" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK378" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL378" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM378" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN378" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO378" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP378" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ378" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR378" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS378" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT378" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU378" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV378" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:48">
+      <c r="A379" s="1">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C379" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="E379" s="36">
+        <v>36</v>
+      </c>
+      <c r="F379" s="3">
+        <v>1</v>
+      </c>
+      <c r="G379" s="3">
+        <v>0</v>
+      </c>
+      <c r="H379" s="3">
+        <v>5</v>
+      </c>
+      <c r="I379" s="3">
+        <v>0</v>
+      </c>
+      <c r="J379" s="37">
+        <v>1870000000000</v>
+      </c>
+      <c r="K379" s="3">
+        <v>0</v>
+      </c>
+      <c r="L379" s="3">
+        <v>500</v>
+      </c>
+      <c r="M379" s="3">
+        <v>1</v>
+      </c>
+      <c r="N379" s="3">
+        <v>2</v>
+      </c>
+      <c r="O379" s="4">
+        <v>100</v>
+      </c>
+      <c r="P379" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q379" s="2">
+        <v>4</v>
+      </c>
+      <c r="R379" s="2">
+        <v>10</v>
+      </c>
+      <c r="S379" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T379" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U379" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V379" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W379" s="2">
+        <v>0</v>
+      </c>
+      <c r="X379" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y379" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI379" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ379" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK379" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL379" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM379" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN379" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO379" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP379" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ379" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR379" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS379" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT379" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU379" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV379" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:48">
+      <c r="A380" s="1">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C380" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="E380" s="36">
+        <v>36</v>
+      </c>
+      <c r="F380" s="3">
+        <v>1</v>
+      </c>
+      <c r="G380" s="3">
+        <v>0</v>
+      </c>
+      <c r="H380" s="3">
+        <v>5</v>
+      </c>
+      <c r="I380" s="3">
+        <v>0</v>
+      </c>
+      <c r="J380" s="37">
+        <v>1880000000000</v>
+      </c>
+      <c r="K380" s="3">
+        <v>0</v>
+      </c>
+      <c r="L380" s="3">
+        <v>500</v>
+      </c>
+      <c r="M380" s="3">
+        <v>1</v>
+      </c>
+      <c r="N380" s="3">
+        <v>2</v>
+      </c>
+      <c r="O380" s="4">
+        <v>100</v>
+      </c>
+      <c r="P380" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q380" s="2">
+        <v>4</v>
+      </c>
+      <c r="R380" s="2">
+        <v>10</v>
+      </c>
+      <c r="S380" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T380" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U380" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V380" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W380" s="2">
+        <v>0</v>
+      </c>
+      <c r="X380" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y380" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI380" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ380" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK380" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL380" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM380" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN380" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO380" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP380" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ380" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR380" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS380" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT380" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU380" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV380" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:48">
+      <c r="A381" s="1">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C381" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E381" s="36">
+        <v>36</v>
+      </c>
+      <c r="F381" s="3">
+        <v>1</v>
+      </c>
+      <c r="G381" s="3">
+        <v>0</v>
+      </c>
+      <c r="H381" s="3">
+        <v>5</v>
+      </c>
+      <c r="I381" s="3">
+        <v>0</v>
+      </c>
+      <c r="J381" s="37">
+        <v>1890000000000</v>
+      </c>
+      <c r="K381" s="3">
+        <v>0</v>
+      </c>
+      <c r="L381" s="3">
+        <v>500</v>
+      </c>
+      <c r="M381" s="3">
+        <v>1</v>
+      </c>
+      <c r="N381" s="3">
+        <v>2</v>
+      </c>
+      <c r="O381" s="4">
+        <v>100</v>
+      </c>
+      <c r="P381" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q381" s="2">
+        <v>4</v>
+      </c>
+      <c r="R381" s="2">
+        <v>10</v>
+      </c>
+      <c r="S381" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T381" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U381" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V381" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W381" s="2">
+        <v>0</v>
+      </c>
+      <c r="X381" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y381" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI381" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ381" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK381" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL381" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM381" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN381" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO381" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP381" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ381" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR381" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS381" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT381" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU381" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV381" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:48">
+      <c r="A382" s="1">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C382" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E382" s="36">
+        <v>36</v>
+      </c>
+      <c r="F382" s="3">
+        <v>1</v>
+      </c>
+      <c r="G382" s="3">
+        <v>0</v>
+      </c>
+      <c r="H382" s="3">
+        <v>5</v>
+      </c>
+      <c r="I382" s="3">
+        <v>0</v>
+      </c>
+      <c r="J382" s="37">
+        <v>1900000000000</v>
+      </c>
+      <c r="K382" s="3">
+        <v>0</v>
+      </c>
+      <c r="L382" s="3">
+        <v>500</v>
+      </c>
+      <c r="M382" s="3">
+        <v>1</v>
+      </c>
+      <c r="N382" s="3">
+        <v>2</v>
+      </c>
+      <c r="O382" s="4">
+        <v>100</v>
+      </c>
+      <c r="P382" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q382" s="2">
+        <v>4</v>
+      </c>
+      <c r="R382" s="2">
+        <v>10</v>
+      </c>
+      <c r="S382" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T382" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U382" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V382" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W382" s="2">
+        <v>0</v>
+      </c>
+      <c r="X382" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y382" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI382" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ382" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK382" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL382" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM382" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN382" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO382" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP382" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ382" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR382" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS382" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT382" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU382" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV382" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:48">
+      <c r="A383" s="1">
+        <f t="shared" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C383" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E383" s="36">
+        <v>36</v>
+      </c>
+      <c r="F383" s="3">
+        <v>1</v>
+      </c>
+      <c r="G383" s="3">
+        <v>0</v>
+      </c>
+      <c r="H383" s="3">
+        <v>5</v>
+      </c>
+      <c r="I383" s="3">
+        <v>0</v>
+      </c>
+      <c r="J383" s="37">
+        <v>1910000000000</v>
+      </c>
+      <c r="K383" s="3">
+        <v>0</v>
+      </c>
+      <c r="L383" s="3">
+        <v>500</v>
+      </c>
+      <c r="M383" s="3">
+        <v>1</v>
+      </c>
+      <c r="N383" s="3">
+        <v>2</v>
+      </c>
+      <c r="O383" s="4">
+        <v>100</v>
+      </c>
+      <c r="P383" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q383" s="2">
+        <v>4</v>
+      </c>
+      <c r="R383" s="2">
+        <v>10</v>
+      </c>
+      <c r="S383" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T383" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U383" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V383" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W383" s="2">
+        <v>0</v>
+      </c>
+      <c r="X383" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y383" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI383" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ383" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK383" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL383" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM383" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN383" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO383" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP383" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ383" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR383" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS383" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT383" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU383" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV383" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:48">
+      <c r="A384" s="1">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C384" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E384" s="36">
+        <v>36</v>
+      </c>
+      <c r="F384" s="3">
+        <v>1</v>
+      </c>
+      <c r="G384" s="3">
+        <v>0</v>
+      </c>
+      <c r="H384" s="3">
+        <v>5</v>
+      </c>
+      <c r="I384" s="3">
+        <v>0</v>
+      </c>
+      <c r="J384" s="37">
+        <v>1920000000000</v>
+      </c>
+      <c r="K384" s="3">
+        <v>0</v>
+      </c>
+      <c r="L384" s="3">
+        <v>500</v>
+      </c>
+      <c r="M384" s="3">
+        <v>1</v>
+      </c>
+      <c r="N384" s="3">
+        <v>2</v>
+      </c>
+      <c r="O384" s="4">
+        <v>100</v>
+      </c>
+      <c r="P384" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q384" s="2">
+        <v>4</v>
+      </c>
+      <c r="R384" s="2">
+        <v>10</v>
+      </c>
+      <c r="S384" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T384" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U384" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V384" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W384" s="2">
+        <v>0</v>
+      </c>
+      <c r="X384" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y384" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI384" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ384" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK384" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL384" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM384" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN384" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO384" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP384" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ384" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR384" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS384" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT384" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU384" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV384" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:48">
+      <c r="A385" s="1">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C385" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="E385" s="36">
+        <v>36</v>
+      </c>
+      <c r="F385" s="3">
+        <v>1</v>
+      </c>
+      <c r="G385" s="3">
+        <v>0</v>
+      </c>
+      <c r="H385" s="3">
+        <v>5</v>
+      </c>
+      <c r="I385" s="3">
+        <v>0</v>
+      </c>
+      <c r="J385" s="37">
+        <v>1930000000000</v>
+      </c>
+      <c r="K385" s="3">
+        <v>0</v>
+      </c>
+      <c r="L385" s="3">
+        <v>500</v>
+      </c>
+      <c r="M385" s="3">
+        <v>1</v>
+      </c>
+      <c r="N385" s="3">
+        <v>2</v>
+      </c>
+      <c r="O385" s="4">
+        <v>100</v>
+      </c>
+      <c r="P385" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q385" s="2">
+        <v>4</v>
+      </c>
+      <c r="R385" s="2">
+        <v>10</v>
+      </c>
+      <c r="S385" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T385" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U385" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V385" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W385" s="2">
+        <v>0</v>
+      </c>
+      <c r="X385" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y385" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI385" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ385" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK385" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL385" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM385" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN385" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO385" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP385" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ385" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR385" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS385" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT385" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU385" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV385" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:48">
+      <c r="A386" s="1">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C386" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E386" s="36">
+        <v>36</v>
+      </c>
+      <c r="F386" s="3">
+        <v>1</v>
+      </c>
+      <c r="G386" s="3">
+        <v>0</v>
+      </c>
+      <c r="H386" s="3">
+        <v>5</v>
+      </c>
+      <c r="I386" s="3">
+        <v>0</v>
+      </c>
+      <c r="J386" s="37">
+        <v>1940000000000</v>
+      </c>
+      <c r="K386" s="3">
+        <v>0</v>
+      </c>
+      <c r="L386" s="3">
+        <v>500</v>
+      </c>
+      <c r="M386" s="3">
+        <v>1</v>
+      </c>
+      <c r="N386" s="3">
+        <v>2</v>
+      </c>
+      <c r="O386" s="4">
+        <v>100</v>
+      </c>
+      <c r="P386" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q386" s="2">
+        <v>4</v>
+      </c>
+      <c r="R386" s="2">
+        <v>10</v>
+      </c>
+      <c r="S386" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T386" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U386" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V386" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W386" s="2">
+        <v>0</v>
+      </c>
+      <c r="X386" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y386" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI386" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ386" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL386" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM386" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN386" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO386" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP386" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ386" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR386" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS386" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT386" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU386" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV386" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:48">
+      <c r="A387" s="1">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C387" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E387" s="36">
+        <v>36</v>
+      </c>
+      <c r="F387" s="3">
+        <v>1</v>
+      </c>
+      <c r="G387" s="3">
+        <v>0</v>
+      </c>
+      <c r="H387" s="3">
+        <v>5</v>
+      </c>
+      <c r="I387" s="3">
+        <v>0</v>
+      </c>
+      <c r="J387" s="37">
+        <v>1950000000000</v>
+      </c>
+      <c r="K387" s="3">
+        <v>0</v>
+      </c>
+      <c r="L387" s="3">
+        <v>500</v>
+      </c>
+      <c r="M387" s="3">
+        <v>1</v>
+      </c>
+      <c r="N387" s="3">
+        <v>2</v>
+      </c>
+      <c r="O387" s="4">
+        <v>100</v>
+      </c>
+      <c r="P387" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q387" s="2">
+        <v>4</v>
+      </c>
+      <c r="R387" s="2">
+        <v>10</v>
+      </c>
+      <c r="S387" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T387" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U387" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V387" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W387" s="2">
+        <v>0</v>
+      </c>
+      <c r="X387" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y387" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI387" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL387" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM387" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN387" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO387" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP387" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ387" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR387" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS387" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT387" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU387" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV387" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:48">
+      <c r="A388" s="1">
+        <f t="shared" si="1"/>
+        <v>386</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C388" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E388" s="36">
+        <v>36</v>
+      </c>
+      <c r="F388" s="3">
+        <v>1</v>
+      </c>
+      <c r="G388" s="3">
+        <v>0</v>
+      </c>
+      <c r="H388" s="3">
+        <v>5</v>
+      </c>
+      <c r="I388" s="3">
+        <v>0</v>
+      </c>
+      <c r="J388" s="37">
+        <v>1960000000000</v>
+      </c>
+      <c r="K388" s="3">
+        <v>0</v>
+      </c>
+      <c r="L388" s="3">
+        <v>500</v>
+      </c>
+      <c r="M388" s="3">
+        <v>1</v>
+      </c>
+      <c r="N388" s="3">
+        <v>2</v>
+      </c>
+      <c r="O388" s="4">
+        <v>100</v>
+      </c>
+      <c r="P388" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q388" s="2">
+        <v>4</v>
+      </c>
+      <c r="R388" s="2">
+        <v>10</v>
+      </c>
+      <c r="S388" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T388" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U388" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V388" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W388" s="2">
+        <v>0</v>
+      </c>
+      <c r="X388" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y388" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI388" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL388" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM388" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN388" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO388" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP388" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ388" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR388" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS388" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT388" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU388" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV388" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:48">
+      <c r="A389" s="1">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C389" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E389" s="36">
+        <v>36</v>
+      </c>
+      <c r="F389" s="3">
+        <v>1</v>
+      </c>
+      <c r="G389" s="3">
+        <v>0</v>
+      </c>
+      <c r="H389" s="3">
+        <v>5</v>
+      </c>
+      <c r="I389" s="3">
+        <v>0</v>
+      </c>
+      <c r="J389" s="37">
+        <v>1970000000000</v>
+      </c>
+      <c r="K389" s="3">
+        <v>0</v>
+      </c>
+      <c r="L389" s="3">
+        <v>500</v>
+      </c>
+      <c r="M389" s="3">
+        <v>1</v>
+      </c>
+      <c r="N389" s="3">
+        <v>2</v>
+      </c>
+      <c r="O389" s="4">
+        <v>100</v>
+      </c>
+      <c r="P389" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q389" s="2">
+        <v>4</v>
+      </c>
+      <c r="R389" s="2">
+        <v>10</v>
+      </c>
+      <c r="S389" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T389" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U389" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V389" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W389" s="2">
+        <v>0</v>
+      </c>
+      <c r="X389" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y389" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI389" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL389" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM389" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN389" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO389" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP389" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ389" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR389" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS389" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT389" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU389" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV389" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:48">
+      <c r="A390" s="1">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C390" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E390" s="36">
+        <v>36</v>
+      </c>
+      <c r="F390" s="3">
+        <v>1</v>
+      </c>
+      <c r="G390" s="3">
+        <v>0</v>
+      </c>
+      <c r="H390" s="3">
+        <v>5</v>
+      </c>
+      <c r="I390" s="3">
+        <v>0</v>
+      </c>
+      <c r="J390" s="37">
+        <v>1980000000000</v>
+      </c>
+      <c r="K390" s="3">
+        <v>0</v>
+      </c>
+      <c r="L390" s="3">
+        <v>500</v>
+      </c>
+      <c r="M390" s="3">
+        <v>1</v>
+      </c>
+      <c r="N390" s="3">
+        <v>2</v>
+      </c>
+      <c r="O390" s="4">
+        <v>100</v>
+      </c>
+      <c r="P390" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q390" s="2">
+        <v>4</v>
+      </c>
+      <c r="R390" s="2">
+        <v>10</v>
+      </c>
+      <c r="S390" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T390" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U390" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V390" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W390" s="2">
+        <v>0</v>
+      </c>
+      <c r="X390" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y390" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI390" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL390" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM390" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN390" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO390" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP390" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ390" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR390" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS390" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT390" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU390" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV390" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:48">
+      <c r="A391" s="1">
+        <f t="shared" si="1"/>
+        <v>389</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C391" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E391" s="36">
+        <v>36</v>
+      </c>
+      <c r="F391" s="3">
+        <v>1</v>
+      </c>
+      <c r="G391" s="3">
+        <v>0</v>
+      </c>
+      <c r="H391" s="3">
+        <v>5</v>
+      </c>
+      <c r="I391" s="3">
+        <v>0</v>
+      </c>
+      <c r="J391" s="37">
+        <v>1990000000000</v>
+      </c>
+      <c r="K391" s="3">
+        <v>0</v>
+      </c>
+      <c r="L391" s="3">
+        <v>500</v>
+      </c>
+      <c r="M391" s="3">
+        <v>1</v>
+      </c>
+      <c r="N391" s="3">
+        <v>2</v>
+      </c>
+      <c r="O391" s="4">
+        <v>100</v>
+      </c>
+      <c r="P391" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q391" s="2">
+        <v>4</v>
+      </c>
+      <c r="R391" s="2">
+        <v>10</v>
+      </c>
+      <c r="S391" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T391" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U391" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V391" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W391" s="2">
+        <v>0</v>
+      </c>
+      <c r="X391" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y391" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI391" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL391" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM391" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN391" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO391" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP391" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ391" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR391" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS391" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT391" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU391" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV391" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFFAE9E-EC81-4FE8-916E-C8A020B04957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8B2936-02DA-4882-A05B-E0F1DB52FCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4434" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="717">
   <si>
     <t>id</t>
   </si>
@@ -2498,6 +2498,38 @@
   </si>
   <si>
     <t>극락검 5형</t>
+  </si>
+  <si>
+    <t>비기 11단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기 12단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기 13단계</t>
+  </si>
+  <si>
+    <t>비기 14단계</t>
+  </si>
+  <si>
+    <t>비기 15단계</t>
+  </si>
+  <si>
+    <t>비기 16단계</t>
+  </si>
+  <si>
+    <t>비기 17단계</t>
+  </si>
+  <si>
+    <t>비기 18단계</t>
+  </si>
+  <si>
+    <t>비기 19단계</t>
+  </si>
+  <si>
+    <t>비기 20단계</t>
   </si>
 </sst>
 </file>
@@ -3184,12 +3216,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW391"/>
+  <dimension ref="A1:AW401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="D345" sqref="D345"/>
+      <selection pane="bottomLeft" activeCell="A396" sqref="A396:D396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -60399,6 +60431,1466 @@
       </c>
       <c r="AV391" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:48" s="17" customFormat="1">
+      <c r="A392" s="16">
+        <v>390</v>
+      </c>
+      <c r="B392" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C392" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D392" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="E392" s="18">
+        <v>36</v>
+      </c>
+      <c r="F392" s="40">
+        <v>1</v>
+      </c>
+      <c r="G392" s="40">
+        <v>0</v>
+      </c>
+      <c r="H392" s="40">
+        <v>2</v>
+      </c>
+      <c r="I392" s="40">
+        <v>0</v>
+      </c>
+      <c r="J392" s="40">
+        <v>480000000000000</v>
+      </c>
+      <c r="K392" s="40">
+        <v>0</v>
+      </c>
+      <c r="L392" s="40">
+        <v>100</v>
+      </c>
+      <c r="M392" s="40">
+        <v>9</v>
+      </c>
+      <c r="N392" s="40">
+        <v>2</v>
+      </c>
+      <c r="O392" s="41">
+        <v>100</v>
+      </c>
+      <c r="P392" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q392" s="17">
+        <v>4</v>
+      </c>
+      <c r="R392" s="17">
+        <v>10</v>
+      </c>
+      <c r="S392" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T392" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U392" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V392" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W392" s="17">
+        <v>0</v>
+      </c>
+      <c r="X392" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y392" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI392" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ392" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL392" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM392" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN392" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO392" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP392" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ392" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR392" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS392" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT392" s="17">
+        <v>80</v>
+      </c>
+      <c r="AU392" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV392" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="393" spans="1:48" s="17" customFormat="1">
+      <c r="A393" s="16">
+        <v>391</v>
+      </c>
+      <c r="B393" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C393" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D393" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="E393" s="18">
+        <v>36</v>
+      </c>
+      <c r="F393" s="40">
+        <v>1</v>
+      </c>
+      <c r="G393" s="40">
+        <v>0</v>
+      </c>
+      <c r="H393" s="40">
+        <v>2</v>
+      </c>
+      <c r="I393" s="40">
+        <v>0</v>
+      </c>
+      <c r="J393" s="40">
+        <v>540000000000000</v>
+      </c>
+      <c r="K393" s="40">
+        <v>0</v>
+      </c>
+      <c r="L393" s="40">
+        <v>100</v>
+      </c>
+      <c r="M393" s="40">
+        <v>9</v>
+      </c>
+      <c r="N393" s="40">
+        <v>2</v>
+      </c>
+      <c r="O393" s="41">
+        <v>100</v>
+      </c>
+      <c r="P393" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q393" s="17">
+        <v>4</v>
+      </c>
+      <c r="R393" s="17">
+        <v>10</v>
+      </c>
+      <c r="S393" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T393" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U393" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V393" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W393" s="17">
+        <v>0</v>
+      </c>
+      <c r="X393" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y393" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI393" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ393" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL393" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM393" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN393" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO393" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP393" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ393" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR393" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS393" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT393" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU393" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV393" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="394" spans="1:48" s="17" customFormat="1">
+      <c r="A394" s="16">
+        <v>392</v>
+      </c>
+      <c r="B394" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C394" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D394" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="E394" s="18">
+        <v>36</v>
+      </c>
+      <c r="F394" s="40">
+        <v>1</v>
+      </c>
+      <c r="G394" s="40">
+        <v>0</v>
+      </c>
+      <c r="H394" s="40">
+        <v>2</v>
+      </c>
+      <c r="I394" s="40">
+        <v>0</v>
+      </c>
+      <c r="J394" s="40">
+        <v>600000000000000</v>
+      </c>
+      <c r="K394" s="40">
+        <v>0</v>
+      </c>
+      <c r="L394" s="40">
+        <v>100</v>
+      </c>
+      <c r="M394" s="40">
+        <v>9</v>
+      </c>
+      <c r="N394" s="40">
+        <v>2</v>
+      </c>
+      <c r="O394" s="41">
+        <v>100</v>
+      </c>
+      <c r="P394" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q394" s="17">
+        <v>4</v>
+      </c>
+      <c r="R394" s="17">
+        <v>10</v>
+      </c>
+      <c r="S394" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T394" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U394" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V394" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W394" s="17">
+        <v>0</v>
+      </c>
+      <c r="X394" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y394" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI394" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ394" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL394" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM394" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN394" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO394" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP394" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ394" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR394" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS394" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT394" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU394" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV394" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="395" spans="1:48" s="17" customFormat="1">
+      <c r="A395" s="16">
+        <v>393</v>
+      </c>
+      <c r="B395" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C395" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D395" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="E395" s="18">
+        <v>36</v>
+      </c>
+      <c r="F395" s="40">
+        <v>1</v>
+      </c>
+      <c r="G395" s="40">
+        <v>0</v>
+      </c>
+      <c r="H395" s="40">
+        <v>2</v>
+      </c>
+      <c r="I395" s="40">
+        <v>0</v>
+      </c>
+      <c r="J395" s="40">
+        <v>660000000000000</v>
+      </c>
+      <c r="K395" s="40">
+        <v>0</v>
+      </c>
+      <c r="L395" s="40">
+        <v>100</v>
+      </c>
+      <c r="M395" s="40">
+        <v>9</v>
+      </c>
+      <c r="N395" s="40">
+        <v>2</v>
+      </c>
+      <c r="O395" s="41">
+        <v>100</v>
+      </c>
+      <c r="P395" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q395" s="17">
+        <v>4</v>
+      </c>
+      <c r="R395" s="17">
+        <v>10</v>
+      </c>
+      <c r="S395" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T395" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U395" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V395" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W395" s="17">
+        <v>0</v>
+      </c>
+      <c r="X395" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y395" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI395" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ395" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK395" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL395" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM395" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN395" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO395" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP395" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ395" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR395" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS395" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT395" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU395" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV395" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="396" spans="1:48" s="17" customFormat="1">
+      <c r="A396" s="16">
+        <v>394</v>
+      </c>
+      <c r="B396" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C396" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D396" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="E396" s="18">
+        <v>36</v>
+      </c>
+      <c r="F396" s="40">
+        <v>1</v>
+      </c>
+      <c r="G396" s="40">
+        <v>0</v>
+      </c>
+      <c r="H396" s="40">
+        <v>2</v>
+      </c>
+      <c r="I396" s="40">
+        <v>0</v>
+      </c>
+      <c r="J396" s="40">
+        <v>720000000000000</v>
+      </c>
+      <c r="K396" s="40">
+        <v>0</v>
+      </c>
+      <c r="L396" s="40">
+        <v>100</v>
+      </c>
+      <c r="M396" s="40">
+        <v>9</v>
+      </c>
+      <c r="N396" s="40">
+        <v>2</v>
+      </c>
+      <c r="O396" s="41">
+        <v>100</v>
+      </c>
+      <c r="P396" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q396" s="17">
+        <v>4</v>
+      </c>
+      <c r="R396" s="17">
+        <v>10</v>
+      </c>
+      <c r="S396" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T396" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U396" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V396" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W396" s="17">
+        <v>0</v>
+      </c>
+      <c r="X396" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y396" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI396" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ396" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK396" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL396" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM396" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN396" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO396" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP396" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ396" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR396" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS396" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT396" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU396" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV396" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="397" spans="1:48" s="17" customFormat="1">
+      <c r="A397" s="16">
+        <v>395</v>
+      </c>
+      <c r="B397" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C397" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D397" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="E397" s="18">
+        <v>36</v>
+      </c>
+      <c r="F397" s="40">
+        <v>1</v>
+      </c>
+      <c r="G397" s="40">
+        <v>0</v>
+      </c>
+      <c r="H397" s="40">
+        <v>2</v>
+      </c>
+      <c r="I397" s="40">
+        <v>0</v>
+      </c>
+      <c r="J397" s="40">
+        <v>780000000000000</v>
+      </c>
+      <c r="K397" s="40">
+        <v>0</v>
+      </c>
+      <c r="L397" s="40">
+        <v>100</v>
+      </c>
+      <c r="M397" s="40">
+        <v>9</v>
+      </c>
+      <c r="N397" s="40">
+        <v>2</v>
+      </c>
+      <c r="O397" s="41">
+        <v>100</v>
+      </c>
+      <c r="P397" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q397" s="17">
+        <v>4</v>
+      </c>
+      <c r="R397" s="17">
+        <v>10</v>
+      </c>
+      <c r="S397" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T397" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U397" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V397" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W397" s="17">
+        <v>0</v>
+      </c>
+      <c r="X397" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y397" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI397" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ397" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK397" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL397" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM397" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN397" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO397" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP397" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ397" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR397" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS397" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT397" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU397" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV397" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="398" spans="1:48" s="17" customFormat="1">
+      <c r="A398" s="16">
+        <v>396</v>
+      </c>
+      <c r="B398" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C398" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D398" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="E398" s="18">
+        <v>36</v>
+      </c>
+      <c r="F398" s="40">
+        <v>1</v>
+      </c>
+      <c r="G398" s="40">
+        <v>0</v>
+      </c>
+      <c r="H398" s="40">
+        <v>2</v>
+      </c>
+      <c r="I398" s="40">
+        <v>0</v>
+      </c>
+      <c r="J398" s="40">
+        <v>840000000000000</v>
+      </c>
+      <c r="K398" s="40">
+        <v>0</v>
+      </c>
+      <c r="L398" s="40">
+        <v>100</v>
+      </c>
+      <c r="M398" s="40">
+        <v>9</v>
+      </c>
+      <c r="N398" s="40">
+        <v>2</v>
+      </c>
+      <c r="O398" s="41">
+        <v>100</v>
+      </c>
+      <c r="P398" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q398" s="17">
+        <v>4</v>
+      </c>
+      <c r="R398" s="17">
+        <v>10</v>
+      </c>
+      <c r="S398" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T398" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U398" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V398" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W398" s="17">
+        <v>0</v>
+      </c>
+      <c r="X398" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y398" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI398" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ398" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK398" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL398" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM398" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN398" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO398" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP398" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ398" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR398" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS398" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT398" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU398" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV398" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="399" spans="1:48" s="17" customFormat="1">
+      <c r="A399" s="16">
+        <v>397</v>
+      </c>
+      <c r="B399" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C399" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D399" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="E399" s="18">
+        <v>36</v>
+      </c>
+      <c r="F399" s="40">
+        <v>1</v>
+      </c>
+      <c r="G399" s="40">
+        <v>0</v>
+      </c>
+      <c r="H399" s="40">
+        <v>2</v>
+      </c>
+      <c r="I399" s="40">
+        <v>0</v>
+      </c>
+      <c r="J399" s="40">
+        <v>900000000000000</v>
+      </c>
+      <c r="K399" s="40">
+        <v>0</v>
+      </c>
+      <c r="L399" s="40">
+        <v>100</v>
+      </c>
+      <c r="M399" s="40">
+        <v>9</v>
+      </c>
+      <c r="N399" s="40">
+        <v>2</v>
+      </c>
+      <c r="O399" s="41">
+        <v>100</v>
+      </c>
+      <c r="P399" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q399" s="17">
+        <v>4</v>
+      </c>
+      <c r="R399" s="17">
+        <v>10</v>
+      </c>
+      <c r="S399" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T399" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U399" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V399" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W399" s="17">
+        <v>0</v>
+      </c>
+      <c r="X399" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y399" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI399" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ399" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK399" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL399" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM399" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN399" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO399" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP399" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ399" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR399" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS399" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT399" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU399" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV399" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="400" spans="1:48" s="17" customFormat="1">
+      <c r="A400" s="16">
+        <v>398</v>
+      </c>
+      <c r="B400" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C400" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D400" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="E400" s="18">
+        <v>36</v>
+      </c>
+      <c r="F400" s="40">
+        <v>1</v>
+      </c>
+      <c r="G400" s="40">
+        <v>0</v>
+      </c>
+      <c r="H400" s="40">
+        <v>2</v>
+      </c>
+      <c r="I400" s="40">
+        <v>0</v>
+      </c>
+      <c r="J400" s="40">
+        <v>960000000000000</v>
+      </c>
+      <c r="K400" s="40">
+        <v>0</v>
+      </c>
+      <c r="L400" s="40">
+        <v>100</v>
+      </c>
+      <c r="M400" s="40">
+        <v>9</v>
+      </c>
+      <c r="N400" s="40">
+        <v>2</v>
+      </c>
+      <c r="O400" s="41">
+        <v>100</v>
+      </c>
+      <c r="P400" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q400" s="17">
+        <v>4</v>
+      </c>
+      <c r="R400" s="17">
+        <v>10</v>
+      </c>
+      <c r="S400" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T400" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U400" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V400" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W400" s="17">
+        <v>0</v>
+      </c>
+      <c r="X400" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y400" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI400" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ400" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK400" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL400" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM400" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN400" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO400" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP400" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ400" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR400" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS400" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT400" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU400" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV400" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="401" spans="1:48" s="17" customFormat="1">
+      <c r="A401" s="16">
+        <v>399</v>
+      </c>
+      <c r="B401" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C401" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D401" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="E401" s="18">
+        <v>36</v>
+      </c>
+      <c r="F401" s="40">
+        <v>1</v>
+      </c>
+      <c r="G401" s="40">
+        <v>0</v>
+      </c>
+      <c r="H401" s="40">
+        <v>2</v>
+      </c>
+      <c r="I401" s="40">
+        <v>0</v>
+      </c>
+      <c r="J401" s="40">
+        <v>1020000000000000</v>
+      </c>
+      <c r="K401" s="40">
+        <v>0</v>
+      </c>
+      <c r="L401" s="40">
+        <v>100</v>
+      </c>
+      <c r="M401" s="40">
+        <v>9</v>
+      </c>
+      <c r="N401" s="40">
+        <v>2</v>
+      </c>
+      <c r="O401" s="41">
+        <v>100</v>
+      </c>
+      <c r="P401" s="19">
+        <v>23</v>
+      </c>
+      <c r="Q401" s="17">
+        <v>4</v>
+      </c>
+      <c r="R401" s="17">
+        <v>10</v>
+      </c>
+      <c r="S401" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T401" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U401" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V401" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="W401" s="17">
+        <v>0</v>
+      </c>
+      <c r="X401" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y401" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI401" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ401" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK401" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL401" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM401" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN401" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO401" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP401" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ401" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR401" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS401" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT401" s="17">
+        <v>90</v>
+      </c>
+      <c r="AU401" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV401" s="17">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8B2936-02DA-4882-A05B-E0F1DB52FCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE6A982-3291-4AAA-8F36-9D872778F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="719">
   <si>
     <t>id</t>
   </si>
@@ -2530,6 +2530,14 @@
   </si>
   <si>
     <t>비기 20단계</t>
+  </si>
+  <si>
+    <t>VisionSkill20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도 - 지옥 문지기에게서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2542,7 +2550,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000000000000%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3216,15 +3224,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW401"/>
+  <dimension ref="A1:AW402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="A396" sqref="A396:D396"/>
+      <selection pane="bottomLeft" activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
@@ -3262,7 +3270,7 @@
     <col min="47" max="47" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" ht="33">
+    <row r="1" spans="1:49" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3411,7 +3419,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="2" customFormat="1">
+    <row r="2" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3554,7 +3562,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1">
+    <row r="3" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3697,7 +3705,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="2" customFormat="1">
+    <row r="4" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3840,7 +3848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="2" customFormat="1">
+    <row r="5" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="2" customFormat="1">
+    <row r="6" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4126,7 +4134,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="2" customFormat="1">
+    <row r="7" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4269,7 +4277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="2" customFormat="1">
+    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4412,7 +4420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="2" customFormat="1">
+    <row r="9" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4555,7 +4563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="15.75" customHeight="1">
+    <row r="10" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4698,7 +4706,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="15.75" customHeight="1">
+    <row r="11" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4841,7 +4849,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="15.75" customHeight="1">
+    <row r="12" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4984,7 +4992,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="15.75" customHeight="1">
+    <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5127,7 +5135,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -5270,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -5413,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -5556,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" s="2" customFormat="1">
+    <row r="17" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5699,7 +5707,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:48" s="2" customFormat="1">
+    <row r="18" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5842,7 +5850,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5985,7 +5993,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="6" customFormat="1">
+    <row r="20" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -6131,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="6" customFormat="1">
+    <row r="21" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -6277,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6423,7 +6431,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6569,7 +6577,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="17" customFormat="1">
+    <row r="24" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -6715,7 +6723,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" s="17" customFormat="1">
+    <row r="25" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -6861,7 +6869,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="17" customFormat="1">
+    <row r="26" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -7007,7 +7015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="17" customFormat="1">
+    <row r="27" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -7153,7 +7161,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:48" s="17" customFormat="1">
+    <row r="28" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -7299,7 +7307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="17" customFormat="1">
+    <row r="29" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -7445,7 +7453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:48" s="17" customFormat="1">
+    <row r="30" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -7591,7 +7599,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:48" s="17" customFormat="1">
+    <row r="31" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -7737,7 +7745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:48" s="17" customFormat="1">
+    <row r="32" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -7883,7 +7891,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" s="17" customFormat="1">
+    <row r="33" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -8029,7 +8037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" s="17" customFormat="1">
+    <row r="34" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -8175,7 +8183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" s="17" customFormat="1">
+    <row r="35" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>33</v>
       </c>
@@ -8321,7 +8329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" s="17" customFormat="1">
+    <row r="36" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>34</v>
       </c>
@@ -8467,7 +8475,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="17" customFormat="1">
+    <row r="37" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>35</v>
       </c>
@@ -8613,7 +8621,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" s="17" customFormat="1">
+    <row r="38" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>36</v>
       </c>
@@ -8759,7 +8767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="6" customFormat="1">
+    <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -8905,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" s="6" customFormat="1">
+    <row r="40" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -9051,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="6" customFormat="1">
+    <row r="41" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -9197,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" s="6" customFormat="1">
+    <row r="42" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -9343,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -9489,7 +9497,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -9635,7 +9643,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -9781,7 +9789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -9927,7 +9935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -10073,7 +10081,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -10222,7 +10230,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -10371,7 +10379,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -10520,7 +10528,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -10669,7 +10677,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -10815,7 +10823,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -10961,7 +10969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -11107,7 +11115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -11253,7 +11261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -11399,7 +11407,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>55</v>
       </c>
@@ -11548,7 +11556,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>56</v>
       </c>
@@ -11694,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -11840,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>58</v>
       </c>
@@ -11986,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>59</v>
       </c>
@@ -12132,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>60</v>
       </c>
@@ -12278,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>61</v>
       </c>
@@ -12424,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>62</v>
       </c>
@@ -12570,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>63</v>
       </c>
@@ -12716,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>64</v>
       </c>
@@ -12862,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>65</v>
       </c>
@@ -13008,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>66</v>
       </c>
@@ -13154,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>67</v>
       </c>
@@ -13300,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>68</v>
       </c>
@@ -13446,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>69</v>
       </c>
@@ -13592,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>70</v>
       </c>
@@ -13738,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>71</v>
       </c>
@@ -13884,7 +13892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>72</v>
       </c>
@@ -14030,7 +14038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>73</v>
       </c>
@@ -14176,7 +14184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>74</v>
       </c>
@@ -14322,7 +14330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:48">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>75</v>
       </c>
@@ -14468,7 +14476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:48">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>76</v>
       </c>
@@ -14614,7 +14622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>77</v>
       </c>
@@ -14760,7 +14768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>78</v>
       </c>
@@ -14906,7 +14914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:48">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>79</v>
       </c>
@@ -15052,7 +15060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:48">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>80</v>
       </c>
@@ -15198,7 +15206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:48">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>81</v>
       </c>
@@ -15344,7 +15352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:48">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>82</v>
       </c>
@@ -15490,7 +15498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:48">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>83</v>
       </c>
@@ -15636,7 +15644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:48">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>84</v>
       </c>
@@ -15782,7 +15790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:48">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>85</v>
       </c>
@@ -15928,7 +15936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:48">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>86</v>
       </c>
@@ -16074,7 +16082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:48">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>87</v>
       </c>
@@ -16220,7 +16228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:48">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>88</v>
       </c>
@@ -16366,7 +16374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:48">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>89</v>
       </c>
@@ -16512,7 +16520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:48">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>90</v>
       </c>
@@ -16658,7 +16666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:48">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>91</v>
       </c>
@@ -16804,7 +16812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:48">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>92</v>
       </c>
@@ -16950,7 +16958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:48">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>93</v>
       </c>
@@ -17096,7 +17104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:48">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>94</v>
       </c>
@@ -17242,7 +17250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:49">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>95</v>
       </c>
@@ -17391,7 +17399,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:49">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>96</v>
       </c>
@@ -17537,7 +17545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:49">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>97</v>
       </c>
@@ -17683,7 +17691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:49">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>98</v>
       </c>
@@ -17829,7 +17837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:49">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>99</v>
       </c>
@@ -17975,7 +17983,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:49">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>100</v>
       </c>
@@ -18121,7 +18129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:49">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>101</v>
       </c>
@@ -18267,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:49">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>102</v>
       </c>
@@ -18413,7 +18421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:49">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>103</v>
       </c>
@@ -18559,7 +18567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:49">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>104</v>
       </c>
@@ -18705,7 +18713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:49">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>105</v>
       </c>
@@ -18851,7 +18859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:49">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>106</v>
       </c>
@@ -18997,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:49">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>107</v>
       </c>
@@ -19143,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:49">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>108</v>
       </c>
@@ -19289,7 +19297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:49">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>109</v>
       </c>
@@ -19435,7 +19443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:49">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>110</v>
       </c>
@@ -19581,7 +19589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:48" s="2" customFormat="1">
+    <row r="113" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -19727,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:48" s="2" customFormat="1">
+    <row r="114" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -19873,7 +19881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:48" s="2" customFormat="1">
+    <row r="115" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -20019,7 +20027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:48" s="2" customFormat="1">
+    <row r="116" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -20165,7 +20173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:48" s="2" customFormat="1">
+    <row r="117" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -20311,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:48" s="2" customFormat="1">
+    <row r="118" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -20457,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:48" s="2" customFormat="1">
+    <row r="119" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -20603,7 +20611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:48" s="2" customFormat="1">
+    <row r="120" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -20749,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:48" s="2" customFormat="1">
+    <row r="121" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -20895,7 +20903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:48" s="2" customFormat="1">
+    <row r="122" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -21041,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:48" s="2" customFormat="1">
+    <row r="123" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -21187,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:48" s="2" customFormat="1">
+    <row r="124" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -21333,7 +21341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:48" s="2" customFormat="1">
+    <row r="125" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -21479,7 +21487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:48" s="2" customFormat="1">
+    <row r="126" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -21625,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:48" s="2" customFormat="1">
+    <row r="127" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -21771,7 +21779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:48" s="2" customFormat="1">
+    <row r="128" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -21917,7 +21925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:49" s="2" customFormat="1">
+    <row r="129" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -22063,7 +22071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:49" s="2" customFormat="1">
+    <row r="130" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -22209,7 +22217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:49" s="2" customFormat="1">
+    <row r="131" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -22355,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:49" s="2" customFormat="1">
+    <row r="132" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -22501,7 +22509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:49" s="2" customFormat="1">
+    <row r="133" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -22647,7 +22655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:49" s="2" customFormat="1">
+    <row r="134" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -22793,7 +22801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:49" s="2" customFormat="1">
+    <row r="135" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -22939,7 +22947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="2" customFormat="1">
+    <row r="136" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -23085,7 +23093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:49" s="2" customFormat="1">
+    <row r="137" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -23231,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:49" s="2" customFormat="1">
+    <row r="138" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -23377,7 +23385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:49" s="2" customFormat="1">
+    <row r="139" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -23523,7 +23531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:49" s="2" customFormat="1">
+    <row r="140" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -23669,7 +23677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:49" s="2" customFormat="1">
+    <row r="141" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -23815,7 +23823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:49" s="2" customFormat="1">
+    <row r="142" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -23961,7 +23969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:49">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -24110,7 +24118,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="144" spans="1:49">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -24259,7 +24267,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:49">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>143</v>
       </c>
@@ -24405,7 +24413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:49">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>144</v>
       </c>
@@ -24551,7 +24559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:49">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>145</v>
       </c>
@@ -24697,7 +24705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:49">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>146</v>
       </c>
@@ -24843,7 +24851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:49" s="2" customFormat="1">
+    <row r="149" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -24989,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:49" s="2" customFormat="1">
+    <row r="150" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -25135,7 +25143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:49">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -25281,7 +25289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:49">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -25427,7 +25435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:49">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -25573,7 +25581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:49">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -25719,7 +25727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:49">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -25865,7 +25873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:49">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -26011,7 +26019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:49">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -26157,7 +26165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:49">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -26303,7 +26311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:49">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -26452,7 +26460,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:49">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -26601,7 +26609,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="161" spans="1:49">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -26750,7 +26758,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="1:49">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -26899,7 +26907,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:49" s="2" customFormat="1">
+    <row r="163" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -27045,7 +27053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:49" s="2" customFormat="1">
+    <row r="164" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -27191,7 +27199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:49" s="2" customFormat="1">
+    <row r="165" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -27337,7 +27345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:49" s="2" customFormat="1">
+    <row r="166" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -27483,7 +27491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:49" s="2" customFormat="1">
+    <row r="167" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -27629,7 +27637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:49" s="2" customFormat="1">
+    <row r="168" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -27775,7 +27783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:49" s="2" customFormat="1">
+    <row r="169" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -27921,7 +27929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:49" s="2" customFormat="1">
+    <row r="170" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -28067,7 +28075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:49" s="2" customFormat="1">
+    <row r="171" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -28213,7 +28221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:49" s="2" customFormat="1">
+    <row r="172" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -28359,7 +28367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:49" s="2" customFormat="1">
+    <row r="173" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -28505,7 +28513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:49">
+    <row r="174" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -28654,7 +28662,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="175" spans="1:49">
+    <row r="175" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -28803,7 +28811,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="176" spans="1:49">
+    <row r="176" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -28949,7 +28957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:49">
+    <row r="177" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -29095,7 +29103,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:49">
+    <row r="178" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -29241,7 +29249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:49">
+    <row r="179" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -29387,7 +29395,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:49">
+    <row r="180" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -29533,7 +29541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:49">
+    <row r="181" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>179</v>
       </c>
@@ -29679,7 +29687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:49">
+    <row r="182" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -29828,7 +29836,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="183" spans="1:49" s="2" customFormat="1">
+    <row r="183" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -29974,7 +29982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:49" s="2" customFormat="1">
+    <row r="184" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -30120,7 +30128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:49" s="2" customFormat="1">
+    <row r="185" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -30266,7 +30274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:49" s="2" customFormat="1">
+    <row r="186" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -30412,7 +30420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:49" s="2" customFormat="1">
+    <row r="187" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -30558,7 +30566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:49" s="2" customFormat="1">
+    <row r="188" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -30704,7 +30712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:49" s="2" customFormat="1">
+    <row r="189" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -30850,7 +30858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:49" s="2" customFormat="1">
+    <row r="190" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -30996,7 +31004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:49" s="2" customFormat="1">
+    <row r="191" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -31142,7 +31150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:49" s="2" customFormat="1">
+    <row r="192" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -31288,7 +31296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:48">
+    <row r="193" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -31434,7 +31442,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:48">
+    <row r="194" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -31580,7 +31588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:48">
+    <row r="195" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -31726,7 +31734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:48">
+    <row r="196" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -31872,7 +31880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:48">
+    <row r="197" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -32018,7 +32026,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:48">
+    <row r="198" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>196</v>
       </c>
@@ -32164,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:48">
+    <row r="199" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>197</v>
       </c>
@@ -32310,7 +32318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:48">
+    <row r="200" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>198</v>
       </c>
@@ -32456,7 +32464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:48">
+    <row r="201" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>199</v>
       </c>
@@ -32602,7 +32610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:48">
+    <row r="202" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>200</v>
       </c>
@@ -32748,7 +32756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:48">
+    <row r="203" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>201</v>
       </c>
@@ -32894,7 +32902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:48">
+    <row r="204" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>202</v>
       </c>
@@ -33040,7 +33048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:48">
+    <row r="205" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>203</v>
       </c>
@@ -33186,7 +33194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:48">
+    <row r="206" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>204</v>
       </c>
@@ -33332,7 +33340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:48">
+    <row r="207" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>205</v>
       </c>
@@ -33478,7 +33486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:48" s="2" customFormat="1">
+    <row r="208" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -33624,7 +33632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:48" s="2" customFormat="1">
+    <row r="209" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -33770,7 +33778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:48" s="2" customFormat="1">
+    <row r="210" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -33916,7 +33924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:48" s="2" customFormat="1">
+    <row r="211" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -34062,7 +34070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:48" s="2" customFormat="1">
+    <row r="212" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -34208,7 +34216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:48" s="2" customFormat="1">
+    <row r="213" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -34354,7 +34362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:48" s="2" customFormat="1">
+    <row r="214" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -34500,7 +34508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:48" s="2" customFormat="1">
+    <row r="215" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -34646,7 +34654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:48" s="2" customFormat="1">
+    <row r="216" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -34792,7 +34800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:48" s="2" customFormat="1">
+    <row r="217" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -34938,7 +34946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:48" s="2" customFormat="1">
+    <row r="218" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -35084,7 +35092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:48" s="2" customFormat="1">
+    <row r="219" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -35230,7 +35238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:48" s="2" customFormat="1">
+    <row r="220" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -35376,7 +35384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:48" s="2" customFormat="1">
+    <row r="221" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -35522,7 +35530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:48" s="2" customFormat="1">
+    <row r="222" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -35668,7 +35676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:48" s="2" customFormat="1">
+    <row r="223" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -35814,7 +35822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:48" s="2" customFormat="1">
+    <row r="224" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -35960,7 +35968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:49" s="2" customFormat="1">
+    <row r="225" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -36106,7 +36114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:49" s="2" customFormat="1">
+    <row r="226" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -36252,7 +36260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:49" s="2" customFormat="1">
+    <row r="227" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -36398,7 +36406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:49">
+    <row r="228" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -36547,7 +36555,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="229" spans="1:49">
+    <row r="229" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -36696,7 +36704,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:49" s="2" customFormat="1">
+    <row r="230" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -36842,7 +36850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:49" s="2" customFormat="1">
+    <row r="231" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -36988,7 +36996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:49" s="2" customFormat="1">
+    <row r="232" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -37134,7 +37142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:49" s="2" customFormat="1">
+    <row r="233" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -37280,7 +37288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:49" s="2" customFormat="1">
+    <row r="234" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -37426,7 +37434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:49" s="2" customFormat="1">
+    <row r="235" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -37572,7 +37580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:49" s="2" customFormat="1">
+    <row r="236" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -37718,7 +37726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:49" s="2" customFormat="1">
+    <row r="237" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -37864,7 +37872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:49" s="2" customFormat="1">
+    <row r="238" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -38010,7 +38018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:49" s="2" customFormat="1">
+    <row r="239" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -38156,7 +38164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:49" s="2" customFormat="1">
+    <row r="240" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -38302,7 +38310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:48" s="2" customFormat="1">
+    <row r="241" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -38448,7 +38456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:48" s="2" customFormat="1">
+    <row r="242" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -38594,7 +38602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:48" s="2" customFormat="1">
+    <row r="243" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -38740,7 +38748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:48" s="2" customFormat="1">
+    <row r="244" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -38886,7 +38894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:48" s="2" customFormat="1">
+    <row r="245" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -39032,7 +39040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:48" s="2" customFormat="1">
+    <row r="246" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -39178,7 +39186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:48" s="2" customFormat="1">
+    <row r="247" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -39324,7 +39332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:48" s="2" customFormat="1">
+    <row r="248" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -39470,7 +39478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:48">
+    <row r="249" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -39616,7 +39624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:48">
+    <row r="250" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -39762,7 +39770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:48">
+    <row r="251" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -39908,7 +39916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:48">
+    <row r="252" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -40054,7 +40062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:48">
+    <row r="253" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -40200,7 +40208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:48">
+    <row r="254" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -40346,7 +40354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:48">
+    <row r="255" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -40492,7 +40500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:48">
+    <row r="256" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -40638,7 +40646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:48">
+    <row r="257" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -40784,7 +40792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:48">
+    <row r="258" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -40930,7 +40938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:48">
+    <row r="259" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -41076,7 +41084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:48">
+    <row r="260" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -41222,7 +41230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:48">
+    <row r="261" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -41368,7 +41376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:48">
+    <row r="262" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -41514,7 +41522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:48">
+    <row r="263" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -41660,7 +41668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:48">
+    <row r="264" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -41806,7 +41814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:48">
+    <row r="265" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -41952,7 +41960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:48">
+    <row r="266" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -42098,7 +42106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:48">
+    <row r="267" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -42244,7 +42252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:48">
+    <row r="268" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -42390,7 +42398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:48" s="17" customFormat="1">
+    <row r="269" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>267</v>
       </c>
@@ -42536,7 +42544,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:48" s="17" customFormat="1">
+    <row r="270" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>268</v>
       </c>
@@ -42682,7 +42690,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="271" spans="1:48" s="17" customFormat="1">
+    <row r="271" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>269</v>
       </c>
@@ -42828,7 +42836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="272" spans="1:48" s="17" customFormat="1">
+    <row r="272" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>270</v>
       </c>
@@ -42974,7 +42982,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="273" spans="1:48" s="17" customFormat="1">
+    <row r="273" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>271</v>
       </c>
@@ -43120,7 +43128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="274" spans="1:48" s="17" customFormat="1">
+    <row r="274" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>272</v>
       </c>
@@ -43266,7 +43274,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="1:48" s="17" customFormat="1">
+    <row r="275" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>273</v>
       </c>
@@ -43412,7 +43420,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="276" spans="1:48" s="17" customFormat="1">
+    <row r="276" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>274</v>
       </c>
@@ -43558,7 +43566,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:48" s="17" customFormat="1">
+    <row r="277" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>275</v>
       </c>
@@ -43704,7 +43712,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="278" spans="1:48" s="17" customFormat="1">
+    <row r="278" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>276</v>
       </c>
@@ -43850,7 +43858,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="279" spans="1:48">
+    <row r="279" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -43996,7 +44004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:48">
+    <row r="280" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -44142,7 +44150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:48">
+    <row r="281" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -44288,7 +44296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:48">
+    <row r="282" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -44434,7 +44442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:48">
+    <row r="283" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -44580,7 +44588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:48">
+    <row r="284" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -44726,7 +44734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:48">
+    <row r="285" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -44872,7 +44880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:48">
+    <row r="286" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -45018,7 +45026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:48">
+    <row r="287" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -45164,7 +45172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:48">
+    <row r="288" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -45310,7 +45318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:48">
+    <row r="289" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -45456,7 +45464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:48">
+    <row r="290" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -45602,7 +45610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:48">
+    <row r="291" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -45748,7 +45756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:48">
+    <row r="292" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -45894,7 +45902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:48">
+    <row r="293" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -46040,7 +46048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:48">
+    <row r="294" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -46186,7 +46194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:48">
+    <row r="295" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -46332,7 +46340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:48">
+    <row r="296" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -46478,7 +46486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:48">
+    <row r="297" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -46624,7 +46632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:48">
+    <row r="298" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -46770,7 +46778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:48">
+    <row r="299" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -46916,7 +46924,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:48">
+    <row r="300" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -47062,7 +47070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="301" spans="1:48">
+    <row r="301" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -47208,7 +47216,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="302" spans="1:48">
+    <row r="302" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -47354,7 +47362,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="303" spans="1:48">
+    <row r="303" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -47500,7 +47508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:48">
+    <row r="304" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -47646,7 +47654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:48">
+    <row r="305" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -47792,7 +47800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:48">
+    <row r="306" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -47938,7 +47946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:48">
+    <row r="307" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -48084,7 +48092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:48">
+    <row r="308" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -48230,7 +48238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:48">
+    <row r="309" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -48376,7 +48384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:48">
+    <row r="310" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -48522,7 +48530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:48">
+    <row r="311" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -48668,7 +48676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:48">
+    <row r="312" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -48814,7 +48822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:48">
+    <row r="313" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -48960,7 +48968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:48">
+    <row r="314" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -49106,7 +49114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:48">
+    <row r="315" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -49252,7 +49260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:48">
+    <row r="316" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -49398,7 +49406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:48">
+    <row r="317" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -49544,7 +49552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:48">
+    <row r="318" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -49690,7 +49698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:48">
+    <row r="319" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -49836,7 +49844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:48">
+    <row r="320" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -49982,7 +49990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:48">
+    <row r="321" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -50128,7 +50136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:48">
+    <row r="322" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -50274,7 +50282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:48">
+    <row r="323" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -50420,7 +50428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:48">
+    <row r="324" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <f t="shared" ref="A324:A343" si="0">ROW()-2</f>
         <v>322</v>
@@ -50567,7 +50575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:48">
+    <row r="325" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -50714,7 +50722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:48">
+    <row r="326" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <f t="shared" si="0"/>
         <v>324</v>
@@ -50861,7 +50869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:48">
+    <row r="327" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <f t="shared" si="0"/>
         <v>325</v>
@@ -51008,7 +51016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:48">
+    <row r="328" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <f t="shared" si="0"/>
         <v>326</v>
@@ -51155,7 +51163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:48">
+    <row r="329" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <f t="shared" si="0"/>
         <v>327</v>
@@ -51302,7 +51310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:48">
+    <row r="330" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <f t="shared" si="0"/>
         <v>328</v>
@@ -51449,7 +51457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:48">
+    <row r="331" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <f t="shared" si="0"/>
         <v>329</v>
@@ -51596,7 +51604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:48">
+    <row r="332" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <f t="shared" si="0"/>
         <v>330</v>
@@ -51743,7 +51751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:48">
+    <row r="333" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <f t="shared" si="0"/>
         <v>331</v>
@@ -51890,7 +51898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:48">
+    <row r="334" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <f t="shared" si="0"/>
         <v>332</v>
@@ -52037,7 +52045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:48">
+    <row r="335" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <f t="shared" si="0"/>
         <v>333</v>
@@ -52184,7 +52192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:48">
+    <row r="336" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <f t="shared" si="0"/>
         <v>334</v>
@@ -52331,7 +52339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:49">
+    <row r="337" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <f t="shared" si="0"/>
         <v>335</v>
@@ -52478,7 +52486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:49">
+    <row r="338" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <f t="shared" si="0"/>
         <v>336</v>
@@ -52625,7 +52633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:49">
+    <row r="339" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <f t="shared" si="0"/>
         <v>337</v>
@@ -52772,7 +52780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:49">
+    <row r="340" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <f t="shared" si="0"/>
         <v>338</v>
@@ -52919,7 +52927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:49">
+    <row r="341" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <f t="shared" si="0"/>
         <v>339</v>
@@ -53066,7 +53074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:49">
+    <row r="342" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -53213,7 +53221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:49">
+    <row r="343" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <f t="shared" si="0"/>
         <v>341</v>
@@ -53360,7 +53368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:49">
+    <row r="344" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <f>ROW()-2</f>
         <v>342</v>
@@ -53511,7 +53519,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="345" spans="1:49">
+    <row r="345" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <f>ROW()-2</f>
         <v>343</v>
@@ -53662,7 +53670,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="346" spans="1:49">
+    <row r="346" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <f>ROW()-2</f>
         <v>344</v>
@@ -53813,7 +53821,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="347" spans="1:49">
+    <row r="347" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <f t="shared" ref="A347:A391" si="1">ROW()-2</f>
         <v>345</v>
@@ -53961,7 +53969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="348" spans="1:49">
+    <row r="348" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <f t="shared" si="1"/>
         <v>346</v>
@@ -54109,7 +54117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="349" spans="1:49">
+    <row r="349" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <f t="shared" si="1"/>
         <v>347</v>
@@ -54257,7 +54265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="350" spans="1:49">
+    <row r="350" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <f t="shared" si="1"/>
         <v>348</v>
@@ -54405,7 +54413,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="351" spans="1:49">
+    <row r="351" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <f t="shared" si="1"/>
         <v>349</v>
@@ -54553,7 +54561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="352" spans="1:49">
+    <row r="352" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <f t="shared" si="1"/>
         <v>350</v>
@@ -54700,7 +54708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:48">
+    <row r="353" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <f t="shared" si="1"/>
         <v>351</v>
@@ -54847,7 +54855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:48">
+    <row r="354" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <f t="shared" si="1"/>
         <v>352</v>
@@ -54994,7 +55002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:48">
+    <row r="355" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <f t="shared" si="1"/>
         <v>353</v>
@@ -55141,7 +55149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:48">
+    <row r="356" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <f t="shared" si="1"/>
         <v>354</v>
@@ -55288,7 +55296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:48">
+    <row r="357" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <f t="shared" si="1"/>
         <v>355</v>
@@ -55435,7 +55443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:48">
+    <row r="358" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <f t="shared" si="1"/>
         <v>356</v>
@@ -55582,7 +55590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:48">
+    <row r="359" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <f t="shared" si="1"/>
         <v>357</v>
@@ -55729,7 +55737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:48">
+    <row r="360" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <f t="shared" si="1"/>
         <v>358</v>
@@ -55876,7 +55884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:48">
+    <row r="361" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <f t="shared" si="1"/>
         <v>359</v>
@@ -56023,7 +56031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:48">
+    <row r="362" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <f t="shared" si="1"/>
         <v>360</v>
@@ -56170,7 +56178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:48">
+    <row r="363" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <f t="shared" si="1"/>
         <v>361</v>
@@ -56317,7 +56325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:48">
+    <row r="364" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <f t="shared" si="1"/>
         <v>362</v>
@@ -56464,7 +56472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:48">
+    <row r="365" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <f t="shared" si="1"/>
         <v>363</v>
@@ -56611,7 +56619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:48">
+    <row r="366" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <f t="shared" si="1"/>
         <v>364</v>
@@ -56758,7 +56766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:48">
+    <row r="367" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <f t="shared" si="1"/>
         <v>365</v>
@@ -56905,7 +56913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:48">
+    <row r="368" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <f t="shared" si="1"/>
         <v>366</v>
@@ -57052,7 +57060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:48">
+    <row r="369" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <f t="shared" si="1"/>
         <v>367</v>
@@ -57199,7 +57207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:48">
+    <row r="370" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <f t="shared" si="1"/>
         <v>368</v>
@@ -57346,7 +57354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:48">
+    <row r="371" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <f t="shared" si="1"/>
         <v>369</v>
@@ -57493,7 +57501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:48">
+    <row r="372" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <f t="shared" si="1"/>
         <v>370</v>
@@ -57640,7 +57648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:48">
+    <row r="373" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <f t="shared" si="1"/>
         <v>371</v>
@@ -57787,7 +57795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:48">
+    <row r="374" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <f t="shared" si="1"/>
         <v>372</v>
@@ -57934,7 +57942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:48">
+    <row r="375" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <f t="shared" si="1"/>
         <v>373</v>
@@ -58081,7 +58089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:48">
+    <row r="376" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <f t="shared" si="1"/>
         <v>374</v>
@@ -58228,7 +58236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:48">
+    <row r="377" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <f t="shared" si="1"/>
         <v>375</v>
@@ -58375,7 +58383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:48">
+    <row r="378" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <f t="shared" si="1"/>
         <v>376</v>
@@ -58522,7 +58530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:48">
+    <row r="379" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <f t="shared" si="1"/>
         <v>377</v>
@@ -58669,7 +58677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:48">
+    <row r="380" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <f t="shared" si="1"/>
         <v>378</v>
@@ -58816,7 +58824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:48">
+    <row r="381" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <f t="shared" si="1"/>
         <v>379</v>
@@ -58963,7 +58971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:48">
+    <row r="382" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <f t="shared" si="1"/>
         <v>380</v>
@@ -59110,7 +59118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:48">
+    <row r="383" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <f t="shared" si="1"/>
         <v>381</v>
@@ -59257,7 +59265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:48">
+    <row r="384" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <f t="shared" si="1"/>
         <v>382</v>
@@ -59404,7 +59412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:48">
+    <row r="385" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <f t="shared" si="1"/>
         <v>383</v>
@@ -59551,7 +59559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:48">
+    <row r="386" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <f t="shared" si="1"/>
         <v>384</v>
@@ -59698,7 +59706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:48">
+    <row r="387" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <f t="shared" si="1"/>
         <v>385</v>
@@ -59845,7 +59853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:48">
+    <row r="388" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <f t="shared" si="1"/>
         <v>386</v>
@@ -59992,7 +60000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:48">
+    <row r="389" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <f t="shared" si="1"/>
         <v>387</v>
@@ -60139,7 +60147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:48">
+    <row r="390" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <f t="shared" si="1"/>
         <v>388</v>
@@ -60286,7 +60294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:48">
+    <row r="391" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <f t="shared" si="1"/>
         <v>389</v>
@@ -60433,7 +60441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:48" s="17" customFormat="1">
+    <row r="392" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>390</v>
       </c>
@@ -60579,7 +60587,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="393" spans="1:48" s="17" customFormat="1">
+    <row r="393" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>391</v>
       </c>
@@ -60725,7 +60733,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="394" spans="1:48" s="17" customFormat="1">
+    <row r="394" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>392</v>
       </c>
@@ -60871,7 +60879,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="395" spans="1:48" s="17" customFormat="1">
+    <row r="395" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>393</v>
       </c>
@@ -61017,7 +61025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="396" spans="1:48" s="17" customFormat="1">
+    <row r="396" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="16">
         <v>394</v>
       </c>
@@ -61163,7 +61171,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="397" spans="1:48" s="17" customFormat="1">
+    <row r="397" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="16">
         <v>395</v>
       </c>
@@ -61309,7 +61317,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="398" spans="1:48" s="17" customFormat="1">
+    <row r="398" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="16">
         <v>396</v>
       </c>
@@ -61455,7 +61463,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="399" spans="1:48" s="17" customFormat="1">
+    <row r="399" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>397</v>
       </c>
@@ -61601,7 +61609,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="400" spans="1:48" s="17" customFormat="1">
+    <row r="400" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="16">
         <v>398</v>
       </c>
@@ -61747,7 +61755,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="401" spans="1:48" s="17" customFormat="1">
+    <row r="401" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="16">
         <v>399</v>
       </c>
@@ -61891,6 +61899,157 @@
       </c>
       <c r="AV401" s="17">
         <v>300</v>
+      </c>
+    </row>
+    <row r="402" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <f>ROW()-2</f>
+        <v>400</v>
+      </c>
+      <c r="B402" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="C402" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="D402" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E402" s="18">
+        <v>95</v>
+      </c>
+      <c r="F402" s="18">
+        <v>1</v>
+      </c>
+      <c r="G402" s="18">
+        <v>0</v>
+      </c>
+      <c r="H402" s="18">
+        <v>2</v>
+      </c>
+      <c r="I402" s="18">
+        <v>0</v>
+      </c>
+      <c r="J402" s="18">
+        <v>70000000000000</v>
+      </c>
+      <c r="K402" s="18">
+        <v>0</v>
+      </c>
+      <c r="L402" s="18">
+        <v>100</v>
+      </c>
+      <c r="M402" s="18">
+        <v>9</v>
+      </c>
+      <c r="N402" s="18">
+        <v>2</v>
+      </c>
+      <c r="O402" s="18">
+        <v>100</v>
+      </c>
+      <c r="P402" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q402" s="17">
+        <v>4</v>
+      </c>
+      <c r="R402" s="17">
+        <v>10</v>
+      </c>
+      <c r="S402" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T402" s="17" t="str">
+        <f>B402</f>
+        <v>VisionSkill20</v>
+      </c>
+      <c r="U402" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V402" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="W402" s="17">
+        <v>0</v>
+      </c>
+      <c r="X402" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y402" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI402" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ402" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK402" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL402" s="17">
+        <v>44</v>
+      </c>
+      <c r="AM402" s="17">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="AN402" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO402" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP402" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ402" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR402" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS402" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT402" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU402" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV402" s="17">
+        <v>300</v>
+      </c>
+      <c r="AW402" t="s">
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -61909,7 +62068,7 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
@@ -61923,7 +62082,7 @@
     <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -61968,7 +62127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -62012,7 +62171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -62056,7 +62215,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -62100,7 +62259,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -62144,7 +62303,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -62188,7 +62347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -62232,7 +62391,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -62276,7 +62435,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -62320,7 +62479,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -62364,7 +62523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -62408,7 +62567,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -62452,7 +62611,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -62496,7 +62655,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -62539,7 +62698,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -62552,7 +62711,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -62565,7 +62724,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -62578,7 +62737,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -62591,7 +62750,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -62604,7 +62763,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -62617,7 +62776,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -62630,7 +62789,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -62638,7 +62797,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -62646,7 +62805,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -62654,7 +62813,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -62662,7 +62821,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -62670,7 +62829,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -62678,7 +62837,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1">
+    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -62710,7 +62869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1">
+    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -62742,7 +62901,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1">
+    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -62774,7 +62933,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1">
+    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -62806,7 +62965,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -62838,7 +62997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -62870,7 +63029,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>0</v>
       </c>
@@ -62902,7 +63061,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>0</v>
       </c>
@@ -62934,7 +63093,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1">
+    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -62966,7 +63125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1">
+    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -62998,7 +63157,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1">
+    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -63030,7 +63189,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1">
+    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -63077,9 +63236,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="33">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -63114,7 +63273,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -63154,7 +63313,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -63194,7 +63353,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -63234,7 +63393,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -63274,7 +63433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -63314,7 +63473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -63354,7 +63513,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -63394,7 +63553,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -63434,7 +63593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -63474,7 +63633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -63514,7 +63673,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -63554,7 +63713,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -63605,13 +63764,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -63641,7 +63800,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -63671,7 +63830,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>450</v>
       </c>
@@ -63701,13 +63860,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -63725,7 +63884,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -63743,7 +63902,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -63761,7 +63920,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -63775,7 +63934,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -63789,7 +63948,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -63803,7 +63962,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>3</v>
       </c>
@@ -63817,7 +63976,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>7</v>
       </c>
@@ -63831,7 +63990,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>45</v>
       </c>
@@ -63859,7 +64018,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
@@ -63869,7 +64028,7 @@
     <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>245</v>
       </c>
@@ -63878,7 +64037,7 @@
       </c>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>246</v>
       </c>
@@ -63886,10 +64045,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -63909,7 +64068,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -63942,7 +64101,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -63977,7 +64136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -64012,7 +64171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -64047,7 +64206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -64082,7 +64241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -64117,7 +64276,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -64154,7 +64313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -64189,7 +64348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -64224,7 +64383,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -64259,7 +64418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -64294,7 +64453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -64329,7 +64488,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -64366,7 +64525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -64401,7 +64560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -64436,7 +64595,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -64471,7 +64630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -64506,7 +64665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I22" s="42"/>
       <c r="J22">
         <v>18</v>
@@ -64518,7 +64677,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I23" s="42">
         <v>4</v>
       </c>
@@ -64532,7 +64691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I24" s="42"/>
       <c r="J24">
         <v>20</v>
@@ -64544,7 +64703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I25" s="42"/>
       <c r="J25">
         <v>21</v>
@@ -64556,7 +64715,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I26" s="42"/>
       <c r="J26">
         <v>22</v>
@@ -64568,7 +64727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I27" s="42"/>
       <c r="J27">
         <v>23</v>
@@ -64580,7 +64739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I28" s="42"/>
       <c r="J28">
         <v>24</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE6A982-3291-4AAA-8F36-9D872778F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00506AE7-6871-4767-B538-C10526669149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -2550,7 +2550,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000000000000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3227,12 +3227,12 @@
   <dimension ref="A1:AW402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="A402" sqref="A402"/>
+      <selection pane="bottomLeft" activeCell="I405" sqref="I405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
@@ -3270,7 +3270,7 @@
     <col min="47" max="47" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="8" customFormat="1" ht="33">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" s="2" customFormat="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="2" customFormat="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" s="2" customFormat="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" s="2" customFormat="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" s="2" customFormat="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" s="2" customFormat="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" s="2" customFormat="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" s="2" customFormat="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" s="2" customFormat="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" s="2" customFormat="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" s="6" customFormat="1">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" s="6" customFormat="1">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" s="17" customFormat="1">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" s="17" customFormat="1">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" s="17" customFormat="1">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" s="17" customFormat="1">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" s="17" customFormat="1">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" s="17" customFormat="1">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" s="17" customFormat="1">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" s="17" customFormat="1">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" s="17" customFormat="1">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" s="17" customFormat="1">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" s="17" customFormat="1">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" s="17" customFormat="1">
       <c r="A35" s="16">
         <v>33</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" s="17" customFormat="1">
       <c r="A36" s="16">
         <v>34</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" s="17" customFormat="1">
       <c r="A37" s="16">
         <v>35</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" s="17" customFormat="1">
       <c r="A38" s="16">
         <v>36</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" s="6" customFormat="1">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" s="6" customFormat="1">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" s="6" customFormat="1">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" s="6" customFormat="1">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49">
       <c r="A43" s="16">
         <v>41</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49">
       <c r="A44" s="16">
         <v>42</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49">
       <c r="A45" s="16">
         <v>43</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49">
       <c r="A46" s="16">
         <v>44</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49">
       <c r="A47" s="16">
         <v>45</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49">
       <c r="A48" s="16">
         <v>46</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49">
       <c r="A49" s="16">
         <v>47</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49">
       <c r="A50" s="16">
         <v>48</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49">
       <c r="A51" s="16">
         <v>49</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49">
       <c r="A52" s="16">
         <v>50</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49">
       <c r="A53" s="16">
         <v>51</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49">
       <c r="A54" s="16">
         <v>52</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49">
       <c r="A55" s="16">
         <v>53</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49">
       <c r="A56" s="16">
         <v>54</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49">
       <c r="A57" s="16">
         <v>55</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49">
       <c r="A58" s="16">
         <v>56</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49">
       <c r="A59" s="16">
         <v>57</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49">
       <c r="A60" s="16">
         <v>58</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49">
       <c r="A61" s="16">
         <v>59</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49">
       <c r="A62" s="16">
         <v>60</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49">
       <c r="A63" s="16">
         <v>61</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49">
       <c r="A64" s="16">
         <v>62</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:48">
       <c r="A65" s="16">
         <v>63</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:48">
       <c r="A66" s="16">
         <v>64</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:48">
       <c r="A67" s="16">
         <v>65</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:48">
       <c r="A68" s="16">
         <v>66</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:48">
       <c r="A69" s="16">
         <v>67</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:48">
       <c r="A70" s="16">
         <v>68</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:48">
       <c r="A71" s="16">
         <v>69</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:48">
       <c r="A72" s="16">
         <v>70</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:48">
       <c r="A73" s="16">
         <v>71</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:48">
       <c r="A74" s="16">
         <v>72</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:48">
       <c r="A75" s="16">
         <v>73</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:48">
       <c r="A76" s="16">
         <v>74</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:48">
       <c r="A77" s="16">
         <v>75</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:48">
       <c r="A78" s="16">
         <v>76</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:48">
       <c r="A79" s="16">
         <v>77</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:48">
       <c r="A80" s="16">
         <v>78</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:48">
       <c r="A81" s="16">
         <v>79</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:48">
       <c r="A82" s="16">
         <v>80</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:48">
       <c r="A83" s="16">
         <v>81</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:48">
       <c r="A84" s="16">
         <v>82</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:48">
       <c r="A85" s="16">
         <v>83</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:48">
       <c r="A86" s="16">
         <v>84</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:48">
       <c r="A87" s="16">
         <v>85</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:48">
       <c r="A88" s="16">
         <v>86</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:48">
       <c r="A89" s="16">
         <v>87</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:48">
       <c r="A90" s="16">
         <v>88</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:48">
       <c r="A91" s="16">
         <v>89</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:48">
       <c r="A92" s="16">
         <v>90</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:48">
       <c r="A93" s="16">
         <v>91</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:48">
       <c r="A94" s="16">
         <v>92</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:48">
       <c r="A95" s="16">
         <v>93</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:48">
       <c r="A96" s="16">
         <v>94</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49">
       <c r="A97" s="16">
         <v>95</v>
       </c>
@@ -17399,7 +17399,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49">
       <c r="A98" s="16">
         <v>96</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49">
       <c r="A99" s="16">
         <v>97</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49">
       <c r="A100" s="16">
         <v>98</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49">
       <c r="A101" s="16">
         <v>99</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49">
       <c r="A102" s="16">
         <v>100</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49">
       <c r="A103" s="16">
         <v>101</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49">
       <c r="A104" s="16">
         <v>102</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49">
       <c r="A105" s="16">
         <v>103</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49">
       <c r="A106" s="16">
         <v>104</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49">
       <c r="A107" s="16">
         <v>105</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49">
       <c r="A108" s="16">
         <v>106</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49">
       <c r="A109" s="16">
         <v>107</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49">
       <c r="A110" s="16">
         <v>108</v>
       </c>
@@ -19297,7 +19297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49">
       <c r="A111" s="16">
         <v>109</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49">
       <c r="A112" s="16">
         <v>110</v>
       </c>
@@ -19589,7 +19589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:48" s="2" customFormat="1">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -19735,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:48" s="2" customFormat="1">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:48" s="2" customFormat="1">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:48" s="2" customFormat="1">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:48" s="2" customFormat="1">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -20319,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:48" s="2" customFormat="1">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:48" s="2" customFormat="1">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:48" s="2" customFormat="1">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:48" s="2" customFormat="1">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:48" s="2" customFormat="1">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:48" s="2" customFormat="1">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:48" s="2" customFormat="1">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -21341,7 +21341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:48" s="2" customFormat="1">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:48" s="2" customFormat="1">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:48" s="2" customFormat="1">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:48" s="2" customFormat="1">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -21925,7 +21925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" s="2" customFormat="1">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" s="2" customFormat="1">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" s="2" customFormat="1">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -22363,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" s="2" customFormat="1">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -22509,7 +22509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" s="2" customFormat="1">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" s="2" customFormat="1">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" s="2" customFormat="1">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" s="2" customFormat="1">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" s="2" customFormat="1">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" s="2" customFormat="1">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" s="2" customFormat="1">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -23531,7 +23531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" s="2" customFormat="1">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -23677,7 +23677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" s="2" customFormat="1">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -23823,7 +23823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" s="2" customFormat="1">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -24118,7 +24118,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -24267,7 +24267,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49">
       <c r="A145" s="16">
         <v>143</v>
       </c>
@@ -24413,7 +24413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49">
       <c r="A146" s="16">
         <v>144</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49">
       <c r="A147" s="16">
         <v>145</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49">
       <c r="A148" s="16">
         <v>146</v>
       </c>
@@ -24851,7 +24851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" s="2" customFormat="1">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -24997,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" s="2" customFormat="1">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -25581,7 +25581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -26165,7 +26165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -26460,7 +26460,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -26609,7 +26609,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -26758,7 +26758,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -26907,7 +26907,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" s="2" customFormat="1">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" s="2" customFormat="1">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -27199,7 +27199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" s="2" customFormat="1">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" s="2" customFormat="1">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -27491,7 +27491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" s="2" customFormat="1">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -27637,7 +27637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" s="2" customFormat="1">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" s="2" customFormat="1">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -27929,7 +27929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" s="2" customFormat="1">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -28075,7 +28075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" s="2" customFormat="1">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -28221,7 +28221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" s="2" customFormat="1">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" s="2" customFormat="1">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:49">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -28662,7 +28662,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:49">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -28811,7 +28811,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="176" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:49">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -28957,7 +28957,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:49">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -29103,7 +29103,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:49">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -29249,7 +29249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:49">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -29395,7 +29395,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:49">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -29541,7 +29541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:49">
       <c r="A181" s="16">
         <v>179</v>
       </c>
@@ -29687,7 +29687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:49">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -29836,7 +29836,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="183" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:49" s="2" customFormat="1">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -29982,7 +29982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:49" s="2" customFormat="1">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:49" s="2" customFormat="1">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:49" s="2" customFormat="1">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:49" s="2" customFormat="1">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:49" s="2" customFormat="1">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:49" s="2" customFormat="1">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -30858,7 +30858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:49" s="2" customFormat="1">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -31004,7 +31004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:49" s="2" customFormat="1">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -31150,7 +31150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:49" s="2" customFormat="1">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -31296,7 +31296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:48">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -31442,7 +31442,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:48">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -31588,7 +31588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:48">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -31734,7 +31734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:48">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -31880,7 +31880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:48">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -32026,7 +32026,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:48">
       <c r="A198" s="16">
         <v>196</v>
       </c>
@@ -32172,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:48">
       <c r="A199" s="16">
         <v>197</v>
       </c>
@@ -32318,7 +32318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:48">
       <c r="A200" s="16">
         <v>198</v>
       </c>
@@ -32464,7 +32464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:48">
       <c r="A201" s="16">
         <v>199</v>
       </c>
@@ -32610,7 +32610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:48">
       <c r="A202" s="16">
         <v>200</v>
       </c>
@@ -32756,7 +32756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:48">
       <c r="A203" s="16">
         <v>201</v>
       </c>
@@ -32902,7 +32902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:48">
       <c r="A204" s="16">
         <v>202</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:48">
       <c r="A205" s="16">
         <v>203</v>
       </c>
@@ -33194,7 +33194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:48">
       <c r="A206" s="16">
         <v>204</v>
       </c>
@@ -33340,7 +33340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:48">
       <c r="A207" s="16">
         <v>205</v>
       </c>
@@ -33486,7 +33486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:48" s="2" customFormat="1">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -33632,7 +33632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:48" s="2" customFormat="1">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -33778,7 +33778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:48" s="2" customFormat="1">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -33924,7 +33924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:48" s="2" customFormat="1">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -34070,7 +34070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:48" s="2" customFormat="1">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -34216,7 +34216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:48" s="2" customFormat="1">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -34362,7 +34362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:48" s="2" customFormat="1">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -34508,7 +34508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:48" s="2" customFormat="1">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -34654,7 +34654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:48" s="2" customFormat="1">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -34800,7 +34800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:48" s="2" customFormat="1">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -34946,7 +34946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:48" s="2" customFormat="1">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -35092,7 +35092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:48" s="2" customFormat="1">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:48" s="2" customFormat="1">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -35384,7 +35384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:48" s="2" customFormat="1">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -35530,7 +35530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:48" s="2" customFormat="1">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -35676,7 +35676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:48" s="2" customFormat="1">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -35822,7 +35822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:48" s="2" customFormat="1">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:49" s="2" customFormat="1">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -36114,7 +36114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:49" s="2" customFormat="1">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -36260,7 +36260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:49" s="2" customFormat="1">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -36406,7 +36406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:49">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -36555,7 +36555,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="229" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:49">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -36704,7 +36704,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="230" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:49" s="2" customFormat="1">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -36850,7 +36850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:49" s="2" customFormat="1">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:49" s="2" customFormat="1">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:49" s="2" customFormat="1">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -37288,7 +37288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:49" s="2" customFormat="1">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -37434,7 +37434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:49" s="2" customFormat="1">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -37580,7 +37580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:49" s="2" customFormat="1">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -37726,7 +37726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:49" s="2" customFormat="1">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -37872,7 +37872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:49" s="2" customFormat="1">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -38018,7 +38018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:49" s="2" customFormat="1">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -38164,7 +38164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:49" s="2" customFormat="1">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -38310,7 +38310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:48" s="2" customFormat="1">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -38456,7 +38456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:48" s="2" customFormat="1">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -38602,7 +38602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:48" s="2" customFormat="1">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -38748,7 +38748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:48" s="2" customFormat="1">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -38894,7 +38894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:48" s="2" customFormat="1">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -39040,7 +39040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:48" s="2" customFormat="1">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -39186,7 +39186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:48" s="2" customFormat="1">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -39332,7 +39332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:48" s="2" customFormat="1">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -39478,7 +39478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:48">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -39624,7 +39624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:48">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -39770,7 +39770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:48">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -39916,7 +39916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:48">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:48">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -40208,7 +40208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:48">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -40354,7 +40354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:48">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:48">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -40646,7 +40646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:48">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -40792,7 +40792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:48">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -40938,7 +40938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:48">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -41084,7 +41084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:48">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -41230,7 +41230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:48">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -41376,7 +41376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:48">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -41522,7 +41522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:48">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -41668,7 +41668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:48">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -41814,7 +41814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:48">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -41960,7 +41960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:48">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -42106,7 +42106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:48">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -42252,7 +42252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:48">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -42398,7 +42398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:48" s="17" customFormat="1">
       <c r="A269" s="16">
         <v>267</v>
       </c>
@@ -42544,7 +42544,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:48" s="17" customFormat="1">
       <c r="A270" s="16">
         <v>268</v>
       </c>
@@ -42690,7 +42690,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="271" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:48" s="17" customFormat="1">
       <c r="A271" s="16">
         <v>269</v>
       </c>
@@ -42836,7 +42836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="272" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:48" s="17" customFormat="1">
       <c r="A272" s="16">
         <v>270</v>
       </c>
@@ -42982,7 +42982,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="273" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:48" s="17" customFormat="1">
       <c r="A273" s="16">
         <v>271</v>
       </c>
@@ -43128,7 +43128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="274" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:48" s="17" customFormat="1">
       <c r="A274" s="16">
         <v>272</v>
       </c>
@@ -43274,7 +43274,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:48" s="17" customFormat="1">
       <c r="A275" s="16">
         <v>273</v>
       </c>
@@ -43420,7 +43420,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="276" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:48" s="17" customFormat="1">
       <c r="A276" s="16">
         <v>274</v>
       </c>
@@ -43566,7 +43566,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:48" s="17" customFormat="1">
       <c r="A277" s="16">
         <v>275</v>
       </c>
@@ -43712,7 +43712,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="278" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:48" s="17" customFormat="1">
       <c r="A278" s="16">
         <v>276</v>
       </c>
@@ -43858,7 +43858,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="279" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:48">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -44004,7 +44004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:48">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -44150,7 +44150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:48">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -44296,7 +44296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:48">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -44442,7 +44442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:48">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -44588,7 +44588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:48">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -44734,7 +44734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:48">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -44880,7 +44880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:48">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -45026,7 +45026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:48">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -45172,7 +45172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:48">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -45318,7 +45318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:48">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -45464,7 +45464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:48">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -45610,7 +45610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:48">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -45756,7 +45756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:48">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -45902,7 +45902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:48">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -46048,7 +46048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:48">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -46194,7 +46194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:48">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -46340,7 +46340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:48">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -46486,7 +46486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:48">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -46632,7 +46632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:48">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -46778,7 +46778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:48">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -46924,7 +46924,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:48">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -47070,7 +47070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="301" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:48">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -47216,7 +47216,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="302" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:48">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -47362,7 +47362,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="303" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:48">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -47508,7 +47508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:48">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -47654,7 +47654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:48">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -47800,7 +47800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:48">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -47946,7 +47946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:48">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -48092,7 +48092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:48">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -48238,7 +48238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:48">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -48384,7 +48384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:48">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -48530,7 +48530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:48">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -48676,7 +48676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:48">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -48822,7 +48822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:48">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -48968,7 +48968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:48">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -49114,7 +49114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:48">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -49260,7 +49260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:48">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -49406,7 +49406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:48">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -49552,7 +49552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:48">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -49698,7 +49698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:48">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -49844,7 +49844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:48">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -49990,7 +49990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:48">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -50136,7 +50136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:48">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -50282,7 +50282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:48">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -50428,7 +50428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:48">
       <c r="A324" s="1">
         <f t="shared" ref="A324:A343" si="0">ROW()-2</f>
         <v>322</v>
@@ -50575,7 +50575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:48">
       <c r="A325" s="1">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -50722,7 +50722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:48">
       <c r="A326" s="1">
         <f t="shared" si="0"/>
         <v>324</v>
@@ -50869,7 +50869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:48">
       <c r="A327" s="1">
         <f t="shared" si="0"/>
         <v>325</v>
@@ -51016,7 +51016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:48">
       <c r="A328" s="1">
         <f t="shared" si="0"/>
         <v>326</v>
@@ -51163,7 +51163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:48">
       <c r="A329" s="1">
         <f t="shared" si="0"/>
         <v>327</v>
@@ -51310,7 +51310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:48">
       <c r="A330" s="1">
         <f t="shared" si="0"/>
         <v>328</v>
@@ -51457,7 +51457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:48">
       <c r="A331" s="1">
         <f t="shared" si="0"/>
         <v>329</v>
@@ -51604,7 +51604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:48">
       <c r="A332" s="1">
         <f t="shared" si="0"/>
         <v>330</v>
@@ -51751,7 +51751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:48">
       <c r="A333" s="1">
         <f t="shared" si="0"/>
         <v>331</v>
@@ -51898,7 +51898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:48">
       <c r="A334" s="1">
         <f t="shared" si="0"/>
         <v>332</v>
@@ -52045,7 +52045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:48">
       <c r="A335" s="1">
         <f t="shared" si="0"/>
         <v>333</v>
@@ -52192,7 +52192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:48">
       <c r="A336" s="1">
         <f t="shared" si="0"/>
         <v>334</v>
@@ -52339,7 +52339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:49">
       <c r="A337" s="1">
         <f t="shared" si="0"/>
         <v>335</v>
@@ -52486,7 +52486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:49">
       <c r="A338" s="1">
         <f t="shared" si="0"/>
         <v>336</v>
@@ -52633,7 +52633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:49">
       <c r="A339" s="1">
         <f t="shared" si="0"/>
         <v>337</v>
@@ -52780,7 +52780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:49">
       <c r="A340" s="1">
         <f t="shared" si="0"/>
         <v>338</v>
@@ -52927,7 +52927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:49">
       <c r="A341" s="1">
         <f t="shared" si="0"/>
         <v>339</v>
@@ -53074,7 +53074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:49">
       <c r="A342" s="1">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -53221,7 +53221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:49">
       <c r="A343" s="1">
         <f t="shared" si="0"/>
         <v>341</v>
@@ -53368,7 +53368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:49">
       <c r="A344" s="1">
         <f>ROW()-2</f>
         <v>342</v>
@@ -53519,7 +53519,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="345" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:49">
       <c r="A345" s="1">
         <f>ROW()-2</f>
         <v>343</v>
@@ -53670,7 +53670,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="346" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:49">
       <c r="A346" s="1">
         <f>ROW()-2</f>
         <v>344</v>
@@ -53821,7 +53821,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="347" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:49">
       <c r="A347" s="1">
         <f t="shared" ref="A347:A391" si="1">ROW()-2</f>
         <v>345</v>
@@ -53969,7 +53969,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="348" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:49">
       <c r="A348" s="1">
         <f t="shared" si="1"/>
         <v>346</v>
@@ -54117,7 +54117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="349" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:49">
       <c r="A349" s="1">
         <f t="shared" si="1"/>
         <v>347</v>
@@ -54265,7 +54265,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="350" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:49">
       <c r="A350" s="1">
         <f t="shared" si="1"/>
         <v>348</v>
@@ -54413,7 +54413,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="351" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:49">
       <c r="A351" s="1">
         <f t="shared" si="1"/>
         <v>349</v>
@@ -54561,7 +54561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="352" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:49">
       <c r="A352" s="1">
         <f t="shared" si="1"/>
         <v>350</v>
@@ -54708,7 +54708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:48">
       <c r="A353" s="1">
         <f t="shared" si="1"/>
         <v>351</v>
@@ -54855,7 +54855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:48">
       <c r="A354" s="1">
         <f t="shared" si="1"/>
         <v>352</v>
@@ -55002,7 +55002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:48">
       <c r="A355" s="1">
         <f t="shared" si="1"/>
         <v>353</v>
@@ -55149,7 +55149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:48">
       <c r="A356" s="1">
         <f t="shared" si="1"/>
         <v>354</v>
@@ -55296,7 +55296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:48">
       <c r="A357" s="1">
         <f t="shared" si="1"/>
         <v>355</v>
@@ -55443,7 +55443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:48">
       <c r="A358" s="1">
         <f t="shared" si="1"/>
         <v>356</v>
@@ -55590,7 +55590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:48">
       <c r="A359" s="1">
         <f t="shared" si="1"/>
         <v>357</v>
@@ -55737,7 +55737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:48">
       <c r="A360" s="1">
         <f t="shared" si="1"/>
         <v>358</v>
@@ -55884,7 +55884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:48">
       <c r="A361" s="1">
         <f t="shared" si="1"/>
         <v>359</v>
@@ -56031,7 +56031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:48">
       <c r="A362" s="1">
         <f t="shared" si="1"/>
         <v>360</v>
@@ -56178,7 +56178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:48">
       <c r="A363" s="1">
         <f t="shared" si="1"/>
         <v>361</v>
@@ -56325,7 +56325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:48">
       <c r="A364" s="1">
         <f t="shared" si="1"/>
         <v>362</v>
@@ -56472,7 +56472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:48">
       <c r="A365" s="1">
         <f t="shared" si="1"/>
         <v>363</v>
@@ -56619,7 +56619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:48">
       <c r="A366" s="1">
         <f t="shared" si="1"/>
         <v>364</v>
@@ -56766,7 +56766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:48">
       <c r="A367" s="1">
         <f t="shared" si="1"/>
         <v>365</v>
@@ -56913,7 +56913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:48">
       <c r="A368" s="1">
         <f t="shared" si="1"/>
         <v>366</v>
@@ -57060,7 +57060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:48">
       <c r="A369" s="1">
         <f t="shared" si="1"/>
         <v>367</v>
@@ -57207,7 +57207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:48">
       <c r="A370" s="1">
         <f t="shared" si="1"/>
         <v>368</v>
@@ -57354,7 +57354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:48">
       <c r="A371" s="1">
         <f t="shared" si="1"/>
         <v>369</v>
@@ -57501,7 +57501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:48">
       <c r="A372" s="1">
         <f t="shared" si="1"/>
         <v>370</v>
@@ -57648,7 +57648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:48">
       <c r="A373" s="1">
         <f t="shared" si="1"/>
         <v>371</v>
@@ -57795,7 +57795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:48">
       <c r="A374" s="1">
         <f t="shared" si="1"/>
         <v>372</v>
@@ -57942,7 +57942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:48">
       <c r="A375" s="1">
         <f t="shared" si="1"/>
         <v>373</v>
@@ -58089,7 +58089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:48">
       <c r="A376" s="1">
         <f t="shared" si="1"/>
         <v>374</v>
@@ -58236,7 +58236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:48">
       <c r="A377" s="1">
         <f t="shared" si="1"/>
         <v>375</v>
@@ -58383,7 +58383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:48">
       <c r="A378" s="1">
         <f t="shared" si="1"/>
         <v>376</v>
@@ -58530,7 +58530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:48">
       <c r="A379" s="1">
         <f t="shared" si="1"/>
         <v>377</v>
@@ -58677,7 +58677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:48">
       <c r="A380" s="1">
         <f t="shared" si="1"/>
         <v>378</v>
@@ -58824,7 +58824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:48">
       <c r="A381" s="1">
         <f t="shared" si="1"/>
         <v>379</v>
@@ -58971,7 +58971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:48">
       <c r="A382" s="1">
         <f t="shared" si="1"/>
         <v>380</v>
@@ -59118,7 +59118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:48">
       <c r="A383" s="1">
         <f t="shared" si="1"/>
         <v>381</v>
@@ -59265,7 +59265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:48">
       <c r="A384" s="1">
         <f t="shared" si="1"/>
         <v>382</v>
@@ -59412,7 +59412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:48">
       <c r="A385" s="1">
         <f t="shared" si="1"/>
         <v>383</v>
@@ -59559,7 +59559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:48">
       <c r="A386" s="1">
         <f t="shared" si="1"/>
         <v>384</v>
@@ -59706,7 +59706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:48">
       <c r="A387" s="1">
         <f t="shared" si="1"/>
         <v>385</v>
@@ -59853,7 +59853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:48">
       <c r="A388" s="1">
         <f t="shared" si="1"/>
         <v>386</v>
@@ -60000,7 +60000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:48">
       <c r="A389" s="1">
         <f t="shared" si="1"/>
         <v>387</v>
@@ -60147,7 +60147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:48">
       <c r="A390" s="1">
         <f t="shared" si="1"/>
         <v>388</v>
@@ -60294,7 +60294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:48">
       <c r="A391" s="1">
         <f t="shared" si="1"/>
         <v>389</v>
@@ -60441,7 +60441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:48" s="17" customFormat="1">
       <c r="A392" s="16">
         <v>390</v>
       </c>
@@ -60470,7 +60470,7 @@
         <v>0</v>
       </c>
       <c r="J392" s="40">
-        <v>480000000000000</v>
+        <v>500000000000000</v>
       </c>
       <c r="K392" s="40">
         <v>0</v>
@@ -60578,7 +60578,7 @@
         <v>558</v>
       </c>
       <c r="AT392" s="17">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AU392" s="17" t="s">
         <v>217</v>
@@ -60587,7 +60587,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="393" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:48" s="17" customFormat="1">
       <c r="A393" s="16">
         <v>391</v>
       </c>
@@ -60616,7 +60616,7 @@
         <v>0</v>
       </c>
       <c r="J393" s="40">
-        <v>540000000000000</v>
+        <v>600000000000000</v>
       </c>
       <c r="K393" s="40">
         <v>0</v>
@@ -60724,7 +60724,7 @@
         <v>558</v>
       </c>
       <c r="AT393" s="17">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AU393" s="17" t="s">
         <v>217</v>
@@ -60733,7 +60733,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="394" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:48" s="17" customFormat="1">
       <c r="A394" s="16">
         <v>392</v>
       </c>
@@ -60762,7 +60762,7 @@
         <v>0</v>
       </c>
       <c r="J394" s="40">
-        <v>600000000000000</v>
+        <v>700000000000000</v>
       </c>
       <c r="K394" s="40">
         <v>0</v>
@@ -60870,7 +60870,7 @@
         <v>558</v>
       </c>
       <c r="AT394" s="17">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AU394" s="17" t="s">
         <v>217</v>
@@ -60879,7 +60879,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="395" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:48" s="17" customFormat="1">
       <c r="A395" s="16">
         <v>393</v>
       </c>
@@ -60908,7 +60908,7 @@
         <v>0</v>
       </c>
       <c r="J395" s="40">
-        <v>660000000000000</v>
+        <v>800000000000000</v>
       </c>
       <c r="K395" s="40">
         <v>0</v>
@@ -61016,7 +61016,7 @@
         <v>558</v>
       </c>
       <c r="AT395" s="17">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AU395" s="17" t="s">
         <v>217</v>
@@ -61025,7 +61025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="396" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:48" s="17" customFormat="1">
       <c r="A396" s="16">
         <v>394</v>
       </c>
@@ -61054,7 +61054,7 @@
         <v>0</v>
       </c>
       <c r="J396" s="40">
-        <v>720000000000000</v>
+        <v>900000000000000</v>
       </c>
       <c r="K396" s="40">
         <v>0</v>
@@ -61162,7 +61162,7 @@
         <v>558</v>
       </c>
       <c r="AT396" s="17">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AU396" s="17" t="s">
         <v>217</v>
@@ -61171,7 +61171,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="397" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:48" s="17" customFormat="1">
       <c r="A397" s="16">
         <v>395</v>
       </c>
@@ -61200,7 +61200,7 @@
         <v>0</v>
       </c>
       <c r="J397" s="40">
-        <v>780000000000000</v>
+        <v>1000000000000000</v>
       </c>
       <c r="K397" s="40">
         <v>0</v>
@@ -61308,7 +61308,7 @@
         <v>558</v>
       </c>
       <c r="AT397" s="17">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AU397" s="17" t="s">
         <v>217</v>
@@ -61317,7 +61317,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="398" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:48" s="17" customFormat="1">
       <c r="A398" s="16">
         <v>396</v>
       </c>
@@ -61346,7 +61346,7 @@
         <v>0</v>
       </c>
       <c r="J398" s="40">
-        <v>840000000000000</v>
+        <v>1150000000000000</v>
       </c>
       <c r="K398" s="40">
         <v>0</v>
@@ -61454,7 +61454,7 @@
         <v>558</v>
       </c>
       <c r="AT398" s="17">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AU398" s="17" t="s">
         <v>217</v>
@@ -61463,7 +61463,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="399" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:48" s="17" customFormat="1">
       <c r="A399" s="16">
         <v>397</v>
       </c>
@@ -61492,7 +61492,7 @@
         <v>0</v>
       </c>
       <c r="J399" s="40">
-        <v>900000000000000</v>
+        <v>1300000000000000</v>
       </c>
       <c r="K399" s="40">
         <v>0</v>
@@ -61600,7 +61600,7 @@
         <v>558</v>
       </c>
       <c r="AT399" s="17">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="AU399" s="17" t="s">
         <v>217</v>
@@ -61609,7 +61609,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="400" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:48" s="17" customFormat="1">
       <c r="A400" s="16">
         <v>398</v>
       </c>
@@ -61638,7 +61638,7 @@
         <v>0</v>
       </c>
       <c r="J400" s="40">
-        <v>960000000000000</v>
+        <v>1450000000000000</v>
       </c>
       <c r="K400" s="40">
         <v>0</v>
@@ -61746,7 +61746,7 @@
         <v>558</v>
       </c>
       <c r="AT400" s="17">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="AU400" s="17" t="s">
         <v>217</v>
@@ -61755,7 +61755,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="401" spans="1:49" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:49" s="17" customFormat="1">
       <c r="A401" s="16">
         <v>399</v>
       </c>
@@ -61784,7 +61784,7 @@
         <v>0</v>
       </c>
       <c r="J401" s="40">
-        <v>1020000000000000</v>
+        <v>1600000000000000</v>
       </c>
       <c r="K401" s="40">
         <v>0</v>
@@ -61892,7 +61892,7 @@
         <v>558</v>
       </c>
       <c r="AT401" s="17">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="AU401" s="17" t="s">
         <v>217</v>
@@ -61901,7 +61901,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="402" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:49">
       <c r="A402" s="1">
         <f>ROW()-2</f>
         <v>400</v>
@@ -62068,7 +62068,7 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
@@ -62082,7 +62082,7 @@
     <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -62127,7 +62127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -62171,7 +62171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -62215,7 +62215,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="2" customFormat="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -62259,7 +62259,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="2" customFormat="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -62303,7 +62303,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -62347,7 +62347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -62391,7 +62391,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -62435,7 +62435,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -62479,7 +62479,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -62523,7 +62523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="2" customFormat="1">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -62567,7 +62567,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="2" customFormat="1">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -62611,7 +62611,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="2" customFormat="1">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -62655,7 +62655,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -62698,7 +62698,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -62711,7 +62711,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -62724,7 +62724,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:15">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -62737,7 +62737,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:15">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -62750,7 +62750,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:15">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -62763,7 +62763,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:15">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -62776,7 +62776,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:15">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -62789,7 +62789,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:15">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -62797,7 +62797,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:15">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -62805,7 +62805,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -62813,7 +62813,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -62821,7 +62821,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -62829,7 +62829,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -62837,7 +62837,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:15" s="2" customFormat="1">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -62869,7 +62869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:15" s="2" customFormat="1">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -62901,7 +62901,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:15" s="2" customFormat="1">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -62933,7 +62933,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:15" s="2" customFormat="1">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -62965,7 +62965,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:15">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -62997,7 +62997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:15">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -63029,7 +63029,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:15">
       <c r="F40">
         <v>0</v>
       </c>
@@ -63061,7 +63061,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:15">
       <c r="F41">
         <v>0</v>
       </c>
@@ -63093,7 +63093,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:15" s="2" customFormat="1">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -63125,7 +63125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:15" s="2" customFormat="1">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -63157,7 +63157,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:15" s="2" customFormat="1">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -63189,7 +63189,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:15" s="2" customFormat="1">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -63236,9 +63236,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="33">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -63273,7 +63273,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -63313,7 +63313,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -63353,7 +63353,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -63393,7 +63393,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -63433,7 +63433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -63473,7 +63473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -63513,7 +63513,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -63553,7 +63553,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -63593,7 +63593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -63633,7 +63633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -63673,7 +63673,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -63713,7 +63713,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -63764,13 +63764,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -63800,7 +63800,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -63830,7 +63830,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>450</v>
       </c>
@@ -63860,13 +63860,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -63884,7 +63884,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -63902,7 +63902,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -63920,7 +63920,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -63934,7 +63934,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -63948,7 +63948,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:10">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -63962,7 +63962,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:10">
       <c r="G19">
         <v>3</v>
       </c>
@@ -63976,7 +63976,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:10">
       <c r="G20">
         <v>7</v>
       </c>
@@ -63990,7 +63990,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:10">
       <c r="G21">
         <v>45</v>
       </c>
@@ -64018,7 +64018,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
@@ -64028,7 +64028,7 @@
     <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>245</v>
       </c>
@@ -64037,7 +64037,7 @@
       </c>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>246</v>
       </c>
@@ -64045,10 +64045,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="C3" s="29"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>247</v>
       </c>
@@ -64068,7 +64068,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>253</v>
       </c>
@@ -64101,7 +64101,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -64136,7 +64136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
@@ -64171,7 +64171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -64206,7 +64206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>4</v>
       </c>
@@ -64241,7 +64241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>5</v>
       </c>
@@ -64276,7 +64276,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>6</v>
       </c>
@@ -64313,7 +64313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>7</v>
       </c>
@@ -64348,7 +64348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>8</v>
       </c>
@@ -64383,7 +64383,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>9</v>
       </c>
@@ -64418,7 +64418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>10</v>
       </c>
@@ -64453,7 +64453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>11</v>
       </c>
@@ -64488,7 +64488,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>12</v>
       </c>
@@ -64525,7 +64525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>13</v>
       </c>
@@ -64560,7 +64560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>14</v>
       </c>
@@ -64595,7 +64595,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>15</v>
       </c>
@@ -64630,7 +64630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>16</v>
       </c>
@@ -64665,7 +64665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="I22" s="42"/>
       <c r="J22">
         <v>18</v>
@@ -64677,7 +64677,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="I23" s="42">
         <v>4</v>
       </c>
@@ -64691,7 +64691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="I24" s="42"/>
       <c r="J24">
         <v>20</v>
@@ -64703,7 +64703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="I25" s="42"/>
       <c r="J25">
         <v>21</v>
@@ -64715,7 +64715,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="I26" s="42"/>
       <c r="J26">
         <v>22</v>
@@ -64727,7 +64727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="I27" s="42"/>
       <c r="J27">
         <v>23</v>
@@ -64739,7 +64739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="I28" s="42"/>
       <c r="J28">
         <v>24</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00506AE7-6871-4767-B538-C10526669149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5580F409-FBAA-4F7F-BC12-C20447330876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="751">
   <si>
     <t>id</t>
   </si>
@@ -2538,6 +2538,107 @@
   <si>
     <t>지옥도 - 지옥 문지기에게서 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOSkill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOSkill1</t>
+  </si>
+  <si>
+    <t>YOSkill2</t>
+  </si>
+  <si>
+    <t>YOSkill3</t>
+  </si>
+  <si>
+    <t>YOSkill4</t>
+  </si>
+  <si>
+    <t>연옥검 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연옥검 2형</t>
+  </si>
+  <si>
+    <t>연옥검 3형</t>
+  </si>
+  <si>
+    <t>연옥검 4형</t>
+  </si>
+  <si>
+    <t>연옥검 5형</t>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 223단계</t>
+  </si>
+  <si>
+    <t>도술 224단계</t>
+  </si>
+  <si>
+    <t>도술 225단계</t>
+  </si>
+  <si>
+    <t>도술 226단계</t>
+  </si>
+  <si>
+    <t>도술 227단계</t>
+  </si>
+  <si>
+    <t>도술 228단계</t>
+  </si>
+  <si>
+    <t>도술 229단계</t>
+  </si>
+  <si>
+    <t>도술 230단계</t>
+  </si>
+  <si>
+    <t>도술 231단계</t>
+  </si>
+  <si>
+    <t>도술 232단계</t>
+  </si>
+  <si>
+    <t>도술 233단계</t>
+  </si>
+  <si>
+    <t>도술 234단계</t>
+  </si>
+  <si>
+    <t>도술 235단계</t>
+  </si>
+  <si>
+    <t>도술 236단계</t>
+  </si>
+  <si>
+    <t>도술 237단계</t>
+  </si>
+  <si>
+    <t>도술 238단계</t>
+  </si>
+  <si>
+    <t>도술 221단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 222단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 239단계</t>
+  </si>
+  <si>
+    <t>도술 240단계</t>
+  </si>
+  <si>
+    <t>도술 241단계</t>
   </si>
 </sst>
 </file>
@@ -3224,12 +3325,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW402"/>
+  <dimension ref="A1:AW428"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="I405" sqref="I405"/>
+      <selection pane="bottomLeft" activeCell="AJ429" sqref="AJ429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -62050,6 +62151,3833 @@
       </c>
       <c r="AW402" t="s">
         <v>718</v>
+      </c>
+    </row>
+    <row r="403" spans="1:49">
+      <c r="A403" s="1">
+        <f t="shared" ref="A403:A428" si="3">ROW()-2</f>
+        <v>401</v>
+      </c>
+      <c r="B403" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="C403" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E403" s="18">
+        <v>96</v>
+      </c>
+      <c r="F403" s="3">
+        <v>1</v>
+      </c>
+      <c r="G403" s="3">
+        <v>0</v>
+      </c>
+      <c r="H403" s="3">
+        <v>1</v>
+      </c>
+      <c r="I403" s="3">
+        <v>0</v>
+      </c>
+      <c r="J403" s="3">
+        <v>100000000000</v>
+      </c>
+      <c r="K403" s="3">
+        <v>300</v>
+      </c>
+      <c r="L403" s="3">
+        <v>100</v>
+      </c>
+      <c r="M403" s="3">
+        <v>9</v>
+      </c>
+      <c r="N403" s="3">
+        <v>2</v>
+      </c>
+      <c r="O403" s="4">
+        <v>25</v>
+      </c>
+      <c r="P403" s="19">
+        <v>35</v>
+      </c>
+      <c r="Q403" s="17">
+        <v>4</v>
+      </c>
+      <c r="R403" s="17">
+        <v>10</v>
+      </c>
+      <c r="S403" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T403" s="17" t="str">
+        <f>B403</f>
+        <v>YOSkill0</v>
+      </c>
+      <c r="U403" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V403" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="W403" s="17">
+        <v>0</v>
+      </c>
+      <c r="X403" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y403" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI403" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ403" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK403" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL403" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM403" s="17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AN403" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO403" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP403" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ403" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR403" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS403" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT403" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU403" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV403" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:49">
+      <c r="A404" s="1">
+        <f t="shared" si="3"/>
+        <v>402</v>
+      </c>
+      <c r="B404" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="C404" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E404" s="18">
+        <v>97</v>
+      </c>
+      <c r="F404" s="3">
+        <v>1</v>
+      </c>
+      <c r="G404" s="3">
+        <v>0</v>
+      </c>
+      <c r="H404" s="3">
+        <v>1</v>
+      </c>
+      <c r="I404" s="3">
+        <v>0</v>
+      </c>
+      <c r="J404" s="3">
+        <v>200000000000</v>
+      </c>
+      <c r="K404" s="3">
+        <v>325</v>
+      </c>
+      <c r="L404" s="3">
+        <v>100</v>
+      </c>
+      <c r="M404" s="3">
+        <v>9</v>
+      </c>
+      <c r="N404" s="3">
+        <v>2</v>
+      </c>
+      <c r="O404" s="4">
+        <v>25</v>
+      </c>
+      <c r="P404" s="19">
+        <v>35</v>
+      </c>
+      <c r="Q404" s="17">
+        <v>4</v>
+      </c>
+      <c r="R404" s="17">
+        <v>10</v>
+      </c>
+      <c r="S404" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T404" s="17" t="str">
+        <f t="shared" ref="T404:T407" si="4">B404</f>
+        <v>YOSkill1</v>
+      </c>
+      <c r="U404" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V404" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="W404" s="17">
+        <v>0</v>
+      </c>
+      <c r="X404" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y404" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI404" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ404" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK404" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL404" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM404" s="38">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AN404" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO404" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP404" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ404" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR404" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS404" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT404" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU404" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV404" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:49">
+      <c r="A405" s="1">
+        <f t="shared" si="3"/>
+        <v>403</v>
+      </c>
+      <c r="B405" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="C405" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E405" s="18">
+        <v>98</v>
+      </c>
+      <c r="F405" s="3">
+        <v>1</v>
+      </c>
+      <c r="G405" s="3">
+        <v>0</v>
+      </c>
+      <c r="H405" s="3">
+        <v>1</v>
+      </c>
+      <c r="I405" s="3">
+        <v>0</v>
+      </c>
+      <c r="J405" s="3">
+        <v>300000000000</v>
+      </c>
+      <c r="K405" s="3">
+        <v>350</v>
+      </c>
+      <c r="L405" s="3">
+        <v>100</v>
+      </c>
+      <c r="M405" s="3">
+        <v>9</v>
+      </c>
+      <c r="N405" s="3">
+        <v>2</v>
+      </c>
+      <c r="O405" s="4">
+        <v>25</v>
+      </c>
+      <c r="P405" s="19">
+        <v>35</v>
+      </c>
+      <c r="Q405" s="17">
+        <v>4</v>
+      </c>
+      <c r="R405" s="17">
+        <v>10</v>
+      </c>
+      <c r="S405" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T405" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>YOSkill2</v>
+      </c>
+      <c r="U405" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V405" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="W405" s="17">
+        <v>0</v>
+      </c>
+      <c r="X405" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y405" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI405" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ405" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK405" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL405" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM405" s="17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AN405" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO405" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP405" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ405" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR405" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS405" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT405" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU405" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV405" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:49">
+      <c r="A406" s="1">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+      <c r="B406" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="C406" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E406" s="18">
+        <v>99</v>
+      </c>
+      <c r="F406" s="3">
+        <v>1</v>
+      </c>
+      <c r="G406" s="3">
+        <v>0</v>
+      </c>
+      <c r="H406" s="3">
+        <v>1</v>
+      </c>
+      <c r="I406" s="3">
+        <v>0</v>
+      </c>
+      <c r="J406" s="3">
+        <v>400000000000</v>
+      </c>
+      <c r="K406" s="3">
+        <v>375</v>
+      </c>
+      <c r="L406" s="3">
+        <v>100</v>
+      </c>
+      <c r="M406" s="3">
+        <v>9</v>
+      </c>
+      <c r="N406" s="3">
+        <v>2</v>
+      </c>
+      <c r="O406" s="4">
+        <v>25</v>
+      </c>
+      <c r="P406" s="19">
+        <v>35</v>
+      </c>
+      <c r="Q406" s="17">
+        <v>4</v>
+      </c>
+      <c r="R406" s="17">
+        <v>10</v>
+      </c>
+      <c r="S406" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T406" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>YOSkill3</v>
+      </c>
+      <c r="U406" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V406" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="W406" s="17">
+        <v>0</v>
+      </c>
+      <c r="X406" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y406" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI406" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ406" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK406" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL406" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM406" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="AN406" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO406" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP406" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ406" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR406" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS406" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT406" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU406" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV406" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:49">
+      <c r="A407" s="1">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="B407" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="C407" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E407" s="18">
+        <v>100</v>
+      </c>
+      <c r="F407" s="3">
+        <v>1</v>
+      </c>
+      <c r="G407" s="3">
+        <v>0</v>
+      </c>
+      <c r="H407" s="3">
+        <v>1</v>
+      </c>
+      <c r="I407" s="3">
+        <v>0</v>
+      </c>
+      <c r="J407" s="3">
+        <v>500000000000</v>
+      </c>
+      <c r="K407" s="3">
+        <v>400</v>
+      </c>
+      <c r="L407" s="3">
+        <v>100</v>
+      </c>
+      <c r="M407" s="3">
+        <v>9</v>
+      </c>
+      <c r="N407" s="3">
+        <v>2</v>
+      </c>
+      <c r="O407" s="4">
+        <v>25</v>
+      </c>
+      <c r="P407" s="19">
+        <v>35</v>
+      </c>
+      <c r="Q407" s="17">
+        <v>4</v>
+      </c>
+      <c r="R407" s="17">
+        <v>10</v>
+      </c>
+      <c r="S407" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T407" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>YOSkill4</v>
+      </c>
+      <c r="U407" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V407" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="W407" s="17">
+        <v>0</v>
+      </c>
+      <c r="X407" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y407" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI407" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ407" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK407" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL407" s="17">
+        <v>114</v>
+      </c>
+      <c r="AM407" s="17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AN407" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO407" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP407" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ407" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR407" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS407" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT407" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU407" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV407" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:49">
+      <c r="A408" s="1">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C408" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E408" s="36">
+        <v>36</v>
+      </c>
+      <c r="F408" s="3">
+        <v>1</v>
+      </c>
+      <c r="G408" s="3">
+        <v>0</v>
+      </c>
+      <c r="H408" s="3">
+        <v>5</v>
+      </c>
+      <c r="I408" s="3">
+        <v>0</v>
+      </c>
+      <c r="J408" s="37">
+        <v>2000000000000</v>
+      </c>
+      <c r="K408" s="3">
+        <v>0</v>
+      </c>
+      <c r="L408" s="3">
+        <v>500</v>
+      </c>
+      <c r="M408" s="3">
+        <v>1</v>
+      </c>
+      <c r="N408" s="3">
+        <v>2</v>
+      </c>
+      <c r="O408" s="4">
+        <v>100</v>
+      </c>
+      <c r="P408" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q408" s="2">
+        <v>4</v>
+      </c>
+      <c r="R408" s="2">
+        <v>10</v>
+      </c>
+      <c r="S408" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T408" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U408" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V408" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W408" s="2">
+        <v>0</v>
+      </c>
+      <c r="X408" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y408" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI408" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ408" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK408" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL408" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM408" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN408" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO408" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP408" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ408" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR408" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS408" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT408" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU408" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV408" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:49">
+      <c r="A409" s="1">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C409" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E409" s="36">
+        <v>36</v>
+      </c>
+      <c r="F409" s="3">
+        <v>1</v>
+      </c>
+      <c r="G409" s="3">
+        <v>0</v>
+      </c>
+      <c r="H409" s="3">
+        <v>5</v>
+      </c>
+      <c r="I409" s="3">
+        <v>0</v>
+      </c>
+      <c r="J409" s="37">
+        <v>2010000000000</v>
+      </c>
+      <c r="K409" s="3">
+        <v>0</v>
+      </c>
+      <c r="L409" s="3">
+        <v>500</v>
+      </c>
+      <c r="M409" s="3">
+        <v>1</v>
+      </c>
+      <c r="N409" s="3">
+        <v>2</v>
+      </c>
+      <c r="O409" s="4">
+        <v>100</v>
+      </c>
+      <c r="P409" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q409" s="2">
+        <v>4</v>
+      </c>
+      <c r="R409" s="2">
+        <v>10</v>
+      </c>
+      <c r="S409" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T409" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U409" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V409" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W409" s="2">
+        <v>0</v>
+      </c>
+      <c r="X409" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y409" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI409" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ409" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK409" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL409" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM409" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN409" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO409" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP409" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ409" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR409" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS409" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT409" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU409" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV409" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:49">
+      <c r="A410" s="1">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C410" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E410" s="36">
+        <v>36</v>
+      </c>
+      <c r="F410" s="3">
+        <v>1</v>
+      </c>
+      <c r="G410" s="3">
+        <v>0</v>
+      </c>
+      <c r="H410" s="3">
+        <v>5</v>
+      </c>
+      <c r="I410" s="3">
+        <v>0</v>
+      </c>
+      <c r="J410" s="37">
+        <v>2020000000000</v>
+      </c>
+      <c r="K410" s="3">
+        <v>0</v>
+      </c>
+      <c r="L410" s="3">
+        <v>500</v>
+      </c>
+      <c r="M410" s="3">
+        <v>1</v>
+      </c>
+      <c r="N410" s="3">
+        <v>2</v>
+      </c>
+      <c r="O410" s="4">
+        <v>100</v>
+      </c>
+      <c r="P410" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q410" s="2">
+        <v>4</v>
+      </c>
+      <c r="R410" s="2">
+        <v>10</v>
+      </c>
+      <c r="S410" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T410" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U410" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V410" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W410" s="2">
+        <v>0</v>
+      </c>
+      <c r="X410" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y410" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI410" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ410" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK410" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL410" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM410" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN410" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO410" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP410" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ410" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR410" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS410" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT410" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU410" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV410" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:49">
+      <c r="A411" s="1">
+        <f t="shared" si="3"/>
+        <v>409</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C411" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E411" s="36">
+        <v>36</v>
+      </c>
+      <c r="F411" s="3">
+        <v>1</v>
+      </c>
+      <c r="G411" s="3">
+        <v>0</v>
+      </c>
+      <c r="H411" s="3">
+        <v>5</v>
+      </c>
+      <c r="I411" s="3">
+        <v>0</v>
+      </c>
+      <c r="J411" s="37">
+        <v>2030000000000</v>
+      </c>
+      <c r="K411" s="3">
+        <v>0</v>
+      </c>
+      <c r="L411" s="3">
+        <v>500</v>
+      </c>
+      <c r="M411" s="3">
+        <v>1</v>
+      </c>
+      <c r="N411" s="3">
+        <v>2</v>
+      </c>
+      <c r="O411" s="4">
+        <v>100</v>
+      </c>
+      <c r="P411" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q411" s="2">
+        <v>4</v>
+      </c>
+      <c r="R411" s="2">
+        <v>10</v>
+      </c>
+      <c r="S411" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T411" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U411" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V411" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W411" s="2">
+        <v>0</v>
+      </c>
+      <c r="X411" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y411" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI411" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ411" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK411" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL411" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM411" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN411" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO411" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP411" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ411" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR411" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS411" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT411" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU411" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV411" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:49">
+      <c r="A412" s="1">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C412" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E412" s="36">
+        <v>36</v>
+      </c>
+      <c r="F412" s="3">
+        <v>1</v>
+      </c>
+      <c r="G412" s="3">
+        <v>0</v>
+      </c>
+      <c r="H412" s="3">
+        <v>5</v>
+      </c>
+      <c r="I412" s="3">
+        <v>0</v>
+      </c>
+      <c r="J412" s="37">
+        <v>2040000000000</v>
+      </c>
+      <c r="K412" s="3">
+        <v>0</v>
+      </c>
+      <c r="L412" s="3">
+        <v>500</v>
+      </c>
+      <c r="M412" s="3">
+        <v>1</v>
+      </c>
+      <c r="N412" s="3">
+        <v>2</v>
+      </c>
+      <c r="O412" s="4">
+        <v>100</v>
+      </c>
+      <c r="P412" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q412" s="2">
+        <v>4</v>
+      </c>
+      <c r="R412" s="2">
+        <v>10</v>
+      </c>
+      <c r="S412" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T412" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U412" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V412" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W412" s="2">
+        <v>0</v>
+      </c>
+      <c r="X412" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y412" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI412" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ412" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK412" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL412" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM412" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN412" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO412" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP412" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ412" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR412" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS412" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT412" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU412" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV412" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:49">
+      <c r="A413" s="1">
+        <f t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C413" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="E413" s="36">
+        <v>36</v>
+      </c>
+      <c r="F413" s="3">
+        <v>1</v>
+      </c>
+      <c r="G413" s="3">
+        <v>0</v>
+      </c>
+      <c r="H413" s="3">
+        <v>5</v>
+      </c>
+      <c r="I413" s="3">
+        <v>0</v>
+      </c>
+      <c r="J413" s="37">
+        <v>2050000000000</v>
+      </c>
+      <c r="K413" s="3">
+        <v>0</v>
+      </c>
+      <c r="L413" s="3">
+        <v>500</v>
+      </c>
+      <c r="M413" s="3">
+        <v>1</v>
+      </c>
+      <c r="N413" s="3">
+        <v>2</v>
+      </c>
+      <c r="O413" s="4">
+        <v>100</v>
+      </c>
+      <c r="P413" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q413" s="2">
+        <v>4</v>
+      </c>
+      <c r="R413" s="2">
+        <v>10</v>
+      </c>
+      <c r="S413" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T413" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U413" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V413" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W413" s="2">
+        <v>0</v>
+      </c>
+      <c r="X413" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y413" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI413" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ413" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK413" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL413" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM413" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN413" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO413" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP413" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ413" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR413" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS413" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT413" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU413" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV413" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:49">
+      <c r="A414" s="1">
+        <f t="shared" si="3"/>
+        <v>412</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C414" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E414" s="36">
+        <v>36</v>
+      </c>
+      <c r="F414" s="3">
+        <v>1</v>
+      </c>
+      <c r="G414" s="3">
+        <v>0</v>
+      </c>
+      <c r="H414" s="3">
+        <v>5</v>
+      </c>
+      <c r="I414" s="3">
+        <v>0</v>
+      </c>
+      <c r="J414" s="37">
+        <v>2060000000000</v>
+      </c>
+      <c r="K414" s="3">
+        <v>0</v>
+      </c>
+      <c r="L414" s="3">
+        <v>500</v>
+      </c>
+      <c r="M414" s="3">
+        <v>1</v>
+      </c>
+      <c r="N414" s="3">
+        <v>2</v>
+      </c>
+      <c r="O414" s="4">
+        <v>100</v>
+      </c>
+      <c r="P414" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q414" s="2">
+        <v>4</v>
+      </c>
+      <c r="R414" s="2">
+        <v>10</v>
+      </c>
+      <c r="S414" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T414" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U414" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V414" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W414" s="2">
+        <v>0</v>
+      </c>
+      <c r="X414" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y414" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI414" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ414" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK414" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL414" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM414" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN414" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO414" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP414" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ414" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR414" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS414" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT414" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU414" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV414" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:49">
+      <c r="A415" s="1">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C415" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E415" s="36">
+        <v>36</v>
+      </c>
+      <c r="F415" s="3">
+        <v>1</v>
+      </c>
+      <c r="G415" s="3">
+        <v>0</v>
+      </c>
+      <c r="H415" s="3">
+        <v>5</v>
+      </c>
+      <c r="I415" s="3">
+        <v>0</v>
+      </c>
+      <c r="J415" s="37">
+        <v>2070000000000</v>
+      </c>
+      <c r="K415" s="3">
+        <v>0</v>
+      </c>
+      <c r="L415" s="3">
+        <v>500</v>
+      </c>
+      <c r="M415" s="3">
+        <v>1</v>
+      </c>
+      <c r="N415" s="3">
+        <v>2</v>
+      </c>
+      <c r="O415" s="4">
+        <v>100</v>
+      </c>
+      <c r="P415" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q415" s="2">
+        <v>4</v>
+      </c>
+      <c r="R415" s="2">
+        <v>10</v>
+      </c>
+      <c r="S415" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T415" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U415" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V415" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W415" s="2">
+        <v>0</v>
+      </c>
+      <c r="X415" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y415" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI415" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ415" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK415" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL415" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM415" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN415" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO415" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP415" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ415" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR415" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS415" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT415" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU415" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV415" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:49">
+      <c r="A416" s="1">
+        <f t="shared" si="3"/>
+        <v>414</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C416" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E416" s="36">
+        <v>36</v>
+      </c>
+      <c r="F416" s="3">
+        <v>1</v>
+      </c>
+      <c r="G416" s="3">
+        <v>0</v>
+      </c>
+      <c r="H416" s="3">
+        <v>5</v>
+      </c>
+      <c r="I416" s="3">
+        <v>0</v>
+      </c>
+      <c r="J416" s="37">
+        <v>2080000000000</v>
+      </c>
+      <c r="K416" s="3">
+        <v>0</v>
+      </c>
+      <c r="L416" s="3">
+        <v>500</v>
+      </c>
+      <c r="M416" s="3">
+        <v>1</v>
+      </c>
+      <c r="N416" s="3">
+        <v>2</v>
+      </c>
+      <c r="O416" s="4">
+        <v>100</v>
+      </c>
+      <c r="P416" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q416" s="2">
+        <v>4</v>
+      </c>
+      <c r="R416" s="2">
+        <v>10</v>
+      </c>
+      <c r="S416" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T416" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U416" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V416" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W416" s="2">
+        <v>0</v>
+      </c>
+      <c r="X416" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y416" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI416" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ416" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK416" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL416" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM416" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN416" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO416" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP416" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ416" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR416" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS416" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT416" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU416" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV416" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:48">
+      <c r="A417" s="1">
+        <f t="shared" si="3"/>
+        <v>415</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C417" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E417" s="36">
+        <v>36</v>
+      </c>
+      <c r="F417" s="3">
+        <v>1</v>
+      </c>
+      <c r="G417" s="3">
+        <v>0</v>
+      </c>
+      <c r="H417" s="3">
+        <v>5</v>
+      </c>
+      <c r="I417" s="3">
+        <v>0</v>
+      </c>
+      <c r="J417" s="37">
+        <v>2090000000000</v>
+      </c>
+      <c r="K417" s="3">
+        <v>0</v>
+      </c>
+      <c r="L417" s="3">
+        <v>500</v>
+      </c>
+      <c r="M417" s="3">
+        <v>1</v>
+      </c>
+      <c r="N417" s="3">
+        <v>2</v>
+      </c>
+      <c r="O417" s="4">
+        <v>100</v>
+      </c>
+      <c r="P417" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q417" s="2">
+        <v>4</v>
+      </c>
+      <c r="R417" s="2">
+        <v>10</v>
+      </c>
+      <c r="S417" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T417" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U417" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V417" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W417" s="2">
+        <v>0</v>
+      </c>
+      <c r="X417" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y417" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI417" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ417" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK417" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL417" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM417" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN417" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO417" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP417" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ417" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR417" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS417" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT417" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU417" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV417" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:48">
+      <c r="A418" s="1">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C418" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E418" s="36">
+        <v>36</v>
+      </c>
+      <c r="F418" s="3">
+        <v>1</v>
+      </c>
+      <c r="G418" s="3">
+        <v>0</v>
+      </c>
+      <c r="H418" s="3">
+        <v>5</v>
+      </c>
+      <c r="I418" s="3">
+        <v>0</v>
+      </c>
+      <c r="J418" s="37">
+        <v>2100000000000</v>
+      </c>
+      <c r="K418" s="3">
+        <v>0</v>
+      </c>
+      <c r="L418" s="3">
+        <v>500</v>
+      </c>
+      <c r="M418" s="3">
+        <v>1</v>
+      </c>
+      <c r="N418" s="3">
+        <v>2</v>
+      </c>
+      <c r="O418" s="4">
+        <v>100</v>
+      </c>
+      <c r="P418" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q418" s="2">
+        <v>4</v>
+      </c>
+      <c r="R418" s="2">
+        <v>10</v>
+      </c>
+      <c r="S418" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T418" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U418" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V418" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W418" s="2">
+        <v>0</v>
+      </c>
+      <c r="X418" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y418" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI418" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ418" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK418" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL418" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM418" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN418" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO418" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP418" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ418" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR418" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS418" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT418" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU418" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV418" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:48">
+      <c r="A419" s="1">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C419" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E419" s="36">
+        <v>36</v>
+      </c>
+      <c r="F419" s="3">
+        <v>1</v>
+      </c>
+      <c r="G419" s="3">
+        <v>0</v>
+      </c>
+      <c r="H419" s="3">
+        <v>5</v>
+      </c>
+      <c r="I419" s="3">
+        <v>0</v>
+      </c>
+      <c r="J419" s="37">
+        <v>2110000000000</v>
+      </c>
+      <c r="K419" s="3">
+        <v>0</v>
+      </c>
+      <c r="L419" s="3">
+        <v>500</v>
+      </c>
+      <c r="M419" s="3">
+        <v>1</v>
+      </c>
+      <c r="N419" s="3">
+        <v>2</v>
+      </c>
+      <c r="O419" s="4">
+        <v>100</v>
+      </c>
+      <c r="P419" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q419" s="2">
+        <v>4</v>
+      </c>
+      <c r="R419" s="2">
+        <v>10</v>
+      </c>
+      <c r="S419" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T419" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U419" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V419" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W419" s="2">
+        <v>0</v>
+      </c>
+      <c r="X419" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y419" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI419" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ419" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK419" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL419" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM419" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN419" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO419" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP419" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ419" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR419" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS419" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT419" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU419" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV419" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:48">
+      <c r="A420" s="1">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C420" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E420" s="36">
+        <v>36</v>
+      </c>
+      <c r="F420" s="3">
+        <v>1</v>
+      </c>
+      <c r="G420" s="3">
+        <v>0</v>
+      </c>
+      <c r="H420" s="3">
+        <v>5</v>
+      </c>
+      <c r="I420" s="3">
+        <v>0</v>
+      </c>
+      <c r="J420" s="37">
+        <v>2120000000000</v>
+      </c>
+      <c r="K420" s="3">
+        <v>0</v>
+      </c>
+      <c r="L420" s="3">
+        <v>500</v>
+      </c>
+      <c r="M420" s="3">
+        <v>1</v>
+      </c>
+      <c r="N420" s="3">
+        <v>2</v>
+      </c>
+      <c r="O420" s="4">
+        <v>100</v>
+      </c>
+      <c r="P420" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q420" s="2">
+        <v>4</v>
+      </c>
+      <c r="R420" s="2">
+        <v>10</v>
+      </c>
+      <c r="S420" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T420" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U420" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V420" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W420" s="2">
+        <v>0</v>
+      </c>
+      <c r="X420" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y420" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI420" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ420" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK420" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL420" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM420" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN420" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO420" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP420" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ420" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR420" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS420" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT420" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU420" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV420" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:48">
+      <c r="A421" s="1">
+        <f t="shared" si="3"/>
+        <v>419</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C421" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E421" s="36">
+        <v>36</v>
+      </c>
+      <c r="F421" s="3">
+        <v>1</v>
+      </c>
+      <c r="G421" s="3">
+        <v>0</v>
+      </c>
+      <c r="H421" s="3">
+        <v>5</v>
+      </c>
+      <c r="I421" s="3">
+        <v>0</v>
+      </c>
+      <c r="J421" s="37">
+        <v>2130000000000</v>
+      </c>
+      <c r="K421" s="3">
+        <v>0</v>
+      </c>
+      <c r="L421" s="3">
+        <v>500</v>
+      </c>
+      <c r="M421" s="3">
+        <v>1</v>
+      </c>
+      <c r="N421" s="3">
+        <v>2</v>
+      </c>
+      <c r="O421" s="4">
+        <v>100</v>
+      </c>
+      <c r="P421" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q421" s="2">
+        <v>4</v>
+      </c>
+      <c r="R421" s="2">
+        <v>10</v>
+      </c>
+      <c r="S421" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T421" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U421" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V421" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W421" s="2">
+        <v>0</v>
+      </c>
+      <c r="X421" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y421" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI421" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ421" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK421" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL421" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM421" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN421" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO421" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP421" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ421" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR421" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS421" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT421" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU421" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV421" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:48">
+      <c r="A422" s="1">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C422" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E422" s="36">
+        <v>36</v>
+      </c>
+      <c r="F422" s="3">
+        <v>1</v>
+      </c>
+      <c r="G422" s="3">
+        <v>0</v>
+      </c>
+      <c r="H422" s="3">
+        <v>5</v>
+      </c>
+      <c r="I422" s="3">
+        <v>0</v>
+      </c>
+      <c r="J422" s="37">
+        <v>2140000000000</v>
+      </c>
+      <c r="K422" s="3">
+        <v>0</v>
+      </c>
+      <c r="L422" s="3">
+        <v>500</v>
+      </c>
+      <c r="M422" s="3">
+        <v>1</v>
+      </c>
+      <c r="N422" s="3">
+        <v>2</v>
+      </c>
+      <c r="O422" s="4">
+        <v>100</v>
+      </c>
+      <c r="P422" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q422" s="2">
+        <v>4</v>
+      </c>
+      <c r="R422" s="2">
+        <v>10</v>
+      </c>
+      <c r="S422" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T422" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U422" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V422" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W422" s="2">
+        <v>0</v>
+      </c>
+      <c r="X422" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y422" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI422" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ422" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL422" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM422" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN422" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO422" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP422" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ422" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR422" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS422" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT422" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU422" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV422" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:48">
+      <c r="A423" s="1">
+        <f t="shared" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C423" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E423" s="36">
+        <v>36</v>
+      </c>
+      <c r="F423" s="3">
+        <v>1</v>
+      </c>
+      <c r="G423" s="3">
+        <v>0</v>
+      </c>
+      <c r="H423" s="3">
+        <v>5</v>
+      </c>
+      <c r="I423" s="3">
+        <v>0</v>
+      </c>
+      <c r="J423" s="37">
+        <v>2150000000000</v>
+      </c>
+      <c r="K423" s="3">
+        <v>0</v>
+      </c>
+      <c r="L423" s="3">
+        <v>500</v>
+      </c>
+      <c r="M423" s="3">
+        <v>1</v>
+      </c>
+      <c r="N423" s="3">
+        <v>2</v>
+      </c>
+      <c r="O423" s="4">
+        <v>100</v>
+      </c>
+      <c r="P423" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q423" s="2">
+        <v>4</v>
+      </c>
+      <c r="R423" s="2">
+        <v>10</v>
+      </c>
+      <c r="S423" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T423" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U423" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V423" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W423" s="2">
+        <v>0</v>
+      </c>
+      <c r="X423" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y423" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI423" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ423" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL423" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM423" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN423" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO423" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP423" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ423" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR423" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS423" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT423" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU423" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV423" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:48">
+      <c r="A424" s="1">
+        <f t="shared" si="3"/>
+        <v>422</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C424" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E424" s="36">
+        <v>36</v>
+      </c>
+      <c r="F424" s="3">
+        <v>1</v>
+      </c>
+      <c r="G424" s="3">
+        <v>0</v>
+      </c>
+      <c r="H424" s="3">
+        <v>5</v>
+      </c>
+      <c r="I424" s="3">
+        <v>0</v>
+      </c>
+      <c r="J424" s="37">
+        <v>2160000000000</v>
+      </c>
+      <c r="K424" s="3">
+        <v>0</v>
+      </c>
+      <c r="L424" s="3">
+        <v>500</v>
+      </c>
+      <c r="M424" s="3">
+        <v>1</v>
+      </c>
+      <c r="N424" s="3">
+        <v>2</v>
+      </c>
+      <c r="O424" s="4">
+        <v>100</v>
+      </c>
+      <c r="P424" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q424" s="2">
+        <v>4</v>
+      </c>
+      <c r="R424" s="2">
+        <v>10</v>
+      </c>
+      <c r="S424" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T424" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U424" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V424" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W424" s="2">
+        <v>0</v>
+      </c>
+      <c r="X424" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y424" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI424" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ424" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL424" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM424" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN424" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO424" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP424" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ424" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR424" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS424" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT424" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU424" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV424" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:48">
+      <c r="A425" s="1">
+        <f t="shared" si="3"/>
+        <v>423</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C425" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E425" s="36">
+        <v>36</v>
+      </c>
+      <c r="F425" s="3">
+        <v>1</v>
+      </c>
+      <c r="G425" s="3">
+        <v>0</v>
+      </c>
+      <c r="H425" s="3">
+        <v>5</v>
+      </c>
+      <c r="I425" s="3">
+        <v>0</v>
+      </c>
+      <c r="J425" s="37">
+        <v>2170000000000</v>
+      </c>
+      <c r="K425" s="3">
+        <v>0</v>
+      </c>
+      <c r="L425" s="3">
+        <v>500</v>
+      </c>
+      <c r="M425" s="3">
+        <v>1</v>
+      </c>
+      <c r="N425" s="3">
+        <v>2</v>
+      </c>
+      <c r="O425" s="4">
+        <v>100</v>
+      </c>
+      <c r="P425" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q425" s="2">
+        <v>4</v>
+      </c>
+      <c r="R425" s="2">
+        <v>10</v>
+      </c>
+      <c r="S425" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T425" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U425" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V425" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W425" s="2">
+        <v>0</v>
+      </c>
+      <c r="X425" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y425" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI425" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ425" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK425" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL425" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM425" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN425" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO425" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP425" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ425" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR425" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS425" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT425" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU425" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV425" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:48">
+      <c r="A426" s="1">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C426" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E426" s="36">
+        <v>36</v>
+      </c>
+      <c r="F426" s="3">
+        <v>1</v>
+      </c>
+      <c r="G426" s="3">
+        <v>0</v>
+      </c>
+      <c r="H426" s="3">
+        <v>5</v>
+      </c>
+      <c r="I426" s="3">
+        <v>0</v>
+      </c>
+      <c r="J426" s="37">
+        <v>2180000000000</v>
+      </c>
+      <c r="K426" s="3">
+        <v>0</v>
+      </c>
+      <c r="L426" s="3">
+        <v>500</v>
+      </c>
+      <c r="M426" s="3">
+        <v>1</v>
+      </c>
+      <c r="N426" s="3">
+        <v>2</v>
+      </c>
+      <c r="O426" s="4">
+        <v>100</v>
+      </c>
+      <c r="P426" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q426" s="2">
+        <v>4</v>
+      </c>
+      <c r="R426" s="2">
+        <v>10</v>
+      </c>
+      <c r="S426" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T426" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U426" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V426" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W426" s="2">
+        <v>0</v>
+      </c>
+      <c r="X426" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y426" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI426" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ426" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK426" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL426" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM426" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN426" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO426" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP426" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ426" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR426" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS426" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT426" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU426" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV426" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:48">
+      <c r="A427" s="1">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C427" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="E427" s="36">
+        <v>36</v>
+      </c>
+      <c r="F427" s="3">
+        <v>1</v>
+      </c>
+      <c r="G427" s="3">
+        <v>0</v>
+      </c>
+      <c r="H427" s="3">
+        <v>5</v>
+      </c>
+      <c r="I427" s="3">
+        <v>0</v>
+      </c>
+      <c r="J427" s="37">
+        <v>2190000000000</v>
+      </c>
+      <c r="K427" s="3">
+        <v>0</v>
+      </c>
+      <c r="L427" s="3">
+        <v>500</v>
+      </c>
+      <c r="M427" s="3">
+        <v>1</v>
+      </c>
+      <c r="N427" s="3">
+        <v>2</v>
+      </c>
+      <c r="O427" s="4">
+        <v>100</v>
+      </c>
+      <c r="P427" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q427" s="2">
+        <v>4</v>
+      </c>
+      <c r="R427" s="2">
+        <v>10</v>
+      </c>
+      <c r="S427" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T427" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U427" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V427" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W427" s="2">
+        <v>0</v>
+      </c>
+      <c r="X427" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y427" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI427" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ427" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK427" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL427" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM427" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN427" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO427" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP427" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ427" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR427" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS427" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT427" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU427" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV427" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:48">
+      <c r="A428" s="1">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C428" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E428" s="36">
+        <v>36</v>
+      </c>
+      <c r="F428" s="3">
+        <v>1</v>
+      </c>
+      <c r="G428" s="3">
+        <v>0</v>
+      </c>
+      <c r="H428" s="3">
+        <v>5</v>
+      </c>
+      <c r="I428" s="3">
+        <v>0</v>
+      </c>
+      <c r="J428" s="37">
+        <v>2200000000000</v>
+      </c>
+      <c r="K428" s="3">
+        <v>0</v>
+      </c>
+      <c r="L428" s="3">
+        <v>500</v>
+      </c>
+      <c r="M428" s="3">
+        <v>1</v>
+      </c>
+      <c r="N428" s="3">
+        <v>2</v>
+      </c>
+      <c r="O428" s="4">
+        <v>100</v>
+      </c>
+      <c r="P428" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q428" s="2">
+        <v>4</v>
+      </c>
+      <c r="R428" s="2">
+        <v>10</v>
+      </c>
+      <c r="S428" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T428" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U428" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V428" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W428" s="2">
+        <v>0</v>
+      </c>
+      <c r="X428" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y428" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI428" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ428" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK428" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL428" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM428" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN428" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO428" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP428" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ428" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR428" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS428" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT428" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU428" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV428" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289BE387-7A31-4DB3-980F-FEBE4A9A1AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966E1246-8037-40BA-AC75-08FD30811705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5320" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5980" uniqueCount="855">
   <si>
     <t>id</t>
   </si>
@@ -2777,6 +2777,186 @@
   <si>
     <t>도술 280단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 281단계</t>
+  </si>
+  <si>
+    <t>도술 282단계</t>
+  </si>
+  <si>
+    <t>도술 283단계</t>
+  </si>
+  <si>
+    <t>도술 284단계</t>
+  </si>
+  <si>
+    <t>도술 285단계</t>
+  </si>
+  <si>
+    <t>도술 286단계</t>
+  </si>
+  <si>
+    <t>도술 287단계</t>
+  </si>
+  <si>
+    <t>도술 288단계</t>
+  </si>
+  <si>
+    <t>도술 289단계</t>
+  </si>
+  <si>
+    <t>도술 290단계</t>
+  </si>
+  <si>
+    <t>도술 291단계</t>
+  </si>
+  <si>
+    <t>도술 292단계</t>
+  </si>
+  <si>
+    <t>도술 293단계</t>
+  </si>
+  <si>
+    <t>도술 294단계</t>
+  </si>
+  <si>
+    <t>도술 295단계</t>
+  </si>
+  <si>
+    <t>도술 296단계</t>
+  </si>
+  <si>
+    <t>도술 297단계</t>
+  </si>
+  <si>
+    <t>도술 298단계</t>
+  </si>
+  <si>
+    <t>도술 299단계</t>
+  </si>
+  <si>
+    <t>도술 300단계</t>
+  </si>
+  <si>
+    <t>도술 301단계</t>
+  </si>
+  <si>
+    <t>도술 302단계</t>
+  </si>
+  <si>
+    <t>도술 303단계</t>
+  </si>
+  <si>
+    <t>도술 304단계</t>
+  </si>
+  <si>
+    <t>도술 305단계</t>
+  </si>
+  <si>
+    <t>도술 306단계</t>
+  </si>
+  <si>
+    <t>도술 307단계</t>
+  </si>
+  <si>
+    <t>도술 308단계</t>
+  </si>
+  <si>
+    <t>도술 309단계</t>
+  </si>
+  <si>
+    <t>도술 310단계</t>
+  </si>
+  <si>
+    <t>도술 311단계</t>
+  </si>
+  <si>
+    <t>도술 312단계</t>
+  </si>
+  <si>
+    <t>도술 313단계</t>
+  </si>
+  <si>
+    <t>도술 314단계</t>
+  </si>
+  <si>
+    <t>도술 315단계</t>
+  </si>
+  <si>
+    <t>도술 316단계</t>
+  </si>
+  <si>
+    <t>도술 317단계</t>
+  </si>
+  <si>
+    <t>도술 318단계</t>
+  </si>
+  <si>
+    <t>도술 319단계</t>
+  </si>
+  <si>
+    <t>도술 320단계</t>
+  </si>
+  <si>
+    <t>도술 321단계</t>
+  </si>
+  <si>
+    <t>도술 322단계</t>
+  </si>
+  <si>
+    <t>도술 323단계</t>
+  </si>
+  <si>
+    <t>도술 324단계</t>
+  </si>
+  <si>
+    <t>도술 325단계</t>
+  </si>
+  <si>
+    <t>도술 326단계</t>
+  </si>
+  <si>
+    <t>도술 327단계</t>
+  </si>
+  <si>
+    <t>도술 328단계</t>
+  </si>
+  <si>
+    <t>도술 329단계</t>
+  </si>
+  <si>
+    <t>도술 330단계</t>
+  </si>
+  <si>
+    <t>도술 331단계</t>
+  </si>
+  <si>
+    <t>도술 332단계</t>
+  </si>
+  <si>
+    <t>도술 333단계</t>
+  </si>
+  <si>
+    <t>도술 334단계</t>
+  </si>
+  <si>
+    <t>도술 335단계</t>
+  </si>
+  <si>
+    <t>도술 336단계</t>
+  </si>
+  <si>
+    <t>도술 337단계</t>
+  </si>
+  <si>
+    <t>도술 338단계</t>
+  </si>
+  <si>
+    <t>도술 339단계</t>
+  </si>
+  <si>
+    <t>도술 340단계</t>
   </si>
 </sst>
 </file>
@@ -3463,12 +3643,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AW472"/>
+  <dimension ref="A1:AW532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="C440" sqref="C440"/>
+      <selection pane="bottomLeft" activeCell="AN437" sqref="AN437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -66850,7 +67030,7 @@
     </row>
     <row r="434" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
-        <f t="shared" ref="A434:A472" si="5">ROW()-2</f>
+        <f t="shared" ref="A434:A497" si="5">ROW()-2</f>
         <v>432</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -72578,6 +72758,8826 @@
         <v>217</v>
       </c>
       <c r="AV472" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <f t="shared" si="5"/>
+        <v>471</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C473" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="E473" s="36">
+        <v>36</v>
+      </c>
+      <c r="F473" s="3">
+        <v>1</v>
+      </c>
+      <c r="G473" s="3">
+        <v>0</v>
+      </c>
+      <c r="H473" s="3">
+        <v>5</v>
+      </c>
+      <c r="I473" s="3">
+        <v>0</v>
+      </c>
+      <c r="J473" s="37">
+        <v>2600000000000</v>
+      </c>
+      <c r="K473" s="3">
+        <v>0</v>
+      </c>
+      <c r="L473" s="3">
+        <v>500</v>
+      </c>
+      <c r="M473" s="3">
+        <v>1</v>
+      </c>
+      <c r="N473" s="3">
+        <v>2</v>
+      </c>
+      <c r="O473" s="4">
+        <v>100</v>
+      </c>
+      <c r="P473" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q473" s="2">
+        <v>4</v>
+      </c>
+      <c r="R473" s="2">
+        <v>10</v>
+      </c>
+      <c r="S473" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T473" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U473" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V473" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W473" s="2">
+        <v>0</v>
+      </c>
+      <c r="X473" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y473" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI473" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK473" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL473" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM473" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN473" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO473" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP473" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ473" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR473" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS473" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT473" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU473" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV473" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <f t="shared" si="5"/>
+        <v>472</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C474" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E474" s="36">
+        <v>36</v>
+      </c>
+      <c r="F474" s="3">
+        <v>1</v>
+      </c>
+      <c r="G474" s="3">
+        <v>0</v>
+      </c>
+      <c r="H474" s="3">
+        <v>5</v>
+      </c>
+      <c r="I474" s="3">
+        <v>0</v>
+      </c>
+      <c r="J474" s="37">
+        <v>2610000000000</v>
+      </c>
+      <c r="K474" s="3">
+        <v>0</v>
+      </c>
+      <c r="L474" s="3">
+        <v>500</v>
+      </c>
+      <c r="M474" s="3">
+        <v>1</v>
+      </c>
+      <c r="N474" s="3">
+        <v>2</v>
+      </c>
+      <c r="O474" s="4">
+        <v>100</v>
+      </c>
+      <c r="P474" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q474" s="2">
+        <v>4</v>
+      </c>
+      <c r="R474" s="2">
+        <v>10</v>
+      </c>
+      <c r="S474" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T474" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U474" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V474" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W474" s="2">
+        <v>0</v>
+      </c>
+      <c r="X474" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y474" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI474" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK474" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL474" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM474" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN474" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO474" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP474" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ474" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR474" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS474" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT474" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU474" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV474" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <f t="shared" si="5"/>
+        <v>473</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C475" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="E475" s="36">
+        <v>36</v>
+      </c>
+      <c r="F475" s="3">
+        <v>1</v>
+      </c>
+      <c r="G475" s="3">
+        <v>0</v>
+      </c>
+      <c r="H475" s="3">
+        <v>5</v>
+      </c>
+      <c r="I475" s="3">
+        <v>0</v>
+      </c>
+      <c r="J475" s="37">
+        <v>2620000000000</v>
+      </c>
+      <c r="K475" s="3">
+        <v>0</v>
+      </c>
+      <c r="L475" s="3">
+        <v>500</v>
+      </c>
+      <c r="M475" s="3">
+        <v>1</v>
+      </c>
+      <c r="N475" s="3">
+        <v>2</v>
+      </c>
+      <c r="O475" s="4">
+        <v>100</v>
+      </c>
+      <c r="P475" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q475" s="2">
+        <v>4</v>
+      </c>
+      <c r="R475" s="2">
+        <v>10</v>
+      </c>
+      <c r="S475" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T475" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U475" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V475" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W475" s="2">
+        <v>0</v>
+      </c>
+      <c r="X475" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y475" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI475" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ475" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK475" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL475" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM475" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN475" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO475" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP475" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ475" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR475" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS475" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT475" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU475" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV475" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <f t="shared" si="5"/>
+        <v>474</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C476" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E476" s="36">
+        <v>36</v>
+      </c>
+      <c r="F476" s="3">
+        <v>1</v>
+      </c>
+      <c r="G476" s="3">
+        <v>0</v>
+      </c>
+      <c r="H476" s="3">
+        <v>5</v>
+      </c>
+      <c r="I476" s="3">
+        <v>0</v>
+      </c>
+      <c r="J476" s="37">
+        <v>2630000000000</v>
+      </c>
+      <c r="K476" s="3">
+        <v>0</v>
+      </c>
+      <c r="L476" s="3">
+        <v>500</v>
+      </c>
+      <c r="M476" s="3">
+        <v>1</v>
+      </c>
+      <c r="N476" s="3">
+        <v>2</v>
+      </c>
+      <c r="O476" s="4">
+        <v>100</v>
+      </c>
+      <c r="P476" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q476" s="2">
+        <v>4</v>
+      </c>
+      <c r="R476" s="2">
+        <v>10</v>
+      </c>
+      <c r="S476" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T476" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U476" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V476" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W476" s="2">
+        <v>0</v>
+      </c>
+      <c r="X476" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y476" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI476" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ476" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL476" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM476" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN476" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO476" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP476" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ476" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR476" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS476" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT476" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU476" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV476" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <f t="shared" si="5"/>
+        <v>475</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C477" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="E477" s="36">
+        <v>36</v>
+      </c>
+      <c r="F477" s="3">
+        <v>1</v>
+      </c>
+      <c r="G477" s="3">
+        <v>0</v>
+      </c>
+      <c r="H477" s="3">
+        <v>5</v>
+      </c>
+      <c r="I477" s="3">
+        <v>0</v>
+      </c>
+      <c r="J477" s="37">
+        <v>2640000000000</v>
+      </c>
+      <c r="K477" s="3">
+        <v>0</v>
+      </c>
+      <c r="L477" s="3">
+        <v>500</v>
+      </c>
+      <c r="M477" s="3">
+        <v>1</v>
+      </c>
+      <c r="N477" s="3">
+        <v>2</v>
+      </c>
+      <c r="O477" s="4">
+        <v>100</v>
+      </c>
+      <c r="P477" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q477" s="2">
+        <v>4</v>
+      </c>
+      <c r="R477" s="2">
+        <v>10</v>
+      </c>
+      <c r="S477" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T477" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U477" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V477" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W477" s="2">
+        <v>0</v>
+      </c>
+      <c r="X477" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y477" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI477" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ477" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL477" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM477" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN477" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO477" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP477" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ477" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR477" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS477" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT477" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU477" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV477" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <f t="shared" si="5"/>
+        <v>476</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C478" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E478" s="36">
+        <v>36</v>
+      </c>
+      <c r="F478" s="3">
+        <v>1</v>
+      </c>
+      <c r="G478" s="3">
+        <v>0</v>
+      </c>
+      <c r="H478" s="3">
+        <v>5</v>
+      </c>
+      <c r="I478" s="3">
+        <v>0</v>
+      </c>
+      <c r="J478" s="37">
+        <v>2650000000000</v>
+      </c>
+      <c r="K478" s="3">
+        <v>0</v>
+      </c>
+      <c r="L478" s="3">
+        <v>500</v>
+      </c>
+      <c r="M478" s="3">
+        <v>1</v>
+      </c>
+      <c r="N478" s="3">
+        <v>2</v>
+      </c>
+      <c r="O478" s="4">
+        <v>100</v>
+      </c>
+      <c r="P478" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q478" s="2">
+        <v>4</v>
+      </c>
+      <c r="R478" s="2">
+        <v>10</v>
+      </c>
+      <c r="S478" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T478" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U478" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V478" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W478" s="2">
+        <v>0</v>
+      </c>
+      <c r="X478" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y478" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI478" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ478" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL478" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM478" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN478" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO478" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP478" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ478" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR478" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS478" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT478" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU478" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV478" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <f t="shared" si="5"/>
+        <v>477</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C479" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="E479" s="36">
+        <v>36</v>
+      </c>
+      <c r="F479" s="3">
+        <v>1</v>
+      </c>
+      <c r="G479" s="3">
+        <v>0</v>
+      </c>
+      <c r="H479" s="3">
+        <v>5</v>
+      </c>
+      <c r="I479" s="3">
+        <v>0</v>
+      </c>
+      <c r="J479" s="37">
+        <v>2660000000000</v>
+      </c>
+      <c r="K479" s="3">
+        <v>0</v>
+      </c>
+      <c r="L479" s="3">
+        <v>500</v>
+      </c>
+      <c r="M479" s="3">
+        <v>1</v>
+      </c>
+      <c r="N479" s="3">
+        <v>2</v>
+      </c>
+      <c r="O479" s="4">
+        <v>100</v>
+      </c>
+      <c r="P479" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q479" s="2">
+        <v>4</v>
+      </c>
+      <c r="R479" s="2">
+        <v>10</v>
+      </c>
+      <c r="S479" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T479" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U479" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V479" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W479" s="2">
+        <v>0</v>
+      </c>
+      <c r="X479" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y479" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI479" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ479" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL479" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM479" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN479" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO479" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP479" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ479" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR479" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS479" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT479" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU479" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV479" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <f t="shared" si="5"/>
+        <v>478</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C480" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E480" s="36">
+        <v>36</v>
+      </c>
+      <c r="F480" s="3">
+        <v>1</v>
+      </c>
+      <c r="G480" s="3">
+        <v>0</v>
+      </c>
+      <c r="H480" s="3">
+        <v>5</v>
+      </c>
+      <c r="I480" s="3">
+        <v>0</v>
+      </c>
+      <c r="J480" s="37">
+        <v>2670000000000</v>
+      </c>
+      <c r="K480" s="3">
+        <v>0</v>
+      </c>
+      <c r="L480" s="3">
+        <v>500</v>
+      </c>
+      <c r="M480" s="3">
+        <v>1</v>
+      </c>
+      <c r="N480" s="3">
+        <v>2</v>
+      </c>
+      <c r="O480" s="4">
+        <v>100</v>
+      </c>
+      <c r="P480" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q480" s="2">
+        <v>4</v>
+      </c>
+      <c r="R480" s="2">
+        <v>10</v>
+      </c>
+      <c r="S480" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T480" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U480" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V480" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W480" s="2">
+        <v>0</v>
+      </c>
+      <c r="X480" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y480" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI480" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ480" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL480" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM480" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN480" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO480" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP480" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ480" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR480" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS480" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT480" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU480" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV480" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <f t="shared" si="5"/>
+        <v>479</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C481" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E481" s="36">
+        <v>36</v>
+      </c>
+      <c r="F481" s="3">
+        <v>1</v>
+      </c>
+      <c r="G481" s="3">
+        <v>0</v>
+      </c>
+      <c r="H481" s="3">
+        <v>5</v>
+      </c>
+      <c r="I481" s="3">
+        <v>0</v>
+      </c>
+      <c r="J481" s="37">
+        <v>2680000000000</v>
+      </c>
+      <c r="K481" s="3">
+        <v>0</v>
+      </c>
+      <c r="L481" s="3">
+        <v>500</v>
+      </c>
+      <c r="M481" s="3">
+        <v>1</v>
+      </c>
+      <c r="N481" s="3">
+        <v>2</v>
+      </c>
+      <c r="O481" s="4">
+        <v>100</v>
+      </c>
+      <c r="P481" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q481" s="2">
+        <v>4</v>
+      </c>
+      <c r="R481" s="2">
+        <v>10</v>
+      </c>
+      <c r="S481" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T481" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U481" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V481" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W481" s="2">
+        <v>0</v>
+      </c>
+      <c r="X481" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y481" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI481" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ481" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL481" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM481" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN481" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO481" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP481" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ481" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR481" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS481" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT481" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU481" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV481" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C482" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="E482" s="36">
+        <v>36</v>
+      </c>
+      <c r="F482" s="3">
+        <v>1</v>
+      </c>
+      <c r="G482" s="3">
+        <v>0</v>
+      </c>
+      <c r="H482" s="3">
+        <v>5</v>
+      </c>
+      <c r="I482" s="3">
+        <v>0</v>
+      </c>
+      <c r="J482" s="37">
+        <v>2690000000000</v>
+      </c>
+      <c r="K482" s="3">
+        <v>0</v>
+      </c>
+      <c r="L482" s="3">
+        <v>500</v>
+      </c>
+      <c r="M482" s="3">
+        <v>1</v>
+      </c>
+      <c r="N482" s="3">
+        <v>2</v>
+      </c>
+      <c r="O482" s="4">
+        <v>100</v>
+      </c>
+      <c r="P482" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q482" s="2">
+        <v>4</v>
+      </c>
+      <c r="R482" s="2">
+        <v>10</v>
+      </c>
+      <c r="S482" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T482" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U482" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V482" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W482" s="2">
+        <v>0</v>
+      </c>
+      <c r="X482" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y482" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI482" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ482" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL482" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM482" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN482" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO482" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP482" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ482" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR482" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS482" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT482" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU482" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV482" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <f t="shared" si="5"/>
+        <v>481</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C483" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E483" s="36">
+        <v>36</v>
+      </c>
+      <c r="F483" s="3">
+        <v>1</v>
+      </c>
+      <c r="G483" s="3">
+        <v>0</v>
+      </c>
+      <c r="H483" s="3">
+        <v>5</v>
+      </c>
+      <c r="I483" s="3">
+        <v>0</v>
+      </c>
+      <c r="J483" s="37">
+        <v>2700000000000</v>
+      </c>
+      <c r="K483" s="3">
+        <v>0</v>
+      </c>
+      <c r="L483" s="3">
+        <v>500</v>
+      </c>
+      <c r="M483" s="3">
+        <v>1</v>
+      </c>
+      <c r="N483" s="3">
+        <v>2</v>
+      </c>
+      <c r="O483" s="4">
+        <v>100</v>
+      </c>
+      <c r="P483" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q483" s="2">
+        <v>4</v>
+      </c>
+      <c r="R483" s="2">
+        <v>10</v>
+      </c>
+      <c r="S483" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T483" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U483" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V483" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W483" s="2">
+        <v>0</v>
+      </c>
+      <c r="X483" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y483" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI483" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ483" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL483" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM483" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN483" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO483" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP483" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ483" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR483" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS483" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT483" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU483" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV483" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <f t="shared" si="5"/>
+        <v>482</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C484" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="E484" s="36">
+        <v>36</v>
+      </c>
+      <c r="F484" s="3">
+        <v>1</v>
+      </c>
+      <c r="G484" s="3">
+        <v>0</v>
+      </c>
+      <c r="H484" s="3">
+        <v>5</v>
+      </c>
+      <c r="I484" s="3">
+        <v>0</v>
+      </c>
+      <c r="J484" s="37">
+        <v>2710000000000</v>
+      </c>
+      <c r="K484" s="3">
+        <v>0</v>
+      </c>
+      <c r="L484" s="3">
+        <v>500</v>
+      </c>
+      <c r="M484" s="3">
+        <v>1</v>
+      </c>
+      <c r="N484" s="3">
+        <v>2</v>
+      </c>
+      <c r="O484" s="4">
+        <v>100</v>
+      </c>
+      <c r="P484" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q484" s="2">
+        <v>4</v>
+      </c>
+      <c r="R484" s="2">
+        <v>10</v>
+      </c>
+      <c r="S484" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T484" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U484" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V484" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W484" s="2">
+        <v>0</v>
+      </c>
+      <c r="X484" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y484" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI484" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ484" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL484" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM484" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN484" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO484" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP484" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ484" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR484" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS484" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT484" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU484" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV484" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <f t="shared" si="5"/>
+        <v>483</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C485" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E485" s="36">
+        <v>36</v>
+      </c>
+      <c r="F485" s="3">
+        <v>1</v>
+      </c>
+      <c r="G485" s="3">
+        <v>0</v>
+      </c>
+      <c r="H485" s="3">
+        <v>5</v>
+      </c>
+      <c r="I485" s="3">
+        <v>0</v>
+      </c>
+      <c r="J485" s="37">
+        <v>2720000000000</v>
+      </c>
+      <c r="K485" s="3">
+        <v>0</v>
+      </c>
+      <c r="L485" s="3">
+        <v>500</v>
+      </c>
+      <c r="M485" s="3">
+        <v>1</v>
+      </c>
+      <c r="N485" s="3">
+        <v>2</v>
+      </c>
+      <c r="O485" s="4">
+        <v>100</v>
+      </c>
+      <c r="P485" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q485" s="2">
+        <v>4</v>
+      </c>
+      <c r="R485" s="2">
+        <v>10</v>
+      </c>
+      <c r="S485" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T485" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U485" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V485" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W485" s="2">
+        <v>0</v>
+      </c>
+      <c r="X485" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y485" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI485" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ485" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL485" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM485" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN485" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO485" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP485" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ485" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR485" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS485" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT485" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU485" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV485" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <f t="shared" si="5"/>
+        <v>484</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C486" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E486" s="36">
+        <v>36</v>
+      </c>
+      <c r="F486" s="3">
+        <v>1</v>
+      </c>
+      <c r="G486" s="3">
+        <v>0</v>
+      </c>
+      <c r="H486" s="3">
+        <v>5</v>
+      </c>
+      <c r="I486" s="3">
+        <v>0</v>
+      </c>
+      <c r="J486" s="37">
+        <v>2730000000000</v>
+      </c>
+      <c r="K486" s="3">
+        <v>0</v>
+      </c>
+      <c r="L486" s="3">
+        <v>500</v>
+      </c>
+      <c r="M486" s="3">
+        <v>1</v>
+      </c>
+      <c r="N486" s="3">
+        <v>2</v>
+      </c>
+      <c r="O486" s="4">
+        <v>100</v>
+      </c>
+      <c r="P486" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q486" s="2">
+        <v>4</v>
+      </c>
+      <c r="R486" s="2">
+        <v>10</v>
+      </c>
+      <c r="S486" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T486" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U486" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V486" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W486" s="2">
+        <v>0</v>
+      </c>
+      <c r="X486" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y486" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI486" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ486" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK486" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL486" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM486" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN486" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO486" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP486" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ486" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR486" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS486" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT486" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU486" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV486" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <f t="shared" si="5"/>
+        <v>485</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C487" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="E487" s="36">
+        <v>36</v>
+      </c>
+      <c r="F487" s="3">
+        <v>1</v>
+      </c>
+      <c r="G487" s="3">
+        <v>0</v>
+      </c>
+      <c r="H487" s="3">
+        <v>5</v>
+      </c>
+      <c r="I487" s="3">
+        <v>0</v>
+      </c>
+      <c r="J487" s="37">
+        <v>2740000000000</v>
+      </c>
+      <c r="K487" s="3">
+        <v>0</v>
+      </c>
+      <c r="L487" s="3">
+        <v>500</v>
+      </c>
+      <c r="M487" s="3">
+        <v>1</v>
+      </c>
+      <c r="N487" s="3">
+        <v>2</v>
+      </c>
+      <c r="O487" s="4">
+        <v>100</v>
+      </c>
+      <c r="P487" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q487" s="2">
+        <v>4</v>
+      </c>
+      <c r="R487" s="2">
+        <v>10</v>
+      </c>
+      <c r="S487" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T487" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U487" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V487" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W487" s="2">
+        <v>0</v>
+      </c>
+      <c r="X487" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y487" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI487" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ487" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK487" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL487" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM487" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN487" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO487" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP487" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ487" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR487" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS487" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT487" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU487" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV487" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <f t="shared" si="5"/>
+        <v>486</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C488" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E488" s="36">
+        <v>36</v>
+      </c>
+      <c r="F488" s="3">
+        <v>1</v>
+      </c>
+      <c r="G488" s="3">
+        <v>0</v>
+      </c>
+      <c r="H488" s="3">
+        <v>5</v>
+      </c>
+      <c r="I488" s="3">
+        <v>0</v>
+      </c>
+      <c r="J488" s="37">
+        <v>2750000000000</v>
+      </c>
+      <c r="K488" s="3">
+        <v>0</v>
+      </c>
+      <c r="L488" s="3">
+        <v>500</v>
+      </c>
+      <c r="M488" s="3">
+        <v>1</v>
+      </c>
+      <c r="N488" s="3">
+        <v>2</v>
+      </c>
+      <c r="O488" s="4">
+        <v>100</v>
+      </c>
+      <c r="P488" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q488" s="2">
+        <v>4</v>
+      </c>
+      <c r="R488" s="2">
+        <v>10</v>
+      </c>
+      <c r="S488" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T488" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U488" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V488" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W488" s="2">
+        <v>0</v>
+      </c>
+      <c r="X488" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y488" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI488" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ488" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK488" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL488" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM488" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN488" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO488" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP488" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ488" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR488" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS488" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT488" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU488" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV488" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <f t="shared" si="5"/>
+        <v>487</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C489" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E489" s="36">
+        <v>36</v>
+      </c>
+      <c r="F489" s="3">
+        <v>1</v>
+      </c>
+      <c r="G489" s="3">
+        <v>0</v>
+      </c>
+      <c r="H489" s="3">
+        <v>5</v>
+      </c>
+      <c r="I489" s="3">
+        <v>0</v>
+      </c>
+      <c r="J489" s="37">
+        <v>2760000000000</v>
+      </c>
+      <c r="K489" s="3">
+        <v>0</v>
+      </c>
+      <c r="L489" s="3">
+        <v>500</v>
+      </c>
+      <c r="M489" s="3">
+        <v>1</v>
+      </c>
+      <c r="N489" s="3">
+        <v>2</v>
+      </c>
+      <c r="O489" s="4">
+        <v>100</v>
+      </c>
+      <c r="P489" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q489" s="2">
+        <v>4</v>
+      </c>
+      <c r="R489" s="2">
+        <v>10</v>
+      </c>
+      <c r="S489" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T489" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U489" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V489" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W489" s="2">
+        <v>0</v>
+      </c>
+      <c r="X489" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y489" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI489" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ489" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK489" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL489" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM489" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN489" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO489" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP489" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ489" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR489" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS489" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT489" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU489" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV489" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <f t="shared" si="5"/>
+        <v>488</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C490" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E490" s="36">
+        <v>36</v>
+      </c>
+      <c r="F490" s="3">
+        <v>1</v>
+      </c>
+      <c r="G490" s="3">
+        <v>0</v>
+      </c>
+      <c r="H490" s="3">
+        <v>5</v>
+      </c>
+      <c r="I490" s="3">
+        <v>0</v>
+      </c>
+      <c r="J490" s="37">
+        <v>2770000000000</v>
+      </c>
+      <c r="K490" s="3">
+        <v>0</v>
+      </c>
+      <c r="L490" s="3">
+        <v>500</v>
+      </c>
+      <c r="M490" s="3">
+        <v>1</v>
+      </c>
+      <c r="N490" s="3">
+        <v>2</v>
+      </c>
+      <c r="O490" s="4">
+        <v>100</v>
+      </c>
+      <c r="P490" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q490" s="2">
+        <v>4</v>
+      </c>
+      <c r="R490" s="2">
+        <v>10</v>
+      </c>
+      <c r="S490" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T490" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U490" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V490" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W490" s="2">
+        <v>0</v>
+      </c>
+      <c r="X490" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y490" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI490" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK490" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL490" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM490" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN490" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO490" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP490" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ490" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR490" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS490" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT490" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU490" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV490" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <f t="shared" si="5"/>
+        <v>489</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C491" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E491" s="36">
+        <v>36</v>
+      </c>
+      <c r="F491" s="3">
+        <v>1</v>
+      </c>
+      <c r="G491" s="3">
+        <v>0</v>
+      </c>
+      <c r="H491" s="3">
+        <v>5</v>
+      </c>
+      <c r="I491" s="3">
+        <v>0</v>
+      </c>
+      <c r="J491" s="37">
+        <v>2780000000000</v>
+      </c>
+      <c r="K491" s="3">
+        <v>0</v>
+      </c>
+      <c r="L491" s="3">
+        <v>500</v>
+      </c>
+      <c r="M491" s="3">
+        <v>1</v>
+      </c>
+      <c r="N491" s="3">
+        <v>2</v>
+      </c>
+      <c r="O491" s="4">
+        <v>100</v>
+      </c>
+      <c r="P491" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q491" s="2">
+        <v>4</v>
+      </c>
+      <c r="R491" s="2">
+        <v>10</v>
+      </c>
+      <c r="S491" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T491" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U491" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V491" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W491" s="2">
+        <v>0</v>
+      </c>
+      <c r="X491" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y491" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI491" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK491" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL491" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM491" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN491" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO491" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP491" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ491" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR491" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS491" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT491" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU491" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV491" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <f t="shared" si="5"/>
+        <v>490</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C492" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E492" s="36">
+        <v>36</v>
+      </c>
+      <c r="F492" s="3">
+        <v>1</v>
+      </c>
+      <c r="G492" s="3">
+        <v>0</v>
+      </c>
+      <c r="H492" s="3">
+        <v>5</v>
+      </c>
+      <c r="I492" s="3">
+        <v>0</v>
+      </c>
+      <c r="J492" s="37">
+        <v>2790000000000</v>
+      </c>
+      <c r="K492" s="3">
+        <v>0</v>
+      </c>
+      <c r="L492" s="3">
+        <v>500</v>
+      </c>
+      <c r="M492" s="3">
+        <v>1</v>
+      </c>
+      <c r="N492" s="3">
+        <v>2</v>
+      </c>
+      <c r="O492" s="4">
+        <v>100</v>
+      </c>
+      <c r="P492" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q492" s="2">
+        <v>4</v>
+      </c>
+      <c r="R492" s="2">
+        <v>10</v>
+      </c>
+      <c r="S492" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T492" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U492" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V492" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W492" s="2">
+        <v>0</v>
+      </c>
+      <c r="X492" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y492" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI492" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK492" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL492" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM492" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN492" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO492" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP492" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ492" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR492" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS492" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT492" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU492" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV492" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <f t="shared" si="5"/>
+        <v>491</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C493" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E493" s="36">
+        <v>36</v>
+      </c>
+      <c r="F493" s="3">
+        <v>1</v>
+      </c>
+      <c r="G493" s="3">
+        <v>0</v>
+      </c>
+      <c r="H493" s="3">
+        <v>5</v>
+      </c>
+      <c r="I493" s="3">
+        <v>0</v>
+      </c>
+      <c r="J493" s="37">
+        <v>2800000000000</v>
+      </c>
+      <c r="K493" s="3">
+        <v>0</v>
+      </c>
+      <c r="L493" s="3">
+        <v>500</v>
+      </c>
+      <c r="M493" s="3">
+        <v>1</v>
+      </c>
+      <c r="N493" s="3">
+        <v>2</v>
+      </c>
+      <c r="O493" s="4">
+        <v>100</v>
+      </c>
+      <c r="P493" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q493" s="2">
+        <v>4</v>
+      </c>
+      <c r="R493" s="2">
+        <v>10</v>
+      </c>
+      <c r="S493" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T493" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U493" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V493" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W493" s="2">
+        <v>0</v>
+      </c>
+      <c r="X493" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y493" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI493" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK493" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL493" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM493" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN493" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO493" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP493" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ493" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR493" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS493" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT493" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU493" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV493" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <f t="shared" si="5"/>
+        <v>492</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C494" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E494" s="36">
+        <v>36</v>
+      </c>
+      <c r="F494" s="3">
+        <v>1</v>
+      </c>
+      <c r="G494" s="3">
+        <v>0</v>
+      </c>
+      <c r="H494" s="3">
+        <v>5</v>
+      </c>
+      <c r="I494" s="3">
+        <v>0</v>
+      </c>
+      <c r="J494" s="37">
+        <v>2810000000000</v>
+      </c>
+      <c r="K494" s="3">
+        <v>0</v>
+      </c>
+      <c r="L494" s="3">
+        <v>500</v>
+      </c>
+      <c r="M494" s="3">
+        <v>1</v>
+      </c>
+      <c r="N494" s="3">
+        <v>2</v>
+      </c>
+      <c r="O494" s="4">
+        <v>100</v>
+      </c>
+      <c r="P494" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q494" s="2">
+        <v>4</v>
+      </c>
+      <c r="R494" s="2">
+        <v>10</v>
+      </c>
+      <c r="S494" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T494" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U494" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V494" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W494" s="2">
+        <v>0</v>
+      </c>
+      <c r="X494" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y494" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI494" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK494" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL494" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM494" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN494" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO494" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP494" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ494" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR494" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS494" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT494" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU494" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV494" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <f t="shared" si="5"/>
+        <v>493</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C495" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E495" s="36">
+        <v>36</v>
+      </c>
+      <c r="F495" s="3">
+        <v>1</v>
+      </c>
+      <c r="G495" s="3">
+        <v>0</v>
+      </c>
+      <c r="H495" s="3">
+        <v>5</v>
+      </c>
+      <c r="I495" s="3">
+        <v>0</v>
+      </c>
+      <c r="J495" s="37">
+        <v>2820000000000</v>
+      </c>
+      <c r="K495" s="3">
+        <v>0</v>
+      </c>
+      <c r="L495" s="3">
+        <v>500</v>
+      </c>
+      <c r="M495" s="3">
+        <v>1</v>
+      </c>
+      <c r="N495" s="3">
+        <v>2</v>
+      </c>
+      <c r="O495" s="4">
+        <v>100</v>
+      </c>
+      <c r="P495" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q495" s="2">
+        <v>4</v>
+      </c>
+      <c r="R495" s="2">
+        <v>10</v>
+      </c>
+      <c r="S495" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T495" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U495" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V495" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W495" s="2">
+        <v>0</v>
+      </c>
+      <c r="X495" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y495" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI495" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK495" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL495" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM495" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN495" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO495" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP495" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ495" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR495" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS495" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT495" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU495" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV495" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <f t="shared" si="5"/>
+        <v>494</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C496" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E496" s="36">
+        <v>36</v>
+      </c>
+      <c r="F496" s="3">
+        <v>1</v>
+      </c>
+      <c r="G496" s="3">
+        <v>0</v>
+      </c>
+      <c r="H496" s="3">
+        <v>5</v>
+      </c>
+      <c r="I496" s="3">
+        <v>0</v>
+      </c>
+      <c r="J496" s="37">
+        <v>2830000000000</v>
+      </c>
+      <c r="K496" s="3">
+        <v>0</v>
+      </c>
+      <c r="L496" s="3">
+        <v>500</v>
+      </c>
+      <c r="M496" s="3">
+        <v>1</v>
+      </c>
+      <c r="N496" s="3">
+        <v>2</v>
+      </c>
+      <c r="O496" s="4">
+        <v>100</v>
+      </c>
+      <c r="P496" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q496" s="2">
+        <v>4</v>
+      </c>
+      <c r="R496" s="2">
+        <v>10</v>
+      </c>
+      <c r="S496" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T496" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U496" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V496" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W496" s="2">
+        <v>0</v>
+      </c>
+      <c r="X496" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y496" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI496" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK496" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL496" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM496" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN496" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO496" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP496" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ496" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR496" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS496" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT496" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU496" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV496" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <f t="shared" si="5"/>
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C497" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E497" s="36">
+        <v>36</v>
+      </c>
+      <c r="F497" s="3">
+        <v>1</v>
+      </c>
+      <c r="G497" s="3">
+        <v>0</v>
+      </c>
+      <c r="H497" s="3">
+        <v>5</v>
+      </c>
+      <c r="I497" s="3">
+        <v>0</v>
+      </c>
+      <c r="J497" s="37">
+        <v>2840000000000</v>
+      </c>
+      <c r="K497" s="3">
+        <v>0</v>
+      </c>
+      <c r="L497" s="3">
+        <v>500</v>
+      </c>
+      <c r="M497" s="3">
+        <v>1</v>
+      </c>
+      <c r="N497" s="3">
+        <v>2</v>
+      </c>
+      <c r="O497" s="4">
+        <v>100</v>
+      </c>
+      <c r="P497" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q497" s="2">
+        <v>4</v>
+      </c>
+      <c r="R497" s="2">
+        <v>10</v>
+      </c>
+      <c r="S497" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T497" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U497" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V497" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W497" s="2">
+        <v>0</v>
+      </c>
+      <c r="X497" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y497" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI497" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ497" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK497" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL497" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM497" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN497" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO497" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP497" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ497" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR497" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS497" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT497" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU497" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV497" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <f t="shared" ref="A498:A532" si="6">ROW()-2</f>
+        <v>496</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C498" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="E498" s="36">
+        <v>36</v>
+      </c>
+      <c r="F498" s="3">
+        <v>1</v>
+      </c>
+      <c r="G498" s="3">
+        <v>0</v>
+      </c>
+      <c r="H498" s="3">
+        <v>5</v>
+      </c>
+      <c r="I498" s="3">
+        <v>0</v>
+      </c>
+      <c r="J498" s="37">
+        <v>2850000000000</v>
+      </c>
+      <c r="K498" s="3">
+        <v>0</v>
+      </c>
+      <c r="L498" s="3">
+        <v>500</v>
+      </c>
+      <c r="M498" s="3">
+        <v>1</v>
+      </c>
+      <c r="N498" s="3">
+        <v>2</v>
+      </c>
+      <c r="O498" s="4">
+        <v>100</v>
+      </c>
+      <c r="P498" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q498" s="2">
+        <v>4</v>
+      </c>
+      <c r="R498" s="2">
+        <v>10</v>
+      </c>
+      <c r="S498" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T498" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U498" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V498" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W498" s="2">
+        <v>0</v>
+      </c>
+      <c r="X498" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y498" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI498" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ498" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK498" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL498" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM498" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN498" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO498" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP498" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ498" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR498" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS498" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT498" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU498" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV498" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <f t="shared" si="6"/>
+        <v>497</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C499" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="E499" s="36">
+        <v>36</v>
+      </c>
+      <c r="F499" s="3">
+        <v>1</v>
+      </c>
+      <c r="G499" s="3">
+        <v>0</v>
+      </c>
+      <c r="H499" s="3">
+        <v>5</v>
+      </c>
+      <c r="I499" s="3">
+        <v>0</v>
+      </c>
+      <c r="J499" s="37">
+        <v>2860000000000</v>
+      </c>
+      <c r="K499" s="3">
+        <v>0</v>
+      </c>
+      <c r="L499" s="3">
+        <v>500</v>
+      </c>
+      <c r="M499" s="3">
+        <v>1</v>
+      </c>
+      <c r="N499" s="3">
+        <v>2</v>
+      </c>
+      <c r="O499" s="4">
+        <v>100</v>
+      </c>
+      <c r="P499" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q499" s="2">
+        <v>4</v>
+      </c>
+      <c r="R499" s="2">
+        <v>10</v>
+      </c>
+      <c r="S499" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T499" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U499" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V499" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W499" s="2">
+        <v>0</v>
+      </c>
+      <c r="X499" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y499" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI499" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ499" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK499" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL499" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM499" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN499" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO499" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP499" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ499" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR499" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS499" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT499" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU499" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV499" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <f t="shared" si="6"/>
+        <v>498</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C500" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E500" s="36">
+        <v>36</v>
+      </c>
+      <c r="F500" s="3">
+        <v>1</v>
+      </c>
+      <c r="G500" s="3">
+        <v>0</v>
+      </c>
+      <c r="H500" s="3">
+        <v>5</v>
+      </c>
+      <c r="I500" s="3">
+        <v>0</v>
+      </c>
+      <c r="J500" s="37">
+        <v>2870000000000</v>
+      </c>
+      <c r="K500" s="3">
+        <v>0</v>
+      </c>
+      <c r="L500" s="3">
+        <v>500</v>
+      </c>
+      <c r="M500" s="3">
+        <v>1</v>
+      </c>
+      <c r="N500" s="3">
+        <v>2</v>
+      </c>
+      <c r="O500" s="4">
+        <v>100</v>
+      </c>
+      <c r="P500" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q500" s="2">
+        <v>4</v>
+      </c>
+      <c r="R500" s="2">
+        <v>10</v>
+      </c>
+      <c r="S500" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T500" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U500" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V500" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W500" s="2">
+        <v>0</v>
+      </c>
+      <c r="X500" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y500" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI500" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ500" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK500" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL500" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM500" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN500" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO500" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP500" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ500" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR500" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS500" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT500" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU500" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV500" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <f t="shared" si="6"/>
+        <v>499</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C501" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E501" s="36">
+        <v>36</v>
+      </c>
+      <c r="F501" s="3">
+        <v>1</v>
+      </c>
+      <c r="G501" s="3">
+        <v>0</v>
+      </c>
+      <c r="H501" s="3">
+        <v>5</v>
+      </c>
+      <c r="I501" s="3">
+        <v>0</v>
+      </c>
+      <c r="J501" s="37">
+        <v>2880000000000</v>
+      </c>
+      <c r="K501" s="3">
+        <v>0</v>
+      </c>
+      <c r="L501" s="3">
+        <v>500</v>
+      </c>
+      <c r="M501" s="3">
+        <v>1</v>
+      </c>
+      <c r="N501" s="3">
+        <v>2</v>
+      </c>
+      <c r="O501" s="4">
+        <v>100</v>
+      </c>
+      <c r="P501" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q501" s="2">
+        <v>4</v>
+      </c>
+      <c r="R501" s="2">
+        <v>10</v>
+      </c>
+      <c r="S501" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T501" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U501" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V501" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W501" s="2">
+        <v>0</v>
+      </c>
+      <c r="X501" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y501" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI501" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ501" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK501" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL501" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM501" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN501" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO501" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP501" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ501" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR501" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS501" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT501" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU501" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV501" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C502" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E502" s="36">
+        <v>36</v>
+      </c>
+      <c r="F502" s="3">
+        <v>1</v>
+      </c>
+      <c r="G502" s="3">
+        <v>0</v>
+      </c>
+      <c r="H502" s="3">
+        <v>5</v>
+      </c>
+      <c r="I502" s="3">
+        <v>0</v>
+      </c>
+      <c r="J502" s="37">
+        <v>2890000000000</v>
+      </c>
+      <c r="K502" s="3">
+        <v>0</v>
+      </c>
+      <c r="L502" s="3">
+        <v>500</v>
+      </c>
+      <c r="M502" s="3">
+        <v>1</v>
+      </c>
+      <c r="N502" s="3">
+        <v>2</v>
+      </c>
+      <c r="O502" s="4">
+        <v>100</v>
+      </c>
+      <c r="P502" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q502" s="2">
+        <v>4</v>
+      </c>
+      <c r="R502" s="2">
+        <v>10</v>
+      </c>
+      <c r="S502" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T502" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U502" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V502" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W502" s="2">
+        <v>0</v>
+      </c>
+      <c r="X502" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y502" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI502" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ502" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK502" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL502" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM502" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN502" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO502" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP502" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ502" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR502" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS502" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT502" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU502" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV502" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <f t="shared" si="6"/>
+        <v>501</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C503" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="E503" s="36">
+        <v>36</v>
+      </c>
+      <c r="F503" s="3">
+        <v>1</v>
+      </c>
+      <c r="G503" s="3">
+        <v>0</v>
+      </c>
+      <c r="H503" s="3">
+        <v>5</v>
+      </c>
+      <c r="I503" s="3">
+        <v>0</v>
+      </c>
+      <c r="J503" s="37">
+        <v>2900000000000</v>
+      </c>
+      <c r="K503" s="3">
+        <v>0</v>
+      </c>
+      <c r="L503" s="3">
+        <v>500</v>
+      </c>
+      <c r="M503" s="3">
+        <v>1</v>
+      </c>
+      <c r="N503" s="3">
+        <v>2</v>
+      </c>
+      <c r="O503" s="4">
+        <v>100</v>
+      </c>
+      <c r="P503" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q503" s="2">
+        <v>4</v>
+      </c>
+      <c r="R503" s="2">
+        <v>10</v>
+      </c>
+      <c r="S503" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T503" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U503" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V503" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W503" s="2">
+        <v>0</v>
+      </c>
+      <c r="X503" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y503" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI503" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ503" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK503" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL503" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM503" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN503" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO503" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP503" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ503" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR503" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS503" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT503" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU503" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV503" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <f t="shared" si="6"/>
+        <v>502</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C504" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="E504" s="36">
+        <v>36</v>
+      </c>
+      <c r="F504" s="3">
+        <v>1</v>
+      </c>
+      <c r="G504" s="3">
+        <v>0</v>
+      </c>
+      <c r="H504" s="3">
+        <v>5</v>
+      </c>
+      <c r="I504" s="3">
+        <v>0</v>
+      </c>
+      <c r="J504" s="37">
+        <v>2910000000000</v>
+      </c>
+      <c r="K504" s="3">
+        <v>0</v>
+      </c>
+      <c r="L504" s="3">
+        <v>500</v>
+      </c>
+      <c r="M504" s="3">
+        <v>1</v>
+      </c>
+      <c r="N504" s="3">
+        <v>2</v>
+      </c>
+      <c r="O504" s="4">
+        <v>100</v>
+      </c>
+      <c r="P504" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q504" s="2">
+        <v>4</v>
+      </c>
+      <c r="R504" s="2">
+        <v>10</v>
+      </c>
+      <c r="S504" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T504" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U504" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V504" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W504" s="2">
+        <v>0</v>
+      </c>
+      <c r="X504" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y504" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI504" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ504" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK504" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL504" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM504" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN504" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO504" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP504" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ504" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR504" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS504" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT504" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU504" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV504" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <f t="shared" si="6"/>
+        <v>503</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C505" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E505" s="36">
+        <v>36</v>
+      </c>
+      <c r="F505" s="3">
+        <v>1</v>
+      </c>
+      <c r="G505" s="3">
+        <v>0</v>
+      </c>
+      <c r="H505" s="3">
+        <v>5</v>
+      </c>
+      <c r="I505" s="3">
+        <v>0</v>
+      </c>
+      <c r="J505" s="37">
+        <v>2920000000000</v>
+      </c>
+      <c r="K505" s="3">
+        <v>0</v>
+      </c>
+      <c r="L505" s="3">
+        <v>500</v>
+      </c>
+      <c r="M505" s="3">
+        <v>1</v>
+      </c>
+      <c r="N505" s="3">
+        <v>2</v>
+      </c>
+      <c r="O505" s="4">
+        <v>100</v>
+      </c>
+      <c r="P505" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q505" s="2">
+        <v>4</v>
+      </c>
+      <c r="R505" s="2">
+        <v>10</v>
+      </c>
+      <c r="S505" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T505" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U505" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V505" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W505" s="2">
+        <v>0</v>
+      </c>
+      <c r="X505" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y505" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI505" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ505" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK505" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL505" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM505" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN505" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO505" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP505" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ505" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR505" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS505" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT505" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU505" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV505" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <f t="shared" si="6"/>
+        <v>504</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C506" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E506" s="36">
+        <v>36</v>
+      </c>
+      <c r="F506" s="3">
+        <v>1</v>
+      </c>
+      <c r="G506" s="3">
+        <v>0</v>
+      </c>
+      <c r="H506" s="3">
+        <v>5</v>
+      </c>
+      <c r="I506" s="3">
+        <v>0</v>
+      </c>
+      <c r="J506" s="37">
+        <v>2930000000000</v>
+      </c>
+      <c r="K506" s="3">
+        <v>0</v>
+      </c>
+      <c r="L506" s="3">
+        <v>500</v>
+      </c>
+      <c r="M506" s="3">
+        <v>1</v>
+      </c>
+      <c r="N506" s="3">
+        <v>2</v>
+      </c>
+      <c r="O506" s="4">
+        <v>100</v>
+      </c>
+      <c r="P506" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q506" s="2">
+        <v>4</v>
+      </c>
+      <c r="R506" s="2">
+        <v>10</v>
+      </c>
+      <c r="S506" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T506" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U506" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V506" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W506" s="2">
+        <v>0</v>
+      </c>
+      <c r="X506" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y506" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI506" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ506" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK506" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL506" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM506" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN506" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO506" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP506" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ506" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR506" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS506" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT506" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU506" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV506" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <f t="shared" si="6"/>
+        <v>505</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C507" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="E507" s="36">
+        <v>36</v>
+      </c>
+      <c r="F507" s="3">
+        <v>1</v>
+      </c>
+      <c r="G507" s="3">
+        <v>0</v>
+      </c>
+      <c r="H507" s="3">
+        <v>5</v>
+      </c>
+      <c r="I507" s="3">
+        <v>0</v>
+      </c>
+      <c r="J507" s="37">
+        <v>2940000000000</v>
+      </c>
+      <c r="K507" s="3">
+        <v>0</v>
+      </c>
+      <c r="L507" s="3">
+        <v>500</v>
+      </c>
+      <c r="M507" s="3">
+        <v>1</v>
+      </c>
+      <c r="N507" s="3">
+        <v>2</v>
+      </c>
+      <c r="O507" s="4">
+        <v>100</v>
+      </c>
+      <c r="P507" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q507" s="2">
+        <v>4</v>
+      </c>
+      <c r="R507" s="2">
+        <v>10</v>
+      </c>
+      <c r="S507" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T507" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U507" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V507" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W507" s="2">
+        <v>0</v>
+      </c>
+      <c r="X507" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y507" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI507" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ507" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK507" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL507" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM507" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN507" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO507" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP507" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ507" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR507" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS507" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT507" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU507" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV507" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <f t="shared" si="6"/>
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C508" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="E508" s="36">
+        <v>36</v>
+      </c>
+      <c r="F508" s="3">
+        <v>1</v>
+      </c>
+      <c r="G508" s="3">
+        <v>0</v>
+      </c>
+      <c r="H508" s="3">
+        <v>5</v>
+      </c>
+      <c r="I508" s="3">
+        <v>0</v>
+      </c>
+      <c r="J508" s="37">
+        <v>2950000000000</v>
+      </c>
+      <c r="K508" s="3">
+        <v>0</v>
+      </c>
+      <c r="L508" s="3">
+        <v>500</v>
+      </c>
+      <c r="M508" s="3">
+        <v>1</v>
+      </c>
+      <c r="N508" s="3">
+        <v>2</v>
+      </c>
+      <c r="O508" s="4">
+        <v>100</v>
+      </c>
+      <c r="P508" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q508" s="2">
+        <v>4</v>
+      </c>
+      <c r="R508" s="2">
+        <v>10</v>
+      </c>
+      <c r="S508" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T508" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U508" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V508" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W508" s="2">
+        <v>0</v>
+      </c>
+      <c r="X508" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y508" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI508" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ508" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK508" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL508" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM508" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN508" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO508" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP508" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ508" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR508" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS508" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT508" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU508" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV508" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <f t="shared" si="6"/>
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C509" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E509" s="36">
+        <v>36</v>
+      </c>
+      <c r="F509" s="3">
+        <v>1</v>
+      </c>
+      <c r="G509" s="3">
+        <v>0</v>
+      </c>
+      <c r="H509" s="3">
+        <v>5</v>
+      </c>
+      <c r="I509" s="3">
+        <v>0</v>
+      </c>
+      <c r="J509" s="37">
+        <v>2960000000000</v>
+      </c>
+      <c r="K509" s="3">
+        <v>0</v>
+      </c>
+      <c r="L509" s="3">
+        <v>500</v>
+      </c>
+      <c r="M509" s="3">
+        <v>1</v>
+      </c>
+      <c r="N509" s="3">
+        <v>2</v>
+      </c>
+      <c r="O509" s="4">
+        <v>100</v>
+      </c>
+      <c r="P509" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q509" s="2">
+        <v>4</v>
+      </c>
+      <c r="R509" s="2">
+        <v>10</v>
+      </c>
+      <c r="S509" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T509" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U509" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V509" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W509" s="2">
+        <v>0</v>
+      </c>
+      <c r="X509" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y509" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI509" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ509" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK509" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL509" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM509" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN509" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO509" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP509" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ509" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR509" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS509" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT509" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU509" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV509" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <f t="shared" si="6"/>
+        <v>508</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C510" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="E510" s="36">
+        <v>36</v>
+      </c>
+      <c r="F510" s="3">
+        <v>1</v>
+      </c>
+      <c r="G510" s="3">
+        <v>0</v>
+      </c>
+      <c r="H510" s="3">
+        <v>5</v>
+      </c>
+      <c r="I510" s="3">
+        <v>0</v>
+      </c>
+      <c r="J510" s="37">
+        <v>2970000000000</v>
+      </c>
+      <c r="K510" s="3">
+        <v>0</v>
+      </c>
+      <c r="L510" s="3">
+        <v>500</v>
+      </c>
+      <c r="M510" s="3">
+        <v>1</v>
+      </c>
+      <c r="N510" s="3">
+        <v>2</v>
+      </c>
+      <c r="O510" s="4">
+        <v>100</v>
+      </c>
+      <c r="P510" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q510" s="2">
+        <v>4</v>
+      </c>
+      <c r="R510" s="2">
+        <v>10</v>
+      </c>
+      <c r="S510" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T510" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U510" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V510" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W510" s="2">
+        <v>0</v>
+      </c>
+      <c r="X510" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y510" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI510" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ510" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK510" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL510" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM510" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN510" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO510" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP510" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ510" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR510" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS510" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT510" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU510" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV510" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <f t="shared" si="6"/>
+        <v>509</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C511" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E511" s="36">
+        <v>36</v>
+      </c>
+      <c r="F511" s="3">
+        <v>1</v>
+      </c>
+      <c r="G511" s="3">
+        <v>0</v>
+      </c>
+      <c r="H511" s="3">
+        <v>5</v>
+      </c>
+      <c r="I511" s="3">
+        <v>0</v>
+      </c>
+      <c r="J511" s="37">
+        <v>2980000000000</v>
+      </c>
+      <c r="K511" s="3">
+        <v>0</v>
+      </c>
+      <c r="L511" s="3">
+        <v>500</v>
+      </c>
+      <c r="M511" s="3">
+        <v>1</v>
+      </c>
+      <c r="N511" s="3">
+        <v>2</v>
+      </c>
+      <c r="O511" s="4">
+        <v>100</v>
+      </c>
+      <c r="P511" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q511" s="2">
+        <v>4</v>
+      </c>
+      <c r="R511" s="2">
+        <v>10</v>
+      </c>
+      <c r="S511" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T511" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U511" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V511" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W511" s="2">
+        <v>0</v>
+      </c>
+      <c r="X511" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y511" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI511" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ511" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK511" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL511" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM511" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN511" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO511" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP511" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ511" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR511" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS511" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT511" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU511" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV511" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C512" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="E512" s="36">
+        <v>36</v>
+      </c>
+      <c r="F512" s="3">
+        <v>1</v>
+      </c>
+      <c r="G512" s="3">
+        <v>0</v>
+      </c>
+      <c r="H512" s="3">
+        <v>5</v>
+      </c>
+      <c r="I512" s="3">
+        <v>0</v>
+      </c>
+      <c r="J512" s="37">
+        <v>2990000000000</v>
+      </c>
+      <c r="K512" s="3">
+        <v>0</v>
+      </c>
+      <c r="L512" s="3">
+        <v>500</v>
+      </c>
+      <c r="M512" s="3">
+        <v>1</v>
+      </c>
+      <c r="N512" s="3">
+        <v>2</v>
+      </c>
+      <c r="O512" s="4">
+        <v>100</v>
+      </c>
+      <c r="P512" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q512" s="2">
+        <v>4</v>
+      </c>
+      <c r="R512" s="2">
+        <v>10</v>
+      </c>
+      <c r="S512" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T512" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U512" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V512" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W512" s="2">
+        <v>0</v>
+      </c>
+      <c r="X512" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y512" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI512" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ512" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK512" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL512" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM512" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN512" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO512" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP512" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ512" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR512" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS512" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT512" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU512" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV512" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <f t="shared" si="6"/>
+        <v>511</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C513" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="E513" s="36">
+        <v>36</v>
+      </c>
+      <c r="F513" s="3">
+        <v>1</v>
+      </c>
+      <c r="G513" s="3">
+        <v>0</v>
+      </c>
+      <c r="H513" s="3">
+        <v>5</v>
+      </c>
+      <c r="I513" s="3">
+        <v>0</v>
+      </c>
+      <c r="J513" s="37">
+        <v>3000000000000</v>
+      </c>
+      <c r="K513" s="3">
+        <v>0</v>
+      </c>
+      <c r="L513" s="3">
+        <v>500</v>
+      </c>
+      <c r="M513" s="3">
+        <v>1</v>
+      </c>
+      <c r="N513" s="3">
+        <v>2</v>
+      </c>
+      <c r="O513" s="4">
+        <v>100</v>
+      </c>
+      <c r="P513" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q513" s="2">
+        <v>4</v>
+      </c>
+      <c r="R513" s="2">
+        <v>10</v>
+      </c>
+      <c r="S513" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T513" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U513" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V513" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W513" s="2">
+        <v>0</v>
+      </c>
+      <c r="X513" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y513" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI513" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ513" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK513" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL513" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM513" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN513" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO513" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP513" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ513" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR513" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS513" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT513" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU513" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV513" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <f t="shared" si="6"/>
+        <v>512</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C514" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="E514" s="36">
+        <v>36</v>
+      </c>
+      <c r="F514" s="3">
+        <v>1</v>
+      </c>
+      <c r="G514" s="3">
+        <v>0</v>
+      </c>
+      <c r="H514" s="3">
+        <v>5</v>
+      </c>
+      <c r="I514" s="3">
+        <v>0</v>
+      </c>
+      <c r="J514" s="37">
+        <v>3010000000000</v>
+      </c>
+      <c r="K514" s="3">
+        <v>0</v>
+      </c>
+      <c r="L514" s="3">
+        <v>500</v>
+      </c>
+      <c r="M514" s="3">
+        <v>1</v>
+      </c>
+      <c r="N514" s="3">
+        <v>2</v>
+      </c>
+      <c r="O514" s="4">
+        <v>100</v>
+      </c>
+      <c r="P514" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q514" s="2">
+        <v>4</v>
+      </c>
+      <c r="R514" s="2">
+        <v>10</v>
+      </c>
+      <c r="S514" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T514" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U514" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V514" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W514" s="2">
+        <v>0</v>
+      </c>
+      <c r="X514" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y514" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI514" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ514" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK514" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL514" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM514" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN514" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO514" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP514" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ514" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR514" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS514" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT514" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU514" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV514" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <f t="shared" si="6"/>
+        <v>513</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C515" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="E515" s="36">
+        <v>36</v>
+      </c>
+      <c r="F515" s="3">
+        <v>1</v>
+      </c>
+      <c r="G515" s="3">
+        <v>0</v>
+      </c>
+      <c r="H515" s="3">
+        <v>5</v>
+      </c>
+      <c r="I515" s="3">
+        <v>0</v>
+      </c>
+      <c r="J515" s="37">
+        <v>3020000000000</v>
+      </c>
+      <c r="K515" s="3">
+        <v>0</v>
+      </c>
+      <c r="L515" s="3">
+        <v>500</v>
+      </c>
+      <c r="M515" s="3">
+        <v>1</v>
+      </c>
+      <c r="N515" s="3">
+        <v>2</v>
+      </c>
+      <c r="O515" s="4">
+        <v>100</v>
+      </c>
+      <c r="P515" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q515" s="2">
+        <v>4</v>
+      </c>
+      <c r="R515" s="2">
+        <v>10</v>
+      </c>
+      <c r="S515" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T515" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U515" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V515" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W515" s="2">
+        <v>0</v>
+      </c>
+      <c r="X515" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y515" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI515" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ515" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK515" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL515" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM515" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN515" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO515" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP515" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ515" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR515" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS515" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT515" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU515" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV515" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <f t="shared" si="6"/>
+        <v>514</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C516" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E516" s="36">
+        <v>36</v>
+      </c>
+      <c r="F516" s="3">
+        <v>1</v>
+      </c>
+      <c r="G516" s="3">
+        <v>0</v>
+      </c>
+      <c r="H516" s="3">
+        <v>5</v>
+      </c>
+      <c r="I516" s="3">
+        <v>0</v>
+      </c>
+      <c r="J516" s="37">
+        <v>3030000000000</v>
+      </c>
+      <c r="K516" s="3">
+        <v>0</v>
+      </c>
+      <c r="L516" s="3">
+        <v>500</v>
+      </c>
+      <c r="M516" s="3">
+        <v>1</v>
+      </c>
+      <c r="N516" s="3">
+        <v>2</v>
+      </c>
+      <c r="O516" s="4">
+        <v>100</v>
+      </c>
+      <c r="P516" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q516" s="2">
+        <v>4</v>
+      </c>
+      <c r="R516" s="2">
+        <v>10</v>
+      </c>
+      <c r="S516" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T516" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U516" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V516" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W516" s="2">
+        <v>0</v>
+      </c>
+      <c r="X516" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y516" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI516" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ516" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK516" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL516" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM516" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN516" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO516" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP516" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ516" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR516" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS516" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT516" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU516" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV516" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <f t="shared" si="6"/>
+        <v>515</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C517" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="E517" s="36">
+        <v>36</v>
+      </c>
+      <c r="F517" s="3">
+        <v>1</v>
+      </c>
+      <c r="G517" s="3">
+        <v>0</v>
+      </c>
+      <c r="H517" s="3">
+        <v>5</v>
+      </c>
+      <c r="I517" s="3">
+        <v>0</v>
+      </c>
+      <c r="J517" s="37">
+        <v>3040000000000</v>
+      </c>
+      <c r="K517" s="3">
+        <v>0</v>
+      </c>
+      <c r="L517" s="3">
+        <v>500</v>
+      </c>
+      <c r="M517" s="3">
+        <v>1</v>
+      </c>
+      <c r="N517" s="3">
+        <v>2</v>
+      </c>
+      <c r="O517" s="4">
+        <v>100</v>
+      </c>
+      <c r="P517" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q517" s="2">
+        <v>4</v>
+      </c>
+      <c r="R517" s="2">
+        <v>10</v>
+      </c>
+      <c r="S517" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T517" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U517" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V517" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W517" s="2">
+        <v>0</v>
+      </c>
+      <c r="X517" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y517" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI517" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ517" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK517" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL517" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM517" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN517" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO517" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP517" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ517" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR517" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS517" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT517" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU517" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV517" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <f t="shared" si="6"/>
+        <v>516</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C518" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="E518" s="36">
+        <v>36</v>
+      </c>
+      <c r="F518" s="3">
+        <v>1</v>
+      </c>
+      <c r="G518" s="3">
+        <v>0</v>
+      </c>
+      <c r="H518" s="3">
+        <v>5</v>
+      </c>
+      <c r="I518" s="3">
+        <v>0</v>
+      </c>
+      <c r="J518" s="37">
+        <v>3050000000000</v>
+      </c>
+      <c r="K518" s="3">
+        <v>0</v>
+      </c>
+      <c r="L518" s="3">
+        <v>500</v>
+      </c>
+      <c r="M518" s="3">
+        <v>1</v>
+      </c>
+      <c r="N518" s="3">
+        <v>2</v>
+      </c>
+      <c r="O518" s="4">
+        <v>100</v>
+      </c>
+      <c r="P518" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q518" s="2">
+        <v>4</v>
+      </c>
+      <c r="R518" s="2">
+        <v>10</v>
+      </c>
+      <c r="S518" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T518" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U518" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V518" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W518" s="2">
+        <v>0</v>
+      </c>
+      <c r="X518" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y518" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI518" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ518" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK518" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL518" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM518" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN518" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO518" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP518" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ518" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR518" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS518" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT518" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU518" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV518" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <f t="shared" si="6"/>
+        <v>517</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C519" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E519" s="36">
+        <v>36</v>
+      </c>
+      <c r="F519" s="3">
+        <v>1</v>
+      </c>
+      <c r="G519" s="3">
+        <v>0</v>
+      </c>
+      <c r="H519" s="3">
+        <v>5</v>
+      </c>
+      <c r="I519" s="3">
+        <v>0</v>
+      </c>
+      <c r="J519" s="37">
+        <v>3060000000000</v>
+      </c>
+      <c r="K519" s="3">
+        <v>0</v>
+      </c>
+      <c r="L519" s="3">
+        <v>500</v>
+      </c>
+      <c r="M519" s="3">
+        <v>1</v>
+      </c>
+      <c r="N519" s="3">
+        <v>2</v>
+      </c>
+      <c r="O519" s="4">
+        <v>100</v>
+      </c>
+      <c r="P519" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q519" s="2">
+        <v>4</v>
+      </c>
+      <c r="R519" s="2">
+        <v>10</v>
+      </c>
+      <c r="S519" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T519" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U519" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V519" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W519" s="2">
+        <v>0</v>
+      </c>
+      <c r="X519" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y519" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI519" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ519" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK519" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL519" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM519" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN519" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO519" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP519" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ519" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR519" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS519" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT519" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU519" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV519" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <f t="shared" si="6"/>
+        <v>518</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C520" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="E520" s="36">
+        <v>36</v>
+      </c>
+      <c r="F520" s="3">
+        <v>1</v>
+      </c>
+      <c r="G520" s="3">
+        <v>0</v>
+      </c>
+      <c r="H520" s="3">
+        <v>5</v>
+      </c>
+      <c r="I520" s="3">
+        <v>0</v>
+      </c>
+      <c r="J520" s="37">
+        <v>3070000000000</v>
+      </c>
+      <c r="K520" s="3">
+        <v>0</v>
+      </c>
+      <c r="L520" s="3">
+        <v>500</v>
+      </c>
+      <c r="M520" s="3">
+        <v>1</v>
+      </c>
+      <c r="N520" s="3">
+        <v>2</v>
+      </c>
+      <c r="O520" s="4">
+        <v>100</v>
+      </c>
+      <c r="P520" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q520" s="2">
+        <v>4</v>
+      </c>
+      <c r="R520" s="2">
+        <v>10</v>
+      </c>
+      <c r="S520" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T520" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U520" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V520" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W520" s="2">
+        <v>0</v>
+      </c>
+      <c r="X520" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y520" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI520" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ520" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK520" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL520" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM520" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN520" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO520" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP520" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ520" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR520" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS520" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT520" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU520" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV520" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <f t="shared" si="6"/>
+        <v>519</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C521" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="E521" s="36">
+        <v>36</v>
+      </c>
+      <c r="F521" s="3">
+        <v>1</v>
+      </c>
+      <c r="G521" s="3">
+        <v>0</v>
+      </c>
+      <c r="H521" s="3">
+        <v>5</v>
+      </c>
+      <c r="I521" s="3">
+        <v>0</v>
+      </c>
+      <c r="J521" s="37">
+        <v>3080000000000</v>
+      </c>
+      <c r="K521" s="3">
+        <v>0</v>
+      </c>
+      <c r="L521" s="3">
+        <v>500</v>
+      </c>
+      <c r="M521" s="3">
+        <v>1</v>
+      </c>
+      <c r="N521" s="3">
+        <v>2</v>
+      </c>
+      <c r="O521" s="4">
+        <v>100</v>
+      </c>
+      <c r="P521" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q521" s="2">
+        <v>4</v>
+      </c>
+      <c r="R521" s="2">
+        <v>10</v>
+      </c>
+      <c r="S521" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T521" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U521" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V521" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W521" s="2">
+        <v>0</v>
+      </c>
+      <c r="X521" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y521" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI521" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ521" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK521" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL521" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM521" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN521" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO521" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP521" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ521" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR521" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS521" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT521" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU521" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV521" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C522" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="E522" s="36">
+        <v>36</v>
+      </c>
+      <c r="F522" s="3">
+        <v>1</v>
+      </c>
+      <c r="G522" s="3">
+        <v>0</v>
+      </c>
+      <c r="H522" s="3">
+        <v>5</v>
+      </c>
+      <c r="I522" s="3">
+        <v>0</v>
+      </c>
+      <c r="J522" s="37">
+        <v>3090000000000</v>
+      </c>
+      <c r="K522" s="3">
+        <v>0</v>
+      </c>
+      <c r="L522" s="3">
+        <v>500</v>
+      </c>
+      <c r="M522" s="3">
+        <v>1</v>
+      </c>
+      <c r="N522" s="3">
+        <v>2</v>
+      </c>
+      <c r="O522" s="4">
+        <v>100</v>
+      </c>
+      <c r="P522" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q522" s="2">
+        <v>4</v>
+      </c>
+      <c r="R522" s="2">
+        <v>10</v>
+      </c>
+      <c r="S522" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T522" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U522" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V522" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W522" s="2">
+        <v>0</v>
+      </c>
+      <c r="X522" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y522" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI522" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ522" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK522" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL522" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM522" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN522" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO522" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP522" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ522" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR522" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS522" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT522" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU522" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV522" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <f t="shared" si="6"/>
+        <v>521</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C523" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="E523" s="36">
+        <v>36</v>
+      </c>
+      <c r="F523" s="3">
+        <v>1</v>
+      </c>
+      <c r="G523" s="3">
+        <v>0</v>
+      </c>
+      <c r="H523" s="3">
+        <v>5</v>
+      </c>
+      <c r="I523" s="3">
+        <v>0</v>
+      </c>
+      <c r="J523" s="37">
+        <v>3100000000000</v>
+      </c>
+      <c r="K523" s="3">
+        <v>0</v>
+      </c>
+      <c r="L523" s="3">
+        <v>500</v>
+      </c>
+      <c r="M523" s="3">
+        <v>1</v>
+      </c>
+      <c r="N523" s="3">
+        <v>2</v>
+      </c>
+      <c r="O523" s="4">
+        <v>100</v>
+      </c>
+      <c r="P523" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q523" s="2">
+        <v>4</v>
+      </c>
+      <c r="R523" s="2">
+        <v>10</v>
+      </c>
+      <c r="S523" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T523" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U523" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V523" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W523" s="2">
+        <v>0</v>
+      </c>
+      <c r="X523" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y523" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI523" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ523" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK523" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL523" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM523" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN523" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO523" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP523" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ523" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR523" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS523" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT523" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU523" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV523" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <f t="shared" si="6"/>
+        <v>522</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C524" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="E524" s="36">
+        <v>36</v>
+      </c>
+      <c r="F524" s="3">
+        <v>1</v>
+      </c>
+      <c r="G524" s="3">
+        <v>0</v>
+      </c>
+      <c r="H524" s="3">
+        <v>5</v>
+      </c>
+      <c r="I524" s="3">
+        <v>0</v>
+      </c>
+      <c r="J524" s="37">
+        <v>3110000000000</v>
+      </c>
+      <c r="K524" s="3">
+        <v>0</v>
+      </c>
+      <c r="L524" s="3">
+        <v>500</v>
+      </c>
+      <c r="M524" s="3">
+        <v>1</v>
+      </c>
+      <c r="N524" s="3">
+        <v>2</v>
+      </c>
+      <c r="O524" s="4">
+        <v>100</v>
+      </c>
+      <c r="P524" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q524" s="2">
+        <v>4</v>
+      </c>
+      <c r="R524" s="2">
+        <v>10</v>
+      </c>
+      <c r="S524" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T524" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U524" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V524" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W524" s="2">
+        <v>0</v>
+      </c>
+      <c r="X524" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y524" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI524" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ524" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK524" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL524" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM524" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN524" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO524" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP524" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ524" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR524" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS524" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT524" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU524" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV524" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <f t="shared" si="6"/>
+        <v>523</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C525" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E525" s="36">
+        <v>36</v>
+      </c>
+      <c r="F525" s="3">
+        <v>1</v>
+      </c>
+      <c r="G525" s="3">
+        <v>0</v>
+      </c>
+      <c r="H525" s="3">
+        <v>5</v>
+      </c>
+      <c r="I525" s="3">
+        <v>0</v>
+      </c>
+      <c r="J525" s="37">
+        <v>3120000000000</v>
+      </c>
+      <c r="K525" s="3">
+        <v>0</v>
+      </c>
+      <c r="L525" s="3">
+        <v>500</v>
+      </c>
+      <c r="M525" s="3">
+        <v>1</v>
+      </c>
+      <c r="N525" s="3">
+        <v>2</v>
+      </c>
+      <c r="O525" s="4">
+        <v>100</v>
+      </c>
+      <c r="P525" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q525" s="2">
+        <v>4</v>
+      </c>
+      <c r="R525" s="2">
+        <v>10</v>
+      </c>
+      <c r="S525" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T525" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U525" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V525" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W525" s="2">
+        <v>0</v>
+      </c>
+      <c r="X525" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y525" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI525" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ525" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK525" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL525" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM525" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN525" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO525" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP525" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ525" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR525" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS525" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT525" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU525" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV525" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <f t="shared" si="6"/>
+        <v>524</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C526" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="E526" s="36">
+        <v>36</v>
+      </c>
+      <c r="F526" s="3">
+        <v>1</v>
+      </c>
+      <c r="G526" s="3">
+        <v>0</v>
+      </c>
+      <c r="H526" s="3">
+        <v>5</v>
+      </c>
+      <c r="I526" s="3">
+        <v>0</v>
+      </c>
+      <c r="J526" s="37">
+        <v>3130000000000</v>
+      </c>
+      <c r="K526" s="3">
+        <v>0</v>
+      </c>
+      <c r="L526" s="3">
+        <v>500</v>
+      </c>
+      <c r="M526" s="3">
+        <v>1</v>
+      </c>
+      <c r="N526" s="3">
+        <v>2</v>
+      </c>
+      <c r="O526" s="4">
+        <v>100</v>
+      </c>
+      <c r="P526" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q526" s="2">
+        <v>4</v>
+      </c>
+      <c r="R526" s="2">
+        <v>10</v>
+      </c>
+      <c r="S526" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T526" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U526" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V526" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W526" s="2">
+        <v>0</v>
+      </c>
+      <c r="X526" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y526" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI526" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ526" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK526" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL526" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM526" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN526" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO526" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP526" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ526" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR526" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS526" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT526" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU526" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV526" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C527" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="E527" s="36">
+        <v>36</v>
+      </c>
+      <c r="F527" s="3">
+        <v>1</v>
+      </c>
+      <c r="G527" s="3">
+        <v>0</v>
+      </c>
+      <c r="H527" s="3">
+        <v>5</v>
+      </c>
+      <c r="I527" s="3">
+        <v>0</v>
+      </c>
+      <c r="J527" s="37">
+        <v>3140000000000</v>
+      </c>
+      <c r="K527" s="3">
+        <v>0</v>
+      </c>
+      <c r="L527" s="3">
+        <v>500</v>
+      </c>
+      <c r="M527" s="3">
+        <v>1</v>
+      </c>
+      <c r="N527" s="3">
+        <v>2</v>
+      </c>
+      <c r="O527" s="4">
+        <v>100</v>
+      </c>
+      <c r="P527" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q527" s="2">
+        <v>4</v>
+      </c>
+      <c r="R527" s="2">
+        <v>10</v>
+      </c>
+      <c r="S527" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T527" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U527" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V527" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W527" s="2">
+        <v>0</v>
+      </c>
+      <c r="X527" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y527" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI527" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ527" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK527" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL527" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM527" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN527" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO527" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP527" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ527" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR527" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS527" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT527" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU527" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV527" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <f t="shared" si="6"/>
+        <v>526</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C528" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="E528" s="36">
+        <v>36</v>
+      </c>
+      <c r="F528" s="3">
+        <v>1</v>
+      </c>
+      <c r="G528" s="3">
+        <v>0</v>
+      </c>
+      <c r="H528" s="3">
+        <v>5</v>
+      </c>
+      <c r="I528" s="3">
+        <v>0</v>
+      </c>
+      <c r="J528" s="37">
+        <v>3150000000000</v>
+      </c>
+      <c r="K528" s="3">
+        <v>0</v>
+      </c>
+      <c r="L528" s="3">
+        <v>500</v>
+      </c>
+      <c r="M528" s="3">
+        <v>1</v>
+      </c>
+      <c r="N528" s="3">
+        <v>2</v>
+      </c>
+      <c r="O528" s="4">
+        <v>100</v>
+      </c>
+      <c r="P528" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q528" s="2">
+        <v>4</v>
+      </c>
+      <c r="R528" s="2">
+        <v>10</v>
+      </c>
+      <c r="S528" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T528" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U528" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V528" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W528" s="2">
+        <v>0</v>
+      </c>
+      <c r="X528" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y528" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI528" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ528" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK528" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL528" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM528" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN528" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO528" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP528" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ528" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR528" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS528" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT528" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU528" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV528" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <f t="shared" si="6"/>
+        <v>527</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C529" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="E529" s="36">
+        <v>36</v>
+      </c>
+      <c r="F529" s="3">
+        <v>1</v>
+      </c>
+      <c r="G529" s="3">
+        <v>0</v>
+      </c>
+      <c r="H529" s="3">
+        <v>5</v>
+      </c>
+      <c r="I529" s="3">
+        <v>0</v>
+      </c>
+      <c r="J529" s="37">
+        <v>3160000000000</v>
+      </c>
+      <c r="K529" s="3">
+        <v>0</v>
+      </c>
+      <c r="L529" s="3">
+        <v>500</v>
+      </c>
+      <c r="M529" s="3">
+        <v>1</v>
+      </c>
+      <c r="N529" s="3">
+        <v>2</v>
+      </c>
+      <c r="O529" s="4">
+        <v>100</v>
+      </c>
+      <c r="P529" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q529" s="2">
+        <v>4</v>
+      </c>
+      <c r="R529" s="2">
+        <v>10</v>
+      </c>
+      <c r="S529" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T529" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U529" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V529" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W529" s="2">
+        <v>0</v>
+      </c>
+      <c r="X529" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y529" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI529" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ529" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK529" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL529" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM529" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN529" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO529" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP529" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ529" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR529" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS529" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT529" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU529" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV529" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <f t="shared" si="6"/>
+        <v>528</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C530" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E530" s="36">
+        <v>36</v>
+      </c>
+      <c r="F530" s="3">
+        <v>1</v>
+      </c>
+      <c r="G530" s="3">
+        <v>0</v>
+      </c>
+      <c r="H530" s="3">
+        <v>5</v>
+      </c>
+      <c r="I530" s="3">
+        <v>0</v>
+      </c>
+      <c r="J530" s="37">
+        <v>3170000000000</v>
+      </c>
+      <c r="K530" s="3">
+        <v>0</v>
+      </c>
+      <c r="L530" s="3">
+        <v>500</v>
+      </c>
+      <c r="M530" s="3">
+        <v>1</v>
+      </c>
+      <c r="N530" s="3">
+        <v>2</v>
+      </c>
+      <c r="O530" s="4">
+        <v>100</v>
+      </c>
+      <c r="P530" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q530" s="2">
+        <v>4</v>
+      </c>
+      <c r="R530" s="2">
+        <v>10</v>
+      </c>
+      <c r="S530" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T530" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U530" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V530" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W530" s="2">
+        <v>0</v>
+      </c>
+      <c r="X530" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y530" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI530" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ530" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK530" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL530" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM530" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN530" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO530" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP530" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ530" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR530" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS530" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT530" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU530" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV530" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <f t="shared" si="6"/>
+        <v>529</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C531" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="E531" s="36">
+        <v>36</v>
+      </c>
+      <c r="F531" s="3">
+        <v>1</v>
+      </c>
+      <c r="G531" s="3">
+        <v>0</v>
+      </c>
+      <c r="H531" s="3">
+        <v>5</v>
+      </c>
+      <c r="I531" s="3">
+        <v>0</v>
+      </c>
+      <c r="J531" s="37">
+        <v>3180000000000</v>
+      </c>
+      <c r="K531" s="3">
+        <v>0</v>
+      </c>
+      <c r="L531" s="3">
+        <v>500</v>
+      </c>
+      <c r="M531" s="3">
+        <v>1</v>
+      </c>
+      <c r="N531" s="3">
+        <v>2</v>
+      </c>
+      <c r="O531" s="4">
+        <v>100</v>
+      </c>
+      <c r="P531" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q531" s="2">
+        <v>4</v>
+      </c>
+      <c r="R531" s="2">
+        <v>10</v>
+      </c>
+      <c r="S531" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T531" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U531" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V531" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W531" s="2">
+        <v>0</v>
+      </c>
+      <c r="X531" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y531" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI531" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ531" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK531" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL531" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM531" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN531" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO531" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP531" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ531" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR531" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS531" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT531" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU531" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV531" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <f t="shared" si="6"/>
+        <v>530</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C532" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="E532" s="36">
+        <v>36</v>
+      </c>
+      <c r="F532" s="3">
+        <v>1</v>
+      </c>
+      <c r="G532" s="3">
+        <v>0</v>
+      </c>
+      <c r="H532" s="3">
+        <v>5</v>
+      </c>
+      <c r="I532" s="3">
+        <v>0</v>
+      </c>
+      <c r="J532" s="37">
+        <v>3190000000000</v>
+      </c>
+      <c r="K532" s="3">
+        <v>0</v>
+      </c>
+      <c r="L532" s="3">
+        <v>500</v>
+      </c>
+      <c r="M532" s="3">
+        <v>1</v>
+      </c>
+      <c r="N532" s="3">
+        <v>2</v>
+      </c>
+      <c r="O532" s="4">
+        <v>100</v>
+      </c>
+      <c r="P532" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q532" s="2">
+        <v>4</v>
+      </c>
+      <c r="R532" s="2">
+        <v>10</v>
+      </c>
+      <c r="S532" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="T532" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="U532" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V532" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="W532" s="2">
+        <v>0</v>
+      </c>
+      <c r="X532" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y532" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI532" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ532" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK532" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL532" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM532" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN532" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO532" s="2">
+        <v>2</v>
+      </c>
+      <c r="AP532" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="AQ532" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR532" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS532" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AT532" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU532" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV532" s="2">
         <v>0</v>
       </c>
     </row>
